--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -250,6 +250,72 @@
   </si>
   <si>
     <t>自分が後列にいる</t>
+  </si>
+  <si>
+    <t>前列の味方を狙う</t>
+  </si>
+  <si>
+    <t>前列の味方を優先</t>
+  </si>
+  <si>
+    <t>前列の味方</t>
+  </si>
+  <si>
+    <t>後列の味方を狙う</t>
+  </si>
+  <si>
+    <t>後列の味方を優先</t>
+  </si>
+  <si>
+    <t>後列の味方</t>
+  </si>
+  <si>
+    <t>前列の敵を狙う</t>
+  </si>
+  <si>
+    <t>前列の敵を優先</t>
+  </si>
+  <si>
+    <t>前列の敵</t>
+  </si>
+  <si>
+    <t>後列の敵を狙う</t>
+  </si>
+  <si>
+    <t>後列の敵を優先</t>
+  </si>
+  <si>
+    <t>後列の敵</t>
+  </si>
+  <si>
+    <t>人数が多い列の味方</t>
+  </si>
+  <si>
+    <t>人数が多い列の敵</t>
+  </si>
+  <si>
+    <t>人数が少ない列の味方</t>
+  </si>
+  <si>
+    <t>人数が少ない列の敵</t>
+  </si>
+  <si>
+    <t>〇人以上いる列の味方限定</t>
+  </si>
+  <si>
+    <t>2体以上いる列の味方</t>
+  </si>
+  <si>
+    <t>3体以上いる列の味方</t>
+  </si>
+  <si>
+    <t>〇人以上いる列の敵限定</t>
+  </si>
+  <si>
+    <t>2体以上いる列の敵</t>
+  </si>
+  <si>
+    <t>3体以上いる列の敵</t>
   </si>
   <si>
     <t>StateId状態になっている</t>
@@ -362,15 +428,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,26 +457,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,29 +481,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,32 +511,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,9 +541,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +572,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,13 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +625,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,43 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,31 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,55 +751,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,17 +798,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,32 +831,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,11 +865,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,16 +894,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,127 +912,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1344,7 +1410,7 @@
         <v>-</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1386,7 +1452,7 @@
         <v>自身のHpが100%未満</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1010</v>
@@ -1407,7 +1473,7 @@
         <v>自身のHpが75%以下</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1010</v>
@@ -1428,7 +1494,7 @@
         <v>自身のHpが50%以下</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1010</v>
@@ -1449,7 +1515,7 @@
         <v>自身のHpが25%以下</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1010</v>
@@ -1491,7 +1557,7 @@
         <v>自身のHpが100%以上</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1020</v>
@@ -1512,7 +1578,7 @@
         <v>自身のHpが75%以上</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1020</v>
@@ -1533,7 +1599,7 @@
         <v>自身のHpが50%以上</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1020</v>
@@ -1554,7 +1620,7 @@
         <v>自身のHpが25%以上</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1020</v>
@@ -1596,7 +1662,7 @@
         <v>Hp100%未満の味方</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1030</v>
@@ -1617,7 +1683,7 @@
         <v>Hp75%以下の味方</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1030</v>
@@ -1638,7 +1704,7 @@
         <v>Hp50%以下の味方</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1030</v>
@@ -1659,7 +1725,7 @@
         <v>Hp25%以下の味方</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1030</v>
@@ -1701,7 +1767,7 @@
         <v>Hp100%以上の味方</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1040</v>
@@ -1722,7 +1788,7 @@
         <v>Hp75%以上の味方</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1040</v>
@@ -1743,7 +1809,7 @@
         <v>Hp50%以上の味方</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1040</v>
@@ -1764,7 +1830,7 @@
         <v>Hp25%以上の味方</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1040</v>
@@ -1806,7 +1872,7 @@
         <v>Hp100%未満の敵</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1050</v>
@@ -1827,7 +1893,7 @@
         <v>Hp75%以下の敵</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1050</v>
@@ -1848,7 +1914,7 @@
         <v>Hp50%以下の敵</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1050</v>
@@ -1869,7 +1935,7 @@
         <v>Hp25%以下の敵</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1050</v>
@@ -1911,7 +1977,7 @@
         <v>Hp100%以上の敵</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1060</v>
@@ -1932,7 +1998,7 @@
         <v>Hp75%以上の敵</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1060</v>
@@ -1953,7 +2019,7 @@
         <v>Hp50%以上の敵</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1060</v>
@@ -1974,7 +2040,7 @@
         <v>Hp25%以上の敵</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1060</v>
@@ -1995,7 +2061,7 @@
         <v>最もHpが少ない味方</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1130</v>
@@ -2016,7 +2082,7 @@
         <v>最もHpが多い味方</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1140</v>
@@ -2037,7 +2103,7 @@
         <v>最もHpが少ない敵</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1150</v>
@@ -2058,7 +2124,7 @@
         <v>最もHpが多い敵</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1160</v>
@@ -2804,62 +2870,62 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6010</v>
+        <v>5030</v>
       </c>
       <c r="B72">
-        <v>6010</v>
+        <v>5030</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>StateId状態になっている</v>
+        <v>前列の味方を狙う</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>6010</v>
+        <v>5030</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" customFormat="1" spans="1:6">
       <c r="A73">
-        <v>6020</v>
+        <v>5031</v>
       </c>
       <c r="B73">
-        <v>6020</v>
+        <v>5031</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>StateId状態になっていない</v>
+        <v>前列の味方を優先</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>6020</v>
+        <v>5030</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:6">
       <c r="A74">
-        <v>6030</v>
+        <v>5032</v>
       </c>
       <c r="B74">
-        <v>6030</v>
+        <v>5032</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>AbnormalのStateにかかっている</v>
+        <v>前列の味方</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>6030</v>
+        <v>5030</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2867,62 +2933,62 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7010</v>
+        <v>5040</v>
       </c>
       <c r="B75">
-        <v>7010</v>
+        <v>5040</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>後列の味方を狙う</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>7010</v>
+        <v>5040</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" customFormat="1" spans="1:6">
       <c r="A76">
-        <v>7020</v>
+        <v>5041</v>
       </c>
       <c r="B76">
-        <v>7020</v>
+        <v>5041</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>後列の味方を優先</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>7020</v>
+        <v>5040</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
       <c r="A77">
-        <v>8010</v>
+        <v>5042</v>
       </c>
       <c r="B77">
-        <v>8010</v>
+        <v>5042</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(TextData!B:B,MATCH(B77,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>後列の味方</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>8010</v>
+        <v>5040</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2930,62 +2996,62 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>8020</v>
+        <v>5050</v>
       </c>
       <c r="B78">
-        <v>8020</v>
+        <v>5050</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(TextData!B:B,MATCH(B78,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>前列の敵を狙う</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>8020</v>
+        <v>5050</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" customFormat="1" spans="1:6">
       <c r="A79">
-        <v>9010</v>
+        <v>5051</v>
       </c>
       <c r="B79">
-        <v>9010</v>
+        <v>5051</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(TextData!B:B,MATCH(B79,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>前列の敵を優先</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>9010</v>
+        <v>5050</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:6">
       <c r="A80">
-        <v>9030</v>
+        <v>5052</v>
       </c>
       <c r="B80">
-        <v>9030</v>
+        <v>5052</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(TextData!B:B,MATCH(B80,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>前列の敵</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>9030</v>
+        <v>5050</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2993,293 +3059,293 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>9040</v>
+        <v>5060</v>
       </c>
       <c r="B81">
-        <v>9040</v>
+        <v>5060</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(TextData!B:B,MATCH(B81,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>後列の敵を狙う</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>9040</v>
+        <v>5060</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" customFormat="1" spans="1:6">
       <c r="A82">
-        <v>10010</v>
+        <v>5061</v>
       </c>
       <c r="B82">
-        <v>10010</v>
+        <v>5061</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(TextData!B:B,MATCH(B82,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>後列の敵を優先</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>10010</v>
+        <v>5060</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="12" customHeight="1" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:6">
       <c r="A83">
-        <v>10020</v>
+        <v>5062</v>
       </c>
       <c r="B83">
-        <v>10020</v>
+        <v>5062</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(TextData!B:B,MATCH(B83,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>後列の敵</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>10020</v>
+        <v>5060</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="12" customHeight="1" spans="1:6">
+    <row r="84" customFormat="1" spans="1:6">
       <c r="A84">
-        <v>11010</v>
+        <v>5070</v>
       </c>
       <c r="B84">
-        <v>11010</v>
+        <v>5070</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(TextData!B:B,MATCH(B84,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>人数が多い列の味方</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>11010</v>
+        <v>5070</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" customFormat="1" spans="1:6">
       <c r="A85">
-        <v>12020</v>
+        <v>5080</v>
       </c>
       <c r="B85">
-        <v>12020</v>
+        <v>5080</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>人数が多い列の敵</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>12020</v>
+        <v>5080</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" customFormat="1" spans="1:6">
       <c r="A86">
-        <v>12030</v>
+        <v>5090</v>
       </c>
       <c r="B86">
-        <v>12030</v>
+        <v>5090</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX(TextData!B:B,MATCH(B86,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>人数が少ない列の味方</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>12030</v>
+        <v>5090</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" customFormat="1" spans="1:6">
       <c r="A87">
-        <v>12040</v>
+        <v>5100</v>
       </c>
       <c r="B87">
-        <v>12040</v>
+        <v>5100</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>人数が少ない列の敵</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>12040</v>
+        <v>5100</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" customFormat="1" spans="1:6">
       <c r="A88">
-        <v>12050</v>
+        <v>5110</v>
       </c>
       <c r="B88">
-        <v>12050</v>
+        <v>5110</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>〇人以上いる列の味方限定</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>12050</v>
+        <v>5110</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" customFormat="1" spans="1:6">
       <c r="A89">
-        <v>20010</v>
+        <v>5111</v>
       </c>
       <c r="B89">
-        <v>20010</v>
+        <v>5111</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>2体以上いる列の味方</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>20010</v>
+        <v>5110</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:6">
       <c r="A90">
-        <v>20020</v>
+        <v>5112</v>
       </c>
       <c r="B90">
-        <v>20020</v>
+        <v>5112</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>3体以上いる列の味方</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>20020</v>
+        <v>5110</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:6">
       <c r="A91">
-        <v>20030</v>
+        <v>5120</v>
       </c>
       <c r="B91">
-        <v>20030</v>
+        <v>5120</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>〇人以上いる列の敵限定</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>20030</v>
+        <v>5120</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" customFormat="1" spans="1:6">
       <c r="A92">
-        <v>20040</v>
+        <v>5121</v>
       </c>
       <c r="B92">
-        <v>20040</v>
+        <v>5121</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>2体以上いる列の敵</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>20040</v>
+        <v>5120</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:6">
       <c r="A93">
-        <v>20050</v>
+        <v>5122</v>
       </c>
       <c r="B93">
-        <v>20050</v>
+        <v>5122</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>3体以上いる列の敵</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>20050</v>
+        <v>5120</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>20060</v>
+        <v>6010</v>
       </c>
       <c r="B94">
-        <v>20060</v>
+        <v>6010</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>StateId状態になっている</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>20060</v>
+        <v>6010</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3287,20 +3353,20 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>20070</v>
+        <v>6020</v>
       </c>
       <c r="B95">
-        <v>20070</v>
+        <v>6020</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>StateId状態になっていない</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>20070</v>
+        <v>6020</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3308,20 +3374,20 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>20080</v>
+        <v>6030</v>
       </c>
       <c r="B96">
-        <v>20080</v>
+        <v>6030</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>AbnormalのStateにかかっている</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>20080</v>
+        <v>6030</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3329,20 +3395,20 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>20090</v>
+        <v>7010</v>
       </c>
       <c r="B97">
-        <v>20090</v>
+        <v>7010</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>神化発動前</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>20090</v>
+        <v>7010</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3350,20 +3416,20 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>20100</v>
+        <v>7020</v>
       </c>
       <c r="B98">
-        <v>20100</v>
+        <v>7020</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>神化発動後</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>20100</v>
+        <v>7020</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3371,20 +3437,20 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20110</v>
+        <v>8010</v>
       </c>
       <c r="B99">
-        <v>20110</v>
+        <v>8010</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>味方より敵が多い</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>20110</v>
+        <v>8010</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3392,62 +3458,62 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>20120</v>
+        <v>8020</v>
       </c>
       <c r="B100">
-        <v>20120</v>
+        <v>8020</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>味方より敵が少ない</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>20120</v>
+        <v>8020</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" ht="12" customHeight="1" spans="1:6">
       <c r="A101">
-        <v>20130</v>
+        <v>9010</v>
       </c>
       <c r="B101">
-        <v>20130</v>
+        <v>9010</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>20130</v>
+        <v>9010</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" ht="12" customHeight="1" spans="1:6">
       <c r="A102">
-        <v>20140</v>
+        <v>9030</v>
       </c>
       <c r="B102">
-        <v>20140</v>
+        <v>9030</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>20140</v>
+        <v>9030</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3455,20 +3521,20 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>20150</v>
+        <v>9040</v>
       </c>
       <c r="B103">
-        <v>20150</v>
+        <v>9040</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>20150</v>
+        <v>9040</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3476,20 +3542,20 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>20160</v>
+        <v>10010</v>
       </c>
       <c r="B104">
-        <v>20160</v>
+        <v>10010</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>20160</v>
+        <v>10010</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3497,20 +3563,20 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>30010</v>
+        <v>10020</v>
       </c>
       <c r="B105">
-        <v>30010</v>
+        <v>10020</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>〇%で</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>30010</v>
+        <v>10020</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3518,22 +3584,484 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>30020</v>
+        <v>11010</v>
       </c>
       <c r="B106">
-        <v>30020</v>
+        <v>11010</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
+        <v>バトル中使用回数が〇以下</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>11010</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>12020</v>
+      </c>
+      <c r="B107">
+        <v>12020</v>
+      </c>
+      <c r="C107" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
+        <v>Lvが〇以上</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>12020</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>12030</v>
+      </c>
+      <c r="B108">
+        <v>12030</v>
+      </c>
+      <c r="C108" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
+        <v>行動Magicの消費Mpが〇</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>12030</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>12040</v>
+      </c>
+      <c r="B109">
+        <v>12040</v>
+      </c>
+      <c r="C109" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>12040</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>12050</v>
+      </c>
+      <c r="B110">
+        <v>12050</v>
+      </c>
+      <c r="C110" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>12050</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20010</v>
+      </c>
+      <c r="B111">
+        <v>20010</v>
+      </c>
+      <c r="C111" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
+        <v>Mpを〇消費する</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>20010</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20020</v>
+      </c>
+      <c r="B112">
+        <v>20020</v>
+      </c>
+      <c r="C112" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
+        <v>拘束3回成功</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>20020</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20030</v>
+      </c>
+      <c r="B113">
+        <v>20030</v>
+      </c>
+      <c r="C113" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
+        <v>攻撃で戦闘不能になる</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>20030</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20040</v>
+      </c>
+      <c r="B114">
+        <v>20040</v>
+      </c>
+      <c r="C114" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>20040</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20050</v>
+      </c>
+      <c r="B115">
+        <v>20050</v>
+      </c>
+      <c r="C115" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>20050</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20060</v>
+      </c>
+      <c r="B116">
+        <v>20060</v>
+      </c>
+      <c r="C116" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>20060</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20070</v>
+      </c>
+      <c r="B117">
+        <v>20070</v>
+      </c>
+      <c r="C117" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>20070</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20080</v>
+      </c>
+      <c r="B118">
+        <v>20080</v>
+      </c>
+      <c r="C118" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>20080</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20090</v>
+      </c>
+      <c r="B119">
+        <v>20090</v>
+      </c>
+      <c r="C119" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>20090</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20100</v>
+      </c>
+      <c r="B120">
+        <v>20100</v>
+      </c>
+      <c r="C120" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>20100</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20110</v>
+      </c>
+      <c r="B121">
+        <v>20110</v>
+      </c>
+      <c r="C121" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>20110</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20120</v>
+      </c>
+      <c r="B122">
+        <v>20120</v>
+      </c>
+      <c r="C122" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>20120</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20130</v>
+      </c>
+      <c r="B123">
+        <v>20130</v>
+      </c>
+      <c r="C123" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>20130</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20140</v>
+      </c>
+      <c r="B124">
+        <v>20140</v>
+      </c>
+      <c r="C124" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>20140</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20150</v>
+      </c>
+      <c r="B125">
+        <v>20150</v>
+      </c>
+      <c r="C125" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>20150</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20160</v>
+      </c>
+      <c r="B126">
+        <v>20160</v>
+      </c>
+      <c r="C126" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>20160</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>30010</v>
+      </c>
+      <c r="B127">
+        <v>30010</v>
+      </c>
+      <c r="C127" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>30010</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>30020</v>
+      </c>
+      <c r="B128">
+        <v>30020</v>
+      </c>
+      <c r="C128" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
         <v>30020</v>
       </c>
-      <c r="F106">
+      <c r="F128">
         <v>0</v>
       </c>
     </row>
@@ -3547,10 +4075,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4341,7 +4869,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>6010</v>
+        <v>5030</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
@@ -4352,7 +4880,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>6020</v>
+        <v>5031</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
@@ -4363,7 +4891,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>6030</v>
+        <v>5032</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -4374,7 +4902,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>7010</v>
+        <v>5040</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -4385,7 +4913,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7020</v>
+        <v>5041</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -4396,7 +4924,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>8010</v>
+        <v>5042</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -4407,7 +4935,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>8020</v>
+        <v>5050</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -4418,7 +4946,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>9010</v>
+        <v>5051</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
@@ -4429,7 +4957,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>9030</v>
+        <v>5052</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
@@ -4440,7 +4968,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>9040</v>
+        <v>5060</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
@@ -4451,7 +4979,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>10010</v>
+        <v>5061</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
@@ -4462,7 +4990,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>10020</v>
+        <v>5062</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
@@ -4471,9 +4999,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="12" customHeight="1" spans="1:3">
       <c r="A84">
-        <v>11010</v>
+        <v>5070</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -4482,9 +5010,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" ht="12" customHeight="1" spans="1:3">
       <c r="A85">
-        <v>12020</v>
+        <v>5080</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
@@ -4493,9 +5021,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="12" customHeight="1" spans="1:3">
       <c r="A86">
-        <v>12030</v>
+        <v>5090</v>
       </c>
       <c r="B86" t="s">
         <v>92</v>
@@ -4504,9 +5032,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="12" customHeight="1" spans="1:3">
       <c r="A87">
-        <v>12040</v>
+        <v>5100</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
@@ -4515,9 +5043,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="12" customHeight="1" spans="1:3">
       <c r="A88">
-        <v>12050</v>
+        <v>5110</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
@@ -4526,9 +5054,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="12" customHeight="1" spans="1:3">
       <c r="A89">
-        <v>20010</v>
+        <v>5111</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -4537,9 +5065,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" ht="12" customHeight="1" spans="1:3">
       <c r="A90">
-        <v>20020</v>
+        <v>5112</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
@@ -4548,9 +5076,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" ht="12" customHeight="1" spans="1:3">
       <c r="A91">
-        <v>20030</v>
+        <v>5120</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
@@ -4559,9 +5087,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" ht="12" customHeight="1" spans="1:3">
       <c r="A92">
-        <v>20040</v>
+        <v>5121</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
@@ -4570,9 +5098,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" ht="12" customHeight="1" spans="1:3">
       <c r="A93">
-        <v>20050</v>
+        <v>5122</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
@@ -4583,7 +5111,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>20060</v>
+        <v>6010</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
@@ -4594,7 +5122,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>20070</v>
+        <v>6020</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
@@ -4605,7 +5133,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>20080</v>
+        <v>6030</v>
       </c>
       <c r="B96" t="s">
         <v>102</v>
@@ -4616,7 +5144,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>20090</v>
+        <v>7010</v>
       </c>
       <c r="B97" t="s">
         <v>103</v>
@@ -4627,7 +5155,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>20100</v>
+        <v>7020</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
@@ -4638,7 +5166,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>20110</v>
+        <v>8010</v>
       </c>
       <c r="B99" t="s">
         <v>105</v>
@@ -4649,7 +5177,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>20120</v>
+        <v>8020</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -4660,7 +5188,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>20130</v>
+        <v>9010</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
@@ -4671,7 +5199,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>20140</v>
+        <v>9030</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -4682,7 +5210,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>20150</v>
+        <v>9040</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
@@ -4693,7 +5221,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>20160</v>
+        <v>10010</v>
       </c>
       <c r="B104" t="s">
         <v>110</v>
@@ -4704,7 +5232,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>30010</v>
+        <v>10020</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -4715,12 +5243,254 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>30020</v>
+        <v>11010</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>12020</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>12030</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>12040</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>12050</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>20010</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>20020</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>20030</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>20040</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>20050</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>20060</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>20070</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>20080</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>20090</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>20100</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>20110</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>20120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>20130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>20140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>20150</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>20160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>30010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>30020</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -27,12 +27,24 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>TargetType</t>
+  </si>
+  <si>
     <t>TriggerType</t>
   </si>
   <si>
     <t>Param1</t>
   </si>
   <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Param3</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -78,73 +90,173 @@
     <t>Hp%〇未満の味方</t>
   </si>
   <si>
-    <t>Hp100%未満の味方</t>
-  </si>
-  <si>
-    <t>Hp75%以下の味方</t>
-  </si>
-  <si>
-    <t>Hp50%以下の味方</t>
-  </si>
-  <si>
-    <t>Hp25%以下の味方</t>
+    <t>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが100%未満の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが75%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが50%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが25%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Hp%〇以上の味方</t>
   </si>
   <si>
-    <t>Hp100%以上の味方</t>
-  </si>
-  <si>
-    <t>Hp75%以上の味方</t>
-  </si>
-  <si>
-    <t>Hp50%以上の味方</t>
-  </si>
-  <si>
-    <t>Hp25%以上の味方</t>
+    <t>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが100%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが75%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが50%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが25%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Hp%〇未満の敵</t>
   </si>
   <si>
-    <t>Hp100%未満の敵</t>
-  </si>
-  <si>
-    <t>Hp75%以下の敵</t>
-  </si>
-  <si>
-    <t>Hp50%以下の敵</t>
-  </si>
-  <si>
-    <t>Hp25%以下の敵</t>
+    <t>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが100%未満の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp75%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが50%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが25%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Hp%〇以上の敵</t>
   </si>
   <si>
-    <t>Hp100%以上の敵</t>
-  </si>
-  <si>
-    <t>Hp75%以上の敵</t>
-  </si>
-  <si>
-    <t>Hp50%以上の敵</t>
-  </si>
-  <si>
-    <t>Hp25%以上の敵</t>
-  </si>
-  <si>
-    <t>最もHpが少ない味方</t>
-  </si>
-  <si>
-    <t>最もHpが多い味方</t>
-  </si>
-  <si>
-    <t>最もHpが少ない敵</t>
-  </si>
-  <si>
-    <t>最もHpが多い敵</t>
+    <t>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが100%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが75%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが50%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが25%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが最も低い味方を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp割合が最も低い味方を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが最も高い味方を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp割合が最も高い味方を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp割合が最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hpが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Hp割合が最も高い相手を優先します</t>
   </si>
   <si>
     <t>味方にHpが〇%以下がいる</t>
@@ -183,61 +295,125 @@
     <t>Mp〇未満の味方</t>
   </si>
   <si>
-    <t>Mp100%以下の味方</t>
-  </si>
-  <si>
-    <t>Mp75%以下の味方</t>
-  </si>
-  <si>
-    <t>Mp50%以下の味方</t>
-  </si>
-  <si>
-    <t>Mp25%以下の味方</t>
+    <t>Mp&lt;color="green"&gt;100%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが100%未満の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが75%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが50%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが25%以下の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Mp〇以上の味方</t>
   </si>
   <si>
-    <t>Mp100%以上の味方</t>
-  </si>
-  <si>
-    <t>Mp75%以上の味方</t>
-  </si>
-  <si>
-    <t>Mp50%以上の味方</t>
-  </si>
-  <si>
-    <t>Mp25%以上の味方</t>
+    <t>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが100%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが75%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが50%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが25%以上ある味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Mp〇未満の敵</t>
   </si>
   <si>
-    <t>Mp100%以下の敵</t>
-  </si>
-  <si>
-    <t>Mp75%以下の敵</t>
-  </si>
-  <si>
-    <t>Mp50%以下の敵</t>
-  </si>
-  <si>
-    <t>Mp25%以下の敵</t>
+    <t>Mp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが100%未満の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが75%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが50%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが25%以下の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Mp〇以上の敵</t>
   </si>
   <si>
-    <t>Mp100%以上の敵</t>
-  </si>
-  <si>
-    <t>Mp75%以上の敵</t>
-  </si>
-  <si>
-    <t>Mp50%以上の敵</t>
-  </si>
-  <si>
-    <t>Mp25%以上の敵</t>
+    <t>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが100%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが75%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが50%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Mpが25%以上ある相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>戦闘不能が〇以上存在する</t>
@@ -258,64 +434,111 @@
     <t>前列の味方を優先</t>
   </si>
   <si>
+    <t>前列の相手を優先します</t>
+  </si>
+  <si>
     <t>前列の味方</t>
   </si>
   <si>
+    <t>前列の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>後列の味方を狙う</t>
   </si>
   <si>
     <t>後列の味方を優先</t>
   </si>
   <si>
+    <t>後列の味方を優先します</t>
+  </si>
+  <si>
     <t>後列の味方</t>
   </si>
   <si>
+    <t>後列の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>前列の敵を狙う</t>
   </si>
   <si>
-    <t>前列の敵を優先</t>
-  </si>
-  <si>
-    <t>前列の敵</t>
+    <t>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>前列の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>後列の敵を狙う</t>
   </si>
   <si>
-    <t>後列の敵を優先</t>
-  </si>
-  <si>
-    <t>後列の敵</t>
-  </si>
-  <si>
-    <t>人数が多い列の味方</t>
-  </si>
-  <si>
-    <t>人数が多い列の敵</t>
-  </si>
-  <si>
-    <t>人数が少ない列の味方</t>
-  </si>
-  <si>
-    <t>人数が少ない列の敵</t>
+    <t>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>後列の相手を優先します</t>
+  </si>
+  <si>
+    <t>後列の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最も人数の多い列の味方を優先します</t>
+  </si>
+  <si>
+    <t>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最も人数の多い列の相手を優先します</t>
+  </si>
+  <si>
+    <t>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最も人数の少ない列の味方を優先します</t>
+  </si>
+  <si>
+    <t>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最も人数の少ない列の相手を優先します</t>
   </si>
   <si>
     <t>〇人以上いる列の味方限定</t>
   </si>
   <si>
-    <t>2体以上いる列の味方</t>
-  </si>
-  <si>
-    <t>3体以上いる列の味方</t>
+    <t>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2体以上いる列の味方に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>3体以上いる列の相手に限定します
+&lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>〇人以上いる列の敵限定</t>
   </si>
   <si>
-    <t>2体以上いる列の敵</t>
-  </si>
-  <si>
-    <t>3体以上いる列の敵</t>
+    <t>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2体以上いる列の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>3体以上いる列の相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>StateId状態になっている</t>
@@ -367,6 +590,38 @@
   </si>
   <si>
     <t>1回の攻撃で〇ダメージ以上受ける</t>
+  </si>
+  <si>
+    <t>〇のKindを持っている味方</t>
+  </si>
+  <si>
+    <t>〇のKindを持っている敵</t>
+  </si>
+  <si>
+    <t>汎用敵(クリーチャー)を優先</t>
+  </si>
+  <si>
+    <t>汎用敵(クリーチャー)を優先します</t>
+  </si>
+  <si>
+    <t>ボス(悪魔)を優先</t>
+  </si>
+  <si>
+    <t>ボス(悪魔)を優先します</t>
+  </si>
+  <si>
+    <t>汎用敵(クリーチャー)</t>
+  </si>
+  <si>
+    <t>汎用敵(クリーチャー)に限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>ボス(悪魔)</t>
+  </si>
+  <si>
+    <t>ボス(悪魔)に限定します
+該当する相手がいない場合、魔法を発動しません</t>
   </si>
   <si>
     <t>Mpを〇消費する</t>
@@ -429,8 +684,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -442,11 +697,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,31 +711,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,9 +726,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,12 +789,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -525,7 +812,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,49 +834,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -595,19 +850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,49 +880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,19 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,43 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +958,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,8 +1046,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -828,21 +1085,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -866,23 +1127,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,7 +1149,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,7 +1158,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,133 +1167,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1359,29 +1617,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="21.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="5.54545454545455" customWidth="1"/>
-    <col min="7" max="7" width="4.81818181818182" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="3.90909090909091" customWidth="1"/>
-    <col min="10" max="10" width="8.63636363636364" customWidth="1"/>
-    <col min="11" max="11" width="8.54545454545454" customWidth="1"/>
-    <col min="12" max="15" width="11.2727272727273" customWidth="1"/>
-    <col min="16" max="16" width="16.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="5.72727272727273" customWidth="1"/>
+    <col min="3" max="3" width="41.8181818181818" customWidth="1"/>
+    <col min="4" max="6" width="15.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="7.81818181818182" customWidth="1"/>
+    <col min="9" max="9" width="4.81818181818182" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="3.90909090909091" customWidth="1"/>
+    <col min="12" max="12" width="8.63636363636364" customWidth="1"/>
+    <col min="13" max="13" width="8.54545454545454" customWidth="1"/>
+    <col min="14" max="17" width="11.2727272727273" customWidth="1"/>
+    <col min="18" max="18" width="16.7272727272727" customWidth="1"/>
+    <col min="19" max="19" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,8 +1655,20 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1416,10 +1686,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -1434,13 +1716,25 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>1010</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
       <c r="A4">
         <v>1011</v>
       </c>
@@ -1452,16 +1746,28 @@
         <v>自身のHpが100%未満</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>1010</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
       <c r="A5">
         <v>1012</v>
       </c>
@@ -1473,16 +1779,28 @@
         <v>自身のHpが75%以下</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <v>1010</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
       <c r="A6">
         <v>1013</v>
       </c>
@@ -1494,16 +1812,28 @@
         <v>自身のHpが50%以下</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>1010</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
       <c r="A7">
         <v>1014</v>
       </c>
@@ -1515,16 +1845,28 @@
         <v>自身のHpが25%以下</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>1010</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1020</v>
       </c>
@@ -1539,13 +1881,25 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>1020</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
       <c r="A9">
         <v>1021</v>
       </c>
@@ -1557,16 +1911,28 @@
         <v>自身のHpが100%以上</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>1020</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
       <c r="A10">
         <v>1022</v>
       </c>
@@ -1578,16 +1944,28 @@
         <v>自身のHpが75%以上</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>1020</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
       <c r="A11">
         <v>1023</v>
       </c>
@@ -1599,16 +1977,28 @@
         <v>自身のHpが50%以上</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>1020</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -1620,16 +2010,28 @@
         <v>自身のHpが25%以上</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>1020</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>1030</v>
       </c>
@@ -1644,13 +2046,25 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>1030</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14">
         <v>1031</v>
       </c>
@@ -1659,19 +2073,31 @@
       </c>
       <c r="C14" t="str">
         <f>INDEX(TextData!B:B,MATCH(B14,TextData!A:A))</f>
-        <v>Hp100%未満の味方</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>131</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1030</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15">
         <v>1032</v>
       </c>
@@ -1680,19 +2106,31 @@
       </c>
       <c r="C15" t="str">
         <f>INDEX(TextData!B:B,MATCH(B15,TextData!A:A))</f>
-        <v>Hp75%以下の味方</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1030</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:6">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16">
         <v>1033</v>
       </c>
@@ -1701,19 +2139,31 @@
       </c>
       <c r="C16" t="str">
         <f>INDEX(TextData!B:B,MATCH(B16,TextData!A:A))</f>
-        <v>Hp50%以下の味方</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1030</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:6">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17">
         <v>1034</v>
       </c>
@@ -1722,19 +2172,31 @@
       </c>
       <c r="C17" t="str">
         <f>INDEX(TextData!B:B,MATCH(B17,TextData!A:A))</f>
-        <v>Hp25%以下の味方</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1030</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1040</v>
       </c>
@@ -1749,13 +2211,25 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>1040</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:6">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
         <v>1041</v>
       </c>
@@ -1764,19 +2238,31 @@
       </c>
       <c r="C19" t="str">
         <f>INDEX(TextData!B:B,MATCH(B19,TextData!A:A))</f>
-        <v>Hp100%以上の味方</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>121</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1040</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:6">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
       <c r="A20">
         <v>1042</v>
       </c>
@@ -1785,19 +2271,31 @@
       </c>
       <c r="C20" t="str">
         <f>INDEX(TextData!B:B,MATCH(B20,TextData!A:A))</f>
-        <v>Hp75%以上の味方</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>111</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1040</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:6">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
       <c r="A21">
         <v>1043</v>
       </c>
@@ -1806,19 +2304,31 @@
       </c>
       <c r="C21" t="str">
         <f>INDEX(TextData!B:B,MATCH(B21,TextData!A:A))</f>
-        <v>Hp50%以上の味方</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>101</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1040</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:6">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
       <c r="A22">
         <v>1044</v>
       </c>
@@ -1827,19 +2337,31 @@
       </c>
       <c r="C22" t="str">
         <f>INDEX(TextData!B:B,MATCH(B22,TextData!A:A))</f>
-        <v>Hp25%以上の味方</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>91</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>1040</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:6">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
       <c r="A23">
         <v>1050</v>
       </c>
@@ -1854,13 +2376,25 @@
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1050</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:6">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:10">
       <c r="A24">
         <v>1051</v>
       </c>
@@ -1869,19 +2403,31 @@
       </c>
       <c r="C24" t="str">
         <f>INDEX(TextData!B:B,MATCH(B24,TextData!A:A))</f>
-        <v>Hp100%未満の敵</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
+        <v>130</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>1050</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:6">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:10">
       <c r="A25">
         <v>1052</v>
       </c>
@@ -1890,19 +2436,31 @@
       </c>
       <c r="C25" t="str">
         <f>INDEX(TextData!B:B,MATCH(B25,TextData!A:A))</f>
-        <v>Hp75%以下の敵</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>1050</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:6">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:10">
       <c r="A26">
         <v>1053</v>
       </c>
@@ -1911,19 +2469,31 @@
       </c>
       <c r="C26" t="str">
         <f>INDEX(TextData!B:B,MATCH(B26,TextData!A:A))</f>
-        <v>Hp50%以下の敵</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>1050</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:6">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:10">
       <c r="A27">
         <v>1054</v>
       </c>
@@ -1932,19 +2502,31 @@
       </c>
       <c r="C27" t="str">
         <f>INDEX(TextData!B:B,MATCH(B27,TextData!A:A))</f>
-        <v>Hp25%以下の敵</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>1050</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:6">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
       <c r="A28">
         <v>1060</v>
       </c>
@@ -1959,13 +2541,25 @@
         <v>0</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>1060</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:6">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
       <c r="A29">
         <v>1061</v>
       </c>
@@ -1974,19 +2568,31 @@
       </c>
       <c r="C29" t="str">
         <f>INDEX(TextData!B:B,MATCH(B29,TextData!A:A))</f>
-        <v>Hp100%以上の敵</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1060</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:6">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
       <c r="A30">
         <v>1062</v>
       </c>
@@ -1995,19 +2601,31 @@
       </c>
       <c r="C30" t="str">
         <f>INDEX(TextData!B:B,MATCH(B30,TextData!A:A))</f>
-        <v>Hp75%以上の敵</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
+        <v>110</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>1060</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:6">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
       <c r="A31">
         <v>1063</v>
       </c>
@@ -2016,19 +2634,31 @@
       </c>
       <c r="C31" t="str">
         <f>INDEX(TextData!B:B,MATCH(B31,TextData!A:A))</f>
-        <v>Hp50%以上の敵</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1060</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:6">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
       <c r="A32">
         <v>1064</v>
       </c>
@@ -2037,19 +2667,31 @@
       </c>
       <c r="C32" t="str">
         <f>INDEX(TextData!B:B,MATCH(B32,TextData!A:A))</f>
-        <v>Hp25%以上の敵</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>1060</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:6">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
       <c r="A33">
         <v>1130</v>
       </c>
@@ -2058,2010 +2700,3492 @@
       </c>
       <c r="C33" t="str">
         <f>INDEX(TextData!B:B,MATCH(B33,TextData!A:A))</f>
-        <v>最もHpが少ない味方</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>1130</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:6">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
       <c r="A34">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B34">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX(TextData!B:B,MATCH(B34,TextData!A:A))</f>
-        <v>最もHpが多い味方</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="G34">
+        <v>1130</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35">
         <v>1140</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:6">
-      <c r="A35">
-        <v>1150</v>
-      </c>
       <c r="B35">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX(TextData!B:B,MATCH(B35,TextData!A:A))</f>
-        <v>最もHpが少ない敵</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="E35">
-        <v>1150</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:6">
+      <c r="G35">
+        <v>1140</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
       <c r="A36">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="B36">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX(TextData!B:B,MATCH(B36,TextData!A:A))</f>
-        <v>最もHpが多い敵</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>1160</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>1140</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
       <c r="A37">
-        <v>2010</v>
+        <v>1150</v>
       </c>
       <c r="B37">
-        <v>2010</v>
+        <v>1150</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX(TextData!B:B,MATCH(B37,TextData!A:A))</f>
-        <v>味方にHpが〇%以下がいる</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1150</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:10">
       <c r="A38">
-        <v>3010</v>
+        <v>1151</v>
       </c>
       <c r="B38">
-        <v>3010</v>
+        <v>1151</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX(TextData!B:B,MATCH(B38,TextData!A:A))</f>
-        <v>自身のMpが〇以下</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>3010</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1150</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
       <c r="A39">
-        <v>3011</v>
+        <v>1160</v>
       </c>
       <c r="B39">
-        <v>3011</v>
+        <v>1160</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX(TextData!B:B,MATCH(B39,TextData!A:A))</f>
-        <v>自身のMpが100%以下</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>3010</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1160</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:10">
       <c r="A40">
-        <v>3012</v>
+        <v>1161</v>
       </c>
       <c r="B40">
-        <v>3012</v>
+        <v>1161</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX(TextData!B:B,MATCH(B40,TextData!A:A))</f>
-        <v>自身のMpが75%以下</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>3010</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1160</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
-        <v>3013</v>
+        <v>2010</v>
       </c>
       <c r="B41">
-        <v>3013</v>
+        <v>2010</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX(TextData!B:B,MATCH(B41,TextData!A:A))</f>
-        <v>自身のMpが50%以下</v>
+        <v>味方にHpが〇%以下がいる</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2010</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
         <v>3010</v>
       </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:6">
-      <c r="A42">
-        <v>3014</v>
-      </c>
       <c r="B42">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX(TextData!B:B,MATCH(B42,TextData!A:A))</f>
-        <v>自身のMpが25%以下</v>
+        <v>自身のMpが〇以下</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
         <v>3010</v>
       </c>
-      <c r="F42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:10">
       <c r="A43">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="B43">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX(TextData!B:B,MATCH(B43,TextData!A:A))</f>
-        <v>自身のMpが〇以上</v>
+        <v>自身のMpが100%以下</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>3020</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>3010</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:10">
       <c r="A44">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B44">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX(TextData!B:B,MATCH(B44,TextData!A:A))</f>
-        <v>自身のMpが100%以上</v>
+        <v>自身のMpが75%以下</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>3020</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>3010</v>
+      </c>
+      <c r="H44">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
       <c r="A45">
-        <v>3022</v>
+        <v>3013</v>
       </c>
       <c r="B45">
-        <v>3022</v>
+        <v>3013</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX(TextData!B:B,MATCH(B45,TextData!A:A))</f>
-        <v>自身のMpが75%以上</v>
+        <v>自身のMpが50%以下</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>3020</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>3010</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:10">
       <c r="A46">
-        <v>3023</v>
+        <v>3014</v>
       </c>
       <c r="B46">
-        <v>3023</v>
+        <v>3014</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX(TextData!B:B,MATCH(B46,TextData!A:A))</f>
-        <v>自身のMpが50%以上</v>
+        <v>自身のMpが25%以下</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>3010</v>
+      </c>
+      <c r="H46">
+        <v>25</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
         <v>3020</v>
       </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:6">
-      <c r="A47">
-        <v>3024</v>
-      </c>
       <c r="B47">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX(TextData!B:B,MATCH(B47,TextData!A:A))</f>
-        <v>自身のMpが25%以上</v>
+        <v>自身のMpが〇以上</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
         <v>3020</v>
       </c>
-      <c r="F47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:6">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
       <c r="A48">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B48">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX(TextData!B:B,MATCH(B48,TextData!A:A))</f>
-        <v>Mp〇未満の味方</v>
+        <v>自身のMpが100%以上</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>3020</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:10">
       <c r="A49">
-        <v>3031</v>
+        <v>3022</v>
       </c>
       <c r="B49">
-        <v>3031</v>
+        <v>3022</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX(TextData!B:B,MATCH(B49,TextData!A:A))</f>
-        <v>Mp100%以下の味方</v>
+        <v>自身のMpが75%以上</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>3020</v>
+      </c>
+      <c r="H49">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:10">
       <c r="A50">
-        <v>3032</v>
+        <v>3023</v>
       </c>
       <c r="B50">
-        <v>3032</v>
+        <v>3023</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX(TextData!B:B,MATCH(B50,TextData!A:A))</f>
-        <v>Mp75%以下の味方</v>
+        <v>自身のMpが50%以上</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>3020</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:10">
       <c r="A51">
-        <v>3033</v>
+        <v>3024</v>
       </c>
       <c r="B51">
-        <v>3033</v>
+        <v>3024</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX(TextData!B:B,MATCH(B51,TextData!A:A))</f>
-        <v>Mp50%以下の味方</v>
+        <v>自身のMpが25%以上</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>3020</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52">
         <v>3030</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:6">
-      <c r="A52">
-        <v>3034</v>
-      </c>
       <c r="B52">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX(TextData!B:B,MATCH(B52,TextData!A:A))</f>
-        <v>Mp25%以下の味方</v>
+        <v>Mp〇未満の味方</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
         <v>3030</v>
       </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:6">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:10">
       <c r="A53">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="B53">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX(TextData!B:B,MATCH(B53,TextData!A:A))</f>
-        <v>Mp〇以上の味方</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3030</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:10">
       <c r="A54">
-        <v>3041</v>
+        <v>3032</v>
       </c>
       <c r="B54">
-        <v>3041</v>
+        <v>3032</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX(TextData!B:B,MATCH(B54,TextData!A:A))</f>
-        <v>Mp100%以上の味方</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>3030</v>
+      </c>
+      <c r="H54">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:10">
       <c r="A55">
-        <v>3042</v>
+        <v>3033</v>
       </c>
       <c r="B55">
-        <v>3042</v>
+        <v>3033</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX(TextData!B:B,MATCH(B55,TextData!A:A))</f>
-        <v>Mp75%以上の味方</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>3030</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:10">
       <c r="A56">
-        <v>3043</v>
+        <v>3034</v>
       </c>
       <c r="B56">
-        <v>3043</v>
+        <v>3034</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX(TextData!B:B,MATCH(B56,TextData!A:A))</f>
-        <v>Mp50%以上の味方</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>3030</v>
+      </c>
+      <c r="H56">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:10">
+      <c r="A57">
         <v>3040</v>
       </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:6">
-      <c r="A57">
-        <v>3044</v>
-      </c>
       <c r="B57">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX(TextData!B:B,MATCH(B57,TextData!A:A))</f>
-        <v>Mp25%以上の味方</v>
+        <v>Mp〇以上の味方</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>3040</v>
       </c>
-      <c r="F57">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:6">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:10">
       <c r="A58">
-        <v>3050</v>
+        <v>3041</v>
       </c>
       <c r="B58">
-        <v>3050</v>
+        <v>3041</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
-        <v>Mp〇未満の敵</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3040</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:10">
       <c r="A59">
-        <v>3051</v>
+        <v>3042</v>
       </c>
       <c r="B59">
-        <v>3051</v>
+        <v>3042</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>Mp100%以下の敵</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>3040</v>
+      </c>
+      <c r="H59">
+        <v>75</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:10">
       <c r="A60">
-        <v>3052</v>
+        <v>3043</v>
       </c>
       <c r="B60">
-        <v>3052</v>
+        <v>3043</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>Mp75%以下の敵</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>3040</v>
+      </c>
+      <c r="H60">
+        <v>50</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:10">
       <c r="A61">
-        <v>3053</v>
+        <v>3044</v>
       </c>
       <c r="B61">
-        <v>3053</v>
+        <v>3044</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>Mp50%以下の敵</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>3040</v>
+      </c>
+      <c r="H61">
+        <v>25</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:10">
+      <c r="A62">
         <v>3050</v>
       </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:6">
-      <c r="A62">
-        <v>3054</v>
-      </c>
       <c r="B62">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>Mp25%以下の敵</v>
+        <v>Mp〇未満の敵</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>3050</v>
       </c>
-      <c r="F62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:6">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:10">
       <c r="A63">
-        <v>3060</v>
+        <v>3051</v>
       </c>
       <c r="B63">
-        <v>3060</v>
+        <v>3051</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
-        <v>Mp〇以上の敵</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>3050</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:10">
       <c r="A64">
-        <v>3061</v>
+        <v>3052</v>
       </c>
       <c r="B64">
-        <v>3061</v>
+        <v>3052</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>Mp100%以上の敵</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>3050</v>
+      </c>
+      <c r="H64">
+        <v>75</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:10">
       <c r="A65">
-        <v>3062</v>
+        <v>3053</v>
       </c>
       <c r="B65">
-        <v>3062</v>
+        <v>3053</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>Mp75%以上の敵</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>3050</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:10">
       <c r="A66">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="B66">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>Mp50%以上の敵</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>3050</v>
+      </c>
+      <c r="H66">
+        <v>25</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:10">
+      <c r="A67">
         <v>3060</v>
       </c>
-      <c r="F66">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:6">
-      <c r="A67">
-        <v>3064</v>
-      </c>
       <c r="B67">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>Mp25%以上の敵</v>
+        <v>Mp〇以上の敵</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>3060</v>
       </c>
-      <c r="F67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:10">
       <c r="A68">
-        <v>4010</v>
+        <v>3061</v>
       </c>
       <c r="B68">
-        <v>4010</v>
+        <v>3061</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
-        <v>戦闘不能が〇以上存在する</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>4010</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>3060</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:10">
       <c r="A69">
-        <v>4020</v>
+        <v>3062</v>
       </c>
       <c r="B69">
-        <v>4020</v>
+        <v>3062</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
-        <v>生存者が〇以上存在する</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>4020</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>3060</v>
+      </c>
+      <c r="H69">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:10">
       <c r="A70">
-        <v>5010</v>
+        <v>3063</v>
       </c>
       <c r="B70">
-        <v>5010</v>
+        <v>3063</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>自分が前列にいる</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>5010</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>3060</v>
+      </c>
+      <c r="H70">
+        <v>50</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:10">
       <c r="A71">
-        <v>5020</v>
+        <v>3064</v>
       </c>
       <c r="B71">
-        <v>5020</v>
+        <v>3064</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>自分が後列にいる</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>5020</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>3060</v>
+      </c>
+      <c r="H71">
+        <v>25</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
-        <v>5030</v>
+        <v>4010</v>
       </c>
       <c r="B72">
-        <v>5030</v>
+        <v>4010</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>前列の味方を狙う</v>
+        <v>戦闘不能が〇以上存在する</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:6">
+      <c r="G72">
+        <v>4010</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
-        <v>5031</v>
+        <v>4020</v>
       </c>
       <c r="B73">
-        <v>5031</v>
+        <v>4020</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>前列の味方を優先</v>
+        <v>生存者が〇以上存在する</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>4020</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
-        <v>5032</v>
+        <v>5010</v>
       </c>
       <c r="B74">
-        <v>5032</v>
+        <v>5010</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>前列の味方</v>
+        <v>自分が前列にいる</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>5010</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="B75">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>後列の味方を狙う</v>
+        <v>自分が後列にいる</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>5040</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>5020</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
-        <v>5041</v>
+        <v>5030</v>
       </c>
       <c r="B76">
-        <v>5041</v>
+        <v>5030</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
-        <v>後列の味方を優先</v>
+        <v>前列の味方を狙う</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>5030</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
         <v>5040</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:6">
-      <c r="A77">
-        <v>5042</v>
-      </c>
       <c r="B77">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(TextData!B:B,MATCH(B77,TextData!A:A))</f>
-        <v>後列の味方</v>
+        <v>後列の味方を狙う</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
         <v>5040</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:10">
       <c r="A78">
-        <v>5050</v>
+        <v>5041</v>
       </c>
       <c r="B78">
-        <v>5050</v>
+        <v>5031</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(TextData!B:B,MATCH(B78,TextData!A:A))</f>
-        <v>前列の敵を狙う</v>
+        <v>前列の味方を優先</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>5030</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:10">
       <c r="A79">
-        <v>5051</v>
+        <v>5042</v>
       </c>
       <c r="B79">
-        <v>5051</v>
+        <v>5041</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(TextData!B:B,MATCH(B79,TextData!A:A))</f>
-        <v>前列の敵を優先</v>
+        <v>後列の味方を優先</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>5040</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:6">
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:10">
       <c r="A80">
-        <v>5052</v>
+        <v>5043</v>
       </c>
       <c r="B80">
-        <v>5052</v>
+        <v>5032</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(TextData!B:B,MATCH(B80,TextData!A:A))</f>
-        <v>前列の敵</v>
+        <v>前列の味方</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>5030</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:10">
       <c r="A81">
-        <v>5060</v>
+        <v>5044</v>
       </c>
       <c r="B81">
-        <v>5060</v>
+        <v>5042</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(TextData!B:B,MATCH(B81,TextData!A:A))</f>
-        <v>後列の敵を狙う</v>
+        <v>後列の味方</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>5040</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
-        <v>5061</v>
+        <v>5050</v>
       </c>
       <c r="B82">
-        <v>5061</v>
+        <v>5050</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(TextData!B:B,MATCH(B82,TextData!A:A))</f>
-        <v>後列の敵を優先</v>
+        <v>前列の敵を狙う</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:6">
+      <c r="G82">
+        <v>5050</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="B83">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(TextData!B:B,MATCH(B83,TextData!A:A))</f>
-        <v>後列の敵</v>
+        <v>後列の敵を狙う</v>
       </c>
       <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>1</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>5060</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:6">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:10">
       <c r="A84">
-        <v>5070</v>
+        <v>5061</v>
       </c>
       <c r="B84">
-        <v>5070</v>
+        <v>5051</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(TextData!B:B,MATCH(B84,TextData!A:A))</f>
-        <v>人数が多い列の味方</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>5070</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>5050</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:10">
       <c r="A85">
-        <v>5080</v>
+        <v>5062</v>
       </c>
       <c r="B85">
-        <v>5080</v>
+        <v>5061</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>人数が多い列の敵</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>5080</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>5060</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:10">
       <c r="A86">
-        <v>5090</v>
+        <v>5063</v>
       </c>
       <c r="B86">
-        <v>5090</v>
+        <v>5052</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX(TextData!B:B,MATCH(B86,TextData!A:A))</f>
-        <v>人数が少ない列の味方</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>5090</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>5050</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:10">
       <c r="A87">
-        <v>5100</v>
+        <v>5064</v>
       </c>
       <c r="B87">
-        <v>5100</v>
+        <v>5062</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>人数が少ない列の敵</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>5060</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:10">
       <c r="A88">
-        <v>5110</v>
+        <v>5070</v>
       </c>
       <c r="B88">
-        <v>5110</v>
+        <v>5070</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>〇人以上いる列の味方限定</v>
+        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>5070</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:10">
       <c r="A89">
-        <v>5111</v>
+        <v>5080</v>
       </c>
       <c r="B89">
-        <v>5111</v>
+        <v>5080</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>2体以上いる列の味方</v>
+        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>5080</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:10">
       <c r="A90">
-        <v>5112</v>
+        <v>5090</v>
       </c>
       <c r="B90">
-        <v>5112</v>
+        <v>5090</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>3体以上いる列の味方</v>
+        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>5090</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:10">
       <c r="A91">
-        <v>5120</v>
+        <v>5100</v>
       </c>
       <c r="B91">
-        <v>5120</v>
+        <v>5100</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>〇人以上いる列の敵限定</v>
+        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>5120</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>5100</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:10">
       <c r="A92">
-        <v>5121</v>
+        <v>5110</v>
       </c>
       <c r="B92">
-        <v>5121</v>
+        <v>5110</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>2体以上いる列の敵</v>
+        <v>〇人以上いる列の味方限定</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>5120</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:6">
+      <c r="G92">
+        <v>5110</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
       <c r="A93">
-        <v>5122</v>
+        <v>5111</v>
       </c>
       <c r="B93">
-        <v>5122</v>
+        <v>5111</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>3体以上いる列の敵</v>
+        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>5120</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>5110</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:10">
       <c r="A94">
-        <v>6010</v>
+        <v>5112</v>
       </c>
       <c r="B94">
-        <v>6010</v>
+        <v>5112</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>StateId状態になっている</v>
+        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>6010</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>5110</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
       <c r="A95">
-        <v>6020</v>
+        <v>5120</v>
       </c>
       <c r="B95">
-        <v>6020</v>
+        <v>5120</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>StateId状態になっていない</v>
+        <v>〇人以上いる列の敵限定</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>6020</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>5120</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
       <c r="A96">
-        <v>6030</v>
+        <v>5121</v>
       </c>
       <c r="B96">
-        <v>6030</v>
+        <v>5121</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>AbnormalのStateにかかっている</v>
+        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>6030</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>5120</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
       <c r="A97">
-        <v>7010</v>
+        <v>5122</v>
       </c>
       <c r="B97">
-        <v>7010</v>
+        <v>5122</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>7010</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>5120</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
-        <v>7020</v>
+        <v>6010</v>
       </c>
       <c r="B98">
-        <v>7020</v>
+        <v>6010</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>StateId状態になっている</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>7020</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>6010</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
-        <v>8010</v>
+        <v>6020</v>
       </c>
       <c r="B99">
-        <v>8010</v>
+        <v>6020</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>StateId状態になっていない</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>8010</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>6020</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
-        <v>8020</v>
+        <v>6030</v>
       </c>
       <c r="B100">
-        <v>8020</v>
+        <v>6030</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>AbnormalのStateにかかっている</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>8020</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" ht="12" customHeight="1" spans="1:6">
+      <c r="G100">
+        <v>6030</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
-        <v>9010</v>
+        <v>7010</v>
       </c>
       <c r="B101">
-        <v>9010</v>
+        <v>7010</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>神化発動前</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>9010</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" ht="12" customHeight="1" spans="1:6">
+      <c r="G101">
+        <v>7010</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
-        <v>9030</v>
+        <v>7020</v>
       </c>
       <c r="B102">
-        <v>9030</v>
+        <v>7020</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>神化発動後</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>9030</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>7020</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
-        <v>9040</v>
+        <v>8010</v>
       </c>
       <c r="B103">
-        <v>9040</v>
+        <v>8010</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>味方より敵が多い</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>9040</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>8010</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
-        <v>10010</v>
+        <v>8020</v>
       </c>
       <c r="B104">
-        <v>10010</v>
+        <v>8020</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>味方より敵が少ない</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>10010</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>8020</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="12" customHeight="1" spans="1:10">
       <c r="A105">
-        <v>10020</v>
+        <v>9010</v>
       </c>
       <c r="B105">
-        <v>10020</v>
+        <v>9010</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>10020</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>9010</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="12" customHeight="1" spans="1:10">
       <c r="A106">
-        <v>11010</v>
+        <v>9030</v>
       </c>
       <c r="B106">
-        <v>11010</v>
+        <v>9030</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>11010</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>9030</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
-        <v>12020</v>
+        <v>9040</v>
       </c>
       <c r="B107">
-        <v>12020</v>
+        <v>9040</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>12020</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>9040</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
-        <v>12030</v>
+        <v>10010</v>
       </c>
       <c r="B108">
-        <v>12030</v>
+        <v>10010</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>12030</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>10010</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
-        <v>12040</v>
+        <v>10020</v>
       </c>
       <c r="B109">
-        <v>12040</v>
+        <v>10020</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>〇%で</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>12040</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>10020</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
-        <v>12050</v>
+        <v>11010</v>
       </c>
       <c r="B110">
-        <v>12050</v>
+        <v>11010</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>バトル中使用回数が〇以下</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>12050</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>11010</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
-        <v>20010</v>
+        <v>12020</v>
       </c>
       <c r="B111">
-        <v>20010</v>
+        <v>12020</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>Lvが〇以上</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>20010</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>12020</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
-        <v>20020</v>
+        <v>12030</v>
       </c>
       <c r="B112">
-        <v>20020</v>
+        <v>12030</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>行動Magicの消費Mpが〇</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>20020</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>12030</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
-        <v>20030</v>
+        <v>12040</v>
       </c>
       <c r="B113">
-        <v>20030</v>
+        <v>12040</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>20030</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>12040</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
-        <v>20040</v>
+        <v>12050</v>
       </c>
       <c r="B114">
-        <v>20040</v>
+        <v>12050</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>20040</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>12050</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:10">
       <c r="A115">
-        <v>20050</v>
+        <v>13010</v>
       </c>
       <c r="B115">
-        <v>20050</v>
+        <v>13010</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>〇のKindを持っている味方</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>20050</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>13010</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:10">
       <c r="A116">
-        <v>20060</v>
+        <v>13020</v>
       </c>
       <c r="B116">
-        <v>20060</v>
+        <v>13020</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>〇のKindを持っている敵</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>20060</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>13020</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:10">
       <c r="A117">
-        <v>20070</v>
+        <v>13021</v>
       </c>
       <c r="B117">
-        <v>20070</v>
+        <v>13021</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>汎用敵(クリーチャー)を優先</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>20070</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>13020</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
       <c r="A118">
-        <v>20080</v>
+        <v>13022</v>
       </c>
       <c r="B118">
-        <v>20080</v>
+        <v>13022</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>ボス(悪魔)を優先</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>20080</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>13020</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:10">
       <c r="A119">
-        <v>20090</v>
+        <v>13026</v>
       </c>
       <c r="B119">
-        <v>20090</v>
+        <v>13026</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>汎用敵(クリーチャー)</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>20090</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>13020</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:10">
       <c r="A120">
-        <v>20100</v>
+        <v>13027</v>
       </c>
       <c r="B120">
-        <v>20100</v>
+        <v>13027</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>ボス(悪魔)</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>20100</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>13020</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
-        <v>20110</v>
+        <v>20010</v>
       </c>
       <c r="B121">
-        <v>20110</v>
+        <v>20010</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>Mpを〇消費する</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>20110</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>20010</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
-        <v>20120</v>
+        <v>20020</v>
       </c>
       <c r="B122">
-        <v>20120</v>
+        <v>20020</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>拘束3回成功</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>20120</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>20020</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
-        <v>20130</v>
+        <v>20030</v>
       </c>
       <c r="B123">
-        <v>20130</v>
+        <v>20030</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>攻撃で戦闘不能になる</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>20130</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>20030</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
-        <v>20140</v>
+        <v>20040</v>
       </c>
       <c r="B124">
-        <v>20140</v>
+        <v>20040</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>自分以外が戦闘不能</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>20140</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>20040</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
-        <v>20150</v>
+        <v>20050</v>
       </c>
       <c r="B125">
-        <v>20150</v>
+        <v>20050</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>自身が戦闘不能になる</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>20150</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>20050</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
-        <v>20160</v>
+        <v>20060</v>
       </c>
       <c r="B126">
-        <v>20160</v>
+        <v>20060</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>攻撃を〇回受ける</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>20160</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>20060</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
-        <v>30010</v>
+        <v>20070</v>
       </c>
       <c r="B127">
-        <v>30010</v>
+        <v>20070</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>敵全員が呪い状態</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>30010</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>20070</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
-        <v>30020</v>
+        <v>20080</v>
       </c>
       <c r="B128">
-        <v>30020</v>
+        <v>20080</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>20080</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>20090</v>
+      </c>
+      <c r="B129">
+        <v>20090</v>
+      </c>
+      <c r="C129" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>20090</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>20100</v>
+      </c>
+      <c r="B130">
+        <v>20100</v>
+      </c>
+      <c r="C130" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>20100</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>20110</v>
+      </c>
+      <c r="B131">
+        <v>20110</v>
+      </c>
+      <c r="C131" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B131,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>20110</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>20120</v>
+      </c>
+      <c r="B132">
+        <v>20120</v>
+      </c>
+      <c r="C132" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B132,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>20120</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>20130</v>
+      </c>
+      <c r="B133">
+        <v>20130</v>
+      </c>
+      <c r="C133" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B133,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>20130</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>20140</v>
+      </c>
+      <c r="B134">
+        <v>20140</v>
+      </c>
+      <c r="C134" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B134,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>20140</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>20150</v>
+      </c>
+      <c r="B135">
+        <v>20150</v>
+      </c>
+      <c r="C135" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B135,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>20150</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>20160</v>
+      </c>
+      <c r="B136">
+        <v>20160</v>
+      </c>
+      <c r="C136" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B136,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>20160</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>30010</v>
+      </c>
+      <c r="B137">
+        <v>30010</v>
+      </c>
+      <c r="C137" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B137,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>30010</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>30020</v>
+      </c>
+      <c r="B138">
+        <v>30020</v>
+      </c>
+      <c r="C138" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B138,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
         <v>30020</v>
       </c>
-      <c r="F128">
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
         <v>0</v>
       </c>
     </row>
@@ -4075,15 +6199,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="41.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="60.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4091,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4102,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4113,10 +6238,10 @@
         <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4124,10 +6249,10 @@
         <v>1011</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4135,10 +6260,10 @@
         <v>1012</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4146,10 +6271,10 @@
         <v>1013</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4157,10 +6282,10 @@
         <v>1014</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4168,10 +6293,10 @@
         <v>1020</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4179,10 +6304,10 @@
         <v>1021</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4190,10 +6315,10 @@
         <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4201,10 +6326,10 @@
         <v>1023</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4212,10 +6337,10 @@
         <v>1024</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4223,54 +6348,54 @@
         <v>1030</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="26" spans="1:3">
       <c r="A14">
         <v>1031</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="26" spans="1:3">
       <c r="A15">
         <v>1032</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="26" spans="1:3">
       <c r="A16">
         <v>1033</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="26" spans="1:3">
       <c r="A17">
         <v>1034</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4278,54 +6403,54 @@
         <v>1040</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="26" spans="1:3">
       <c r="A19">
         <v>1041</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="26" spans="1:3">
       <c r="A20">
         <v>1042</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:3">
       <c r="A21">
         <v>1043</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="26" spans="1:3">
       <c r="A22">
         <v>1044</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4333,54 +6458,54 @@
         <v>1050</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="26" spans="1:3">
       <c r="A24">
         <v>1051</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="26" spans="1:3">
       <c r="A25">
         <v>1052</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" ht="26" spans="1:3">
       <c r="A26">
         <v>1053</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="26" spans="1:3">
       <c r="A27">
         <v>1054</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4388,54 +6513,54 @@
         <v>1060</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="26" spans="1:3">
       <c r="A29">
         <v>1061</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="26" spans="1:3">
       <c r="A30">
         <v>1062</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="26" spans="1:3">
       <c r="A31">
         <v>1063</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" ht="26" spans="1:3">
       <c r="A32">
         <v>1064</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:3">
@@ -4443,1055 +6568,1165 @@
         <v>1130</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
       <c r="A34">
+        <v>1131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:3">
+      <c r="A35">
         <v>1140</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>1150</v>
-      </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:3">
       <c r="A36">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2010</v>
+        <v>1150</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
       <c r="A38">
-        <v>3010</v>
+        <v>1151</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:3">
       <c r="A39">
-        <v>3011</v>
+        <v>1160</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:3">
       <c r="A40">
-        <v>3012</v>
+        <v>1161</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3013</v>
+        <v>2010</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3022</v>
+        <v>3013</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3023</v>
+        <v>3014</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3031</v>
+        <v>3022</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3032</v>
+        <v>3023</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3033</v>
+        <v>3024</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
+        <v>3030</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="26" spans="1:3">
+      <c r="A53">
+        <v>3031</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" ht="26" spans="1:3">
+      <c r="A54">
+        <v>3032</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" ht="26" spans="1:3">
+      <c r="A55">
+        <v>3033</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" ht="26" spans="1:3">
+      <c r="A56">
         <v>3034</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>3040</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>3041</v>
-      </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>3042</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>3043</v>
-      </c>
       <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
+        <v>3040</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="26" spans="1:3">
+      <c r="A58">
+        <v>3041</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" ht="26" spans="1:3">
+      <c r="A59">
+        <v>3042</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" ht="26" spans="1:3">
+      <c r="A60">
+        <v>3043</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" ht="26" spans="1:3">
+      <c r="A61">
         <v>3044</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>3050</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>3051</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>3052</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>3053</v>
-      </c>
       <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
+        <v>102</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
+        <v>3050</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="26" spans="1:3">
+      <c r="A63">
+        <v>3051</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" ht="26" spans="1:3">
+      <c r="A64">
+        <v>3052</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" ht="26" spans="1:3">
+      <c r="A65">
+        <v>3053</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" ht="26" spans="1:3">
+      <c r="A66">
         <v>3054</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>3060</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>3061</v>
-      </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>3062</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>3063</v>
-      </c>
       <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
+        <v>3060</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="26" spans="1:3">
+      <c r="A68">
+        <v>3061</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" ht="26" spans="1:3">
+      <c r="A69">
+        <v>3062</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" ht="26" spans="1:3">
+      <c r="A70">
+        <v>3063</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" ht="26" spans="1:3">
+      <c r="A71">
         <v>3064</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>4010</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>4020</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>5010</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>5020</v>
-      </c>
       <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
+        <v>120</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>5030</v>
+        <v>4010</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>5031</v>
+        <v>4020</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>5032</v>
+        <v>5010</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>5041</v>
+        <v>5030</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>5042</v>
+        <v>5031</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" ht="26" spans="1:3">
       <c r="A78">
-        <v>5050</v>
+        <v>5032</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
+        <v>129</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>5051</v>
+        <v>5040</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>5052</v>
+        <v>5041</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" ht="26" spans="1:3">
       <c r="A81">
-        <v>5060</v>
+        <v>5042</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>5061</v>
+        <v>5050</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
+        <v>5051</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" ht="26" customHeight="1" spans="1:3">
+      <c r="A84">
+        <v>5052</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>5060</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>5061</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" ht="26" spans="1:3">
+      <c r="A87">
         <v>5062</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" ht="12" customHeight="1" spans="1:3">
-      <c r="A84">
-        <v>5070</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" ht="12" customHeight="1" spans="1:3">
-      <c r="A85">
-        <v>5080</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" ht="12" customHeight="1" spans="1:3">
-      <c r="A86">
-        <v>5090</v>
-      </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" ht="12" customHeight="1" spans="1:3">
-      <c r="A87">
-        <v>5100</v>
-      </c>
       <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:3">
       <c r="A88">
-        <v>5110</v>
+        <v>5070</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:3">
       <c r="A89">
-        <v>5111</v>
+        <v>5080</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:3">
       <c r="A90">
-        <v>5112</v>
+        <v>5090</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:3">
       <c r="A91">
-        <v>5120</v>
+        <v>5100</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" ht="12" customHeight="1" spans="1:3">
       <c r="A92">
+        <v>5110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="26" spans="1:3">
+      <c r="A93">
+        <v>5111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" ht="26" spans="1:3">
+      <c r="A94">
+        <v>5112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" ht="12" customHeight="1" spans="1:3">
+      <c r="A95">
+        <v>5120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="26" spans="1:3">
+      <c r="A96">
         <v>5121</v>
       </c>
-      <c r="B92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" ht="12" customHeight="1" spans="1:3">
-      <c r="A93">
+      <c r="B96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" ht="26" spans="1:3">
+      <c r="A97">
         <v>5122</v>
       </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>6010</v>
-      </c>
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>6020</v>
-      </c>
-      <c r="B95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>6030</v>
-      </c>
-      <c r="B96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>7010</v>
-      </c>
       <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
+        <v>159</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>7020</v>
+        <v>6010</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>8010</v>
+        <v>6020</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>8020</v>
+        <v>6030</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>9010</v>
+        <v>7010</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>9030</v>
+        <v>7020</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>9040</v>
+        <v>8010</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>10010</v>
+        <v>8020</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>10020</v>
+        <v>9010</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>11010</v>
+        <v>9030</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>12020</v>
+        <v>9040</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>12030</v>
+        <v>10010</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>12040</v>
+        <v>10020</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>12050</v>
+        <v>11010</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>20010</v>
+        <v>12020</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>20020</v>
+        <v>12030</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>20030</v>
+        <v>12040</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>20040</v>
+        <v>12050</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>20050</v>
+        <v>13010</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>20060</v>
+        <v>13020</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>20070</v>
+        <v>13021</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>20080</v>
+        <v>13022</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" ht="26" spans="1:3">
       <c r="A119">
-        <v>20090</v>
+        <v>13026</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" ht="26" spans="1:3">
       <c r="A120">
-        <v>20100</v>
+        <v>13027</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
+        <v>186</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>20110</v>
+        <v>20010</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>20120</v>
+        <v>20020</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>20130</v>
+        <v>20030</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>20140</v>
+        <v>20040</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>20150</v>
+        <v>20050</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>20160</v>
+        <v>20060</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>30010</v>
+        <v>20070</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
+        <v>20080</v>
+      </c>
+      <c r="B128" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>20090</v>
+      </c>
+      <c r="B129" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>20100</v>
+      </c>
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>20110</v>
+      </c>
+      <c r="B131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>20120</v>
+      </c>
+      <c r="B132" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>20130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>20140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>201</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>20150</v>
+      </c>
+      <c r="B135" t="s">
+        <v>202</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>20160</v>
+      </c>
+      <c r="B136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>30010</v>
+      </c>
+      <c r="B137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
         <v>30020</v>
       </c>
-      <c r="B128" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" t="s">
-        <v>8</v>
+      <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,34 @@
 &lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;未満</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが100%未満の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが75%以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが50%以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが25%以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>Hp%〇以上の味方</t>
   </si>
   <si>
@@ -149,6 +177,34 @@
 &lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが100%以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが75%以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが50%以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>対象の平均Hpが25%以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>Hp%〇未満の敵</t>
   </si>
   <si>
@@ -180,6 +236,18 @@
 &lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;未満</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以下</t>
+  </si>
+  <si>
     <t>Hp%〇以上の敵</t>
   </si>
   <si>
@@ -209,6 +277,18 @@
   <si>
     <t>Hpが25%以上ある相手に限定します
 &lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以上</t>
   </si>
   <si>
     <t>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
@@ -684,8 +764,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -711,9 +791,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,78 +814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +838,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,10 +883,41 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -850,19 +930,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,139 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1002,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1124,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,17 +1169,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,35 +1202,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,7 +1229,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,7 +1238,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,124 +1250,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,15 +1697,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="41.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="72.7272727272727" customWidth="1"/>
     <col min="4" max="6" width="15.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="7.81818181818182" customWidth="1"/>
@@ -2196,154 +2276,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" customFormat="1" spans="1:10">
       <c r="A18">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B18">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX(TextData!B:B,MATCH(B18,TextData!A:A))</f>
-        <v>Hp%〇以上の味方</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;未満</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B19">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX(TextData!B:B,MATCH(B19,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以下</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
       <c r="A20">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B20">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX(TextData!B:B,MATCH(B20,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以下</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="H20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
       <c r="A21">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B21">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX(TextData!B:B,MATCH(B21,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以下</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
+        <v>1030</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>1040</v>
       </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:10">
-      <c r="A22">
-        <v>1044</v>
-      </c>
       <c r="B22">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX(TextData!B:B,MATCH(B22,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>Hp%〇以上の味方</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -2352,7 +2432,7 @@
         <v>1040</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2363,29 +2443,29 @@
     </row>
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B23">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX(TextData!B:B,MATCH(B23,TextData!A:A))</f>
-        <v>Hp%〇未満の敵</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2396,29 +2476,29 @@
     </row>
     <row r="24" customFormat="1" spans="1:10">
       <c r="A24">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B24">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX(TextData!B:B,MATCH(B24,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2429,29 +2509,29 @@
     </row>
     <row r="25" customFormat="1" spans="1:10">
       <c r="A25">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="B25">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX(TextData!B:B,MATCH(B25,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2462,29 +2542,29 @@
     </row>
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="B26">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX(TextData!B:B,MATCH(B26,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2495,161 +2575,161 @@
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="B27">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX(TextData!B:B,MATCH(B27,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;以上</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B28">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX(TextData!B:B,MATCH(B28,TextData!A:A))</f>
-        <v>Hp%〇以上の敵</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以上</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="B29">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX(TextData!B:B,MATCH(B29,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以上</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="B30">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX(TextData!B:B,MATCH(B30,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以上</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="B31">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX(TextData!B:B,MATCH(B31,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp%〇未満の敵</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2660,29 +2740,29 @@
     </row>
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="B32">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX(TextData!B:B,MATCH(B32,TextData!A:A))</f>
-        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2693,32 +2773,32 @@
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33">
-        <v>1130</v>
+        <v>1052</v>
       </c>
       <c r="B33">
-        <v>1130</v>
+        <v>1052</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX(TextData!B:B,MATCH(B33,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1130</v>
+        <v>1050</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2726,32 +2806,32 @@
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34">
-        <v>1131</v>
+        <v>1053</v>
       </c>
       <c r="B34">
-        <v>1131</v>
+        <v>1053</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX(TextData!B:B,MATCH(B34,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1130</v>
+        <v>1050</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2759,32 +2839,32 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35">
-        <v>1140</v>
+        <v>1054</v>
       </c>
       <c r="B35">
-        <v>1140</v>
+        <v>1054</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX(TextData!B:B,MATCH(B35,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1140</v>
+        <v>1050</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2792,194 +2872,194 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36">
-        <v>1141</v>
+        <v>1055</v>
       </c>
       <c r="B36">
-        <v>1141</v>
+        <v>1055</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX(TextData!B:B,MATCH(B36,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;未満</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1140</v>
+        <v>1050</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
       <c r="A37">
-        <v>1150</v>
+        <v>1056</v>
       </c>
       <c r="B37">
-        <v>1150</v>
+        <v>1056</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX(TextData!B:B,MATCH(B37,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以下</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
       <c r="A38">
-        <v>1151</v>
+        <v>1057</v>
       </c>
       <c r="B38">
-        <v>1151</v>
+        <v>1057</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX(TextData!B:B,MATCH(B38,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以下</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
       <c r="A39">
-        <v>1160</v>
+        <v>1058</v>
       </c>
       <c r="B39">
-        <v>1160</v>
+        <v>1058</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX(TextData!B:B,MATCH(B39,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以下</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1160</v>
+        <v>1050</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40">
-        <v>1161</v>
+        <v>1060</v>
       </c>
       <c r="B40">
-        <v>1161</v>
+        <v>1060</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX(TextData!B:B,MATCH(B40,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Hp%〇以上の敵</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1160</v>
+        <v>1060</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" customFormat="1" spans="1:10">
       <c r="A41">
-        <v>2010</v>
+        <v>1061</v>
       </c>
       <c r="B41">
-        <v>2010</v>
+        <v>1061</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX(TextData!B:B,MATCH(B41,TextData!A:A))</f>
-        <v>味方にHpが〇%以下がいる</v>
+        <v>Hp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>2010</v>
+        <v>1060</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2988,31 +3068,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" customFormat="1" spans="1:10">
       <c r="A42">
-        <v>3010</v>
+        <v>1062</v>
       </c>
       <c r="B42">
-        <v>3010</v>
+        <v>1062</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX(TextData!B:B,MATCH(B42,TextData!A:A))</f>
-        <v>自身のMpが〇以下</v>
+        <v>Hp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>3010</v>
+        <v>1060</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3023,29 +3103,29 @@
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43">
-        <v>3011</v>
+        <v>1063</v>
       </c>
       <c r="B43">
-        <v>3011</v>
+        <v>1063</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX(TextData!B:B,MATCH(B43,TextData!A:A))</f>
-        <v>自身のMpが100%以下</v>
+        <v>Hp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>3010</v>
+        <v>1060</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3056,29 +3136,29 @@
     </row>
     <row r="44" customFormat="1" spans="1:10">
       <c r="A44">
-        <v>3012</v>
+        <v>1064</v>
       </c>
       <c r="B44">
-        <v>3012</v>
+        <v>1064</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX(TextData!B:B,MATCH(B44,TextData!A:A))</f>
-        <v>自身のMpが75%以下</v>
+        <v>Hp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>3010</v>
+        <v>1060</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3089,164 +3169,164 @@
     </row>
     <row r="45" customFormat="1" spans="1:10">
       <c r="A45">
-        <v>3013</v>
+        <v>1065</v>
       </c>
       <c r="B45">
-        <v>3013</v>
+        <v>1065</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX(TextData!B:B,MATCH(B45,TextData!A:A))</f>
-        <v>自身のMpが50%以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;100%&lt;/color&gt;以上</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>3010</v>
+        <v>1060</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46">
-        <v>3014</v>
+        <v>1066</v>
       </c>
       <c r="B46">
-        <v>3014</v>
+        <v>1066</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX(TextData!B:B,MATCH(B46,TextData!A:A))</f>
-        <v>自身のMpが25%以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;75%&lt;/color&gt;以上</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>3010</v>
+        <v>1060</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
       <c r="A47">
-        <v>3020</v>
+        <v>1067</v>
       </c>
       <c r="B47">
-        <v>3020</v>
+        <v>1067</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX(TextData!B:B,MATCH(B47,TextData!A:A))</f>
-        <v>自身のMpが〇以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;50%&lt;/color&gt;以上</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>3020</v>
+        <v>1060</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48">
-        <v>3021</v>
+        <v>1068</v>
       </c>
       <c r="B48">
-        <v>3021</v>
+        <v>1068</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX(TextData!B:B,MATCH(B48,TextData!A:A))</f>
-        <v>自身のMpが100%以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;の平均Hpが&lt;color="green"&gt;25%&lt;/color&gt;以上</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>3020</v>
+        <v>1060</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49">
-        <v>3022</v>
+        <v>1130</v>
       </c>
       <c r="B49">
-        <v>3022</v>
+        <v>1130</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX(TextData!B:B,MATCH(B49,TextData!A:A))</f>
-        <v>自身のMpが75%以上</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>3020</v>
+        <v>1130</v>
       </c>
       <c r="H49">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3254,32 +3334,32 @@
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50">
-        <v>3023</v>
+        <v>1131</v>
       </c>
       <c r="B50">
-        <v>3023</v>
+        <v>1131</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX(TextData!B:B,MATCH(B50,TextData!A:A))</f>
-        <v>自身のMpが50%以上</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>3020</v>
+        <v>1130</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3287,32 +3367,32 @@
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51">
-        <v>3024</v>
+        <v>1140</v>
       </c>
       <c r="B51">
-        <v>3024</v>
+        <v>1140</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX(TextData!B:B,MATCH(B51,TextData!A:A))</f>
-        <v>自身のMpが25%以上</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>3020</v>
+        <v>1140</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3320,32 +3400,32 @@
     </row>
     <row r="52" customFormat="1" spans="1:10">
       <c r="A52">
-        <v>3030</v>
+        <v>1141</v>
       </c>
       <c r="B52">
-        <v>3030</v>
+        <v>1141</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX(TextData!B:B,MATCH(B52,TextData!A:A))</f>
-        <v>Mp〇未満の味方</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52">
-        <v>3030</v>
+        <v>1140</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3353,32 +3433,32 @@
     </row>
     <row r="53" customFormat="1" spans="1:10">
       <c r="A53">
-        <v>3031</v>
+        <v>1150</v>
       </c>
       <c r="B53">
-        <v>3031</v>
+        <v>1150</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX(TextData!B:B,MATCH(B53,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>3030</v>
+        <v>1150</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3386,32 +3466,32 @@
     </row>
     <row r="54" customFormat="1" spans="1:10">
       <c r="A54">
-        <v>3032</v>
+        <v>1151</v>
       </c>
       <c r="B54">
-        <v>3032</v>
+        <v>1151</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX(TextData!B:B,MATCH(B54,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>3030</v>
+        <v>1150</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3419,32 +3499,32 @@
     </row>
     <row r="55" customFormat="1" spans="1:10">
       <c r="A55">
-        <v>3033</v>
+        <v>1160</v>
       </c>
       <c r="B55">
-        <v>3033</v>
+        <v>1160</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX(TextData!B:B,MATCH(B55,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>3030</v>
+        <v>1160</v>
       </c>
       <c r="H55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3452,47 +3532,47 @@
     </row>
     <row r="56" customFormat="1" spans="1:10">
       <c r="A56">
-        <v>3034</v>
+        <v>1161</v>
       </c>
       <c r="B56">
-        <v>3034</v>
+        <v>1161</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX(TextData!B:B,MATCH(B56,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;Hp&lt;/color&gt;割合が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>3030</v>
+        <v>1160</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10">
       <c r="A57">
-        <v>3040</v>
+        <v>2010</v>
       </c>
       <c r="B57">
-        <v>3040</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX(TextData!B:B,MATCH(B57,TextData!A:A))</f>
-        <v>Mp〇以上の味方</v>
+        <v>味方にHpが〇%以下がいる</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3504,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <v>3040</v>
+        <v>2010</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3516,31 +3596,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10">
       <c r="A58">
-        <v>3041</v>
+        <v>3010</v>
       </c>
       <c r="B58">
-        <v>3041</v>
+        <v>3010</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>自身のMpが〇以下</v>
       </c>
       <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>4</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
       <c r="G58">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3551,14 +3631,14 @@
     </row>
     <row r="59" customFormat="1" spans="1:10">
       <c r="A59">
-        <v>3042</v>
+        <v>3011</v>
       </c>
       <c r="B59">
-        <v>3042</v>
+        <v>3011</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>自身のMpが100%以下</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -3567,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="H59">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3584,14 +3664,14 @@
     </row>
     <row r="60" customFormat="1" spans="1:10">
       <c r="A60">
-        <v>3043</v>
+        <v>3012</v>
       </c>
       <c r="B60">
-        <v>3043</v>
+        <v>3012</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>自身のMpが75%以下</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -3600,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="H60">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3617,14 +3697,14 @@
     </row>
     <row r="61" customFormat="1" spans="1:10">
       <c r="A61">
-        <v>3044</v>
+        <v>3013</v>
       </c>
       <c r="B61">
-        <v>3044</v>
+        <v>3013</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>自身のMpが50%以下</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -3633,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="H61">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3650,29 +3730,29 @@
     </row>
     <row r="62" customFormat="1" spans="1:10">
       <c r="A62">
-        <v>3050</v>
+        <v>3014</v>
       </c>
       <c r="B62">
-        <v>3050</v>
+        <v>3014</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>Mp〇未満の敵</v>
+        <v>自身のMpが25%以下</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>3050</v>
+        <v>3010</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3681,31 +3761,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10">
       <c r="A63">
-        <v>3051</v>
+        <v>3020</v>
       </c>
       <c r="B63">
-        <v>3051</v>
+        <v>3020</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身のMpが〇以上</v>
       </c>
       <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
       <c r="G63">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3716,14 +3796,14 @@
     </row>
     <row r="64" customFormat="1" spans="1:10">
       <c r="A64">
-        <v>3052</v>
+        <v>3021</v>
       </c>
       <c r="B64">
-        <v>3052</v>
+        <v>3021</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身のMpが100%以上</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3732,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="H64">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3749,14 +3829,14 @@
     </row>
     <row r="65" customFormat="1" spans="1:10">
       <c r="A65">
-        <v>3053</v>
+        <v>3022</v>
       </c>
       <c r="B65">
-        <v>3053</v>
+        <v>3022</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身のMpが75%以上</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -3765,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3782,14 +3862,14 @@
     </row>
     <row r="66" customFormat="1" spans="1:10">
       <c r="A66">
-        <v>3054</v>
+        <v>3023</v>
       </c>
       <c r="B66">
-        <v>3054</v>
+        <v>3023</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身のMpが50%以上</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -3798,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="H66">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3815,29 +3895,29 @@
     </row>
     <row r="67" customFormat="1" spans="1:10">
       <c r="A67">
-        <v>3060</v>
+        <v>3024</v>
       </c>
       <c r="B67">
-        <v>3060</v>
+        <v>3024</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>Mp〇以上の敵</v>
+        <v>自身のMpが25%以上</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>3060</v>
+        <v>3020</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3848,29 +3928,29 @@
     </row>
     <row r="68" customFormat="1" spans="1:10">
       <c r="A68">
-        <v>3061</v>
+        <v>3030</v>
       </c>
       <c r="B68">
-        <v>3061</v>
+        <v>3030</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Mp〇未満の味方</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>3060</v>
+        <v>3030</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3881,14 +3961,14 @@
     </row>
     <row r="69" customFormat="1" spans="1:10">
       <c r="A69">
-        <v>3062</v>
+        <v>3031</v>
       </c>
       <c r="B69">
-        <v>3062</v>
+        <v>3031</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -3897,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>3060</v>
+        <v>3030</v>
       </c>
       <c r="H69">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3914,14 +3994,14 @@
     </row>
     <row r="70" customFormat="1" spans="1:10">
       <c r="A70">
-        <v>3063</v>
+        <v>3032</v>
       </c>
       <c r="B70">
-        <v>3063</v>
+        <v>3032</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3930,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>3060</v>
+        <v>3030</v>
       </c>
       <c r="H70">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3947,14 +4027,14 @@
     </row>
     <row r="71" customFormat="1" spans="1:10">
       <c r="A71">
-        <v>3064</v>
+        <v>3033</v>
       </c>
       <c r="B71">
-        <v>3064</v>
+        <v>3033</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -3963,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>3060</v>
+        <v>3030</v>
       </c>
       <c r="H71">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3978,31 +4058,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" customFormat="1" spans="1:10">
       <c r="A72">
-        <v>4010</v>
+        <v>3034</v>
       </c>
       <c r="B72">
-        <v>4010</v>
+        <v>3034</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>戦闘不能が〇以上存在する</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>4010</v>
+        <v>3030</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4011,16 +4091,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" customFormat="1" spans="1:10">
       <c r="A73">
-        <v>4020</v>
+        <v>3040</v>
       </c>
       <c r="B73">
-        <v>4020</v>
+        <v>3040</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>生存者が〇以上存在する</v>
+        <v>Mp〇以上の味方</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4029,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>4020</v>
+        <v>3040</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4044,31 +4124,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" customFormat="1" spans="1:10">
       <c r="A74">
-        <v>5010</v>
+        <v>3041</v>
       </c>
       <c r="B74">
-        <v>5010</v>
+        <v>3041</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>自分が前列にいる</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>5010</v>
+        <v>3040</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4077,31 +4157,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" customFormat="1" spans="1:10">
       <c r="A75">
-        <v>5020</v>
+        <v>3042</v>
       </c>
       <c r="B75">
-        <v>5020</v>
+        <v>3042</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>自分が後列にいる</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>5020</v>
+        <v>3040</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4110,19 +4190,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" customFormat="1" spans="1:10">
       <c r="A76">
-        <v>5030</v>
+        <v>3043</v>
       </c>
       <c r="B76">
-        <v>5030</v>
+        <v>3043</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
-        <v>前列の味方を狙う</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4131,10 +4211,10 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>5030</v>
+        <v>3040</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -4143,19 +4223,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" customFormat="1" spans="1:10">
       <c r="A77">
-        <v>5040</v>
+        <v>3044</v>
       </c>
       <c r="B77">
-        <v>5040</v>
+        <v>3044</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX(TextData!B:B,MATCH(B77,TextData!A:A))</f>
-        <v>後列の味方を狙う</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4164,10 +4244,10 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>5040</v>
+        <v>3040</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4178,32 +4258,32 @@
     </row>
     <row r="78" customFormat="1" spans="1:10">
       <c r="A78">
-        <v>5041</v>
+        <v>3050</v>
       </c>
       <c r="B78">
-        <v>5031</v>
+        <v>3050</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX(TextData!B:B,MATCH(B78,TextData!A:A))</f>
-        <v>前列の味方を優先</v>
+        <v>Mp〇未満の敵</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>5030</v>
+        <v>3050</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4211,32 +4291,32 @@
     </row>
     <row r="79" customFormat="1" spans="1:10">
       <c r="A79">
-        <v>5042</v>
+        <v>3051</v>
       </c>
       <c r="B79">
-        <v>5041</v>
+        <v>3051</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX(TextData!B:B,MATCH(B79,TextData!A:A))</f>
-        <v>後列の味方を優先</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;未満の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>5040</v>
+        <v>3050</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4244,29 +4324,29 @@
     </row>
     <row r="80" customFormat="1" spans="1:10">
       <c r="A80">
-        <v>5043</v>
+        <v>3052</v>
       </c>
       <c r="B80">
-        <v>5032</v>
+        <v>3052</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX(TextData!B:B,MATCH(B80,TextData!A:A))</f>
-        <v>前列の味方</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>5030</v>
+        <v>3050</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4277,29 +4357,29 @@
     </row>
     <row r="81" customFormat="1" spans="1:10">
       <c r="A81">
-        <v>5044</v>
+        <v>3053</v>
       </c>
       <c r="B81">
-        <v>5042</v>
+        <v>3053</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX(TextData!B:B,MATCH(B81,TextData!A:A))</f>
-        <v>後列の味方</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>5040</v>
+        <v>3050</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4308,19 +4388,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" customFormat="1" spans="1:10">
       <c r="A82">
-        <v>5050</v>
+        <v>3054</v>
       </c>
       <c r="B82">
-        <v>5050</v>
+        <v>3054</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX(TextData!B:B,MATCH(B82,TextData!A:A))</f>
-        <v>前列の敵を狙う</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以下の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4329,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>5050</v>
+        <v>3050</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -4341,16 +4421,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" customFormat="1" spans="1:10">
       <c r="A83">
-        <v>5060</v>
+        <v>3060</v>
       </c>
       <c r="B83">
-        <v>5060</v>
+        <v>3060</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX(TextData!B:B,MATCH(B83,TextData!A:A))</f>
-        <v>後列の敵を狙う</v>
+        <v>Mp〇以上の敵</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4362,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>5060</v>
+        <v>3060</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4376,17 +4456,17 @@
     </row>
     <row r="84" customFormat="1" spans="1:10">
       <c r="A84">
-        <v>5061</v>
+        <v>3061</v>
       </c>
       <c r="B84">
-        <v>5051</v>
+        <v>3061</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX(TextData!B:B,MATCH(B84,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>Mp&lt;color="green"&gt;100%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4395,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>5050</v>
+        <v>3060</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4409,17 +4489,17 @@
     </row>
     <row r="85" customFormat="1" spans="1:10">
       <c r="A85">
-        <v>5062</v>
+        <v>3062</v>
       </c>
       <c r="B85">
-        <v>5061</v>
+        <v>3062</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX(TextData!B:B,MATCH(B85,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>Mp&lt;color="green"&gt;75%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4428,13 +4508,13 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>5060</v>
+        <v>3060</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4442,17 +4522,17 @@
     </row>
     <row r="86" customFormat="1" spans="1:10">
       <c r="A86">
-        <v>5063</v>
+        <v>3063</v>
       </c>
       <c r="B86">
-        <v>5052</v>
+        <v>3063</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX(TextData!B:B,MATCH(B86,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>Mp&lt;color="green"&gt;50%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4461,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>5050</v>
+        <v>3060</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4475,17 +4555,17 @@
     </row>
     <row r="87" customFormat="1" spans="1:10">
       <c r="A87">
-        <v>5064</v>
+        <v>3064</v>
       </c>
       <c r="B87">
-        <v>5062</v>
+        <v>3064</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX(TextData!B:B,MATCH(B87,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>Mp&lt;color="green"&gt;25%&lt;/color&gt;以上の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4494,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>5060</v>
+        <v>3060</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4506,28 +4586,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88">
-        <v>5070</v>
+        <v>4010</v>
       </c>
       <c r="B88">
-        <v>5070</v>
+        <v>4010</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX(TextData!B:B,MATCH(B88,TextData!A:A))</f>
-        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>戦闘不能が〇以上存在する</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>5070</v>
+        <v>4010</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4539,28 +4619,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="1" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89">
-        <v>5080</v>
+        <v>4020</v>
       </c>
       <c r="B89">
-        <v>5080</v>
+        <v>4020</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX(TextData!B:B,MATCH(B89,TextData!A:A))</f>
-        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>生存者が〇以上存在する</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>5080</v>
+        <v>4020</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4572,28 +4652,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90">
-        <v>5090</v>
+        <v>5010</v>
       </c>
       <c r="B90">
-        <v>5090</v>
+        <v>5010</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX(TextData!B:B,MATCH(B90,TextData!A:A))</f>
-        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>自分が前列にいる</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>5090</v>
+        <v>5010</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4605,28 +4685,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="1" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91">
-        <v>5100</v>
+        <v>5020</v>
       </c>
       <c r="B91">
-        <v>5100</v>
+        <v>5020</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX(TextData!B:B,MATCH(B91,TextData!A:A))</f>
-        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自分が後列にいる</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>5100</v>
+        <v>5020</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4638,16 +4718,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92">
-        <v>5110</v>
+        <v>5030</v>
       </c>
       <c r="B92">
-        <v>5110</v>
+        <v>5030</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX(TextData!B:B,MATCH(B92,TextData!A:A))</f>
-        <v>〇人以上いる列の味方限定</v>
+        <v>前列の味方を狙う</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4659,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="G92">
-        <v>5110</v>
+        <v>5030</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4671,19 +4751,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93">
-        <v>5111</v>
+        <v>5040</v>
       </c>
       <c r="B93">
-        <v>5111</v>
+        <v>5040</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX(TextData!B:B,MATCH(B93,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>後列の味方を狙う</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4692,10 +4772,10 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>5110</v>
+        <v>5040</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4706,14 +4786,14 @@
     </row>
     <row r="94" customFormat="1" spans="1:10">
       <c r="A94">
-        <v>5112</v>
+        <v>5041</v>
       </c>
       <c r="B94">
-        <v>5112</v>
+        <v>5031</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>前列の味方を優先</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4725,13 +4805,13 @@
         <v>2</v>
       </c>
       <c r="G94">
-        <v>5110</v>
+        <v>5030</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4739,32 +4819,32 @@
     </row>
     <row r="95" customFormat="1" spans="1:10">
       <c r="A95">
-        <v>5120</v>
+        <v>5042</v>
       </c>
       <c r="B95">
-        <v>5120</v>
+        <v>5041</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>〇人以上いる列の敵限定</v>
+        <v>後列の味方を優先</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>5120</v>
+        <v>5040</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4772,14 +4852,14 @@
     </row>
     <row r="96" customFormat="1" spans="1:10">
       <c r="A96">
-        <v>5121</v>
+        <v>5043</v>
       </c>
       <c r="B96">
-        <v>5121</v>
+        <v>5032</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>前列の味方</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4788,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>5120</v>
+        <v>5030</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4805,14 +4885,14 @@
     </row>
     <row r="97" customFormat="1" spans="1:10">
       <c r="A97">
-        <v>5122</v>
+        <v>5044</v>
       </c>
       <c r="B97">
-        <v>5122</v>
+        <v>5042</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>後列の味方</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4821,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>5120</v>
+        <v>5040</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4838,14 +4918,14 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>6010</v>
+        <v>5050</v>
       </c>
       <c r="B98">
-        <v>6010</v>
+        <v>5050</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX(TextData!B:B,MATCH(B98,TextData!A:A))</f>
-        <v>StateId状態になっている</v>
+        <v>前列の敵を狙う</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4854,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>6010</v>
+        <v>5050</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4871,14 +4951,14 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>6020</v>
+        <v>5060</v>
       </c>
       <c r="B99">
-        <v>6020</v>
+        <v>5060</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX(TextData!B:B,MATCH(B99,TextData!A:A))</f>
-        <v>StateId状態になっていない</v>
+        <v>後列の敵を狙う</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4887,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>6020</v>
+        <v>5060</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4902,94 +4982,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" customFormat="1" spans="1:10">
       <c r="A100">
-        <v>6030</v>
+        <v>5061</v>
       </c>
       <c r="B100">
-        <v>6030</v>
+        <v>5051</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX(TextData!B:B,MATCH(B100,TextData!A:A))</f>
-        <v>AbnormalのStateにかかっている</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>6030</v>
+        <v>5050</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" customFormat="1" spans="1:10">
       <c r="A101">
-        <v>7010</v>
+        <v>5062</v>
       </c>
       <c r="B101">
-        <v>7010</v>
+        <v>5061</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX(TextData!B:B,MATCH(B101,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>7010</v>
+        <v>5060</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" customFormat="1" spans="1:10">
       <c r="A102">
-        <v>7020</v>
+        <v>5063</v>
       </c>
       <c r="B102">
-        <v>7020</v>
+        <v>5052</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>7020</v>
+        <v>5050</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5001,28 +5081,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" customFormat="1" spans="1:10">
       <c r="A103">
-        <v>8010</v>
+        <v>5064</v>
       </c>
       <c r="B103">
-        <v>8010</v>
+        <v>5062</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>8010</v>
+        <v>5060</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5034,28 +5114,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" customFormat="1" spans="1:10">
       <c r="A104">
-        <v>8020</v>
+        <v>5070</v>
       </c>
       <c r="B104">
-        <v>8020</v>
+        <v>5070</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX(TextData!B:B,MATCH(B104,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>8020</v>
+        <v>5070</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5067,28 +5147,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="12" customHeight="1" spans="1:10">
+    <row r="105" customFormat="1" spans="1:10">
       <c r="A105">
-        <v>9010</v>
+        <v>5080</v>
       </c>
       <c r="B105">
-        <v>9010</v>
+        <v>5080</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX(TextData!B:B,MATCH(B105,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>人数が&lt;color="green"&gt;最も多い&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>9010</v>
+        <v>5080</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5100,28 +5180,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="12" customHeight="1" spans="1:10">
+    <row r="106" customFormat="1" spans="1:10">
       <c r="A106">
-        <v>9030</v>
+        <v>5090</v>
       </c>
       <c r="B106">
-        <v>9030</v>
+        <v>5090</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX(TextData!B:B,MATCH(B106,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>9030</v>
+        <v>5090</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5133,28 +5213,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" customFormat="1" spans="1:10">
       <c r="A107">
-        <v>9040</v>
+        <v>5100</v>
       </c>
       <c r="B107">
-        <v>9040</v>
+        <v>5100</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX(TextData!B:B,MATCH(B107,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>人数が&lt;color="green"&gt;最も少ない&lt;/color&gt;列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>9040</v>
+        <v>5100</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5166,16 +5246,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" customFormat="1" spans="1:10">
       <c r="A108">
-        <v>10010</v>
+        <v>5110</v>
       </c>
       <c r="B108">
-        <v>10010</v>
+        <v>5110</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX(TextData!B:B,MATCH(B108,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>〇人以上いる列の味方限定</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5184,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>10010</v>
+        <v>5110</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5199,31 +5279,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" customFormat="1" spans="1:10">
       <c r="A109">
-        <v>10020</v>
+        <v>5111</v>
       </c>
       <c r="B109">
-        <v>10020</v>
+        <v>5111</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX(TextData!B:B,MATCH(B109,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>10020</v>
+        <v>5110</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -5232,31 +5312,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" customFormat="1" spans="1:10">
       <c r="A110">
-        <v>11010</v>
+        <v>5112</v>
       </c>
       <c r="B110">
-        <v>11010</v>
+        <v>5112</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX(TextData!B:B,MATCH(B110,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>11010</v>
+        <v>5110</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -5265,16 +5345,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" customFormat="1" spans="1:10">
       <c r="A111">
-        <v>12020</v>
+        <v>5120</v>
       </c>
       <c r="B111">
-        <v>12020</v>
+        <v>5120</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX(TextData!B:B,MATCH(B111,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>〇人以上いる列の敵限定</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5283,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>12020</v>
+        <v>5120</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5298,31 +5378,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" customFormat="1" spans="1:10">
       <c r="A112">
-        <v>12030</v>
+        <v>5121</v>
       </c>
       <c r="B112">
-        <v>12030</v>
+        <v>5121</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX(TextData!B:B,MATCH(B112,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>&lt;color="green"&gt;2体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>12030</v>
+        <v>5120</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5331,31 +5411,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" customFormat="1" spans="1:10">
       <c r="A113">
-        <v>12040</v>
+        <v>5122</v>
       </c>
       <c r="B113">
-        <v>12040</v>
+        <v>5122</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX(TextData!B:B,MATCH(B113,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>&lt;color="green"&gt;3体&lt;/color&gt;以上いる列の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>12040</v>
+        <v>5120</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5366,14 +5446,14 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>12050</v>
+        <v>6010</v>
       </c>
       <c r="B114">
-        <v>12050</v>
+        <v>6010</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX(TextData!B:B,MATCH(B114,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>StateId状態になっている</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5385,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>12050</v>
+        <v>6010</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5397,16 +5477,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10">
       <c r="A115">
-        <v>13010</v>
+        <v>6020</v>
       </c>
       <c r="B115">
-        <v>13010</v>
+        <v>6020</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX(TextData!B:B,MATCH(B115,TextData!A:A))</f>
-        <v>〇のKindを持っている味方</v>
+        <v>StateId状態になっていない</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5418,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>13010</v>
+        <v>6020</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5430,16 +5510,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10">
       <c r="A116">
-        <v>13020</v>
+        <v>6030</v>
       </c>
       <c r="B116">
-        <v>13020</v>
+        <v>6030</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>〇のKindを持っている敵</v>
+        <v>AbnormalのStateにかかっている</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5451,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>13020</v>
+        <v>6030</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5463,94 +5543,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="1" spans="1:10">
+    <row r="117" spans="1:10">
       <c r="A117">
-        <v>13021</v>
+        <v>7010</v>
       </c>
       <c r="B117">
-        <v>13021</v>
+        <v>7010</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)を優先</v>
+        <v>神化発動前</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>13020</v>
+        <v>7010</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10">
       <c r="A118">
-        <v>13022</v>
+        <v>7020</v>
       </c>
       <c r="B118">
-        <v>13022</v>
+        <v>7020</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
-        <v>ボス(悪魔)を優先</v>
+        <v>神化発動後</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>13020</v>
+        <v>7020</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10">
       <c r="A119">
-        <v>13026</v>
+        <v>8010</v>
       </c>
       <c r="B119">
-        <v>13026</v>
+        <v>8010</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)</v>
+        <v>味方より敵が多い</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>13020</v>
+        <v>8010</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5562,28 +5642,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="1" spans="1:10">
+    <row r="120" spans="1:10">
       <c r="A120">
-        <v>13027</v>
+        <v>8020</v>
       </c>
       <c r="B120">
-        <v>13027</v>
+        <v>8020</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
-        <v>ボス(悪魔)</v>
+        <v>味方より敵が少ない</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>13020</v>
+        <v>8020</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5595,16 +5675,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" ht="12" customHeight="1" spans="1:10">
       <c r="A121">
-        <v>20010</v>
+        <v>9010</v>
       </c>
       <c r="B121">
-        <v>20010</v>
+        <v>9010</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5616,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>20010</v>
+        <v>9010</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5628,16 +5708,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" ht="12" customHeight="1" spans="1:10">
       <c r="A122">
-        <v>20020</v>
+        <v>9030</v>
       </c>
       <c r="B122">
-        <v>20020</v>
+        <v>9030</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5649,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>20020</v>
+        <v>9030</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5663,14 +5743,14 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>20030</v>
+        <v>9040</v>
       </c>
       <c r="B123">
-        <v>20030</v>
+        <v>9040</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5682,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>20030</v>
+        <v>9040</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5696,14 +5776,14 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>20040</v>
+        <v>10010</v>
       </c>
       <c r="B124">
-        <v>20040</v>
+        <v>10010</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5715,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>20040</v>
+        <v>10010</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5729,14 +5809,14 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>20050</v>
+        <v>10020</v>
       </c>
       <c r="B125">
-        <v>20050</v>
+        <v>10020</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>〇%で</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5748,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>20050</v>
+        <v>10020</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5762,14 +5842,14 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>20060</v>
+        <v>11010</v>
       </c>
       <c r="B126">
-        <v>20060</v>
+        <v>11010</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>バトル中使用回数が〇以下</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5781,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>20060</v>
+        <v>11010</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5795,14 +5875,14 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>20070</v>
+        <v>12020</v>
       </c>
       <c r="B127">
-        <v>20070</v>
+        <v>12020</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>Lvが〇以上</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5814,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>20070</v>
+        <v>12020</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5828,14 +5908,14 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>20080</v>
+        <v>12030</v>
       </c>
       <c r="B128">
-        <v>20080</v>
+        <v>12030</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>行動Magicの消費Mpが〇</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5847,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>20080</v>
+        <v>12030</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5861,14 +5941,14 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>20090</v>
+        <v>12040</v>
       </c>
       <c r="B129">
-        <v>20090</v>
+        <v>12040</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5880,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>20090</v>
+        <v>12040</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5894,14 +5974,14 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>20100</v>
+        <v>12050</v>
       </c>
       <c r="B130">
-        <v>20100</v>
+        <v>12050</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5913,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>20100</v>
+        <v>12050</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5925,16 +6005,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" customFormat="1" spans="1:10">
       <c r="A131">
-        <v>20110</v>
+        <v>13010</v>
       </c>
       <c r="B131">
-        <v>20110</v>
+        <v>13010</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(TextData!B:B,MATCH(B131,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>〇のKindを持っている味方</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5946,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>20110</v>
+        <v>13010</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -5958,16 +6038,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" customFormat="1" spans="1:10">
       <c r="A132">
-        <v>20120</v>
+        <v>13020</v>
       </c>
       <c r="B132">
-        <v>20120</v>
+        <v>13020</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(TextData!B:B,MATCH(B132,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>〇のKindを持っている敵</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5979,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>20120</v>
+        <v>13020</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -5991,97 +6071,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" customFormat="1" spans="1:10">
       <c r="A133">
-        <v>20130</v>
+        <v>13021</v>
       </c>
       <c r="B133">
-        <v>20130</v>
+        <v>13021</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(TextData!B:B,MATCH(B133,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>汎用敵(クリーチャー)を優先</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>20130</v>
+        <v>13020</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" customFormat="1" spans="1:10">
       <c r="A134">
-        <v>20140</v>
+        <v>13022</v>
       </c>
       <c r="B134">
-        <v>20140</v>
+        <v>13022</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(TextData!B:B,MATCH(B134,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>ボス(悪魔)を優先</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>20140</v>
+        <v>13020</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" customFormat="1" spans="1:10">
       <c r="A135">
-        <v>20150</v>
+        <v>13026</v>
       </c>
       <c r="B135">
-        <v>20150</v>
+        <v>13026</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(TextData!B:B,MATCH(B135,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>汎用敵(クリーチャー)</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>20150</v>
+        <v>13020</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -6090,31 +6170,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" customFormat="1" spans="1:10">
       <c r="A136">
-        <v>20160</v>
+        <v>13027</v>
       </c>
       <c r="B136">
-        <v>20160</v>
+        <v>13027</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(TextData!B:B,MATCH(B136,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>ボス(悪魔)</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>20160</v>
+        <v>13020</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -6125,14 +6205,14 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>30010</v>
+        <v>20010</v>
       </c>
       <c r="B137">
-        <v>30010</v>
+        <v>20010</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(TextData!B:B,MATCH(B137,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>Mpを〇消費する</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6144,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>30010</v>
+        <v>20010</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6158,34 +6238,562 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>30020</v>
+        <v>20020</v>
       </c>
       <c r="B138">
-        <v>30020</v>
+        <v>20020</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(TextData!B:B,MATCH(B138,TextData!A:A))</f>
+        <v>拘束3回成功</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>20020</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>20030</v>
+      </c>
+      <c r="B139">
+        <v>20030</v>
+      </c>
+      <c r="C139" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B139,TextData!A:A))</f>
+        <v>攻撃で戦闘不能になる</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>20030</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>20040</v>
+      </c>
+      <c r="B140">
+        <v>20040</v>
+      </c>
+      <c r="C140" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B140,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>20040</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>20050</v>
+      </c>
+      <c r="B141">
+        <v>20050</v>
+      </c>
+      <c r="C141" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B141,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>20050</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>20060</v>
+      </c>
+      <c r="B142">
+        <v>20060</v>
+      </c>
+      <c r="C142" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B142,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>20060</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>20070</v>
+      </c>
+      <c r="B143">
+        <v>20070</v>
+      </c>
+      <c r="C143" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B143,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>20070</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>20080</v>
+      </c>
+      <c r="B144">
+        <v>20080</v>
+      </c>
+      <c r="C144" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B144,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>20080</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>20090</v>
+      </c>
+      <c r="B145">
+        <v>20090</v>
+      </c>
+      <c r="C145" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B145,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>20090</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>20100</v>
+      </c>
+      <c r="B146">
+        <v>20100</v>
+      </c>
+      <c r="C146" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B146,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>20100</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>20110</v>
+      </c>
+      <c r="B147">
+        <v>20110</v>
+      </c>
+      <c r="C147" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B147,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>20110</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>20120</v>
+      </c>
+      <c r="B148">
+        <v>20120</v>
+      </c>
+      <c r="C148" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B148,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>20120</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>20130</v>
+      </c>
+      <c r="B149">
+        <v>20130</v>
+      </c>
+      <c r="C149" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B149,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>20130</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150">
+        <v>20140</v>
+      </c>
+      <c r="B150">
+        <v>20140</v>
+      </c>
+      <c r="C150" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B150,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>20140</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151">
+        <v>20150</v>
+      </c>
+      <c r="B151">
+        <v>20150</v>
+      </c>
+      <c r="C151" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B151,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>20150</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152">
+        <v>20160</v>
+      </c>
+      <c r="B152">
+        <v>20160</v>
+      </c>
+      <c r="C152" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B152,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>20160</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153">
+        <v>30010</v>
+      </c>
+      <c r="B153">
+        <v>30010</v>
+      </c>
+      <c r="C153" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B153,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>30010</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154">
+        <v>30020</v>
+      </c>
+      <c r="B154">
+        <v>30020</v>
+      </c>
+      <c r="C154" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B154,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
         <v>30020</v>
       </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
         <v>0</v>
       </c>
     </row>
@@ -6199,10 +6807,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6398,493 +7006,493 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="26" spans="1:3">
       <c r="A18">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:3">
       <c r="A19">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:3">
       <c r="A20">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="26" spans="1:3">
       <c r="A21">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" ht="26" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="26" spans="1:3">
       <c r="A23">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:3">
       <c r="A24">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:3">
       <c r="A25">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:3">
       <c r="A26">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" ht="26" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="26" spans="1:3">
       <c r="A27">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="26" spans="1:3">
       <c r="A28">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="26" spans="1:3">
+      <c r="A29">
+        <v>1047</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="26" spans="1:3">
+      <c r="A30">
+        <v>1048</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1050</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="26" spans="1:3">
-      <c r="A29">
-        <v>1061</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" ht="26" spans="1:3">
-      <c r="A30">
-        <v>1062</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" ht="26" spans="1:3">
-      <c r="A31">
-        <v>1063</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" ht="26" spans="1:3">
       <c r="A32">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" ht="26" spans="1:3">
       <c r="A33">
-        <v>1130</v>
+        <v>1052</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:3">
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" ht="26" spans="1:3">
       <c r="A34">
-        <v>1131</v>
+        <v>1053</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:3">
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" ht="26" spans="1:3">
       <c r="A35">
-        <v>1140</v>
+        <v>1054</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:3">
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="26" spans="1:3">
       <c r="A36">
-        <v>1141</v>
+        <v>1055</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" ht="26" spans="1:3">
       <c r="A37">
-        <v>1150</v>
+        <v>1056</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" ht="26" spans="1:3">
+      <c r="A38">
+        <v>1057</v>
+      </c>
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:3">
-      <c r="A38">
-        <v>1151</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="26" spans="1:3">
+      <c r="A39">
+        <v>1058</v>
+      </c>
+      <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1060</v>
+      </c>
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:3">
-      <c r="A39">
-        <v>1160</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="26" spans="1:3">
+      <c r="A41">
+        <v>1061</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:3">
-      <c r="A40">
-        <v>1161</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="42" ht="26" spans="1:3">
+      <c r="A42">
+        <v>1062</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2010</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" ht="26" spans="1:3">
+      <c r="A43">
+        <v>1063</v>
+      </c>
+      <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>3010</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>3011</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" ht="26" spans="1:3">
+      <c r="A44">
+        <v>1064</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>3012</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" customFormat="1" ht="26" spans="1:3">
       <c r="A45">
-        <v>3013</v>
+        <v>1065</v>
       </c>
       <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="26" spans="1:3">
       <c r="A46">
-        <v>3014</v>
+        <v>1066</v>
       </c>
       <c r="B46" t="s">
         <v>80</v>
       </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="26" spans="1:3">
       <c r="A47">
-        <v>3020</v>
+        <v>1067</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="26" spans="1:3">
       <c r="A48">
-        <v>3021</v>
+        <v>1068</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:3">
       <c r="A49">
-        <v>3022</v>
+        <v>1130</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:3">
       <c r="A50">
-        <v>3023</v>
+        <v>1131</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:3">
       <c r="A51">
-        <v>3024</v>
+        <v>1140</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:3">
       <c r="A52">
-        <v>3030</v>
+        <v>1141</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="26" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <v>3031</v>
+        <v>1150</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" ht="26" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:3">
       <c r="A54">
-        <v>3032</v>
+        <v>1151</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" ht="26" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:3">
       <c r="A55">
-        <v>3033</v>
+        <v>1160</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" ht="26" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:3">
       <c r="A56">
-        <v>3034</v>
+        <v>1161</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3040</v>
+        <v>2010</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="26" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58">
-        <v>3041</v>
+        <v>3010</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" ht="26" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
-        <v>3042</v>
+        <v>3011</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" ht="26" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
-        <v>3043</v>
+        <v>3012</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" ht="26" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
-        <v>3044</v>
+        <v>3013</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3050</v>
+        <v>3014</v>
       </c>
       <c r="B62" t="s">
         <v>104</v>
@@ -6893,397 +7501,397 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="26" spans="1:3">
+    <row r="63" spans="1:3">
       <c r="A63">
-        <v>3051</v>
+        <v>3020</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>3021</v>
+      </c>
+      <c r="B64" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="64" ht="26" spans="1:3">
-      <c r="A64">
-        <v>3052</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>3022</v>
+      </c>
+      <c r="B65" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>3023</v>
+      </c>
+      <c r="B66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" ht="26" spans="1:3">
-      <c r="A65">
-        <v>3053</v>
-      </c>
-      <c r="B65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" ht="26" spans="1:3">
-      <c r="A66">
-        <v>3054</v>
-      </c>
-      <c r="B66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>112</v>
+      <c r="C66" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3060</v>
+        <v>3024</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="26" spans="1:3">
+    <row r="68" spans="1:3">
       <c r="A68">
-        <v>3061</v>
+        <v>3030</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="26" spans="1:3">
       <c r="A69">
-        <v>3062</v>
+        <v>3031</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" ht="26" spans="1:3">
       <c r="A70">
-        <v>3063</v>
+        <v>3032</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" ht="26" spans="1:3">
       <c r="A71">
-        <v>3064</v>
+        <v>3033</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" ht="26" spans="1:3">
       <c r="A72">
-        <v>4010</v>
+        <v>3034</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>4020</v>
+        <v>3040</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" ht="26" spans="1:3">
       <c r="A74">
-        <v>5010</v>
+        <v>3041</v>
       </c>
       <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" ht="26" spans="1:3">
+      <c r="A75">
+        <v>3042</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" ht="26" spans="1:3">
+      <c r="A76">
+        <v>3043</v>
+      </c>
+      <c r="B76" t="s">
         <v>124</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" ht="26" spans="1:3">
+      <c r="A77">
+        <v>3044</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>3050</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>5020</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>5030</v>
-      </c>
-      <c r="B76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>5031</v>
-      </c>
-      <c r="B77" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" ht="26" spans="1:3">
-      <c r="A78">
-        <v>5032</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="79" ht="26" spans="1:3">
+      <c r="A79">
+        <v>3051</v>
+      </c>
+      <c r="B79" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>5040</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" ht="26" spans="1:3">
+      <c r="A80">
+        <v>3052</v>
+      </c>
+      <c r="B80" t="s">
         <v>131</v>
       </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>5041</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C80" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="81" ht="26" spans="1:3">
       <c r="A81">
-        <v>5042</v>
+        <v>3053</v>
       </c>
       <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="1" t="s">
+    </row>
+    <row r="82" ht="26" spans="1:3">
+      <c r="A82">
+        <v>3054</v>
+      </c>
+      <c r="B82" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>5050</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5051</v>
+        <v>3060</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" ht="26" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="26" spans="1:3">
       <c r="A84">
-        <v>5052</v>
+        <v>3061</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" ht="26" spans="1:3">
       <c r="A85">
-        <v>5060</v>
+        <v>3062</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" ht="26" spans="1:3">
       <c r="A86">
-        <v>5061</v>
+        <v>3063</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87" ht="26" spans="1:3">
       <c r="A87">
-        <v>5062</v>
+        <v>3064</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" ht="12" customHeight="1" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
-        <v>5070</v>
+        <v>4010</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" ht="12" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
-        <v>5080</v>
+        <v>4020</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" ht="12" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
-        <v>5090</v>
+        <v>5010</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" ht="12" customHeight="1" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
-        <v>5100</v>
+        <v>5020</v>
       </c>
       <c r="B91" t="s">
         <v>149</v>
       </c>
       <c r="C91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>5030</v>
+      </c>
+      <c r="B92" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="92" ht="12" customHeight="1" spans="1:3">
-      <c r="A92">
-        <v>5110</v>
-      </c>
-      <c r="B92" t="s">
-        <v>151</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="26" spans="1:3">
+    <row r="93" spans="1:3">
       <c r="A93">
-        <v>5111</v>
+        <v>5031</v>
       </c>
       <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" t="s">
         <v>152</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="94" ht="26" spans="1:3">
       <c r="A94">
-        <v>5112</v>
+        <v>5032</v>
       </c>
       <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>5040</v>
+      </c>
+      <c r="B95" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="95" ht="12" customHeight="1" spans="1:3">
-      <c r="A95">
-        <v>5120</v>
-      </c>
-      <c r="B95" t="s">
-        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" ht="26" spans="1:3">
+    <row r="96" spans="1:3">
       <c r="A96">
-        <v>5121</v>
+        <v>5041</v>
       </c>
       <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" t="s">
         <v>157</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="97" ht="26" spans="1:3">
       <c r="A97">
-        <v>5122</v>
+        <v>5042</v>
       </c>
       <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>6010</v>
+        <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -7291,32 +7899,32 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>6020</v>
+        <v>5051</v>
       </c>
       <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" ht="26" customHeight="1" spans="1:3">
+      <c r="A100">
+        <v>5052</v>
+      </c>
+      <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>6030</v>
-      </c>
-      <c r="B100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>7010</v>
+        <v>5060</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -7324,142 +7932,142 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>7020</v>
+        <v>5061</v>
       </c>
       <c r="B102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
         <v>165</v>
       </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" ht="26" spans="1:3">
       <c r="A103">
-        <v>8010</v>
+        <v>5062</v>
       </c>
       <c r="B103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" ht="12" customHeight="1" spans="1:3">
       <c r="A104">
-        <v>8020</v>
+        <v>5070</v>
       </c>
       <c r="B104" t="s">
         <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" ht="12" customHeight="1" spans="1:3">
       <c r="A105">
-        <v>9010</v>
+        <v>5080</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" ht="12" customHeight="1" spans="1:3">
       <c r="A106">
-        <v>9030</v>
+        <v>5090</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" ht="12" customHeight="1" spans="1:3">
       <c r="A107">
-        <v>9040</v>
+        <v>5100</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" ht="12" customHeight="1" spans="1:3">
       <c r="A108">
-        <v>10010</v>
+        <v>5110</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" ht="26" spans="1:3">
       <c r="A109">
-        <v>10020</v>
+        <v>5111</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" ht="26" spans="1:3">
       <c r="A110">
-        <v>11010</v>
+        <v>5112</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" ht="12" customHeight="1" spans="1:3">
       <c r="A111">
-        <v>12020</v>
+        <v>5120</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" ht="26" spans="1:3">
       <c r="A112">
-        <v>12030</v>
+        <v>5121</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" ht="26" spans="1:3">
       <c r="A113">
-        <v>12040</v>
+        <v>5122</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>12050</v>
+        <v>6010</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -7467,10 +8075,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>13010</v>
+        <v>6020</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -7478,10 +8086,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>13020</v>
+        <v>6030</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -7489,54 +8097,54 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>13021</v>
+        <v>7010</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>13022</v>
+        <v>7020</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" ht="26" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
-        <v>13026</v>
+        <v>8010</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="120" ht="26" spans="1:3">
+        <v>190</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
-        <v>13027</v>
+        <v>8020</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>20010</v>
+        <v>9010</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -7544,10 +8152,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>20020</v>
+        <v>9030</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -7555,10 +8163,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>20030</v>
+        <v>9040</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -7566,10 +8174,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>20040</v>
+        <v>10010</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -7577,10 +8185,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>20050</v>
+        <v>10020</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -7588,10 +8196,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>20060</v>
+        <v>11010</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -7599,10 +8207,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>20070</v>
+        <v>12020</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -7610,10 +8218,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>20080</v>
+        <v>12030</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
@@ -7621,10 +8229,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>20090</v>
+        <v>12040</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -7632,10 +8240,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>20100</v>
+        <v>12050</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -7643,10 +8251,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>20110</v>
+        <v>13010</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -7654,10 +8262,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>20120</v>
+        <v>13020</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
@@ -7665,54 +8273,54 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>20130</v>
+        <v>13021</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>20140</v>
+        <v>13022</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="135" ht="26" spans="1:3">
       <c r="A135">
-        <v>20150</v>
+        <v>13026</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" ht="26" spans="1:3">
       <c r="A136">
-        <v>20160</v>
+        <v>13027</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
+        <v>210</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>30010</v>
+        <v>20010</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -7720,12 +8328,188 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
+        <v>20020</v>
+      </c>
+      <c r="B138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>20030</v>
+      </c>
+      <c r="B139" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>20040</v>
+      </c>
+      <c r="B140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>20050</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>20060</v>
+      </c>
+      <c r="B142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>20070</v>
+      </c>
+      <c r="B143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>20080</v>
+      </c>
+      <c r="B144" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>20090</v>
+      </c>
+      <c r="B145" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>20100</v>
+      </c>
+      <c r="B146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>20110</v>
+      </c>
+      <c r="B147" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>20120</v>
+      </c>
+      <c r="B148" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>20130</v>
+      </c>
+      <c r="B149" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>20140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>225</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>20150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>226</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>20160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>30010</v>
+      </c>
+      <c r="B153" t="s">
+        <v>228</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
         <v>30020</v>
       </c>
-      <c r="B138" t="s">
-        <v>205</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B154" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7741,7 +8525,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -60,31 +60,31 @@
     <t>自身のHpが〇%以下</t>
   </si>
   <si>
-    <t>自身のHpが100%未満</t>
-  </si>
-  <si>
-    <t>自身のHpが75%以下</t>
-  </si>
-  <si>
-    <t>自身のHpが50%以下</t>
-  </si>
-  <si>
-    <t>自身のHpが25%以下</t>
+    <t>自身のHpが&lt;color="green"&gt;100%&lt;/color&gt;未満</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;75%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;50%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;25%&lt;/color&gt;以下</t>
   </si>
   <si>
     <t>自身のHpが〇%以上</t>
   </si>
   <si>
-    <t>自身のHpが100%以上</t>
-  </si>
-  <si>
-    <t>自身のHpが75%以上</t>
-  </si>
-  <si>
-    <t>自身のHpが50%以上</t>
-  </si>
-  <si>
-    <t>自身のHpが25%以上</t>
+    <t>自身のHpが&lt;color="green"&gt;100%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;75%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;50%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のHpが&lt;color="green"&gt;25%&lt;/color&gt;以上</t>
   </si>
   <si>
     <t>Hp%〇未満の味方</t>
@@ -345,31 +345,31 @@
     <t>自身のMpが〇以下</t>
   </si>
   <si>
-    <t>自身のMpが100%以下</t>
-  </si>
-  <si>
-    <t>自身のMpが75%以下</t>
-  </si>
-  <si>
-    <t>自身のMpが50%以下</t>
-  </si>
-  <si>
-    <t>自身のMpが25%以下</t>
+    <t>自身のMpが&lt;color="green"&gt;100%&lt;/color&gt;未満</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;75%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;50%&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;25%&lt;/color&gt;以下</t>
   </si>
   <si>
     <t>自身のMpが〇以上</t>
   </si>
   <si>
-    <t>自身のMpが100%以上</t>
-  </si>
-  <si>
-    <t>自身のMpが75%以上</t>
-  </si>
-  <si>
-    <t>自身のMpが50%以上</t>
-  </si>
-  <si>
-    <t>自身のMpが25%以上</t>
+    <t>自身のMpが&lt;color="green"&gt;100%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;75%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;50%&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>自身のMpが&lt;color="green"&gt;25%&lt;/color&gt;以上</t>
   </si>
   <si>
     <t>Mp〇未満の味方</t>
@@ -627,7 +627,178 @@
     <t>StateId状態になっていない</t>
   </si>
   <si>
+    <t>StateId状態になっている味方</t>
+  </si>
+  <si>
+    <t>StateId状態になっている敵</t>
+  </si>
+  <si>
+    <t>StateId状態になっていない味方</t>
+  </si>
+  <si>
+    <t>StateId状態になっていない敵</t>
+  </si>
+  <si>
     <t>AbnormalのStateにかかっている</t>
+  </si>
+  <si>
+    <t>AbnormalのStateにかかっている味方</t>
+  </si>
+  <si>
+    <t>状態異常の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>AbnormalのStateにかかっている敵</t>
+  </si>
+  <si>
+    <t>状態異常の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>AbnormalのStateにかかっていない味方</t>
+  </si>
+  <si>
+    <t>AbnormalのStateにかかっていない敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;状態異常&lt;/color&gt;ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BuffのStateにかかっている</t>
+  </si>
+  <si>
+    <t>BuffのStateにかかっている味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BuffのStateにかかっている敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BuffのStateにかかっていない味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BuffのStateにかかっていない敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeBuffのStateにかかっている</t>
+  </si>
+  <si>
+    <t>DeBuffのStateにかかっている味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeBuffのStateにかかっている敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeBuffのStateにかかっていない味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeBuffのStateにかかっていない敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
   </si>
   <si>
     <t>神化発動前</t>
@@ -763,10 +934,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -785,7 +956,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,32 +1008,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +1024,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,21 +1052,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -883,10 +1061,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,14 +1078,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +1086,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,7 +1101,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,43 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,25 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,43 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,43 +1281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,21 +1292,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1154,6 +1310,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1165,15 +1339,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,17 +1361,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,145 +1400,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,15 +1868,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="72.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="43.1818181818182" customWidth="1"/>
     <col min="4" max="6" width="15.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="7.81818181818182" customWidth="1"/>
@@ -1763,10 +1934,10 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1799,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1010</v>
@@ -1823,16 +1994,16 @@
       </c>
       <c r="C4" t="str">
         <f>INDEX(TextData!B:B,MATCH(B4,TextData!A:A))</f>
-        <v>自身のHpが100%未満</v>
+        <v>自身のHpが&lt;color="green"&gt;100%&lt;/color&gt;未満</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>1010</v>
@@ -1856,16 +2027,16 @@
       </c>
       <c r="C5" t="str">
         <f>INDEX(TextData!B:B,MATCH(B5,TextData!A:A))</f>
-        <v>自身のHpが75%以下</v>
+        <v>自身のHpが&lt;color="green"&gt;75%&lt;/color&gt;以下</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>1010</v>
@@ -1889,16 +2060,16 @@
       </c>
       <c r="C6" t="str">
         <f>INDEX(TextData!B:B,MATCH(B6,TextData!A:A))</f>
-        <v>自身のHpが50%以下</v>
+        <v>自身のHpが&lt;color="green"&gt;50%&lt;/color&gt;以下</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G6">
         <v>1010</v>
@@ -1922,16 +2093,16 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX(TextData!B:B,MATCH(B7,TextData!A:A))</f>
-        <v>自身のHpが25%以下</v>
+        <v>自身のHpが&lt;color="green"&gt;25%&lt;/color&gt;以下</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>1010</v>
@@ -1964,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1020</v>
@@ -1988,16 +2159,16 @@
       </c>
       <c r="C9" t="str">
         <f>INDEX(TextData!B:B,MATCH(B9,TextData!A:A))</f>
-        <v>自身のHpが100%以上</v>
+        <v>自身のHpが&lt;color="green"&gt;100%&lt;/color&gt;以上</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <v>1020</v>
@@ -2021,16 +2192,16 @@
       </c>
       <c r="C10" t="str">
         <f>INDEX(TextData!B:B,MATCH(B10,TextData!A:A))</f>
-        <v>自身のHpが75%以上</v>
+        <v>自身のHpが&lt;color="green"&gt;75%&lt;/color&gt;以上</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G10">
         <v>1020</v>
@@ -2054,16 +2225,16 @@
       </c>
       <c r="C11" t="str">
         <f>INDEX(TextData!B:B,MATCH(B11,TextData!A:A))</f>
-        <v>自身のHpが50%以上</v>
+        <v>自身のHpが&lt;color="green"&gt;50%&lt;/color&gt;以上</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G11">
         <v>1020</v>
@@ -2087,16 +2258,16 @@
       </c>
       <c r="C12" t="str">
         <f>INDEX(TextData!B:B,MATCH(B12,TextData!A:A))</f>
-        <v>自身のHpが25%以上</v>
+        <v>自身のHpが&lt;color="green"&gt;25%&lt;/color&gt;以上</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <v>1020</v>
@@ -2129,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1030</v>
@@ -3581,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>2010</v>
@@ -3614,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>3010</v>
@@ -3638,16 +3809,16 @@
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>自身のMpが100%以下</v>
+        <v>自身のMpが&lt;color="green"&gt;100%&lt;/color&gt;未満</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G59">
         <v>3010</v>
@@ -3671,16 +3842,16 @@
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>自身のMpが75%以下</v>
+        <v>自身のMpが&lt;color="green"&gt;75%&lt;/color&gt;以下</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G60">
         <v>3010</v>
@@ -3704,16 +3875,16 @@
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>自身のMpが50%以下</v>
+        <v>自身のMpが&lt;color="green"&gt;50%&lt;/color&gt;以下</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G61">
         <v>3010</v>
@@ -3737,16 +3908,16 @@
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>自身のMpが25%以下</v>
+        <v>自身のMpが&lt;color="green"&gt;25%&lt;/color&gt;以下</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G62">
         <v>3010</v>
@@ -3779,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>3020</v>
@@ -3803,16 +3974,16 @@
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>自身のMpが100%以上</v>
+        <v>自身のMpが&lt;color="green"&gt;100%&lt;/color&gt;以上</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G64">
         <v>3020</v>
@@ -3836,16 +4007,16 @@
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>自身のMpが75%以上</v>
+        <v>自身のMpが&lt;color="green"&gt;75%&lt;/color&gt;以上</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G65">
         <v>3020</v>
@@ -3869,16 +4040,16 @@
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>自身のMpが50%以上</v>
+        <v>自身のMpが&lt;color="green"&gt;50%&lt;/color&gt;以上</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G66">
         <v>3020</v>
@@ -3902,16 +4073,16 @@
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>自身のMpが25%以上</v>
+        <v>自身のMpが&lt;color="green"&gt;25%&lt;/color&gt;以上</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G67">
         <v>3020</v>
@@ -5519,7 +5690,7 @@
       </c>
       <c r="C116" t="str">
         <f>INDEX(TextData!B:B,MATCH(B116,TextData!A:A))</f>
-        <v>AbnormalのStateにかかっている</v>
+        <v>StateId状態になっている味方</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5543,16 +5714,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" customFormat="1" spans="1:10">
       <c r="A117">
-        <v>7010</v>
+        <v>6040</v>
       </c>
       <c r="B117">
-        <v>7010</v>
+        <v>6040</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX(TextData!B:B,MATCH(B117,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>StateId状態になっている敵</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5564,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>7010</v>
+        <v>6040</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5576,16 +5747,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" customFormat="1" spans="1:10">
       <c r="A118">
-        <v>7020</v>
+        <v>6050</v>
       </c>
       <c r="B118">
-        <v>7020</v>
+        <v>6050</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX(TextData!B:B,MATCH(B118,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>StateId状態になっていない味方</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5597,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>7020</v>
+        <v>6050</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5609,16 +5780,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" customFormat="1" spans="1:10">
       <c r="A119">
-        <v>8010</v>
+        <v>6060</v>
       </c>
       <c r="B119">
-        <v>8010</v>
+        <v>6060</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX(TextData!B:B,MATCH(B119,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>StateId状態になっていない敵</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5630,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>8010</v>
+        <v>6060</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5642,16 +5813,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" customFormat="1" spans="1:10">
       <c r="A120">
-        <v>8020</v>
+        <v>6110</v>
       </c>
       <c r="B120">
-        <v>8020</v>
+        <v>6110</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX(TextData!B:B,MATCH(B120,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>AbnormalのStateにかかっている</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5663,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>8020</v>
+        <v>6110</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5675,16 +5846,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="12" customHeight="1" spans="1:10">
+    <row r="121" customFormat="1" spans="1:10">
       <c r="A121">
-        <v>9010</v>
+        <v>6120</v>
       </c>
       <c r="B121">
-        <v>9010</v>
+        <v>6120</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX(TextData!B:B,MATCH(B121,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>AbnormalのStateにかかっている味方</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5696,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>9010</v>
+        <v>6120</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5708,28 +5879,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="12" customHeight="1" spans="1:10">
+    <row r="122" customFormat="1" spans="1:10">
       <c r="A122">
-        <v>9030</v>
+        <v>6121</v>
       </c>
       <c r="B122">
-        <v>9030</v>
+        <v>6121</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX(TextData!B:B,MATCH(B122,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>状態異常の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>9030</v>
+        <v>6120</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5741,16 +5912,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" customFormat="1" spans="1:10">
       <c r="A123">
-        <v>9040</v>
+        <v>6130</v>
       </c>
       <c r="B123">
-        <v>9040</v>
+        <v>6130</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX(TextData!B:B,MATCH(B123,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>AbnormalのStateにかかっている敵</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5762,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>9040</v>
+        <v>6130</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5774,28 +5945,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" customFormat="1" spans="1:10">
       <c r="A124">
-        <v>10010</v>
+        <v>6131</v>
       </c>
       <c r="B124">
-        <v>10010</v>
+        <v>6131</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX(TextData!B:B,MATCH(B124,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>状態異常の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>10010</v>
+        <v>6130</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5807,16 +5978,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" customFormat="1" spans="1:10">
       <c r="A125">
-        <v>10020</v>
+        <v>6140</v>
       </c>
       <c r="B125">
-        <v>10020</v>
+        <v>6140</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX(TextData!B:B,MATCH(B125,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>AbnormalのStateにかかっていない味方</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5828,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>10020</v>
+        <v>6140</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5840,16 +6011,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" customFormat="1" spans="1:10">
       <c r="A126">
-        <v>11010</v>
+        <v>6150</v>
       </c>
       <c r="B126">
-        <v>11010</v>
+        <v>6150</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX(TextData!B:B,MATCH(B126,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>AbnormalのStateにかかっていない敵</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5861,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>11010</v>
+        <v>6150</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5873,28 +6044,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" customFormat="1" spans="1:10">
       <c r="A127">
-        <v>12020</v>
+        <v>6151</v>
       </c>
       <c r="B127">
-        <v>12020</v>
+        <v>6151</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX(TextData!B:B,MATCH(B127,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>&lt;color="green"&gt;状態異常&lt;/color&gt;ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>12020</v>
+        <v>6150</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5906,16 +6077,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" customFormat="1" spans="1:10">
       <c r="A128">
-        <v>12030</v>
+        <v>6210</v>
       </c>
       <c r="B128">
-        <v>12030</v>
+        <v>6210</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX(TextData!B:B,MATCH(B128,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>BuffのStateにかかっている</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5927,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>12030</v>
+        <v>6210</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5939,16 +6110,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" customFormat="1" spans="1:10">
       <c r="A129">
-        <v>12040</v>
+        <v>6220</v>
       </c>
       <c r="B129">
-        <v>12040</v>
+        <v>6220</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>BuffのStateにかかっている味方</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5960,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>12040</v>
+        <v>6220</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5972,34 +6143,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" customFormat="1" spans="1:10">
       <c r="A130">
-        <v>12050</v>
+        <v>6221</v>
       </c>
       <c r="B130">
-        <v>12050</v>
+        <v>6221</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>12050</v>
+        <v>6220</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6007,26 +6178,26 @@
     </row>
     <row r="131" customFormat="1" spans="1:10">
       <c r="A131">
-        <v>13010</v>
+        <v>6222</v>
       </c>
       <c r="B131">
-        <v>13010</v>
+        <v>6222</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(TextData!B:B,MATCH(B131,TextData!A:A))</f>
-        <v>〇のKindを持っている味方</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>13010</v>
+        <v>6220</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -6040,14 +6211,14 @@
     </row>
     <row r="132" customFormat="1" spans="1:10">
       <c r="A132">
-        <v>13020</v>
+        <v>6230</v>
       </c>
       <c r="B132">
-        <v>13020</v>
+        <v>6230</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(TextData!B:B,MATCH(B132,TextData!A:A))</f>
-        <v>〇のKindを持っている敵</v>
+        <v>BuffのStateにかかっている敵</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6059,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>13020</v>
+        <v>6220</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -6073,29 +6244,29 @@
     </row>
     <row r="133" customFormat="1" spans="1:10">
       <c r="A133">
-        <v>13021</v>
+        <v>6231</v>
       </c>
       <c r="B133">
-        <v>13021</v>
+        <v>6231</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(TextData!B:B,MATCH(B133,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)を優先</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133">
-        <v>13020</v>
+        <v>6230</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -6106,32 +6277,32 @@
     </row>
     <row r="134" customFormat="1" spans="1:10">
       <c r="A134">
-        <v>13022</v>
+        <v>6232</v>
       </c>
       <c r="B134">
-        <v>13022</v>
+        <v>6232</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(TextData!B:B,MATCH(B134,TextData!A:A))</f>
-        <v>ボス(悪魔)を優先</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>13020</v>
+        <v>6230</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6139,29 +6310,29 @@
     </row>
     <row r="135" customFormat="1" spans="1:10">
       <c r="A135">
-        <v>13026</v>
+        <v>6240</v>
       </c>
       <c r="B135">
-        <v>13026</v>
+        <v>6240</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(TextData!B:B,MATCH(B135,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)</v>
+        <v>BuffのStateにかかっていない味方</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>13020</v>
+        <v>6240</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -6172,29 +6343,29 @@
     </row>
     <row r="136" customFormat="1" spans="1:10">
       <c r="A136">
-        <v>13027</v>
+        <v>6241</v>
       </c>
       <c r="B136">
-        <v>13027</v>
+        <v>6241</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(TextData!B:B,MATCH(B136,TextData!A:A))</f>
-        <v>ボス(悪魔)</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>121</v>
+      </c>
+      <c r="F136">
         <v>2</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
       <c r="G136">
-        <v>13020</v>
+        <v>6240</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -6203,16 +6374,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" customFormat="1" spans="1:10">
       <c r="A137">
-        <v>20010</v>
+        <v>6250</v>
       </c>
       <c r="B137">
-        <v>20010</v>
+        <v>6250</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(TextData!B:B,MATCH(B137,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>BuffのStateにかかっていない敵</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6224,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>20010</v>
+        <v>6250</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6236,28 +6407,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" customFormat="1" spans="1:10">
       <c r="A138">
-        <v>20020</v>
+        <v>6251</v>
       </c>
       <c r="B138">
-        <v>20020</v>
+        <v>6251</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(TextData!B:B,MATCH(B138,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>20020</v>
+        <v>6250</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6269,16 +6440,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" customFormat="1" spans="1:10">
       <c r="A139">
-        <v>20030</v>
+        <v>6310</v>
       </c>
       <c r="B139">
-        <v>20030</v>
+        <v>6310</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(TextData!B:B,MATCH(B139,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>DeBuffのStateにかかっている</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6290,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>20030</v>
+        <v>6310</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6302,16 +6473,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" customFormat="1" spans="1:10">
       <c r="A140">
-        <v>20040</v>
+        <v>6320</v>
       </c>
       <c r="B140">
-        <v>20040</v>
+        <v>6320</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(TextData!B:B,MATCH(B140,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>DeBuffのStateにかかっている味方</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6323,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>20040</v>
+        <v>6320</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6335,61 +6506,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" customFormat="1" spans="1:10">
       <c r="A141">
-        <v>20050</v>
+        <v>6321</v>
       </c>
       <c r="B141">
-        <v>20050</v>
+        <v>6321</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(TextData!B:B,MATCH(B141,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>20050</v>
+        <v>6320</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" customFormat="1" spans="1:10">
       <c r="A142">
-        <v>20060</v>
+        <v>6322</v>
       </c>
       <c r="B142">
-        <v>20060</v>
+        <v>6322</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(TextData!B:B,MATCH(B142,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>20060</v>
+        <v>6320</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6401,16 +6572,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" customFormat="1" spans="1:10">
       <c r="A143">
-        <v>20070</v>
+        <v>6330</v>
       </c>
       <c r="B143">
-        <v>20070</v>
+        <v>6330</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX(TextData!B:B,MATCH(B143,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>DeBuffのStateにかかっている敵</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6422,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>20070</v>
+        <v>6330</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -6434,61 +6605,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" customFormat="1" spans="1:10">
       <c r="A144">
-        <v>20080</v>
+        <v>6331</v>
       </c>
       <c r="B144">
-        <v>20080</v>
+        <v>6331</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX(TextData!B:B,MATCH(B144,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>20080</v>
+        <v>6330</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" customFormat="1" spans="1:10">
       <c r="A145">
-        <v>20090</v>
+        <v>6332</v>
       </c>
       <c r="B145">
-        <v>20090</v>
+        <v>6332</v>
       </c>
       <c r="C145" t="str">
         <f>INDEX(TextData!B:B,MATCH(B145,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>20090</v>
+        <v>6330</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6500,16 +6671,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" customFormat="1" spans="1:10">
       <c r="A146">
-        <v>20100</v>
+        <v>6340</v>
       </c>
       <c r="B146">
-        <v>20100</v>
+        <v>6340</v>
       </c>
       <c r="C146" t="str">
         <f>INDEX(TextData!B:B,MATCH(B146,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>DeBuffのStateにかかっていない味方</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6521,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>20100</v>
+        <v>6340</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -6533,28 +6704,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" customFormat="1" spans="1:10">
       <c r="A147">
-        <v>20110</v>
+        <v>6341</v>
       </c>
       <c r="B147">
-        <v>20110</v>
+        <v>6341</v>
       </c>
       <c r="C147" t="str">
         <f>INDEX(TextData!B:B,MATCH(B147,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147">
-        <v>20110</v>
+        <v>6340</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -6566,16 +6737,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" customFormat="1" spans="1:10">
       <c r="A148">
-        <v>20120</v>
+        <v>6350</v>
       </c>
       <c r="B148">
-        <v>20120</v>
+        <v>6350</v>
       </c>
       <c r="C148" t="str">
         <f>INDEX(TextData!B:B,MATCH(B148,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>DeBuffのStateにかかっていない敵</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6587,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>20120</v>
+        <v>6350</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6599,28 +6770,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" customFormat="1" spans="1:10">
       <c r="A149">
-        <v>20130</v>
+        <v>6351</v>
       </c>
       <c r="B149">
-        <v>20130</v>
+        <v>6351</v>
       </c>
       <c r="C149" t="str">
         <f>INDEX(TextData!B:B,MATCH(B149,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>20130</v>
+        <v>6350</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6632,31 +6803,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" customFormat="1" spans="1:10">
       <c r="A150">
-        <v>20140</v>
+        <v>6411</v>
       </c>
       <c r="B150">
-        <v>20140</v>
+        <v>6411</v>
       </c>
       <c r="C150" t="str">
         <f>INDEX(TextData!B:B,MATCH(B150,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G150">
-        <v>20140</v>
+        <v>6040</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6665,31 +6836,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" customFormat="1" spans="1:10">
       <c r="A151">
-        <v>20150</v>
+        <v>6412</v>
       </c>
       <c r="B151">
-        <v>20150</v>
+        <v>6412</v>
       </c>
       <c r="C151" t="str">
         <f>INDEX(TextData!B:B,MATCH(B151,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G151">
-        <v>20150</v>
+        <v>6040</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2140</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6698,31 +6869,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" customFormat="1" spans="1:10">
       <c r="A152">
-        <v>20160</v>
+        <v>6413</v>
       </c>
       <c r="B152">
-        <v>20160</v>
+        <v>6413</v>
       </c>
       <c r="C152" t="str">
         <f>INDEX(TextData!B:B,MATCH(B152,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152">
-        <v>20160</v>
+        <v>6040</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -6731,31 +6902,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" customFormat="1" spans="1:10">
       <c r="A153">
-        <v>30010</v>
+        <v>6414</v>
       </c>
       <c r="B153">
-        <v>30010</v>
+        <v>6414</v>
       </c>
       <c r="C153" t="str">
         <f>INDEX(TextData!B:B,MATCH(B153,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G153">
-        <v>30010</v>
+        <v>6040</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6764,36 +6935,1917 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" customFormat="1" spans="1:10">
       <c r="A154">
-        <v>30020</v>
+        <v>6415</v>
       </c>
       <c r="B154">
-        <v>30020</v>
+        <v>6415</v>
       </c>
       <c r="C154" t="str">
         <f>INDEX(TextData!B:B,MATCH(B154,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>101</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>6040</v>
+      </c>
+      <c r="H154">
+        <v>2400</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="1" spans="1:10">
+      <c r="A155">
+        <v>6416</v>
+      </c>
+      <c r="B155">
+        <v>6416</v>
+      </c>
+      <c r="C155" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B155,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>111</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>6040</v>
+      </c>
+      <c r="H155">
+        <v>2090</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="1" spans="1:10">
+      <c r="A156">
+        <v>6511</v>
+      </c>
+      <c r="B156">
+        <v>6511</v>
+      </c>
+      <c r="C156" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B156,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>211</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>6050</v>
+      </c>
+      <c r="H156">
+        <v>2010</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" spans="1:10">
+      <c r="A157">
+        <v>6512</v>
+      </c>
+      <c r="B157">
+        <v>6512</v>
+      </c>
+      <c r="C157" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B157,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>221</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>6050</v>
+      </c>
+      <c r="H157">
+        <v>2140</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="1" spans="1:10">
+      <c r="A158">
+        <v>6513</v>
+      </c>
+      <c r="B158">
+        <v>6513</v>
+      </c>
+      <c r="C158" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B158,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>231</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>6050</v>
+      </c>
+      <c r="H158">
+        <v>2150</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" spans="1:10">
+      <c r="A159">
+        <v>6514</v>
+      </c>
+      <c r="B159">
+        <v>6514</v>
+      </c>
+      <c r="C159" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B159,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>241</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>6050</v>
+      </c>
+      <c r="H159">
+        <v>2390</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" spans="1:10">
+      <c r="A160">
+        <v>6515</v>
+      </c>
+      <c r="B160">
+        <v>6515</v>
+      </c>
+      <c r="C160" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B160,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>251</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>6050</v>
+      </c>
+      <c r="H160">
+        <v>2400</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:10">
+      <c r="A161">
+        <v>6516</v>
+      </c>
+      <c r="B161">
+        <v>6516</v>
+      </c>
+      <c r="C161" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B161,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>261</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>6050</v>
+      </c>
+      <c r="H161">
+        <v>2090</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" spans="1:10">
+      <c r="A162">
+        <v>6611</v>
+      </c>
+      <c r="B162">
+        <v>6611</v>
+      </c>
+      <c r="C162" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B162,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>60</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>6040</v>
+      </c>
+      <c r="H162">
+        <v>2010</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="1" spans="1:10">
+      <c r="A163">
+        <v>6612</v>
+      </c>
+      <c r="B163">
+        <v>6612</v>
+      </c>
+      <c r="C163" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B163,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>70</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>6040</v>
+      </c>
+      <c r="H163">
+        <v>2140</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="1" spans="1:10">
+      <c r="A164">
+        <v>6613</v>
+      </c>
+      <c r="B164">
+        <v>6613</v>
+      </c>
+      <c r="C164" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B164,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>80</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>6040</v>
+      </c>
+      <c r="H164">
+        <v>2150</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="1" spans="1:10">
+      <c r="A165">
+        <v>6614</v>
+      </c>
+      <c r="B165">
+        <v>6614</v>
+      </c>
+      <c r="C165" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B165,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>90</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>6040</v>
+      </c>
+      <c r="H165">
+        <v>2390</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="1" spans="1:10">
+      <c r="A166">
+        <v>6615</v>
+      </c>
+      <c r="B166">
+        <v>6615</v>
+      </c>
+      <c r="C166" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B166,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>100</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>6040</v>
+      </c>
+      <c r="H166">
+        <v>2400</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="1" spans="1:10">
+      <c r="A167">
+        <v>6616</v>
+      </c>
+      <c r="B167">
+        <v>6616</v>
+      </c>
+      <c r="C167" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B167,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>110</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>6040</v>
+      </c>
+      <c r="H167">
+        <v>2090</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="1" spans="1:10">
+      <c r="A168">
+        <v>6711</v>
+      </c>
+      <c r="B168">
+        <v>6711</v>
+      </c>
+      <c r="C168" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B168,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>210</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>6050</v>
+      </c>
+      <c r="H168">
+        <v>2010</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="1" spans="1:10">
+      <c r="A169">
+        <v>6712</v>
+      </c>
+      <c r="B169">
+        <v>6712</v>
+      </c>
+      <c r="C169" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B169,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>220</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>6050</v>
+      </c>
+      <c r="H169">
+        <v>2140</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="1:10">
+      <c r="A170">
+        <v>6713</v>
+      </c>
+      <c r="B170">
+        <v>6713</v>
+      </c>
+      <c r="C170" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B170,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>230</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>6050</v>
+      </c>
+      <c r="H170">
+        <v>2150</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" spans="1:10">
+      <c r="A171">
+        <v>6714</v>
+      </c>
+      <c r="B171">
+        <v>6714</v>
+      </c>
+      <c r="C171" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B171,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>240</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>6050</v>
+      </c>
+      <c r="H171">
+        <v>2390</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="1" spans="1:10">
+      <c r="A172">
+        <v>6715</v>
+      </c>
+      <c r="B172">
+        <v>6715</v>
+      </c>
+      <c r="C172" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B172,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>250</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>6050</v>
+      </c>
+      <c r="H172">
+        <v>2400</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="1" spans="1:10">
+      <c r="A173">
+        <v>6716</v>
+      </c>
+      <c r="B173">
+        <v>6716</v>
+      </c>
+      <c r="C173" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B173,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>260</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>6050</v>
+      </c>
+      <c r="H173">
+        <v>2090</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>7010</v>
+      </c>
+      <c r="B174">
+        <v>7010</v>
+      </c>
+      <c r="C174" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B174,TextData!A:A))</f>
+        <v>神化発動前</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>7010</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>7020</v>
+      </c>
+      <c r="B175">
+        <v>7020</v>
+      </c>
+      <c r="C175" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B175,TextData!A:A))</f>
+        <v>神化発動後</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>7020</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>8010</v>
+      </c>
+      <c r="B176">
+        <v>8010</v>
+      </c>
+      <c r="C176" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B176,TextData!A:A))</f>
+        <v>味方より敵が多い</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>8010</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>8020</v>
+      </c>
+      <c r="B177">
+        <v>8020</v>
+      </c>
+      <c r="C177" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B177,TextData!A:A))</f>
+        <v>味方より敵が少ない</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>8020</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" ht="12" customHeight="1" spans="1:10">
+      <c r="A178">
+        <v>9010</v>
+      </c>
+      <c r="B178">
+        <v>9010</v>
+      </c>
+      <c r="C178" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B178,TextData!A:A))</f>
+        <v>ターン数が〇以内</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>9010</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" ht="12" customHeight="1" spans="1:10">
+      <c r="A179">
+        <v>9030</v>
+      </c>
+      <c r="B179">
+        <v>9030</v>
+      </c>
+      <c r="C179" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B179,TextData!A:A))</f>
+        <v>ターン数がparam1 x ターン数 + param2</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>9030</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>9040</v>
+      </c>
+      <c r="B180">
+        <v>9040</v>
+      </c>
+      <c r="C180" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B180,TextData!A:A))</f>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>9040</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>10010</v>
+      </c>
+      <c r="B181">
+        <v>10010</v>
+      </c>
+      <c r="C181" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B181,TextData!A:A))</f>
+        <v>攻撃成功時〇%で</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>10010</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>10020</v>
+      </c>
+      <c r="B182">
+        <v>10020</v>
+      </c>
+      <c r="C182" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B182,TextData!A:A))</f>
+        <v>〇%で</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>10020</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>11010</v>
+      </c>
+      <c r="B183">
+        <v>11010</v>
+      </c>
+      <c r="C183" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B183,TextData!A:A))</f>
+        <v>バトル中使用回数が〇以下</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>11010</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>12020</v>
+      </c>
+      <c r="B184">
+        <v>12020</v>
+      </c>
+      <c r="C184" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B184,TextData!A:A))</f>
+        <v>Lvが〇以上</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>12020</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>12030</v>
+      </c>
+      <c r="B185">
+        <v>12030</v>
+      </c>
+      <c r="C185" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B185,TextData!A:A))</f>
+        <v>行動Magicの消費Mpが〇</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>12030</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>12040</v>
+      </c>
+      <c r="B186">
+        <v>12040</v>
+      </c>
+      <c r="C186" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B186,TextData!A:A))</f>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>12040</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>12050</v>
+      </c>
+      <c r="B187">
+        <v>12050</v>
+      </c>
+      <c r="C187" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B187,TextData!A:A))</f>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>12050</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="1" spans="1:10">
+      <c r="A188">
+        <v>13010</v>
+      </c>
+      <c r="B188">
+        <v>13010</v>
+      </c>
+      <c r="C188" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B188,TextData!A:A))</f>
+        <v>〇のKindを持っている味方</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>13010</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:10">
+      <c r="A189">
+        <v>13020</v>
+      </c>
+      <c r="B189">
+        <v>13020</v>
+      </c>
+      <c r="C189" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B189,TextData!A:A))</f>
+        <v>〇のKindを持っている敵</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>13020</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="1:10">
+      <c r="A190">
+        <v>13021</v>
+      </c>
+      <c r="B190">
+        <v>13021</v>
+      </c>
+      <c r="C190" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B190,TextData!A:A))</f>
+        <v>汎用敵(クリーチャー)を優先</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>13020</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="1" spans="1:10">
+      <c r="A191">
+        <v>13022</v>
+      </c>
+      <c r="B191">
+        <v>13022</v>
+      </c>
+      <c r="C191" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B191,TextData!A:A))</f>
+        <v>ボス(悪魔)を優先</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>13020</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="1" spans="1:10">
+      <c r="A192">
+        <v>13026</v>
+      </c>
+      <c r="B192">
+        <v>13026</v>
+      </c>
+      <c r="C192" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B192,TextData!A:A))</f>
+        <v>汎用敵(クリーチャー)</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>13020</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="1" spans="1:10">
+      <c r="A193">
+        <v>13027</v>
+      </c>
+      <c r="B193">
+        <v>13027</v>
+      </c>
+      <c r="C193" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B193,TextData!A:A))</f>
+        <v>ボス(悪魔)</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>13020</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>20010</v>
+      </c>
+      <c r="B194">
+        <v>20010</v>
+      </c>
+      <c r="C194" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B194,TextData!A:A))</f>
+        <v>Mpを〇消費する</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>20010</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>20020</v>
+      </c>
+      <c r="B195">
+        <v>20020</v>
+      </c>
+      <c r="C195" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B195,TextData!A:A))</f>
+        <v>拘束3回成功</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>20020</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>20030</v>
+      </c>
+      <c r="B196">
+        <v>20030</v>
+      </c>
+      <c r="C196" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B196,TextData!A:A))</f>
+        <v>攻撃で戦闘不能になる</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>20030</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>20040</v>
+      </c>
+      <c r="B197">
+        <v>20040</v>
+      </c>
+      <c r="C197" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B197,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>20040</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>20050</v>
+      </c>
+      <c r="B198">
+        <v>20050</v>
+      </c>
+      <c r="C198" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B198,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>20050</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199">
+        <v>20060</v>
+      </c>
+      <c r="B199">
+        <v>20060</v>
+      </c>
+      <c r="C199" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B199,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>20060</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>20070</v>
+      </c>
+      <c r="B200">
+        <v>20070</v>
+      </c>
+      <c r="C200" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B200,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>20070</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201">
+        <v>20080</v>
+      </c>
+      <c r="B201">
+        <v>20080</v>
+      </c>
+      <c r="C201" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B201,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>20080</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202">
+        <v>20090</v>
+      </c>
+      <c r="B202">
+        <v>20090</v>
+      </c>
+      <c r="C202" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B202,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>20090</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203">
+        <v>20100</v>
+      </c>
+      <c r="B203">
+        <v>20100</v>
+      </c>
+      <c r="C203" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B203,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>20100</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204">
+        <v>20110</v>
+      </c>
+      <c r="B204">
+        <v>20110</v>
+      </c>
+      <c r="C204" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B204,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>20110</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205">
+        <v>20120</v>
+      </c>
+      <c r="B205">
+        <v>20120</v>
+      </c>
+      <c r="C205" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B205,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>20120</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206">
+        <v>20130</v>
+      </c>
+      <c r="B206">
+        <v>20130</v>
+      </c>
+      <c r="C206" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B206,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>20130</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207">
+        <v>20140</v>
+      </c>
+      <c r="B207">
+        <v>20140</v>
+      </c>
+      <c r="C207" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B207,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>20140</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208">
+        <v>20150</v>
+      </c>
+      <c r="B208">
+        <v>20150</v>
+      </c>
+      <c r="C208" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B208,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>20150</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>20160</v>
+      </c>
+      <c r="B209">
+        <v>20160</v>
+      </c>
+      <c r="C209" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B209,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>20160</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>30010</v>
+      </c>
+      <c r="B210">
+        <v>30010</v>
+      </c>
+      <c r="C210" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B210,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>30010</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211">
+        <v>30020</v>
+      </c>
+      <c r="B211">
+        <v>30020</v>
+      </c>
+      <c r="C211" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B211,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
         <v>30020</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
         <v>0</v>
       </c>
     </row>
@@ -6807,10 +8859,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -8097,7 +10149,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>7010</v>
+        <v>6040</v>
       </c>
       <c r="B117" t="s">
         <v>188</v>
@@ -8108,7 +10160,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>7020</v>
+        <v>6050</v>
       </c>
       <c r="B118" t="s">
         <v>189</v>
@@ -8119,7 +10171,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>8010</v>
+        <v>6060</v>
       </c>
       <c r="B119" t="s">
         <v>190</v>
@@ -8130,7 +10182,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>8020</v>
+        <v>6110</v>
       </c>
       <c r="B120" t="s">
         <v>191</v>
@@ -8141,7 +10193,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>9010</v>
+        <v>6120</v>
       </c>
       <c r="B121" t="s">
         <v>192</v>
@@ -8152,7 +10204,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>9030</v>
+        <v>6121</v>
       </c>
       <c r="B122" t="s">
         <v>193</v>
@@ -8163,7 +10215,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>9040</v>
+        <v>6130</v>
       </c>
       <c r="B123" t="s">
         <v>194</v>
@@ -8174,7 +10226,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>10010</v>
+        <v>6131</v>
       </c>
       <c r="B124" t="s">
         <v>195</v>
@@ -8185,7 +10237,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>10020</v>
+        <v>6140</v>
       </c>
       <c r="B125" t="s">
         <v>196</v>
@@ -8196,7 +10248,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>11010</v>
+        <v>6150</v>
       </c>
       <c r="B126" t="s">
         <v>197</v>
@@ -8207,7 +10259,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>12020</v>
+        <v>6151</v>
       </c>
       <c r="B127" t="s">
         <v>198</v>
@@ -8218,7 +10270,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>12030</v>
+        <v>6210</v>
       </c>
       <c r="B128" t="s">
         <v>199</v>
@@ -8229,7 +10281,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>12040</v>
+        <v>6220</v>
       </c>
       <c r="B129" t="s">
         <v>200</v>
@@ -8240,7 +10292,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>12050</v>
+        <v>6221</v>
       </c>
       <c r="B130" t="s">
         <v>201</v>
@@ -8251,7 +10303,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>13010</v>
+        <v>6222</v>
       </c>
       <c r="B131" t="s">
         <v>202</v>
@@ -8262,7 +10314,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>13020</v>
+        <v>6230</v>
       </c>
       <c r="B132" t="s">
         <v>203</v>
@@ -8273,54 +10325,54 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>13021</v>
+        <v>6231</v>
       </c>
       <c r="B133" t="s">
         <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>13022</v>
+        <v>6232</v>
       </c>
       <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>6240</v>
+      </c>
+      <c r="B135" t="s">
         <v>206</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>6241</v>
+      </c>
+      <c r="B136" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="135" ht="26" spans="1:3">
-      <c r="A135">
-        <v>13026</v>
-      </c>
-      <c r="B135" t="s">
-        <v>208</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" ht="26" spans="1:3">
-      <c r="A136">
-        <v>13027</v>
-      </c>
-      <c r="B136" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>211</v>
+      <c r="C136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>20010</v>
+        <v>6250</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -8328,10 +10380,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>20020</v>
+        <v>6251</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -8339,10 +10391,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>20030</v>
+        <v>6310</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -8350,10 +10402,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>20040</v>
+        <v>6320</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -8361,10 +10413,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>20050</v>
+        <v>6321</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -8372,10 +10424,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>20060</v>
+        <v>6322</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -8383,10 +10435,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>20070</v>
+        <v>6330</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -8394,10 +10446,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>20080</v>
+        <v>6331</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -8405,10 +10457,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>20090</v>
+        <v>6332</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -8416,10 +10468,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>20100</v>
+        <v>6340</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -8427,10 +10479,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>20110</v>
+        <v>6341</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
@@ -8438,10 +10490,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>20120</v>
+        <v>6350</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -8449,10 +10501,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>20130</v>
+        <v>6351</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -8460,10 +10512,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>20140</v>
+        <v>6411</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
@@ -8471,10 +10523,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>20150</v>
+        <v>6412</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -8482,10 +10534,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>20160</v>
+        <v>6413</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
@@ -8493,10 +10545,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>30010</v>
+        <v>6414</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
@@ -8504,12 +10556,639 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
+        <v>6415</v>
+      </c>
+      <c r="B154" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>6416</v>
+      </c>
+      <c r="B155" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>6511</v>
+      </c>
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>6512</v>
+      </c>
+      <c r="B157" t="s">
+        <v>228</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>6513</v>
+      </c>
+      <c r="B158" t="s">
+        <v>229</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>6514</v>
+      </c>
+      <c r="B159" t="s">
+        <v>230</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>6515</v>
+      </c>
+      <c r="B160" t="s">
+        <v>231</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>6516</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>6611</v>
+      </c>
+      <c r="B162" t="s">
+        <v>233</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>6612</v>
+      </c>
+      <c r="B163" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>6613</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>6614</v>
+      </c>
+      <c r="B165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>6615</v>
+      </c>
+      <c r="B166" t="s">
+        <v>237</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>6616</v>
+      </c>
+      <c r="B167" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>6711</v>
+      </c>
+      <c r="B168" t="s">
+        <v>239</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>6712</v>
+      </c>
+      <c r="B169" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>6713</v>
+      </c>
+      <c r="B170" t="s">
+        <v>241</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>6714</v>
+      </c>
+      <c r="B171" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>6715</v>
+      </c>
+      <c r="B172" t="s">
+        <v>243</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>6716</v>
+      </c>
+      <c r="B173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>7010</v>
+      </c>
+      <c r="B174" t="s">
+        <v>245</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>7020</v>
+      </c>
+      <c r="B175" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>8010</v>
+      </c>
+      <c r="B176" t="s">
+        <v>247</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>8020</v>
+      </c>
+      <c r="B177" t="s">
+        <v>248</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>9010</v>
+      </c>
+      <c r="B178" t="s">
+        <v>249</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>9030</v>
+      </c>
+      <c r="B179" t="s">
+        <v>250</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>9040</v>
+      </c>
+      <c r="B180" t="s">
+        <v>251</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>10010</v>
+      </c>
+      <c r="B181" t="s">
+        <v>252</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>10020</v>
+      </c>
+      <c r="B182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>11010</v>
+      </c>
+      <c r="B183" t="s">
+        <v>254</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>12020</v>
+      </c>
+      <c r="B184" t="s">
+        <v>255</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>12030</v>
+      </c>
+      <c r="B185" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>12040</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>12050</v>
+      </c>
+      <c r="B187" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>13010</v>
+      </c>
+      <c r="B188" t="s">
+        <v>259</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>13020</v>
+      </c>
+      <c r="B189" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>13021</v>
+      </c>
+      <c r="B190" t="s">
+        <v>261</v>
+      </c>
+      <c r="C190" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>13022</v>
+      </c>
+      <c r="B191" t="s">
+        <v>263</v>
+      </c>
+      <c r="C191" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="192" ht="26" spans="1:3">
+      <c r="A192">
+        <v>13026</v>
+      </c>
+      <c r="B192" t="s">
+        <v>265</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" ht="26" spans="1:3">
+      <c r="A193">
+        <v>13027</v>
+      </c>
+      <c r="B193" t="s">
+        <v>267</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>20010</v>
+      </c>
+      <c r="B194" t="s">
+        <v>269</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>20020</v>
+      </c>
+      <c r="B195" t="s">
+        <v>270</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>20030</v>
+      </c>
+      <c r="B196" t="s">
+        <v>271</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>20040</v>
+      </c>
+      <c r="B197" t="s">
+        <v>272</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>20050</v>
+      </c>
+      <c r="B198" t="s">
+        <v>273</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>20060</v>
+      </c>
+      <c r="B199" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>20070</v>
+      </c>
+      <c r="B200" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>20080</v>
+      </c>
+      <c r="B201" t="s">
+        <v>276</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>20090</v>
+      </c>
+      <c r="B202" t="s">
+        <v>277</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>20100</v>
+      </c>
+      <c r="B203" t="s">
+        <v>278</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>20110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>279</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>20120</v>
+      </c>
+      <c r="B205" t="s">
+        <v>280</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>20130</v>
+      </c>
+      <c r="B206" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>20140</v>
+      </c>
+      <c r="B207" t="s">
+        <v>282</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>20150</v>
+      </c>
+      <c r="B208" t="s">
+        <v>283</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>20160</v>
+      </c>
+      <c r="B209" t="s">
+        <v>284</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>30010</v>
+      </c>
+      <c r="B210" t="s">
+        <v>285</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
         <v>30020</v>
       </c>
-      <c r="B154" t="s">
-        <v>229</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B211" t="s">
+        <v>286</v>
+      </c>
+      <c r="C211" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="323">
   <si>
     <t>Id</t>
   </si>
@@ -811,6 +811,130 @@
   </si>
   <si>
     <t>味方より敵が少ない</t>
+  </si>
+  <si>
+    <t>味方の数が〇以上</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>味方が2体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>味方が3体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>味方が4体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>味方が5体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>味方の数が〇以下</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>味方が1体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>味方が2体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>味方が3体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>味方が4体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>敵の数が〇以上</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>敵が2体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>敵が3体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>敵が4体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</t>
+  </si>
+  <si>
+    <t>敵が5体以上の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>敵の数が〇以下</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>敵が1体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>敵が2体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>敵が3体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</t>
+  </si>
+  <si>
+    <t>敵が4体以下の場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>ターン数が〇以内</t>
@@ -934,10 +1058,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -948,8 +1072,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,16 +1096,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,6 +1122,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,7 +1142,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,7 +1150,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,27 +1171,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1052,14 +1200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1068,25 +1208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,6 +1222,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1113,37 +1321,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,133 +1405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,6 +1416,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1319,15 +1469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1339,21 +1480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,11 +1510,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,151 +1524,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1868,10 +1995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -7727,16 +7854,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" ht="12" customHeight="1" spans="1:10">
+    <row r="178" customFormat="1" spans="1:10">
       <c r="A178">
-        <v>9010</v>
+        <v>8030</v>
       </c>
       <c r="B178">
-        <v>9010</v>
+        <v>8030</v>
       </c>
       <c r="C178" t="str">
         <f>INDEX(TextData!B:B,MATCH(B178,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>味方の数が〇以上</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7748,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>9010</v>
+        <v>8030</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7760,31 +7887,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" ht="12" customHeight="1" spans="1:10">
+    <row r="179" customFormat="1" spans="1:10">
       <c r="A179">
-        <v>9030</v>
+        <v>8031</v>
       </c>
       <c r="B179">
-        <v>9030</v>
+        <v>8031</v>
       </c>
       <c r="C179" t="str">
         <f>INDEX(TextData!B:B,MATCH(B179,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G179">
-        <v>9030</v>
+        <v>8030</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -7793,31 +7920,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" customFormat="1" spans="1:10">
       <c r="A180">
-        <v>9040</v>
+        <v>8032</v>
       </c>
       <c r="B180">
-        <v>9040</v>
+        <v>8032</v>
       </c>
       <c r="C180" t="str">
         <f>INDEX(TextData!B:B,MATCH(B180,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G180">
-        <v>9040</v>
+        <v>8030</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7826,31 +7953,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" customFormat="1" spans="1:10">
       <c r="A181">
-        <v>10010</v>
+        <v>8033</v>
       </c>
       <c r="B181">
-        <v>10010</v>
+        <v>8033</v>
       </c>
       <c r="C181" t="str">
         <f>INDEX(TextData!B:B,MATCH(B181,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G181">
-        <v>10010</v>
+        <v>8030</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -7859,31 +7986,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" customFormat="1" spans="1:10">
       <c r="A182">
-        <v>10020</v>
+        <v>8034</v>
       </c>
       <c r="B182">
-        <v>10020</v>
+        <v>8034</v>
       </c>
       <c r="C182" t="str">
         <f>INDEX(TextData!B:B,MATCH(B182,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G182">
-        <v>10020</v>
+        <v>8030</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -7892,16 +8019,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" customFormat="1" spans="1:10">
       <c r="A183">
-        <v>11010</v>
+        <v>8040</v>
       </c>
       <c r="B183">
-        <v>11010</v>
+        <v>8040</v>
       </c>
       <c r="C183" t="str">
         <f>INDEX(TextData!B:B,MATCH(B183,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>味方の数が〇以下</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -7913,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>11010</v>
+        <v>8040</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -7925,31 +8052,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A184">
-        <v>12020</v>
+        <v>8041</v>
       </c>
       <c r="B184">
-        <v>12020</v>
+        <v>8041</v>
       </c>
       <c r="C184" t="str">
         <f>INDEX(TextData!B:B,MATCH(B184,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G184">
-        <v>12020</v>
+        <v>8040</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -7958,31 +8085,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A185">
-        <v>12030</v>
+        <v>8042</v>
       </c>
       <c r="B185">
-        <v>12030</v>
+        <v>8042</v>
       </c>
       <c r="C185" t="str">
         <f>INDEX(TextData!B:B,MATCH(B185,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G185">
-        <v>12030</v>
+        <v>8040</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -7991,31 +8118,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A186">
-        <v>12040</v>
+        <v>8043</v>
       </c>
       <c r="B186">
-        <v>12040</v>
+        <v>8043</v>
       </c>
       <c r="C186" t="str">
         <f>INDEX(TextData!B:B,MATCH(B186,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G186">
-        <v>12040</v>
+        <v>8040</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8024,31 +8151,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A187">
-        <v>12050</v>
+        <v>8044</v>
       </c>
       <c r="B187">
-        <v>12050</v>
+        <v>8044</v>
       </c>
       <c r="C187" t="str">
         <f>INDEX(TextData!B:B,MATCH(B187,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G187">
-        <v>12050</v>
+        <v>8040</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8059,14 +8186,14 @@
     </row>
     <row r="188" customFormat="1" spans="1:10">
       <c r="A188">
-        <v>13010</v>
+        <v>8050</v>
       </c>
       <c r="B188">
-        <v>13010</v>
+        <v>8050</v>
       </c>
       <c r="C188" t="str">
         <f>INDEX(TextData!B:B,MATCH(B188,TextData!A:A))</f>
-        <v>〇のKindを持っている味方</v>
+        <v>敵の数が〇以上</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8078,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>13010</v>
+        <v>8050</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -8092,29 +8219,29 @@
     </row>
     <row r="189" customFormat="1" spans="1:10">
       <c r="A189">
-        <v>13020</v>
+        <v>8051</v>
       </c>
       <c r="B189">
-        <v>13020</v>
+        <v>8051</v>
       </c>
       <c r="C189" t="str">
         <f>INDEX(TextData!B:B,MATCH(B189,TextData!A:A))</f>
-        <v>〇のKindを持っている敵</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G189">
-        <v>13020</v>
+        <v>8050</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8125,32 +8252,32 @@
     </row>
     <row r="190" customFormat="1" spans="1:10">
       <c r="A190">
-        <v>13021</v>
+        <v>8052</v>
       </c>
       <c r="B190">
-        <v>13021</v>
+        <v>8052</v>
       </c>
       <c r="C190" t="str">
         <f>INDEX(TextData!B:B,MATCH(B190,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)を優先</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G190">
-        <v>13020</v>
+        <v>8050</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -8158,32 +8285,32 @@
     </row>
     <row r="191" customFormat="1" spans="1:10">
       <c r="A191">
-        <v>13022</v>
+        <v>8053</v>
       </c>
       <c r="B191">
-        <v>13022</v>
+        <v>8053</v>
       </c>
       <c r="C191" t="str">
         <f>INDEX(TextData!B:B,MATCH(B191,TextData!A:A))</f>
-        <v>ボス(悪魔)を優先</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G191">
-        <v>13020</v>
+        <v>8050</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -8191,29 +8318,29 @@
     </row>
     <row r="192" customFormat="1" spans="1:10">
       <c r="A192">
-        <v>13026</v>
+        <v>8054</v>
       </c>
       <c r="B192">
-        <v>13026</v>
+        <v>8054</v>
       </c>
       <c r="C192" t="str">
         <f>INDEX(TextData!B:B,MATCH(B192,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G192">
-        <v>13020</v>
+        <v>8050</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8224,29 +8351,29 @@
     </row>
     <row r="193" customFormat="1" spans="1:10">
       <c r="A193">
-        <v>13027</v>
+        <v>8060</v>
       </c>
       <c r="B193">
-        <v>13027</v>
+        <v>8060</v>
       </c>
       <c r="C193" t="str">
         <f>INDEX(TextData!B:B,MATCH(B193,TextData!A:A))</f>
-        <v>ボス(悪魔)</v>
+        <v>敵の数が〇以下</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>13020</v>
+        <v>8060</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8255,31 +8382,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A194">
-        <v>20010</v>
+        <v>8061</v>
       </c>
       <c r="B194">
-        <v>20010</v>
+        <v>8061</v>
       </c>
       <c r="C194" t="str">
         <f>INDEX(TextData!B:B,MATCH(B194,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G194">
-        <v>20010</v>
+        <v>8060</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8288,31 +8415,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A195">
-        <v>20020</v>
+        <v>8062</v>
       </c>
       <c r="B195">
-        <v>20020</v>
+        <v>8062</v>
       </c>
       <c r="C195" t="str">
         <f>INDEX(TextData!B:B,MATCH(B195,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G195">
-        <v>20020</v>
+        <v>8060</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8321,31 +8448,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A196">
-        <v>20030</v>
+        <v>8063</v>
       </c>
       <c r="B196">
-        <v>20030</v>
+        <v>8063</v>
       </c>
       <c r="C196" t="str">
         <f>INDEX(TextData!B:B,MATCH(B196,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G196">
-        <v>20030</v>
+        <v>8060</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8354,31 +8481,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A197">
-        <v>20040</v>
+        <v>8064</v>
       </c>
       <c r="B197">
-        <v>20040</v>
+        <v>8064</v>
       </c>
       <c r="C197" t="str">
         <f>INDEX(TextData!B:B,MATCH(B197,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G197">
-        <v>20040</v>
+        <v>8060</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8387,16 +8514,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" ht="12" customHeight="1" spans="1:10">
       <c r="A198">
-        <v>20050</v>
+        <v>9010</v>
       </c>
       <c r="B198">
-        <v>20050</v>
+        <v>9010</v>
       </c>
       <c r="C198" t="str">
         <f>INDEX(TextData!B:B,MATCH(B198,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8408,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>20050</v>
+        <v>9010</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -8420,16 +8547,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" ht="12" customHeight="1" spans="1:10">
       <c r="A199">
-        <v>20060</v>
+        <v>9030</v>
       </c>
       <c r="B199">
-        <v>20060</v>
+        <v>9030</v>
       </c>
       <c r="C199" t="str">
         <f>INDEX(TextData!B:B,MATCH(B199,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8441,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="G199">
-        <v>20060</v>
+        <v>9030</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8455,14 +8582,14 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>20070</v>
+        <v>9040</v>
       </c>
       <c r="B200">
-        <v>20070</v>
+        <v>9040</v>
       </c>
       <c r="C200" t="str">
         <f>INDEX(TextData!B:B,MATCH(B200,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8474,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>20070</v>
+        <v>9040</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8488,14 +8615,14 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>20080</v>
+        <v>10010</v>
       </c>
       <c r="B201">
-        <v>20080</v>
+        <v>10010</v>
       </c>
       <c r="C201" t="str">
         <f>INDEX(TextData!B:B,MATCH(B201,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8507,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>20080</v>
+        <v>10010</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8521,14 +8648,14 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>20090</v>
+        <v>10020</v>
       </c>
       <c r="B202">
-        <v>20090</v>
+        <v>10020</v>
       </c>
       <c r="C202" t="str">
         <f>INDEX(TextData!B:B,MATCH(B202,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>〇%で</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8540,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="G202">
-        <v>20090</v>
+        <v>10020</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -8554,14 +8681,14 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>20100</v>
+        <v>11010</v>
       </c>
       <c r="B203">
-        <v>20100</v>
+        <v>11010</v>
       </c>
       <c r="C203" t="str">
         <f>INDEX(TextData!B:B,MATCH(B203,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>バトル中使用回数が〇以下</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8573,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="G203">
-        <v>20100</v>
+        <v>11010</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -8587,14 +8714,14 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>20110</v>
+        <v>12020</v>
       </c>
       <c r="B204">
-        <v>20110</v>
+        <v>12020</v>
       </c>
       <c r="C204" t="str">
         <f>INDEX(TextData!B:B,MATCH(B204,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>Lvが〇以上</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8606,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="G204">
-        <v>20110</v>
+        <v>12020</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -8620,14 +8747,14 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>20120</v>
+        <v>12030</v>
       </c>
       <c r="B205">
-        <v>20120</v>
+        <v>12030</v>
       </c>
       <c r="C205" t="str">
         <f>INDEX(TextData!B:B,MATCH(B205,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>行動Magicの消費Mpが〇</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8639,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="G205">
-        <v>20120</v>
+        <v>12030</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -8653,14 +8780,14 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>20130</v>
+        <v>12040</v>
       </c>
       <c r="B206">
-        <v>20130</v>
+        <v>12040</v>
       </c>
       <c r="C206" t="str">
         <f>INDEX(TextData!B:B,MATCH(B206,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8672,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="G206">
-        <v>20130</v>
+        <v>12040</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -8686,14 +8813,14 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>20140</v>
+        <v>12050</v>
       </c>
       <c r="B207">
-        <v>20140</v>
+        <v>12050</v>
       </c>
       <c r="C207" t="str">
         <f>INDEX(TextData!B:B,MATCH(B207,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8705,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="G207">
-        <v>20140</v>
+        <v>12050</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8717,16 +8844,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" customFormat="1" spans="1:10">
       <c r="A208">
-        <v>20150</v>
+        <v>13010</v>
       </c>
       <c r="B208">
-        <v>20150</v>
+        <v>13010</v>
       </c>
       <c r="C208" t="str">
         <f>INDEX(TextData!B:B,MATCH(B208,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>〇のKindを持っている味方</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -8738,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>20150</v>
+        <v>13010</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -8750,16 +8877,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" customFormat="1" spans="1:10">
       <c r="A209">
-        <v>20160</v>
+        <v>13020</v>
       </c>
       <c r="B209">
-        <v>20160</v>
+        <v>13020</v>
       </c>
       <c r="C209" t="str">
         <f>INDEX(TextData!B:B,MATCH(B209,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>〇のKindを持っている敵</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8771,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="G209">
-        <v>20160</v>
+        <v>13020</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -8783,69 +8910,729 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" customFormat="1" spans="1:10">
       <c r="A210">
-        <v>30010</v>
+        <v>13021</v>
       </c>
       <c r="B210">
-        <v>30010</v>
+        <v>13021</v>
       </c>
       <c r="C210" t="str">
         <f>INDEX(TextData!B:B,MATCH(B210,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>汎用敵(クリーチャー)を優先</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>30010</v>
+        <v>13020</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" customFormat="1" spans="1:10">
       <c r="A211">
-        <v>30020</v>
+        <v>13022</v>
       </c>
       <c r="B211">
-        <v>30020</v>
+        <v>13022</v>
       </c>
       <c r="C211" t="str">
         <f>INDEX(TextData!B:B,MATCH(B211,TextData!A:A))</f>
+        <v>ボス(悪魔)を優先</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>13020</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="1" spans="1:10">
+      <c r="A212">
+        <v>13026</v>
+      </c>
+      <c r="B212">
+        <v>13026</v>
+      </c>
+      <c r="C212" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B212,TextData!A:A))</f>
+        <v>汎用敵(クリーチャー)</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>13020</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="1" spans="1:10">
+      <c r="A213">
+        <v>13027</v>
+      </c>
+      <c r="B213">
+        <v>13027</v>
+      </c>
+      <c r="C213" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B213,TextData!A:A))</f>
+        <v>ボス(悪魔)</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>13020</v>
+      </c>
+      <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214">
+        <v>20010</v>
+      </c>
+      <c r="B214">
+        <v>20010</v>
+      </c>
+      <c r="C214" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B214,TextData!A:A))</f>
+        <v>Mpを〇消費する</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>20010</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215">
+        <v>20020</v>
+      </c>
+      <c r="B215">
+        <v>20020</v>
+      </c>
+      <c r="C215" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B215,TextData!A:A))</f>
+        <v>拘束3回成功</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>20020</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216">
+        <v>20030</v>
+      </c>
+      <c r="B216">
+        <v>20030</v>
+      </c>
+      <c r="C216" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B216,TextData!A:A))</f>
+        <v>攻撃で戦闘不能になる</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>20030</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217">
+        <v>20040</v>
+      </c>
+      <c r="B217">
+        <v>20040</v>
+      </c>
+      <c r="C217" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B217,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>20040</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218">
+        <v>20050</v>
+      </c>
+      <c r="B218">
+        <v>20050</v>
+      </c>
+      <c r="C218" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B218,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>20050</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219">
+        <v>20060</v>
+      </c>
+      <c r="B219">
+        <v>20060</v>
+      </c>
+      <c r="C219" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B219,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>20060</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220">
+        <v>20070</v>
+      </c>
+      <c r="B220">
+        <v>20070</v>
+      </c>
+      <c r="C220" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B220,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>20070</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221">
+        <v>20080</v>
+      </c>
+      <c r="B221">
+        <v>20080</v>
+      </c>
+      <c r="C221" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B221,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>20080</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222">
+        <v>20090</v>
+      </c>
+      <c r="B222">
+        <v>20090</v>
+      </c>
+      <c r="C222" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B222,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>20090</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223">
+        <v>20100</v>
+      </c>
+      <c r="B223">
+        <v>20100</v>
+      </c>
+      <c r="C223" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B223,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>20100</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224">
+        <v>20110</v>
+      </c>
+      <c r="B224">
+        <v>20110</v>
+      </c>
+      <c r="C224" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B224,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>20110</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225">
+        <v>20120</v>
+      </c>
+      <c r="B225">
+        <v>20120</v>
+      </c>
+      <c r="C225" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B225,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>20120</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226">
+        <v>20130</v>
+      </c>
+      <c r="B226">
+        <v>20130</v>
+      </c>
+      <c r="C226" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B226,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>20130</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227">
+        <v>20140</v>
+      </c>
+      <c r="B227">
+        <v>20140</v>
+      </c>
+      <c r="C227" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B227,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>20140</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228">
+        <v>20150</v>
+      </c>
+      <c r="B228">
+        <v>20150</v>
+      </c>
+      <c r="C228" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B228,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>20150</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229">
+        <v>20160</v>
+      </c>
+      <c r="B229">
+        <v>20160</v>
+      </c>
+      <c r="C229" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B229,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>20160</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230">
+        <v>30010</v>
+      </c>
+      <c r="B230">
+        <v>30010</v>
+      </c>
+      <c r="C230" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B230,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>30010</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231">
+        <v>30020</v>
+      </c>
+      <c r="B231">
+        <v>30020</v>
+      </c>
+      <c r="C231" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B231,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211">
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
         <v>30020</v>
       </c>
-      <c r="H211">
-        <v>0</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
         <v>0</v>
       </c>
     </row>
@@ -8859,14 +9646,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="9.54545454545454"/>
     <col min="2" max="2" width="60.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
@@ -10807,7 +11595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" ht="12" customHeight="1" spans="1:3">
       <c r="A177">
         <v>8020</v>
       </c>
@@ -10820,7 +11608,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>9010</v>
+        <v>8030</v>
       </c>
       <c r="B178" t="s">
         <v>249</v>
@@ -10829,221 +11617,221 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" ht="26" spans="1:3">
       <c r="A179">
-        <v>9030</v>
+        <v>8031</v>
       </c>
       <c r="B179" t="s">
         <v>250</v>
       </c>
-      <c r="C179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="C179" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="180" ht="26" spans="1:3">
       <c r="A180">
-        <v>9040</v>
+        <v>8032</v>
       </c>
       <c r="B180" t="s">
-        <v>251</v>
-      </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" ht="26" spans="1:3">
       <c r="A181">
-        <v>10010</v>
+        <v>8033</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
-      </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" ht="26" spans="1:3">
       <c r="A182">
-        <v>10020</v>
+        <v>8034</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
-      </c>
-      <c r="C182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" ht="12" customHeight="1" spans="1:3">
       <c r="A183">
-        <v>11010</v>
+        <v>8040</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" ht="26" spans="1:3">
       <c r="A184">
-        <v>12020</v>
+        <v>8041</v>
       </c>
       <c r="B184" t="s">
-        <v>255</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" ht="26" spans="1:3">
       <c r="A185">
-        <v>12030</v>
+        <v>8042</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
-      </c>
-      <c r="C185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>261</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" ht="26" spans="1:3">
       <c r="A186">
-        <v>12040</v>
+        <v>8043</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
-      </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" ht="26" spans="1:3">
       <c r="A187">
-        <v>12050</v>
+        <v>8044</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
-      </c>
-      <c r="C187" t="s">
-        <v>12</v>
+        <v>265</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>13010</v>
+        <v>8050</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" ht="26" spans="1:3">
       <c r="A189">
-        <v>13020</v>
+        <v>8051</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
-      </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>268</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" ht="26" spans="1:3">
       <c r="A190">
-        <v>13021</v>
+        <v>8052</v>
       </c>
       <c r="B190" t="s">
-        <v>261</v>
-      </c>
-      <c r="C190" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>270</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" ht="26" spans="1:3">
       <c r="A191">
-        <v>13022</v>
+        <v>8053</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
-      </c>
-      <c r="C191" t="s">
-        <v>264</v>
+        <v>272</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="192" ht="26" spans="1:3">
       <c r="A192">
-        <v>13026</v>
+        <v>8054</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="193" ht="26" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" ht="12" customHeight="1" spans="1:3">
       <c r="A193">
-        <v>13027</v>
+        <v>8060</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" ht="26" spans="1:3">
       <c r="A194">
-        <v>20010</v>
+        <v>8061</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
-      </c>
-      <c r="C194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" ht="26" spans="1:3">
       <c r="A195">
-        <v>20020</v>
+        <v>8062</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
-      </c>
-      <c r="C195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="196" ht="26" spans="1:3">
       <c r="A196">
-        <v>20030</v>
+        <v>8063</v>
       </c>
       <c r="B196" t="s">
-        <v>271</v>
-      </c>
-      <c r="C196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>281</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" ht="26" spans="1:3">
       <c r="A197">
-        <v>20040</v>
+        <v>8064</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
-      </c>
-      <c r="C197" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>20050</v>
+        <v>9010</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
@@ -11051,10 +11839,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>20060</v>
+        <v>9030</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
@@ -11062,10 +11850,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>20070</v>
+        <v>9040</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -11073,10 +11861,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>20080</v>
+        <v>10010</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
@@ -11084,10 +11872,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>20090</v>
+        <v>10020</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
@@ -11095,10 +11883,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>20100</v>
+        <v>11010</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
@@ -11106,10 +11894,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>20110</v>
+        <v>12020</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
@@ -11117,10 +11905,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>20120</v>
+        <v>12030</v>
       </c>
       <c r="B205" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -11128,10 +11916,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>20130</v>
+        <v>12040</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
@@ -11139,10 +11927,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>20140</v>
+        <v>12050</v>
       </c>
       <c r="B207" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
@@ -11150,10 +11938,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>20150</v>
+        <v>13010</v>
       </c>
       <c r="B208" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
@@ -11161,10 +11949,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>20160</v>
+        <v>13020</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -11172,23 +11960,243 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>30010</v>
+        <v>13021</v>
       </c>
       <c r="B210" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
+        <v>13022</v>
+      </c>
+      <c r="B211" t="s">
+        <v>299</v>
+      </c>
+      <c r="C211" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" ht="26" spans="1:3">
+      <c r="A212">
+        <v>13026</v>
+      </c>
+      <c r="B212" t="s">
+        <v>301</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="213" ht="26" spans="1:3">
+      <c r="A213">
+        <v>13027</v>
+      </c>
+      <c r="B213" t="s">
+        <v>303</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>20010</v>
+      </c>
+      <c r="B214" t="s">
+        <v>305</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>20020</v>
+      </c>
+      <c r="B215" t="s">
+        <v>306</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>20030</v>
+      </c>
+      <c r="B216" t="s">
+        <v>307</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>20040</v>
+      </c>
+      <c r="B217" t="s">
+        <v>308</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>20050</v>
+      </c>
+      <c r="B218" t="s">
+        <v>309</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>20060</v>
+      </c>
+      <c r="B219" t="s">
+        <v>310</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>20070</v>
+      </c>
+      <c r="B220" t="s">
+        <v>311</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>20080</v>
+      </c>
+      <c r="B221" t="s">
+        <v>312</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>20090</v>
+      </c>
+      <c r="B222" t="s">
+        <v>313</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>20100</v>
+      </c>
+      <c r="B223" t="s">
+        <v>314</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>20110</v>
+      </c>
+      <c r="B224" t="s">
+        <v>315</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>20120</v>
+      </c>
+      <c r="B225" t="s">
+        <v>316</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>20130</v>
+      </c>
+      <c r="B226" t="s">
+        <v>317</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>20140</v>
+      </c>
+      <c r="B227" t="s">
+        <v>318</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>20150</v>
+      </c>
+      <c r="B228" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>20160</v>
+      </c>
+      <c r="B229" t="s">
+        <v>320</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>30010</v>
+      </c>
+      <c r="B230" t="s">
+        <v>321</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
         <v>30020</v>
       </c>
-      <c r="B211" t="s">
-        <v>286</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="B231" t="s">
+        <v>322</v>
+      </c>
+      <c r="C231" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="350">
   <si>
     <t>Id</t>
   </si>
@@ -666,6 +666,13 @@
     <t>BuffのStateにかかっている</t>
   </si>
   <si>
+    <t>自身が&lt;color="green"&gt;バフ&lt;/color&gt;状態</t>
+  </si>
+  <si>
+    <t>自身にバフが付与されている場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>BuffのStateにかかっている味方</t>
   </si>
   <si>
@@ -697,6 +704,13 @@
   </si>
   <si>
     <t>DeBuffのStateにかかっている</t>
+  </si>
+  <si>
+    <t>自身が&lt;color="green"&gt;デバフ&lt;/color&gt;状態</t>
+  </si>
+  <si>
+    <t>自身にデバフが付与されている場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>DeBuffのStateにかかっている味方</t>
@@ -940,10 +954,90 @@
     <t>ターン数が〇以内</t>
   </si>
   <si>
+    <t>ターン数が〇</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;1行動&lt;/color&gt;目</t>
+  </si>
+  <si>
+    <t>自身の1行動目に、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;2行動&lt;/color&gt;目</t>
+  </si>
+  <si>
+    <t>自身の2行動目に、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;3行動&lt;/color&gt;目</t>
+  </si>
+  <si>
+    <t>自身の3行動目に、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;4行動&lt;/color&gt;目</t>
+  </si>
+  <si>
+    <t>自身の4行動目に、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;5行動&lt;/color&gt;目</t>
+  </si>
+  <si>
+    <t>自身の5行動目に、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>ターン数がparam1 x ターン数 + param2</t>
   </si>
   <si>
+    <t>&lt;color="green"&gt;2行動&lt;/color&gt;間隔</t>
+  </si>
+  <si>
+    <t>自身の2行動間隔で、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;3行動&lt;/color&gt;間隔</t>
+  </si>
+  <si>
+    <t>自身の3行動間隔で、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;4行動&lt;/color&gt;間隔</t>
+  </si>
+  <si>
+    <t>自身の4行動間隔で、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;5行動&lt;/color&gt;間隔</t>
+  </si>
+  <si>
+    <t>自身の5行動間隔で、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>全体の行動数がparam1 x 行動数 + param2</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>自身に限定します
+&lt;color="red"&gt;該当する対象がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>自身以外</t>
+  </si>
+  <si>
+    <t>自身以外に限定します
+&lt;color="red"&gt;該当する対象がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>攻撃成功時〇%で</t>
@@ -1058,10 +1152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1072,17 +1166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,6 +1177,14 @@
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,40 +1202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,37 +1218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,6 +1234,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1208,9 +1256,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,49 +1319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,43 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,7 +1361,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1421,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,55 +1493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,26 +1515,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,15 +1537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1480,15 +1548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,7 +1571,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,145 +1618,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1995,10 +2089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213:F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6239,26 +6333,26 @@
     </row>
     <row r="129" customFormat="1" spans="1:10">
       <c r="A129">
-        <v>6220</v>
+        <v>6211</v>
       </c>
       <c r="B129">
-        <v>6220</v>
+        <v>6211</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX(TextData!B:B,MATCH(B129,TextData!A:A))</f>
-        <v>BuffのStateにかかっている味方</v>
+        <v>自身が&lt;color="green"&gt;バフ&lt;/color&gt;状態</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>6220</v>
+        <v>6210</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -6272,23 +6366,23 @@
     </row>
     <row r="130" customFormat="1" spans="1:10">
       <c r="A130">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="B130">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX(TextData!B:B,MATCH(B130,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>BuffのStateにかかっている味方</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>6220</v>
@@ -6297,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6305,20 +6399,20 @@
     </row>
     <row r="131" customFormat="1" spans="1:10">
       <c r="A131">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="B131">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX(TextData!B:B,MATCH(B131,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D131">
         <v>5</v>
       </c>
       <c r="E131">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -6330,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -6338,23 +6432,23 @@
     </row>
     <row r="132" customFormat="1" spans="1:10">
       <c r="A132">
-        <v>6230</v>
+        <v>6222</v>
       </c>
       <c r="B132">
-        <v>6230</v>
+        <v>6222</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX(TextData!B:B,MATCH(B132,TextData!A:A))</f>
-        <v>BuffのStateにかかっている敵</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <v>6220</v>
@@ -6371,32 +6465,32 @@
     </row>
     <row r="133" customFormat="1" spans="1:10">
       <c r="A133">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="B133">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX(TextData!B:B,MATCH(B133,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>BuffのStateにかかっている敵</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>6230</v>
+        <v>6220</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -6404,20 +6498,20 @@
     </row>
     <row r="134" customFormat="1" spans="1:10">
       <c r="A134">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="B134">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX(TextData!B:B,MATCH(B134,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -6429,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6437,26 +6531,26 @@
     </row>
     <row r="135" customFormat="1" spans="1:10">
       <c r="A135">
-        <v>6240</v>
+        <v>6232</v>
       </c>
       <c r="B135">
-        <v>6240</v>
+        <v>6232</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX(TextData!B:B,MATCH(B135,TextData!A:A))</f>
-        <v>BuffのStateにかかっていない味方</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>6240</v>
+        <v>6230</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6470,23 +6564,23 @@
     </row>
     <row r="136" customFormat="1" spans="1:10">
       <c r="A136">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="B136">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX(TextData!B:B,MATCH(B136,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>BuffのStateにかかっていない味方</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>6240</v>
@@ -6503,26 +6597,26 @@
     </row>
     <row r="137" customFormat="1" spans="1:10">
       <c r="A137">
-        <v>6250</v>
+        <v>6241</v>
       </c>
       <c r="B137">
-        <v>6250</v>
+        <v>6241</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX(TextData!B:B,MATCH(B137,TextData!A:A))</f>
-        <v>BuffのStateにかかっていない敵</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>6250</v>
+        <v>6240</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6536,23 +6630,23 @@
     </row>
     <row r="138" customFormat="1" spans="1:10">
       <c r="A138">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="B138">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX(TextData!B:B,MATCH(B138,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>BuffのStateにかかっていない敵</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>6250</v>
@@ -6569,26 +6663,26 @@
     </row>
     <row r="139" customFormat="1" spans="1:10">
       <c r="A139">
-        <v>6310</v>
+        <v>6251</v>
       </c>
       <c r="B139">
-        <v>6310</v>
+        <v>6251</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX(TextData!B:B,MATCH(B139,TextData!A:A))</f>
-        <v>DeBuffのStateにかかっている</v>
+        <v>&lt;color="green"&gt;バフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>6310</v>
+        <v>6250</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6602,14 +6696,14 @@
     </row>
     <row r="140" customFormat="1" spans="1:10">
       <c r="A140">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="B140">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX(TextData!B:B,MATCH(B140,TextData!A:A))</f>
-        <v>DeBuffのStateにかかっている味方</v>
+        <v>DeBuffのStateにかかっている</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6621,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6635,32 +6729,32 @@
     </row>
     <row r="141" customFormat="1" spans="1:10">
       <c r="A141">
-        <v>6321</v>
+        <v>6311</v>
       </c>
       <c r="B141">
-        <v>6321</v>
+        <v>6311</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX(TextData!B:B,MATCH(B141,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>自身が&lt;color="green"&gt;デバフ&lt;/color&gt;状態</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6668,23 +6762,23 @@
     </row>
     <row r="142" customFormat="1" spans="1:10">
       <c r="A142">
-        <v>6322</v>
+        <v>6320</v>
       </c>
       <c r="B142">
-        <v>6322</v>
+        <v>6320</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX(TextData!B:B,MATCH(B142,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>DeBuffのStateにかかっている味方</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>6320</v>
@@ -6701,32 +6795,32 @@
     </row>
     <row r="143" customFormat="1" spans="1:10">
       <c r="A143">
-        <v>6330</v>
+        <v>6321</v>
       </c>
       <c r="B143">
-        <v>6330</v>
+        <v>6321</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX(TextData!B:B,MATCH(B143,TextData!A:A))</f>
-        <v>DeBuffのStateにかかっている敵</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>6330</v>
+        <v>6320</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6734,32 +6828,32 @@
     </row>
     <row r="144" customFormat="1" spans="1:10">
       <c r="A144">
-        <v>6331</v>
+        <v>6322</v>
       </c>
       <c r="B144">
-        <v>6331</v>
+        <v>6322</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX(TextData!B:B,MATCH(B144,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D144">
         <v>5</v>
       </c>
       <c r="E144">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>6330</v>
+        <v>6320</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -6767,23 +6861,23 @@
     </row>
     <row r="145" customFormat="1" spans="1:10">
       <c r="A145">
-        <v>6332</v>
+        <v>6330</v>
       </c>
       <c r="B145">
-        <v>6332</v>
+        <v>6330</v>
       </c>
       <c r="C145" t="str">
         <f>INDEX(TextData!B:B,MATCH(B145,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>DeBuffのStateにかかっている敵</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>6330</v>
@@ -6800,32 +6894,32 @@
     </row>
     <row r="146" customFormat="1" spans="1:10">
       <c r="A146">
-        <v>6340</v>
+        <v>6331</v>
       </c>
       <c r="B146">
-        <v>6340</v>
+        <v>6331</v>
       </c>
       <c r="C146" t="str">
         <f>INDEX(TextData!B:B,MATCH(B146,TextData!A:A))</f>
-        <v>DeBuffのStateにかかっていない味方</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>6340</v>
+        <v>6330</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6833,26 +6927,26 @@
     </row>
     <row r="147" customFormat="1" spans="1:10">
       <c r="A147">
-        <v>6341</v>
+        <v>6332</v>
       </c>
       <c r="B147">
-        <v>6341</v>
+        <v>6332</v>
       </c>
       <c r="C147" t="str">
         <f>INDEX(TextData!B:B,MATCH(B147,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D147">
         <v>5</v>
       </c>
       <c r="E147">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>6340</v>
+        <v>6330</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -6866,14 +6960,14 @@
     </row>
     <row r="148" customFormat="1" spans="1:10">
       <c r="A148">
-        <v>6350</v>
+        <v>6340</v>
       </c>
       <c r="B148">
-        <v>6350</v>
+        <v>6340</v>
       </c>
       <c r="C148" t="str">
         <f>INDEX(TextData!B:B,MATCH(B148,TextData!A:A))</f>
-        <v>DeBuffのStateにかかっていない敵</v>
+        <v>DeBuffのStateにかかっていない味方</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6885,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>6350</v>
+        <v>6340</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6899,26 +6993,26 @@
     </row>
     <row r="149" customFormat="1" spans="1:10">
       <c r="A149">
-        <v>6351</v>
+        <v>6341</v>
       </c>
       <c r="B149">
-        <v>6351</v>
+        <v>6341</v>
       </c>
       <c r="C149" t="str">
         <f>INDEX(TextData!B:B,MATCH(B149,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="E149">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149">
-        <v>6350</v>
+        <v>6340</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6932,29 +7026,29 @@
     </row>
     <row r="150" customFormat="1" spans="1:10">
       <c r="A150">
-        <v>6411</v>
+        <v>6350</v>
       </c>
       <c r="B150">
-        <v>6411</v>
+        <v>6350</v>
       </c>
       <c r="C150" t="str">
         <f>INDEX(TextData!B:B,MATCH(B150,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>DeBuffのStateにかかっていない敵</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>6040</v>
+        <v>6350</v>
       </c>
       <c r="H150">
-        <v>2010</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6965,29 +7059,29 @@
     </row>
     <row r="151" customFormat="1" spans="1:10">
       <c r="A151">
-        <v>6412</v>
+        <v>6351</v>
       </c>
       <c r="B151">
-        <v>6412</v>
+        <v>6351</v>
       </c>
       <c r="C151" t="str">
         <f>INDEX(TextData!B:B,MATCH(B151,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;デバフ&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D151">
         <v>5</v>
       </c>
       <c r="E151">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151">
-        <v>6040</v>
+        <v>6350</v>
       </c>
       <c r="H151">
-        <v>2140</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6998,20 +7092,20 @@
     </row>
     <row r="152" customFormat="1" spans="1:10">
       <c r="A152">
-        <v>6413</v>
+        <v>6411</v>
       </c>
       <c r="B152">
-        <v>6413</v>
+        <v>6411</v>
       </c>
       <c r="C152" t="str">
         <f>INDEX(TextData!B:B,MATCH(B152,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="E152">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -7020,7 +7114,7 @@
         <v>6040</v>
       </c>
       <c r="H152">
-        <v>2150</v>
+        <v>2010</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -7031,20 +7125,20 @@
     </row>
     <row r="153" customFormat="1" spans="1:10">
       <c r="A153">
-        <v>6414</v>
+        <v>6412</v>
       </c>
       <c r="B153">
-        <v>6414</v>
+        <v>6412</v>
       </c>
       <c r="C153" t="str">
         <f>INDEX(TextData!B:B,MATCH(B153,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D153">
         <v>5</v>
       </c>
       <c r="E153">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -7053,7 +7147,7 @@
         <v>6040</v>
       </c>
       <c r="H153">
-        <v>2390</v>
+        <v>2140</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -7064,20 +7158,20 @@
     </row>
     <row r="154" customFormat="1" spans="1:10">
       <c r="A154">
-        <v>6415</v>
+        <v>6413</v>
       </c>
       <c r="B154">
-        <v>6415</v>
+        <v>6413</v>
       </c>
       <c r="C154" t="str">
         <f>INDEX(TextData!B:B,MATCH(B154,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="E154">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -7086,7 +7180,7 @@
         <v>6040</v>
       </c>
       <c r="H154">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -7097,20 +7191,20 @@
     </row>
     <row r="155" customFormat="1" spans="1:10">
       <c r="A155">
-        <v>6416</v>
+        <v>6414</v>
       </c>
       <c r="B155">
-        <v>6416</v>
+        <v>6414</v>
       </c>
       <c r="C155" t="str">
         <f>INDEX(TextData!B:B,MATCH(B155,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D155">
         <v>5</v>
       </c>
       <c r="E155">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -7119,7 +7213,7 @@
         <v>6040</v>
       </c>
       <c r="H155">
-        <v>2090</v>
+        <v>2390</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -7130,29 +7224,29 @@
     </row>
     <row r="156" customFormat="1" spans="1:10">
       <c r="A156">
-        <v>6511</v>
+        <v>6415</v>
       </c>
       <c r="B156">
-        <v>6511</v>
+        <v>6415</v>
       </c>
       <c r="C156" t="str">
         <f>INDEX(TextData!B:B,MATCH(B156,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="F156">
         <v>2</v>
       </c>
       <c r="G156">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H156">
-        <v>2010</v>
+        <v>2400</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -7163,29 +7257,29 @@
     </row>
     <row r="157" customFormat="1" spans="1:10">
       <c r="A157">
-        <v>6512</v>
+        <v>6416</v>
       </c>
       <c r="B157">
-        <v>6512</v>
+        <v>6416</v>
       </c>
       <c r="C157" t="str">
         <f>INDEX(TextData!B:B,MATCH(B157,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D157">
         <v>5</v>
       </c>
       <c r="E157">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="F157">
         <v>2</v>
       </c>
       <c r="G157">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H157">
-        <v>2140</v>
+        <v>2090</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -7196,20 +7290,20 @@
     </row>
     <row r="158" customFormat="1" spans="1:10">
       <c r="A158">
-        <v>6513</v>
+        <v>6511</v>
       </c>
       <c r="B158">
-        <v>6513</v>
+        <v>6511</v>
       </c>
       <c r="C158" t="str">
         <f>INDEX(TextData!B:B,MATCH(B158,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="E158">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -7218,7 +7312,7 @@
         <v>6050</v>
       </c>
       <c r="H158">
-        <v>2150</v>
+        <v>2010</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -7229,20 +7323,20 @@
     </row>
     <row r="159" customFormat="1" spans="1:10">
       <c r="A159">
-        <v>6514</v>
+        <v>6512</v>
       </c>
       <c r="B159">
-        <v>6514</v>
+        <v>6512</v>
       </c>
       <c r="C159" t="str">
         <f>INDEX(TextData!B:B,MATCH(B159,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D159">
         <v>5</v>
       </c>
       <c r="E159">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -7251,7 +7345,7 @@
         <v>6050</v>
       </c>
       <c r="H159">
-        <v>2390</v>
+        <v>2140</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -7262,20 +7356,20 @@
     </row>
     <row r="160" customFormat="1" spans="1:10">
       <c r="A160">
-        <v>6515</v>
+        <v>6513</v>
       </c>
       <c r="B160">
-        <v>6515</v>
+        <v>6513</v>
       </c>
       <c r="C160" t="str">
         <f>INDEX(TextData!B:B,MATCH(B160,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
       <c r="E160">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -7284,7 +7378,7 @@
         <v>6050</v>
       </c>
       <c r="H160">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -7295,20 +7389,20 @@
     </row>
     <row r="161" customFormat="1" spans="1:10">
       <c r="A161">
-        <v>6516</v>
+        <v>6514</v>
       </c>
       <c r="B161">
-        <v>6516</v>
+        <v>6514</v>
       </c>
       <c r="C161" t="str">
         <f>INDEX(TextData!B:B,MATCH(B161,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="E161">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -7317,7 +7411,7 @@
         <v>6050</v>
       </c>
       <c r="H161">
-        <v>2090</v>
+        <v>2390</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7328,29 +7422,29 @@
     </row>
     <row r="162" customFormat="1" spans="1:10">
       <c r="A162">
-        <v>6611</v>
+        <v>6515</v>
       </c>
       <c r="B162">
-        <v>6611</v>
+        <v>6515</v>
       </c>
       <c r="C162" t="str">
         <f>INDEX(TextData!B:B,MATCH(B162,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="E162">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162">
-        <v>6040</v>
+        <v>6050</v>
       </c>
       <c r="H162">
-        <v>2010</v>
+        <v>2400</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -7361,29 +7455,29 @@
     </row>
     <row r="163" customFormat="1" spans="1:10">
       <c r="A163">
-        <v>6612</v>
+        <v>6516</v>
       </c>
       <c r="B163">
-        <v>6612</v>
+        <v>6516</v>
       </c>
       <c r="C163" t="str">
         <f>INDEX(TextData!B:B,MATCH(B163,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D163">
         <v>5</v>
       </c>
       <c r="E163">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163">
-        <v>6040</v>
+        <v>6050</v>
       </c>
       <c r="H163">
-        <v>2140</v>
+        <v>2090</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7394,20 +7488,20 @@
     </row>
     <row r="164" customFormat="1" spans="1:10">
       <c r="A164">
-        <v>6613</v>
+        <v>6611</v>
       </c>
       <c r="B164">
-        <v>6613</v>
+        <v>6611</v>
       </c>
       <c r="C164" t="str">
         <f>INDEX(TextData!B:B,MATCH(B164,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D164">
         <v>5</v>
       </c>
       <c r="E164">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -7416,7 +7510,7 @@
         <v>6040</v>
       </c>
       <c r="H164">
-        <v>2150</v>
+        <v>2010</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7427,20 +7521,20 @@
     </row>
     <row r="165" customFormat="1" spans="1:10">
       <c r="A165">
-        <v>6614</v>
+        <v>6612</v>
       </c>
       <c r="B165">
-        <v>6614</v>
+        <v>6612</v>
       </c>
       <c r="C165" t="str">
         <f>INDEX(TextData!B:B,MATCH(B165,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D165">
         <v>5</v>
       </c>
       <c r="E165">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -7449,7 +7543,7 @@
         <v>6040</v>
       </c>
       <c r="H165">
-        <v>2390</v>
+        <v>2140</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7460,20 +7554,20 @@
     </row>
     <row r="166" customFormat="1" spans="1:10">
       <c r="A166">
-        <v>6615</v>
+        <v>6613</v>
       </c>
       <c r="B166">
-        <v>6615</v>
+        <v>6613</v>
       </c>
       <c r="C166" t="str">
         <f>INDEX(TextData!B:B,MATCH(B166,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D166">
         <v>5</v>
       </c>
       <c r="E166">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -7482,7 +7576,7 @@
         <v>6040</v>
       </c>
       <c r="H166">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7493,20 +7587,20 @@
     </row>
     <row r="167" customFormat="1" spans="1:10">
       <c r="A167">
-        <v>6616</v>
+        <v>6614</v>
       </c>
       <c r="B167">
-        <v>6616</v>
+        <v>6614</v>
       </c>
       <c r="C167" t="str">
         <f>INDEX(TextData!B:B,MATCH(B167,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D167">
         <v>5</v>
       </c>
       <c r="E167">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -7515,7 +7609,7 @@
         <v>6040</v>
       </c>
       <c r="H167">
-        <v>2090</v>
+        <v>2390</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -7526,29 +7620,29 @@
     </row>
     <row r="168" customFormat="1" spans="1:10">
       <c r="A168">
-        <v>6711</v>
+        <v>6615</v>
       </c>
       <c r="B168">
-        <v>6711</v>
+        <v>6615</v>
       </c>
       <c r="C168" t="str">
         <f>INDEX(TextData!B:B,MATCH(B168,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D168">
         <v>5</v>
       </c>
       <c r="E168">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="F168">
         <v>1</v>
       </c>
       <c r="G168">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H168">
-        <v>2010</v>
+        <v>2400</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7559,29 +7653,29 @@
     </row>
     <row r="169" customFormat="1" spans="1:10">
       <c r="A169">
-        <v>6712</v>
+        <v>6616</v>
       </c>
       <c r="B169">
-        <v>6712</v>
+        <v>6616</v>
       </c>
       <c r="C169" t="str">
         <f>INDEX(TextData!B:B,MATCH(B169,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D169">
         <v>5</v>
       </c>
       <c r="E169">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H169">
-        <v>2140</v>
+        <v>2090</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7592,20 +7686,20 @@
     </row>
     <row r="170" customFormat="1" spans="1:10">
       <c r="A170">
-        <v>6713</v>
+        <v>6711</v>
       </c>
       <c r="B170">
-        <v>6713</v>
+        <v>6711</v>
       </c>
       <c r="C170" t="str">
         <f>INDEX(TextData!B:B,MATCH(B170,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -7614,7 +7708,7 @@
         <v>6050</v>
       </c>
       <c r="H170">
-        <v>2150</v>
+        <v>2010</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7625,20 +7719,20 @@
     </row>
     <row r="171" customFormat="1" spans="1:10">
       <c r="A171">
-        <v>6714</v>
+        <v>6712</v>
       </c>
       <c r="B171">
-        <v>6714</v>
+        <v>6712</v>
       </c>
       <c r="C171" t="str">
         <f>INDEX(TextData!B:B,MATCH(B171,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D171">
         <v>5</v>
       </c>
       <c r="E171">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -7647,7 +7741,7 @@
         <v>6050</v>
       </c>
       <c r="H171">
-        <v>2390</v>
+        <v>2140</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7658,20 +7752,20 @@
     </row>
     <row r="172" customFormat="1" spans="1:10">
       <c r="A172">
-        <v>6715</v>
+        <v>6713</v>
       </c>
       <c r="B172">
-        <v>6715</v>
+        <v>6713</v>
       </c>
       <c r="C172" t="str">
         <f>INDEX(TextData!B:B,MATCH(B172,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D172">
         <v>5</v>
       </c>
       <c r="E172">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -7680,7 +7774,7 @@
         <v>6050</v>
       </c>
       <c r="H172">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -7691,20 +7785,20 @@
     </row>
     <row r="173" customFormat="1" spans="1:10">
       <c r="A173">
-        <v>6716</v>
+        <v>6714</v>
       </c>
       <c r="B173">
-        <v>6716</v>
+        <v>6714</v>
       </c>
       <c r="C173" t="str">
         <f>INDEX(TextData!B:B,MATCH(B173,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D173">
         <v>5</v>
       </c>
       <c r="E173">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -7713,7 +7807,7 @@
         <v>6050</v>
       </c>
       <c r="H173">
-        <v>2090</v>
+        <v>2390</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7722,31 +7816,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" customFormat="1" spans="1:10">
       <c r="A174">
-        <v>7010</v>
+        <v>6715</v>
       </c>
       <c r="B174">
-        <v>7010</v>
+        <v>6715</v>
       </c>
       <c r="C174" t="str">
         <f>INDEX(TextData!B:B,MATCH(B174,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>7010</v>
+        <v>6050</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7755,31 +7849,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" customFormat="1" spans="1:10">
       <c r="A175">
-        <v>7020</v>
+        <v>6716</v>
       </c>
       <c r="B175">
-        <v>7020</v>
+        <v>6716</v>
       </c>
       <c r="C175" t="str">
         <f>INDEX(TextData!B:B,MATCH(B175,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>7020</v>
+        <v>6050</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -7790,14 +7884,14 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>8010</v>
+        <v>7010</v>
       </c>
       <c r="B176">
-        <v>8010</v>
+        <v>7010</v>
       </c>
       <c r="C176" t="str">
         <f>INDEX(TextData!B:B,MATCH(B176,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>神化発動前</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7809,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>8010</v>
+        <v>7010</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -7823,14 +7917,14 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>8020</v>
+        <v>7020</v>
       </c>
       <c r="B177">
-        <v>8020</v>
+        <v>7020</v>
       </c>
       <c r="C177" t="str">
         <f>INDEX(TextData!B:B,MATCH(B177,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>神化発動後</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7842,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>8020</v>
+        <v>7020</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7854,16 +7948,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" customFormat="1" spans="1:10">
+    <row r="178" spans="1:10">
       <c r="A178">
-        <v>8030</v>
+        <v>8010</v>
       </c>
       <c r="B178">
-        <v>8030</v>
+        <v>8010</v>
       </c>
       <c r="C178" t="str">
         <f>INDEX(TextData!B:B,MATCH(B178,TextData!A:A))</f>
-        <v>味方の数が〇以上</v>
+        <v>味方より敵が多い</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7875,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>8030</v>
+        <v>8010</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7887,31 +7981,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" customFormat="1" spans="1:10">
+    <row r="179" spans="1:10">
       <c r="A179">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="B179">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="C179" t="str">
         <f>INDEX(TextData!B:B,MATCH(B179,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
+        <v>味方より敵が少ない</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -7922,29 +8016,29 @@
     </row>
     <row r="180" customFormat="1" spans="1:10">
       <c r="A180">
-        <v>8032</v>
+        <v>8030</v>
       </c>
       <c r="B180">
-        <v>8032</v>
+        <v>8030</v>
       </c>
       <c r="C180" t="str">
         <f>INDEX(TextData!B:B,MATCH(B180,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
+        <v>味方の数が〇以上</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>8030</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7955,20 +8049,20 @@
     </row>
     <row r="181" customFormat="1" spans="1:10">
       <c r="A181">
-        <v>8033</v>
+        <v>8031</v>
       </c>
       <c r="B181">
-        <v>8033</v>
+        <v>8031</v>
       </c>
       <c r="C181" t="str">
         <f>INDEX(TextData!B:B,MATCH(B181,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D181">
         <v>7</v>
       </c>
       <c r="E181">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F181">
         <v>-1</v>
@@ -7977,7 +8071,7 @@
         <v>8030</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -7988,20 +8082,20 @@
     </row>
     <row r="182" customFormat="1" spans="1:10">
       <c r="A182">
-        <v>8034</v>
+        <v>8032</v>
       </c>
       <c r="B182">
-        <v>8034</v>
+        <v>8032</v>
       </c>
       <c r="C182" t="str">
         <f>INDEX(TextData!B:B,MATCH(B182,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D182">
         <v>7</v>
       </c>
       <c r="E182">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F182">
         <v>-1</v>
@@ -8010,7 +8104,7 @@
         <v>8030</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8021,29 +8115,29 @@
     </row>
     <row r="183" customFormat="1" spans="1:10">
       <c r="A183">
-        <v>8040</v>
+        <v>8033</v>
       </c>
       <c r="B183">
-        <v>8040</v>
+        <v>8033</v>
       </c>
       <c r="C183" t="str">
         <f>INDEX(TextData!B:B,MATCH(B183,TextData!A:A))</f>
-        <v>味方の数が〇以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G183">
-        <v>8040</v>
+        <v>8030</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -8052,64 +8146,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="184" customFormat="1" spans="1:10">
       <c r="A184">
-        <v>8041</v>
+        <v>8034</v>
       </c>
       <c r="B184">
-        <v>8041</v>
+        <v>8034</v>
       </c>
       <c r="C184" t="str">
         <f>INDEX(TextData!B:B,MATCH(B184,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D184">
         <v>7</v>
       </c>
       <c r="E184">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F184">
         <v>-1</v>
       </c>
       <c r="G184">
+        <v>8030</v>
+      </c>
+      <c r="H184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:10">
+      <c r="A185">
         <v>8040</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="1" ht="12" customHeight="1" spans="1:10">
-      <c r="A185">
-        <v>8042</v>
-      </c>
       <c r="B185">
-        <v>8042</v>
+        <v>8040</v>
       </c>
       <c r="C185" t="str">
         <f>INDEX(TextData!B:B,MATCH(B185,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
+        <v>味方の数が〇以下</v>
       </c>
       <c r="D185">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>8040</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -8120,20 +8214,20 @@
     </row>
     <row r="186" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A186">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="B186">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C186" t="str">
         <f>INDEX(TextData!B:B,MATCH(B186,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D186">
         <v>7</v>
       </c>
       <c r="E186">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F186">
         <v>-1</v>
@@ -8142,7 +8236,7 @@
         <v>8040</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8153,20 +8247,20 @@
     </row>
     <row r="187" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A187">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="B187">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C187" t="str">
         <f>INDEX(TextData!B:B,MATCH(B187,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D187">
         <v>7</v>
       </c>
       <c r="E187">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F187">
         <v>-1</v>
@@ -8175,7 +8269,7 @@
         <v>8040</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8184,31 +8278,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" customFormat="1" spans="1:10">
+    <row r="188" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A188">
-        <v>8050</v>
+        <v>8043</v>
       </c>
       <c r="B188">
-        <v>8050</v>
+        <v>8043</v>
       </c>
       <c r="C188" t="str">
         <f>INDEX(TextData!B:B,MATCH(B188,TextData!A:A))</f>
-        <v>敵の数が〇以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G188">
-        <v>8050</v>
+        <v>8040</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8217,31 +8311,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" customFormat="1" spans="1:10">
+    <row r="189" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A189">
-        <v>8051</v>
+        <v>8044</v>
       </c>
       <c r="B189">
-        <v>8051</v>
+        <v>8044</v>
       </c>
       <c r="C189" t="str">
         <f>INDEX(TextData!B:B,MATCH(B189,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D189">
         <v>7</v>
       </c>
       <c r="E189">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F189">
         <v>-1</v>
       </c>
       <c r="G189">
-        <v>8050</v>
+        <v>8040</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8252,29 +8346,29 @@
     </row>
     <row r="190" customFormat="1" spans="1:10">
       <c r="A190">
-        <v>8052</v>
+        <v>8050</v>
       </c>
       <c r="B190">
-        <v>8052</v>
+        <v>8050</v>
       </c>
       <c r="C190" t="str">
         <f>INDEX(TextData!B:B,MATCH(B190,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
+        <v>敵の数が〇以上</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>8050</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -8285,20 +8379,20 @@
     </row>
     <row r="191" customFormat="1" spans="1:10">
       <c r="A191">
-        <v>8053</v>
+        <v>8051</v>
       </c>
       <c r="B191">
-        <v>8053</v>
+        <v>8051</v>
       </c>
       <c r="C191" t="str">
         <f>INDEX(TextData!B:B,MATCH(B191,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D191">
         <v>7</v>
       </c>
       <c r="E191">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F191">
         <v>-1</v>
@@ -8307,7 +8401,7 @@
         <v>8050</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -8318,20 +8412,20 @@
     </row>
     <row r="192" customFormat="1" spans="1:10">
       <c r="A192">
-        <v>8054</v>
+        <v>8052</v>
       </c>
       <c r="B192">
-        <v>8054</v>
+        <v>8052</v>
       </c>
       <c r="C192" t="str">
         <f>INDEX(TextData!B:B,MATCH(B192,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D192">
         <v>7</v>
       </c>
       <c r="E192">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F192">
         <v>-1</v>
@@ -8340,7 +8434,7 @@
         <v>8050</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8351,29 +8445,29 @@
     </row>
     <row r="193" customFormat="1" spans="1:10">
       <c r="A193">
-        <v>8060</v>
+        <v>8053</v>
       </c>
       <c r="B193">
-        <v>8060</v>
+        <v>8053</v>
       </c>
       <c r="C193" t="str">
         <f>INDEX(TextData!B:B,MATCH(B193,TextData!A:A))</f>
-        <v>敵の数が〇以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G193">
-        <v>8060</v>
+        <v>8050</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8382,64 +8476,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="194" customFormat="1" spans="1:10">
       <c r="A194">
-        <v>8061</v>
+        <v>8054</v>
       </c>
       <c r="B194">
-        <v>8061</v>
+        <v>8054</v>
       </c>
       <c r="C194" t="str">
         <f>INDEX(TextData!B:B,MATCH(B194,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D194">
         <v>7</v>
       </c>
       <c r="E194">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F194">
         <v>-1</v>
       </c>
       <c r="G194">
+        <v>8050</v>
+      </c>
+      <c r="H194">
+        <v>5</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="1" spans="1:10">
+      <c r="A195">
         <v>8060</v>
       </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" customFormat="1" ht="12" customHeight="1" spans="1:10">
-      <c r="A195">
-        <v>8062</v>
-      </c>
       <c r="B195">
-        <v>8062</v>
+        <v>8060</v>
       </c>
       <c r="C195" t="str">
         <f>INDEX(TextData!B:B,MATCH(B195,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
+        <v>敵の数が〇以下</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>8060</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8450,20 +8544,20 @@
     </row>
     <row r="196" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A196">
-        <v>8063</v>
+        <v>8061</v>
       </c>
       <c r="B196">
-        <v>8063</v>
+        <v>8061</v>
       </c>
       <c r="C196" t="str">
         <f>INDEX(TextData!B:B,MATCH(B196,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D196">
         <v>7</v>
       </c>
       <c r="E196">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F196">
         <v>-1</v>
@@ -8472,7 +8566,7 @@
         <v>8060</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8483,20 +8577,20 @@
     </row>
     <row r="197" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A197">
-        <v>8064</v>
+        <v>8062</v>
       </c>
       <c r="B197">
-        <v>8064</v>
+        <v>8062</v>
       </c>
       <c r="C197" t="str">
         <f>INDEX(TextData!B:B,MATCH(B197,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D197">
         <v>7</v>
       </c>
       <c r="E197">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F197">
         <v>-1</v>
@@ -8505,7 +8599,7 @@
         <v>8060</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8514,31 +8608,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="12" customHeight="1" spans="1:10">
+    <row r="198" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A198">
-        <v>9010</v>
+        <v>8063</v>
       </c>
       <c r="B198">
-        <v>9010</v>
+        <v>8063</v>
       </c>
       <c r="C198" t="str">
         <f>INDEX(TextData!B:B,MATCH(B198,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G198">
-        <v>9010</v>
+        <v>8060</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -8547,31 +8641,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="12" customHeight="1" spans="1:10">
+    <row r="199" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A199">
-        <v>9030</v>
+        <v>8064</v>
       </c>
       <c r="B199">
-        <v>9030</v>
+        <v>8064</v>
       </c>
       <c r="C199" t="str">
         <f>INDEX(TextData!B:B,MATCH(B199,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G199">
-        <v>9030</v>
+        <v>8060</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -8580,16 +8674,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" ht="12" customHeight="1" spans="1:10">
       <c r="A200">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="B200">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="C200" t="str">
         <f>INDEX(TextData!B:B,MATCH(B200,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8601,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8613,16 +8707,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A201">
-        <v>10010</v>
+        <v>9020</v>
       </c>
       <c r="B201">
-        <v>10010</v>
+        <v>9020</v>
       </c>
       <c r="C201" t="str">
         <f>INDEX(TextData!B:B,MATCH(B201,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>ターン数が〇</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8634,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>10010</v>
+        <v>9020</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8646,31 +8740,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A202">
-        <v>10020</v>
+        <v>9021</v>
       </c>
       <c r="B202">
-        <v>10020</v>
+        <v>9021</v>
       </c>
       <c r="C202" t="str">
         <f>INDEX(TextData!B:B,MATCH(B202,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>&lt;color="green"&gt;1行動&lt;/color&gt;目</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G202">
-        <v>10020</v>
+        <v>9020</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -8679,31 +8773,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A203">
-        <v>11010</v>
+        <v>9022</v>
       </c>
       <c r="B203">
-        <v>11010</v>
+        <v>9022</v>
       </c>
       <c r="C203" t="str">
         <f>INDEX(TextData!B:B,MATCH(B203,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>&lt;color="green"&gt;2行動&lt;/color&gt;目</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G203">
-        <v>11010</v>
+        <v>9020</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -8712,31 +8806,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A204">
-        <v>12020</v>
+        <v>9023</v>
       </c>
       <c r="B204">
-        <v>12020</v>
+        <v>9023</v>
       </c>
       <c r="C204" t="str">
         <f>INDEX(TextData!B:B,MATCH(B204,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>&lt;color="green"&gt;3行動&lt;/color&gt;目</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G204">
-        <v>12020</v>
+        <v>9020</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8745,31 +8839,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A205">
-        <v>12030</v>
+        <v>9024</v>
       </c>
       <c r="B205">
-        <v>12030</v>
+        <v>9024</v>
       </c>
       <c r="C205" t="str">
         <f>INDEX(TextData!B:B,MATCH(B205,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>&lt;color="green"&gt;4行動&lt;/color&gt;目</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G205">
-        <v>12030</v>
+        <v>9020</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -8778,31 +8872,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A206">
-        <v>12040</v>
+        <v>9025</v>
       </c>
       <c r="B206">
-        <v>12040</v>
+        <v>9025</v>
       </c>
       <c r="C206" t="str">
         <f>INDEX(TextData!B:B,MATCH(B206,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>&lt;color="green"&gt;5行動&lt;/color&gt;目</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G206">
-        <v>12040</v>
+        <v>9020</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -8811,16 +8905,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" ht="12" customHeight="1" spans="1:10">
       <c r="A207">
-        <v>12050</v>
+        <v>9030</v>
       </c>
       <c r="B207">
-        <v>12050</v>
+        <v>9030</v>
       </c>
       <c r="C207" t="str">
         <f>INDEX(TextData!B:B,MATCH(B207,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8832,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="G207">
-        <v>12050</v>
+        <v>9030</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8844,31 +8938,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="1" spans="1:10">
+    <row r="208" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A208">
-        <v>13010</v>
+        <v>9031</v>
       </c>
       <c r="B208">
-        <v>13010</v>
+        <v>9031</v>
       </c>
       <c r="C208" t="str">
         <f>INDEX(TextData!B:B,MATCH(B208,TextData!A:A))</f>
-        <v>〇のKindを持っている味方</v>
+        <v>&lt;color="green"&gt;2行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G208">
-        <v>13010</v>
+        <v>9030</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -8877,31 +8971,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="1" spans="1:10">
+    <row r="209" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A209">
-        <v>13020</v>
+        <v>9032</v>
       </c>
       <c r="B209">
-        <v>13020</v>
+        <v>9032</v>
       </c>
       <c r="C209" t="str">
         <f>INDEX(TextData!B:B,MATCH(B209,TextData!A:A))</f>
-        <v>〇のKindを持っている敵</v>
+        <v>&lt;color="green"&gt;3行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G209">
-        <v>13020</v>
+        <v>9030</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -8910,97 +9004,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="1" spans="1:10">
+    <row r="210" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A210">
-        <v>13021</v>
+        <v>9033</v>
       </c>
       <c r="B210">
-        <v>13021</v>
+        <v>9033</v>
       </c>
       <c r="C210" t="str">
         <f>INDEX(TextData!B:B,MATCH(B210,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)を優先</v>
+        <v>&lt;color="green"&gt;4行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G210">
-        <v>13020</v>
+        <v>9030</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" customFormat="1" spans="1:10">
+    <row r="211" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A211">
-        <v>13022</v>
+        <v>9034</v>
       </c>
       <c r="B211">
-        <v>13022</v>
+        <v>9034</v>
       </c>
       <c r="C211" t="str">
         <f>INDEX(TextData!B:B,MATCH(B211,TextData!A:A))</f>
-        <v>ボス(悪魔)を優先</v>
+        <v>&lt;color="green"&gt;5行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G211">
-        <v>13020</v>
+        <v>9030</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" customFormat="1" spans="1:10">
+    <row r="212" spans="1:10">
       <c r="A212">
-        <v>13026</v>
+        <v>9040</v>
       </c>
       <c r="B212">
-        <v>13026</v>
+        <v>9040</v>
       </c>
       <c r="C212" t="str">
         <f>INDEX(TextData!B:B,MATCH(B212,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>13020</v>
+        <v>9040</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9009,31 +9103,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" customFormat="1" spans="1:10">
+    <row r="213" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A213">
-        <v>13027</v>
+        <v>9110</v>
       </c>
       <c r="B213">
-        <v>13027</v>
+        <v>9110</v>
       </c>
       <c r="C213" t="str">
         <f>INDEX(TextData!B:B,MATCH(B213,TextData!A:A))</f>
-        <v>ボス(悪魔)</v>
+        <v>自身</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G213">
-        <v>13020</v>
+        <v>9110</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9042,28 +9136,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A214">
-        <v>20010</v>
+        <v>9120</v>
       </c>
       <c r="B214">
-        <v>20010</v>
+        <v>9120</v>
       </c>
       <c r="C214" t="str">
         <f>INDEX(TextData!B:B,MATCH(B214,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>自身以外</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G214">
-        <v>20010</v>
+        <v>9120</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9077,14 +9171,14 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>20020</v>
+        <v>10010</v>
       </c>
       <c r="B215">
-        <v>20020</v>
+        <v>10010</v>
       </c>
       <c r="C215" t="str">
         <f>INDEX(TextData!B:B,MATCH(B215,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9096,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="G215">
-        <v>20020</v>
+        <v>10010</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -9110,14 +9204,14 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>20030</v>
+        <v>10020</v>
       </c>
       <c r="B216">
-        <v>20030</v>
+        <v>10020</v>
       </c>
       <c r="C216" t="str">
         <f>INDEX(TextData!B:B,MATCH(B216,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>〇%で</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9129,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="G216">
-        <v>20030</v>
+        <v>10020</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9143,14 +9237,14 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>20040</v>
+        <v>11010</v>
       </c>
       <c r="B217">
-        <v>20040</v>
+        <v>11010</v>
       </c>
       <c r="C217" t="str">
         <f>INDEX(TextData!B:B,MATCH(B217,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>バトル中使用回数が〇以下</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9162,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="G217">
-        <v>20040</v>
+        <v>11010</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9176,14 +9270,14 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>20050</v>
+        <v>12020</v>
       </c>
       <c r="B218">
-        <v>20050</v>
+        <v>12020</v>
       </c>
       <c r="C218" t="str">
         <f>INDEX(TextData!B:B,MATCH(B218,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>Lvが〇以上</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9195,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="G218">
-        <v>20050</v>
+        <v>12020</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -9209,14 +9303,14 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>20060</v>
+        <v>12030</v>
       </c>
       <c r="B219">
-        <v>20060</v>
+        <v>12030</v>
       </c>
       <c r="C219" t="str">
         <f>INDEX(TextData!B:B,MATCH(B219,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>行動Magicの消費Mpが〇</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9228,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="G219">
-        <v>20060</v>
+        <v>12030</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -9242,14 +9336,14 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>20070</v>
+        <v>12040</v>
       </c>
       <c r="B220">
-        <v>20070</v>
+        <v>12040</v>
       </c>
       <c r="C220" t="str">
         <f>INDEX(TextData!B:B,MATCH(B220,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9261,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="G220">
-        <v>20070</v>
+        <v>12040</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -9275,14 +9369,14 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>20080</v>
+        <v>12050</v>
       </c>
       <c r="B221">
-        <v>20080</v>
+        <v>12050</v>
       </c>
       <c r="C221" t="str">
         <f>INDEX(TextData!B:B,MATCH(B221,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9294,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G221">
-        <v>20080</v>
+        <v>12050</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -9306,16 +9400,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" customFormat="1" spans="1:10">
       <c r="A222">
-        <v>20090</v>
+        <v>13010</v>
       </c>
       <c r="B222">
-        <v>20090</v>
+        <v>13010</v>
       </c>
       <c r="C222" t="str">
         <f>INDEX(TextData!B:B,MATCH(B222,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>〇のKindを持っている味方</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9327,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="G222">
-        <v>20090</v>
+        <v>13010</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -9339,16 +9433,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" customFormat="1" spans="1:10">
       <c r="A223">
-        <v>20100</v>
+        <v>13020</v>
       </c>
       <c r="B223">
-        <v>20100</v>
+        <v>13020</v>
       </c>
       <c r="C223" t="str">
         <f>INDEX(TextData!B:B,MATCH(B223,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>〇のKindを持っている敵</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -9360,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="G223">
-        <v>20100</v>
+        <v>13020</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -9372,97 +9466,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" customFormat="1" spans="1:10">
       <c r="A224">
-        <v>20110</v>
+        <v>13021</v>
       </c>
       <c r="B224">
-        <v>20110</v>
+        <v>13021</v>
       </c>
       <c r="C224" t="str">
         <f>INDEX(TextData!B:B,MATCH(B224,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>汎用敵(クリーチャー)を優先</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>20110</v>
+        <v>13020</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" customFormat="1" spans="1:10">
       <c r="A225">
-        <v>20120</v>
+        <v>13022</v>
       </c>
       <c r="B225">
-        <v>20120</v>
+        <v>13022</v>
       </c>
       <c r="C225" t="str">
         <f>INDEX(TextData!B:B,MATCH(B225,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>ボス(悪魔)を優先</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>20120</v>
+        <v>13020</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" customFormat="1" spans="1:10">
       <c r="A226">
-        <v>20130</v>
+        <v>13026</v>
       </c>
       <c r="B226">
-        <v>20130</v>
+        <v>13026</v>
       </c>
       <c r="C226" t="str">
         <f>INDEX(TextData!B:B,MATCH(B226,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>汎用敵(クリーチャー)</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>20130</v>
+        <v>13020</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -9471,31 +9565,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" customFormat="1" spans="1:10">
       <c r="A227">
-        <v>20140</v>
+        <v>13027</v>
       </c>
       <c r="B227">
-        <v>20140</v>
+        <v>13027</v>
       </c>
       <c r="C227" t="str">
         <f>INDEX(TextData!B:B,MATCH(B227,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>ボス(悪魔)</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227">
-        <v>20140</v>
+        <v>13020</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -9506,14 +9600,14 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="B228">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="C228" t="str">
         <f>INDEX(TextData!B:B,MATCH(B228,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>Mpを〇消費する</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -9525,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -9539,14 +9633,14 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="B229">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="C229" t="str">
         <f>INDEX(TextData!B:B,MATCH(B229,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>拘束3回成功</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -9558,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="G229">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -9572,14 +9666,14 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="B230">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="C230" t="str">
         <f>INDEX(TextData!B:B,MATCH(B230,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>攻撃で戦闘不能になる</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -9591,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="G230">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -9605,34 +9699,496 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>30020</v>
+        <v>20040</v>
       </c>
       <c r="B231">
-        <v>30020</v>
+        <v>20040</v>
       </c>
       <c r="C231" t="str">
         <f>INDEX(TextData!B:B,MATCH(B231,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>20040</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232">
+        <v>20050</v>
+      </c>
+      <c r="B232">
+        <v>20050</v>
+      </c>
+      <c r="C232" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B232,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>20050</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233">
+        <v>20060</v>
+      </c>
+      <c r="B233">
+        <v>20060</v>
+      </c>
+      <c r="C233" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B233,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>20060</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234">
+        <v>20070</v>
+      </c>
+      <c r="B234">
+        <v>20070</v>
+      </c>
+      <c r="C234" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B234,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>20070</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235">
+        <v>20080</v>
+      </c>
+      <c r="B235">
+        <v>20080</v>
+      </c>
+      <c r="C235" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B235,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>20080</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>20090</v>
+      </c>
+      <c r="B236">
+        <v>20090</v>
+      </c>
+      <c r="C236" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B236,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>20090</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>20100</v>
+      </c>
+      <c r="B237">
+        <v>20100</v>
+      </c>
+      <c r="C237" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B237,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>20100</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>20110</v>
+      </c>
+      <c r="B238">
+        <v>20110</v>
+      </c>
+      <c r="C238" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B238,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>20110</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>20120</v>
+      </c>
+      <c r="B239">
+        <v>20120</v>
+      </c>
+      <c r="C239" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B239,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>20120</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>20130</v>
+      </c>
+      <c r="B240">
+        <v>20130</v>
+      </c>
+      <c r="C240" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B240,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>20130</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>20140</v>
+      </c>
+      <c r="B241">
+        <v>20140</v>
+      </c>
+      <c r="C241" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B241,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>20140</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>20150</v>
+      </c>
+      <c r="B242">
+        <v>20150</v>
+      </c>
+      <c r="C242" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B242,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>20150</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>20160</v>
+      </c>
+      <c r="B243">
+        <v>20160</v>
+      </c>
+      <c r="C243" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B243,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>20160</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>30010</v>
+      </c>
+      <c r="B244">
+        <v>30010</v>
+      </c>
+      <c r="C244" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B244,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>30010</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>30020</v>
+      </c>
+      <c r="B245">
+        <v>30020</v>
+      </c>
+      <c r="C245" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B245,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
         <v>30020</v>
       </c>
-      <c r="H231">
-        <v>0</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="J231">
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
         <v>0</v>
       </c>
     </row>
@@ -9646,10 +10202,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -11067,23 +11623,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" ht="26" spans="1:3">
       <c r="A129">
-        <v>6220</v>
+        <v>6211</v>
       </c>
       <c r="B129" t="s">
         <v>200</v>
       </c>
-      <c r="C129" t="s">
-        <v>12</v>
+      <c r="C129" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -11091,10 +11647,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -11102,10 +11658,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>6230</v>
+        <v>6222</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
@@ -11113,10 +11669,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -11124,10 +11680,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -11135,10 +11691,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>6240</v>
+        <v>6232</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -11146,10 +11702,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -11157,10 +11713,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>6250</v>
+        <v>6241</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -11168,10 +11724,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -11179,10 +11735,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>6310</v>
+        <v>6251</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -11190,32 +11746,32 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" ht="26" spans="1:3">
       <c r="A141">
-        <v>6321</v>
+        <v>6311</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" t="s">
-        <v>12</v>
+        <v>213</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>6322</v>
+        <v>6320</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -11223,10 +11779,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>6330</v>
+        <v>6321</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -11234,10 +11790,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>6331</v>
+        <v>6322</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -11245,10 +11801,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>6332</v>
+        <v>6330</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -11256,10 +11812,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>6340</v>
+        <v>6331</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -11267,10 +11823,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>6341</v>
+        <v>6332</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
@@ -11278,10 +11834,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>6350</v>
+        <v>6340</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -11289,10 +11845,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>6351</v>
+        <v>6341</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -11300,10 +11856,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>6411</v>
+        <v>6350</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
@@ -11311,10 +11867,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>6412</v>
+        <v>6351</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -11322,10 +11878,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>6413</v>
+        <v>6411</v>
       </c>
       <c r="B152" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
@@ -11333,10 +11889,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>6414</v>
+        <v>6412</v>
       </c>
       <c r="B153" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
@@ -11344,10 +11900,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>6415</v>
+        <v>6413</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
@@ -11355,10 +11911,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>6416</v>
+        <v>6414</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
@@ -11366,10 +11922,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>6511</v>
+        <v>6415</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
@@ -11377,10 +11933,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>6512</v>
+        <v>6416</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -11388,10 +11944,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>6513</v>
+        <v>6511</v>
       </c>
       <c r="B158" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
@@ -11399,10 +11955,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>6514</v>
+        <v>6512</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
@@ -11410,10 +11966,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>6515</v>
+        <v>6513</v>
       </c>
       <c r="B160" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -11421,10 +11977,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>6516</v>
+        <v>6514</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
@@ -11432,10 +11988,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>6611</v>
+        <v>6515</v>
       </c>
       <c r="B162" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s">
         <v>12</v>
@@ -11443,10 +11999,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>6612</v>
+        <v>6516</v>
       </c>
       <c r="B163" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
@@ -11454,10 +12010,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>6613</v>
+        <v>6611</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
@@ -11465,10 +12021,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>6614</v>
+        <v>6612</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
@@ -11476,10 +12032,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>6615</v>
+        <v>6613</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -11487,10 +12043,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>6616</v>
+        <v>6614</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
@@ -11498,10 +12054,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>6711</v>
+        <v>6615</v>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
@@ -11509,10 +12065,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>6712</v>
+        <v>6616</v>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
@@ -11520,10 +12076,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>6713</v>
+        <v>6711</v>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -11531,10 +12087,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>6714</v>
+        <v>6712</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
@@ -11542,10 +12098,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>6715</v>
+        <v>6713</v>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -11553,10 +12109,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>6716</v>
+        <v>6714</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
@@ -11564,10 +12120,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>7010</v>
+        <v>6715</v>
       </c>
       <c r="B174" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
@@ -11575,10 +12131,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>7020</v>
+        <v>6716</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -11586,21 +12142,21 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>8010</v>
+        <v>7010</v>
       </c>
       <c r="B176" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" ht="12" customHeight="1" spans="1:3">
+    <row r="177" spans="1:3">
       <c r="A177">
-        <v>8020</v>
+        <v>7020</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
@@ -11608,252 +12164,252 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
+        <v>8010</v>
+      </c>
+      <c r="B178" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" ht="12" customHeight="1" spans="1:3">
+      <c r="A179">
+        <v>8020</v>
+      </c>
+      <c r="B179" t="s">
+        <v>252</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
         <v>8030</v>
       </c>
-      <c r="B178" t="s">
-        <v>249</v>
-      </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" ht="26" spans="1:3">
-      <c r="A179">
-        <v>8031</v>
-      </c>
-      <c r="B179" t="s">
-        <v>250</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" ht="26" spans="1:3">
-      <c r="A180">
-        <v>8032</v>
-      </c>
       <c r="B180" t="s">
-        <v>252</v>
-      </c>
-      <c r="C180" s="2" t="s">
         <v>253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="181" ht="26" spans="1:3">
       <c r="A181">
-        <v>8033</v>
+        <v>8031</v>
       </c>
       <c r="B181" t="s">
         <v>254</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="182" ht="26" spans="1:3">
       <c r="A182">
-        <v>8034</v>
+        <v>8032</v>
       </c>
       <c r="B182" t="s">
         <v>256</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="183" ht="12" customHeight="1" spans="1:3">
+    <row r="183" ht="26" spans="1:3">
       <c r="A183">
-        <v>8040</v>
+        <v>8033</v>
       </c>
       <c r="B183" t="s">
         <v>258</v>
       </c>
-      <c r="C183" t="s">
-        <v>12</v>
+      <c r="C183" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="184" ht="26" spans="1:3">
       <c r="A184">
-        <v>8041</v>
+        <v>8034</v>
       </c>
       <c r="B184" t="s">
-        <v>259</v>
-      </c>
-      <c r="C184" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="185" ht="26" spans="1:3">
+      <c r="C184" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="185" ht="12" customHeight="1" spans="1:3">
       <c r="A185">
-        <v>8042</v>
+        <v>8040</v>
       </c>
       <c r="B185" t="s">
-        <v>261</v>
-      </c>
-      <c r="C185" s="2" t="s">
         <v>262</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="186" ht="26" spans="1:3">
       <c r="A186">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="B186" t="s">
         <v>263</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="187" ht="26" spans="1:3">
       <c r="A187">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="B187" t="s">
         <v>265</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" ht="26" spans="1:3">
       <c r="A188">
-        <v>8050</v>
+        <v>8043</v>
       </c>
       <c r="B188" t="s">
         <v>267</v>
       </c>
-      <c r="C188" t="s">
-        <v>12</v>
+      <c r="C188" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="189" ht="26" spans="1:3">
       <c r="A189">
-        <v>8051</v>
+        <v>8044</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
-      </c>
-      <c r="C189" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="190" ht="26" spans="1:3">
+      <c r="C189" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190">
-        <v>8052</v>
+        <v>8050</v>
       </c>
       <c r="B190" t="s">
-        <v>270</v>
-      </c>
-      <c r="C190" s="2" t="s">
         <v>271</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" ht="26" spans="1:3">
       <c r="A191">
-        <v>8053</v>
+        <v>8051</v>
       </c>
       <c r="B191" t="s">
         <v>272</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="192" ht="26" spans="1:3">
       <c r="A192">
-        <v>8054</v>
+        <v>8052</v>
       </c>
       <c r="B192" t="s">
         <v>274</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="193" ht="12" customHeight="1" spans="1:3">
+    <row r="193" ht="26" spans="1:3">
       <c r="A193">
-        <v>8060</v>
+        <v>8053</v>
       </c>
       <c r="B193" t="s">
         <v>276</v>
       </c>
-      <c r="C193" t="s">
-        <v>12</v>
+      <c r="C193" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="194" ht="26" spans="1:3">
       <c r="A194">
-        <v>8061</v>
+        <v>8054</v>
       </c>
       <c r="B194" t="s">
-        <v>277</v>
-      </c>
-      <c r="C194" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="195" ht="26" spans="1:3">
+      <c r="C194" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" ht="12" customHeight="1" spans="1:3">
       <c r="A195">
-        <v>8062</v>
+        <v>8060</v>
       </c>
       <c r="B195" t="s">
-        <v>279</v>
-      </c>
-      <c r="C195" s="2" t="s">
         <v>280</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="196" ht="26" spans="1:3">
       <c r="A196">
-        <v>8063</v>
+        <v>8061</v>
       </c>
       <c r="B196" t="s">
         <v>281</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="197" ht="26" spans="1:3">
       <c r="A197">
-        <v>8064</v>
+        <v>8062</v>
       </c>
       <c r="B197" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" ht="26" spans="1:3">
       <c r="A198">
-        <v>9010</v>
+        <v>8063</v>
       </c>
       <c r="B198" t="s">
         <v>285</v>
       </c>
-      <c r="C198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="C198" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="199" ht="26" spans="1:3">
       <c r="A199">
-        <v>9030</v>
+        <v>8064</v>
       </c>
       <c r="B199" t="s">
-        <v>286</v>
-      </c>
-      <c r="C199" t="s">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="B200" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -11861,164 +12417,164 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>10010</v>
+        <v>9020</v>
       </c>
       <c r="B201" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" ht="26" spans="1:3">
       <c r="A202">
-        <v>10020</v>
+        <v>9021</v>
       </c>
       <c r="B202" t="s">
-        <v>289</v>
-      </c>
-      <c r="C202" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="203" ht="26" spans="1:3">
       <c r="A203">
-        <v>11010</v>
+        <v>9022</v>
       </c>
       <c r="B203" t="s">
-        <v>290</v>
-      </c>
-      <c r="C203" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>293</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="204" ht="26" spans="1:3">
       <c r="A204">
-        <v>12020</v>
+        <v>9023</v>
       </c>
       <c r="B204" t="s">
-        <v>291</v>
-      </c>
-      <c r="C204" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="205" ht="26" spans="1:3">
       <c r="A205">
-        <v>12030</v>
+        <v>9024</v>
       </c>
       <c r="B205" t="s">
-        <v>292</v>
-      </c>
-      <c r="C205" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="206" ht="26" spans="1:3">
       <c r="A206">
-        <v>12040</v>
+        <v>9025</v>
       </c>
       <c r="B206" t="s">
-        <v>293</v>
-      </c>
-      <c r="C206" t="s">
-        <v>12</v>
+        <v>299</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>12050</v>
+        <v>9030</v>
       </c>
       <c r="B207" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" ht="26" spans="1:3">
       <c r="A208">
-        <v>13010</v>
+        <v>9031</v>
       </c>
       <c r="B208" t="s">
-        <v>295</v>
-      </c>
-      <c r="C208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>302</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="209" ht="26" spans="1:3">
       <c r="A209">
-        <v>13020</v>
+        <v>9032</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
-      </c>
-      <c r="C209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>304</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" ht="26" spans="1:3">
       <c r="A210">
-        <v>13021</v>
+        <v>9033</v>
       </c>
       <c r="B210" t="s">
-        <v>297</v>
-      </c>
-      <c r="C210" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>306</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="211" ht="26" spans="1:3">
       <c r="A211">
-        <v>13022</v>
+        <v>9034</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
-      </c>
-      <c r="C211" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="212" ht="26" spans="1:3">
+        <v>308</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212">
-        <v>13026</v>
+        <v>9040</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
       <c r="A213">
-        <v>13027</v>
+        <v>9110</v>
       </c>
       <c r="B213" t="s">
-        <v>303</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>311</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" ht="26" spans="1:3">
       <c r="A214">
-        <v>20010</v>
+        <v>9120</v>
       </c>
       <c r="B214" t="s">
-        <v>305</v>
-      </c>
-      <c r="C214" t="s">
-        <v>12</v>
+        <v>313</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>20020</v>
+        <v>10010</v>
       </c>
       <c r="B215" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -12026,10 +12582,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>20030</v>
+        <v>10020</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -12037,10 +12593,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>20040</v>
+        <v>11010</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
@@ -12048,10 +12604,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>20050</v>
+        <v>12020</v>
       </c>
       <c r="B218" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
@@ -12059,10 +12615,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>20060</v>
+        <v>12030</v>
       </c>
       <c r="B219" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C219" t="s">
         <v>12</v>
@@ -12070,10 +12626,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>20070</v>
+        <v>12040</v>
       </c>
       <c r="B220" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
@@ -12081,10 +12637,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>20080</v>
+        <v>12050</v>
       </c>
       <c r="B221" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
@@ -12092,10 +12648,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>20090</v>
+        <v>13010</v>
       </c>
       <c r="B222" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -12103,10 +12659,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>20100</v>
+        <v>13020</v>
       </c>
       <c r="B223" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
@@ -12114,54 +12670,54 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>20110</v>
+        <v>13021</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C224" t="s">
-        <v>12</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>20120</v>
+        <v>13022</v>
       </c>
       <c r="B225" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="226" ht="26" spans="1:3">
       <c r="A226">
-        <v>20130</v>
+        <v>13026</v>
       </c>
       <c r="B226" t="s">
-        <v>317</v>
-      </c>
-      <c r="C226" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>328</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="227" ht="26" spans="1:3">
       <c r="A227">
-        <v>20140</v>
+        <v>13027</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
-      </c>
-      <c r="C227" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="B228" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C228" t="s">
         <v>12</v>
@@ -12169,10 +12725,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="B229" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
@@ -12180,10 +12736,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="B230" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -12191,12 +12747,166 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
+        <v>20040</v>
+      </c>
+      <c r="B231" t="s">
+        <v>335</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>20050</v>
+      </c>
+      <c r="B232" t="s">
+        <v>336</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>20060</v>
+      </c>
+      <c r="B233" t="s">
+        <v>337</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>20070</v>
+      </c>
+      <c r="B234" t="s">
+        <v>338</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>20080</v>
+      </c>
+      <c r="B235" t="s">
+        <v>339</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>20090</v>
+      </c>
+      <c r="B236" t="s">
+        <v>340</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>20100</v>
+      </c>
+      <c r="B237" t="s">
+        <v>341</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>20110</v>
+      </c>
+      <c r="B238" t="s">
+        <v>342</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>20120</v>
+      </c>
+      <c r="B239" t="s">
+        <v>343</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>20130</v>
+      </c>
+      <c r="B240" t="s">
+        <v>344</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>20140</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>20150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>346</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>20160</v>
+      </c>
+      <c r="B243" t="s">
+        <v>347</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>30010</v>
+      </c>
+      <c r="B244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
         <v>30020</v>
       </c>
-      <c r="B231" t="s">
-        <v>322</v>
-      </c>
-      <c r="C231" t="s">
+      <c r="B245" t="s">
+        <v>349</v>
+      </c>
+      <c r="C245" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="384">
   <si>
     <t>Id</t>
   </si>
@@ -1091,6 +1091,108 @@
   <si>
     <t>ボス(悪魔)に限定します
 該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>ステータスの高い味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最大Hpが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最大Mpが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ATKが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DEFが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>SPDが最も高い相手を優先します</t>
+  </si>
+  <si>
+    <t>ステータスの低い味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最大Hpが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>最大Mpが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ATKが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DEFが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>SPDが最も低い相手を優先します</t>
+  </si>
+  <si>
+    <t>ステータスの高い敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ステータスの低い敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
   </si>
   <si>
     <t>Mpを〇消費する</t>
@@ -1152,10 +1254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1167,14 +1269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,69 +1283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,7 +1307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1281,7 +1322,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,6 +1350,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,8 +1396,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,13 +1421,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,13 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,67 +1511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,13 +1535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,43 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,6 +1581,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1510,15 +1612,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1537,36 +1630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1581,6 +1644,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1610,6 +1682,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1618,154 +1720,151 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2089,10 +2188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J269"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213:F214"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D229" sqref="D229:D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -9598,16 +9697,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" customFormat="1" spans="1:10">
       <c r="A228">
-        <v>20010</v>
+        <v>14010</v>
       </c>
       <c r="B228">
-        <v>20010</v>
+        <v>14010</v>
       </c>
       <c r="C228" t="str">
         <f>INDEX(TextData!B:B,MATCH(B228,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>ステータスの高い味方</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -9619,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>20010</v>
+        <v>14010</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -9631,181 +9730,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" customFormat="1" spans="1:10">
       <c r="A229">
-        <v>20020</v>
+        <v>14011</v>
       </c>
       <c r="B229">
-        <v>20020</v>
+        <v>14011</v>
       </c>
       <c r="C229" t="str">
         <f>INDEX(TextData!B:B,MATCH(B229,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G229">
-        <v>20020</v>
+        <v>14010</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" customFormat="1" spans="1:10">
       <c r="A230">
-        <v>20030</v>
+        <v>14012</v>
       </c>
       <c r="B230">
-        <v>20030</v>
+        <v>14012</v>
       </c>
       <c r="C230" t="str">
         <f>INDEX(TextData!B:B,MATCH(B230,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G230">
-        <v>20030</v>
+        <v>14010</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" customFormat="1" spans="1:10">
       <c r="A231">
-        <v>20040</v>
+        <v>14013</v>
       </c>
       <c r="B231">
-        <v>20040</v>
+        <v>14013</v>
       </c>
       <c r="C231" t="str">
         <f>INDEX(TextData!B:B,MATCH(B231,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G231">
-        <v>20040</v>
+        <v>14010</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" customFormat="1" spans="1:10">
       <c r="A232">
-        <v>20050</v>
+        <v>14014</v>
       </c>
       <c r="B232">
-        <v>20050</v>
+        <v>14014</v>
       </c>
       <c r="C232" t="str">
         <f>INDEX(TextData!B:B,MATCH(B232,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G232">
-        <v>20050</v>
+        <v>14010</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" customFormat="1" spans="1:10">
       <c r="A233">
-        <v>20060</v>
+        <v>14015</v>
       </c>
       <c r="B233">
-        <v>20060</v>
+        <v>14015</v>
       </c>
       <c r="C233" t="str">
         <f>INDEX(TextData!B:B,MATCH(B233,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G233">
-        <v>20060</v>
+        <v>14010</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" customFormat="1" spans="1:10">
       <c r="A234">
-        <v>20070</v>
+        <v>14110</v>
       </c>
       <c r="B234">
-        <v>20070</v>
+        <v>14110</v>
       </c>
       <c r="C234" t="str">
         <f>INDEX(TextData!B:B,MATCH(B234,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>ステータスの低い味方</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -9817,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="G234">
-        <v>20070</v>
+        <v>14110</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -9829,181 +9928,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" customFormat="1" spans="1:10">
       <c r="A235">
-        <v>20080</v>
+        <v>14111</v>
       </c>
       <c r="B235">
-        <v>20080</v>
+        <v>14111</v>
       </c>
       <c r="C235" t="str">
         <f>INDEX(TextData!B:B,MATCH(B235,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G235">
-        <v>20080</v>
+        <v>14110</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" customFormat="1" spans="1:10">
       <c r="A236">
-        <v>20090</v>
+        <v>14112</v>
       </c>
       <c r="B236">
-        <v>20090</v>
+        <v>14112</v>
       </c>
       <c r="C236" t="str">
         <f>INDEX(TextData!B:B,MATCH(B236,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G236">
-        <v>20090</v>
+        <v>14110</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" customFormat="1" spans="1:10">
       <c r="A237">
-        <v>20100</v>
+        <v>14113</v>
       </c>
       <c r="B237">
-        <v>20100</v>
+        <v>14113</v>
       </c>
       <c r="C237" t="str">
         <f>INDEX(TextData!B:B,MATCH(B237,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G237">
-        <v>20100</v>
+        <v>14110</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" customFormat="1" spans="1:10">
       <c r="A238">
-        <v>20110</v>
+        <v>14114</v>
       </c>
       <c r="B238">
-        <v>20110</v>
+        <v>14114</v>
       </c>
       <c r="C238" t="str">
         <f>INDEX(TextData!B:B,MATCH(B238,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G238">
-        <v>20110</v>
+        <v>14110</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" customFormat="1" spans="1:10">
       <c r="A239">
-        <v>20120</v>
+        <v>14115</v>
       </c>
       <c r="B239">
-        <v>20120</v>
+        <v>14115</v>
       </c>
       <c r="C239" t="str">
         <f>INDEX(TextData!B:B,MATCH(B239,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G239">
-        <v>20120</v>
+        <v>14110</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" customFormat="1" spans="1:10">
       <c r="A240">
-        <v>20130</v>
+        <v>14210</v>
       </c>
       <c r="B240">
-        <v>20130</v>
+        <v>14210</v>
       </c>
       <c r="C240" t="str">
         <f>INDEX(TextData!B:B,MATCH(B240,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>ステータスの高い敵</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -10015,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="G240">
-        <v>20130</v>
+        <v>14210</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10027,168 +10126,960 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" customFormat="1" spans="1:10">
       <c r="A241">
-        <v>20140</v>
+        <v>14211</v>
       </c>
       <c r="B241">
-        <v>20140</v>
+        <v>14211</v>
       </c>
       <c r="C241" t="str">
         <f>INDEX(TextData!B:B,MATCH(B241,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
-        <v>20140</v>
+        <v>14210</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" customFormat="1" spans="1:10">
       <c r="A242">
-        <v>20150</v>
+        <v>14212</v>
       </c>
       <c r="B242">
-        <v>20150</v>
+        <v>14212</v>
       </c>
       <c r="C242" t="str">
         <f>INDEX(TextData!B:B,MATCH(B242,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242">
-        <v>20150</v>
+        <v>14210</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" customFormat="1" spans="1:10">
       <c r="A243">
-        <v>20160</v>
+        <v>14213</v>
       </c>
       <c r="B243">
-        <v>20160</v>
+        <v>14213</v>
       </c>
       <c r="C243" t="str">
         <f>INDEX(TextData!B:B,MATCH(B243,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243">
-        <v>20160</v>
+        <v>14210</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" customFormat="1" spans="1:10">
       <c r="A244">
-        <v>30010</v>
+        <v>14214</v>
       </c>
       <c r="B244">
-        <v>30010</v>
+        <v>14214</v>
       </c>
       <c r="C244" t="str">
         <f>INDEX(TextData!B:B,MATCH(B244,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244">
-        <v>30010</v>
+        <v>14210</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" customFormat="1" spans="1:10">
       <c r="A245">
-        <v>30020</v>
+        <v>14215</v>
       </c>
       <c r="B245">
-        <v>30020</v>
+        <v>14215</v>
       </c>
       <c r="C245" t="str">
         <f>INDEX(TextData!B:B,MATCH(B245,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D245">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>50</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>14210</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="1" spans="1:10">
+      <c r="A246">
+        <v>14310</v>
+      </c>
+      <c r="B246">
+        <v>14310</v>
+      </c>
+      <c r="C246" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B246,TextData!A:A))</f>
+        <v>ステータスの低い敵</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>14310</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="1" spans="1:10">
+      <c r="A247">
+        <v>14311</v>
+      </c>
+      <c r="B247">
+        <v>14311</v>
+      </c>
+      <c r="C247" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B247,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <v>10</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>14310</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="1" spans="1:10">
+      <c r="A248">
+        <v>14312</v>
+      </c>
+      <c r="B248">
+        <v>14312</v>
+      </c>
+      <c r="C248" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B248,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D248">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <v>20</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>14310</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="1" spans="1:10">
+      <c r="A249">
+        <v>14313</v>
+      </c>
+      <c r="B249">
+        <v>14313</v>
+      </c>
+      <c r="C249" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B249,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>30</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>14310</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="1" spans="1:10">
+      <c r="A250">
+        <v>14314</v>
+      </c>
+      <c r="B250">
+        <v>14314</v>
+      </c>
+      <c r="C250" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B250,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D250">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>40</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>14310</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="1" spans="1:10">
+      <c r="A251">
+        <v>14315</v>
+      </c>
+      <c r="B251">
+        <v>14315</v>
+      </c>
+      <c r="C251" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B251,TextData!A:A))</f>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+      <c r="E251">
+        <v>50</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>14310</v>
+      </c>
+      <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252">
+        <v>20010</v>
+      </c>
+      <c r="B252">
+        <v>20010</v>
+      </c>
+      <c r="C252" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B252,TextData!A:A))</f>
+        <v>Mpを〇消費する</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>20010</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253">
+        <v>20020</v>
+      </c>
+      <c r="B253">
+        <v>20020</v>
+      </c>
+      <c r="C253" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B253,TextData!A:A))</f>
+        <v>拘束3回成功</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>20020</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254">
+        <v>20030</v>
+      </c>
+      <c r="B254">
+        <v>20030</v>
+      </c>
+      <c r="C254" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B254,TextData!A:A))</f>
+        <v>攻撃で戦闘不能になる</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>20030</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255">
+        <v>20040</v>
+      </c>
+      <c r="B255">
+        <v>20040</v>
+      </c>
+      <c r="C255" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B255,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>20040</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256">
+        <v>20050</v>
+      </c>
+      <c r="B256">
+        <v>20050</v>
+      </c>
+      <c r="C256" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B256,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>20050</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257">
+        <v>20060</v>
+      </c>
+      <c r="B257">
+        <v>20060</v>
+      </c>
+      <c r="C257" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B257,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>20060</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258">
+        <v>20070</v>
+      </c>
+      <c r="B258">
+        <v>20070</v>
+      </c>
+      <c r="C258" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B258,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>20070</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259">
+        <v>20080</v>
+      </c>
+      <c r="B259">
+        <v>20080</v>
+      </c>
+      <c r="C259" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B259,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>20080</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260">
+        <v>20090</v>
+      </c>
+      <c r="B260">
+        <v>20090</v>
+      </c>
+      <c r="C260" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B260,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>20090</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261">
+        <v>20100</v>
+      </c>
+      <c r="B261">
+        <v>20100</v>
+      </c>
+      <c r="C261" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B261,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>20100</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262">
+        <v>20110</v>
+      </c>
+      <c r="B262">
+        <v>20110</v>
+      </c>
+      <c r="C262" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B262,TextData!A:A))</f>
+        <v>味方に神化状態が〇以上</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>20110</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263">
+        <v>20120</v>
+      </c>
+      <c r="B263">
+        <v>20120</v>
+      </c>
+      <c r="C263" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B263,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が神化する</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>20120</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264">
+        <v>20130</v>
+      </c>
+      <c r="B264">
+        <v>20130</v>
+      </c>
+      <c r="C264" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B264,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>20130</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265">
+        <v>20140</v>
+      </c>
+      <c r="B265">
+        <v>20140</v>
+      </c>
+      <c r="C265" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B265,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>20140</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266">
+        <v>20150</v>
+      </c>
+      <c r="B266">
+        <v>20150</v>
+      </c>
+      <c r="C266" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B266,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>20150</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267">
+        <v>20160</v>
+      </c>
+      <c r="B267">
+        <v>20160</v>
+      </c>
+      <c r="C267" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B267,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>20160</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268">
+        <v>30010</v>
+      </c>
+      <c r="B268">
+        <v>30010</v>
+      </c>
+      <c r="C268" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B268,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>30010</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269">
+        <v>30020</v>
+      </c>
+      <c r="B269">
+        <v>30020</v>
+      </c>
+      <c r="C269" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B269,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-      <c r="G245">
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
         <v>30020</v>
       </c>
-      <c r="H245">
-        <v>0</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245">
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
         <v>0</v>
       </c>
     </row>
@@ -10202,10 +11093,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -11630,7 +12521,7 @@
       <c r="B129" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11762,7 +12653,7 @@
       <c r="B141" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12433,7 +13324,7 @@
       <c r="B202" t="s">
         <v>291</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12444,7 +13335,7 @@
       <c r="B203" t="s">
         <v>293</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -12455,7 +13346,7 @@
       <c r="B204" t="s">
         <v>295</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -12466,7 +13357,7 @@
       <c r="B205" t="s">
         <v>297</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -12477,7 +13368,7 @@
       <c r="B206" t="s">
         <v>299</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -12499,7 +13390,7 @@
       <c r="B208" t="s">
         <v>302</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12510,7 +13401,7 @@
       <c r="B209" t="s">
         <v>304</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -12521,7 +13412,7 @@
       <c r="B210" t="s">
         <v>306</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -12532,7 +13423,7 @@
       <c r="B211" t="s">
         <v>308</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12554,7 +13445,7 @@
       <c r="B213" t="s">
         <v>311</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -12565,7 +13456,7 @@
       <c r="B214" t="s">
         <v>313</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -12714,7 +13605,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>20010</v>
+        <v>14010</v>
       </c>
       <c r="B228" t="s">
         <v>332</v>
@@ -12725,65 +13616,65 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>20020</v>
+        <v>14011</v>
       </c>
       <c r="B229" t="s">
         <v>333</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>20030</v>
+        <v>14012</v>
       </c>
       <c r="B230" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>20040</v>
+        <v>14013</v>
       </c>
       <c r="B231" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>20050</v>
+        <v>14014</v>
       </c>
       <c r="B232" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>20060</v>
+        <v>14015</v>
       </c>
       <c r="B233" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>20070</v>
+        <v>14110</v>
       </c>
       <c r="B234" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -12791,65 +13682,65 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>20080</v>
+        <v>14111</v>
       </c>
       <c r="B235" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>20090</v>
+        <v>14112</v>
       </c>
       <c r="B236" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C236" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>20100</v>
+        <v>14113</v>
       </c>
       <c r="B237" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>20110</v>
+        <v>14114</v>
       </c>
       <c r="B238" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>20120</v>
+        <v>14115</v>
       </c>
       <c r="B239" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>20130</v>
+        <v>14210</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
@@ -12857,56 +13748,320 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>20140</v>
+        <v>14211</v>
       </c>
       <c r="B241" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C241" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>20150</v>
+        <v>14212</v>
       </c>
       <c r="B242" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>20160</v>
+        <v>14213</v>
       </c>
       <c r="B243" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>30010</v>
+        <v>14214</v>
       </c>
       <c r="B244" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
+        <v>14215</v>
+      </c>
+      <c r="B245" t="s">
+        <v>359</v>
+      </c>
+      <c r="C245" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>14310</v>
+      </c>
+      <c r="B246" t="s">
+        <v>360</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>14311</v>
+      </c>
+      <c r="B247" t="s">
+        <v>361</v>
+      </c>
+      <c r="C247" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>14312</v>
+      </c>
+      <c r="B248" t="s">
+        <v>362</v>
+      </c>
+      <c r="C248" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>14313</v>
+      </c>
+      <c r="B249" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>14314</v>
+      </c>
+      <c r="B250" t="s">
+        <v>364</v>
+      </c>
+      <c r="C250" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>14315</v>
+      </c>
+      <c r="B251" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>20010</v>
+      </c>
+      <c r="B252" t="s">
+        <v>366</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>20020</v>
+      </c>
+      <c r="B253" t="s">
+        <v>367</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>20030</v>
+      </c>
+      <c r="B254" t="s">
+        <v>368</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>20040</v>
+      </c>
+      <c r="B255" t="s">
+        <v>369</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>20050</v>
+      </c>
+      <c r="B256" t="s">
+        <v>370</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>20060</v>
+      </c>
+      <c r="B257" t="s">
+        <v>371</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>20070</v>
+      </c>
+      <c r="B258" t="s">
+        <v>372</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>20080</v>
+      </c>
+      <c r="B259" t="s">
+        <v>373</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>20090</v>
+      </c>
+      <c r="B260" t="s">
+        <v>374</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>20100</v>
+      </c>
+      <c r="B261" t="s">
+        <v>375</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>20110</v>
+      </c>
+      <c r="B262" t="s">
+        <v>376</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>20120</v>
+      </c>
+      <c r="B263" t="s">
+        <v>377</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>20130</v>
+      </c>
+      <c r="B264" t="s">
+        <v>378</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>20140</v>
+      </c>
+      <c r="B265" t="s">
+        <v>379</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>20150</v>
+      </c>
+      <c r="B266" t="s">
+        <v>380</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>20160</v>
+      </c>
+      <c r="B267" t="s">
+        <v>381</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>30010</v>
+      </c>
+      <c r="B268" t="s">
+        <v>382</v>
+      </c>
+      <c r="C268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
         <v>30020</v>
       </c>
-      <c r="B245" t="s">
-        <v>349</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="B269" t="s">
+        <v>383</v>
+      </c>
+      <c r="C269" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="444">
   <si>
     <t>Id</t>
   </si>
@@ -575,13 +575,10 @@
     <t>前列の味方を狙う</t>
   </si>
   <si>
-    <t>前列の味方を優先</t>
-  </si>
-  <si>
-    <t>前列の相手を優先します</t>
-  </si>
-  <si>
-    <t>前列の味方</t>
+    <t>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>前列の味方を優先します</t>
   </si>
   <si>
     <t>前列の味方に限定します
@@ -591,13 +588,10 @@
     <t>後列の味方を狙う</t>
   </si>
   <si>
-    <t>後列の味方を優先</t>
+    <t>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
   </si>
   <si>
     <t>後列の味方を優先します</t>
-  </si>
-  <si>
-    <t>後列の味方</t>
   </si>
   <si>
     <t>後列の味方に限定します
@@ -610,6 +604,12 @@
     <t>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
   </si>
   <si>
+    <t>前列の相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>前列の相手に限定します
 &lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>後列の相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;</t>
   </si>
   <si>
     <t>後列の相手に限定します
@@ -1470,10 +1473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1484,45 +1487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,16 +1502,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,7 +1532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,30 +1547,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,6 +1585,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1622,9 +1625,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1637,7 +1640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,85 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,25 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,13 +1718,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,31 +1820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,36 +1831,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1881,6 +1854,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,6 +1908,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1936,154 +1939,151 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2409,13 +2409,13 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="43.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="54.5454545454545" customWidth="1"/>
     <col min="4" max="6" width="15.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="7.81818181818182" customWidth="1"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="C94" t="str">
         <f>INDEX(TextData!B:B,MATCH(B94,TextData!A:A))</f>
-        <v>前列の味方を優先</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C95" t="str">
         <f>INDEX(TextData!B:B,MATCH(B95,TextData!A:A))</f>
-        <v>後列の味方を優先</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>前列の味方</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>後列の味方</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C102" t="str">
         <f>INDEX(TextData!B:B,MATCH(B102,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C103" t="str">
         <f>INDEX(TextData!B:B,MATCH(B103,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -11875,8 +11875,8 @@
   <sheetPr/>
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -12036,7 +12036,7 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12080,7 +12080,7 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12102,7 +12102,7 @@
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12135,7 +12135,7 @@
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
       <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12212,7 +12212,7 @@
       <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12278,7 +12278,7 @@
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12344,7 +12344,7 @@
       <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
       <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
       <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12399,7 +12399,7 @@
       <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       <c r="B69" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12652,7 +12652,7 @@
       <c r="B70" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       <c r="B71" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="B72" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
       <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12707,7 +12707,7 @@
       <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
       <c r="B76" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12729,7 +12729,7 @@
       <c r="B77" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       <c r="B79" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       <c r="B80" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -12784,7 +12784,7 @@
       <c r="B82" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -12806,7 +12806,7 @@
       <c r="B84" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       <c r="B85" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
       <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       <c r="B87" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -12914,10 +12914,10 @@
         <v>5032</v>
       </c>
       <c r="B94" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12925,7 +12925,7 @@
         <v>5040</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -12936,10 +12936,10 @@
         <v>5041</v>
       </c>
       <c r="B96" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" t="s">
         <v>172</v>
-      </c>
-      <c r="C96" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="97" ht="26" spans="1:3">
@@ -12947,10 +12947,10 @@
         <v>5042</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -12958,7 +12958,7 @@
         <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -12969,10 +12969,10 @@
         <v>5051</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" ht="26" customHeight="1" spans="1:3">
@@ -12982,7 +12982,7 @@
       <c r="B100" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -13013,10 +13013,10 @@
         <v>5062</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="2" t="s">
         <v>182</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:3">
@@ -13024,10 +13024,10 @@
         <v>5070</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:3">
@@ -13035,10 +13035,10 @@
         <v>5080</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:3">
@@ -13046,10 +13046,10 @@
         <v>5090</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:3">
@@ -13057,10 +13057,10 @@
         <v>5100</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:3">
@@ -13068,7 +13068,7 @@
         <v>5110</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -13079,10 +13079,10 @@
         <v>5111</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="2" t="s">
         <v>193</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="110" ht="26" spans="1:3">
@@ -13090,10 +13090,10 @@
         <v>5112</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" s="2" t="s">
         <v>195</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:3">
@@ -13101,7 +13101,7 @@
         <v>5120</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -13112,10 +13112,10 @@
         <v>5121</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="113" ht="26" spans="1:3">
@@ -13123,10 +13123,10 @@
         <v>5122</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="2" t="s">
         <v>200</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -13134,7 +13134,7 @@
         <v>6010</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -13145,7 +13145,7 @@
         <v>6020</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -13156,7 +13156,7 @@
         <v>6030</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -13167,7 +13167,7 @@
         <v>6040</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -13178,7 +13178,7 @@
         <v>6050</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
@@ -13189,7 +13189,7 @@
         <v>6060</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
@@ -13200,7 +13200,7 @@
         <v>6110</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -13211,7 +13211,7 @@
         <v>6120</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -13222,10 +13222,10 @@
         <v>6121</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -13233,7 +13233,7 @@
         <v>6130</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -13244,10 +13244,10 @@
         <v>6131</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -13255,7 +13255,7 @@
         <v>6140</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -13266,10 +13266,10 @@
         <v>6141</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -13277,7 +13277,7 @@
         <v>6150</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -13288,10 +13288,10 @@
         <v>6151</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -13299,7 +13299,7 @@
         <v>6210</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -13310,10 +13310,10 @@
         <v>6211</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -13321,7 +13321,7 @@
         <v>6220</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -13332,10 +13332,10 @@
         <v>6221</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" ht="26" spans="1:3">
@@ -13343,10 +13343,10 @@
         <v>6222</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -13354,7 +13354,7 @@
         <v>6230</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -13365,10 +13365,10 @@
         <v>6231</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" ht="26" spans="1:3">
@@ -13376,10 +13376,10 @@
         <v>6232</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -13387,7 +13387,7 @@
         <v>6240</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -13398,10 +13398,10 @@
         <v>6241</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -13409,7 +13409,7 @@
         <v>6250</v>
       </c>
       <c r="B139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -13420,10 +13420,10 @@
         <v>6251</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -13431,7 +13431,7 @@
         <v>6310</v>
       </c>
       <c r="B141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -13442,10 +13442,10 @@
         <v>6311</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" s="2" t="s">
         <v>236</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -13453,7 +13453,7 @@
         <v>6320</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -13464,10 +13464,10 @@
         <v>6321</v>
       </c>
       <c r="B144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C144" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" ht="26" spans="1:3">
@@ -13475,10 +13475,10 @@
         <v>6322</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -13486,7 +13486,7 @@
         <v>6330</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -13497,10 +13497,10 @@
         <v>6331</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" ht="26" spans="1:3">
@@ -13508,10 +13508,10 @@
         <v>6332</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -13519,7 +13519,7 @@
         <v>6340</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -13530,10 +13530,10 @@
         <v>6341</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -13541,7 +13541,7 @@
         <v>6350</v>
       </c>
       <c r="B151" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -13552,10 +13552,10 @@
         <v>6351</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" ht="26" spans="1:3">
@@ -13563,10 +13563,10 @@
         <v>6411</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" ht="26" spans="1:3">
@@ -13574,10 +13574,10 @@
         <v>6412</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" ht="26" spans="1:3">
@@ -13585,10 +13585,10 @@
         <v>6413</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" ht="26" spans="1:3">
@@ -13596,10 +13596,10 @@
         <v>6414</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="157" ht="26" spans="1:3">
@@ -13607,10 +13607,10 @@
         <v>6415</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="158" ht="26" spans="1:3">
@@ -13618,10 +13618,10 @@
         <v>6416</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" ht="26" spans="1:3">
@@ -13629,10 +13629,10 @@
         <v>6511</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" ht="26" spans="1:3">
@@ -13640,10 +13640,10 @@
         <v>6512</v>
       </c>
       <c r="B160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" ht="26" spans="1:3">
@@ -13651,10 +13651,10 @@
         <v>6513</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" ht="26" spans="1:3">
@@ -13662,10 +13662,10 @@
         <v>6514</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" ht="26" spans="1:3">
@@ -13673,10 +13673,10 @@
         <v>6515</v>
       </c>
       <c r="B163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" ht="26" spans="1:3">
@@ -13684,10 +13684,10 @@
         <v>6516</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" ht="26" spans="1:3">
@@ -13695,10 +13695,10 @@
         <v>6611</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" ht="26" spans="1:3">
@@ -13706,10 +13706,10 @@
         <v>6612</v>
       </c>
       <c r="B166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" ht="26" spans="1:3">
@@ -13717,10 +13717,10 @@
         <v>6613</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" ht="26" spans="1:3">
@@ -13728,10 +13728,10 @@
         <v>6614</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" ht="26" spans="1:3">
@@ -13739,10 +13739,10 @@
         <v>6615</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" ht="26" spans="1:3">
@@ -13750,10 +13750,10 @@
         <v>6616</v>
       </c>
       <c r="B170" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" ht="26" spans="1:3">
@@ -13761,10 +13761,10 @@
         <v>6711</v>
       </c>
       <c r="B171" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" ht="26" spans="1:3">
@@ -13772,10 +13772,10 @@
         <v>6712</v>
       </c>
       <c r="B172" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" ht="26" spans="1:3">
@@ -13783,10 +13783,10 @@
         <v>6713</v>
       </c>
       <c r="B173" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" ht="26" spans="1:3">
@@ -13794,10 +13794,10 @@
         <v>6714</v>
       </c>
       <c r="B174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" ht="26" spans="1:3">
@@ -13805,10 +13805,10 @@
         <v>6715</v>
       </c>
       <c r="B175" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" ht="26" spans="1:3">
@@ -13816,10 +13816,10 @@
         <v>6716</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -13827,7 +13827,7 @@
         <v>7010</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
@@ -13838,10 +13838,10 @@
         <v>7011</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -13849,7 +13849,7 @@
         <v>7020</v>
       </c>
       <c r="B179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
@@ -13860,10 +13860,10 @@
         <v>7021</v>
       </c>
       <c r="B180" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -13871,7 +13871,7 @@
         <v>7030</v>
       </c>
       <c r="B181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
@@ -13882,10 +13882,10 @@
         <v>7031</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" customFormat="1" ht="26" spans="1:3">
@@ -13893,10 +13893,10 @@
         <v>7032</v>
       </c>
       <c r="B183" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" customFormat="1" spans="1:3">
@@ -13904,7 +13904,7 @@
         <v>7040</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -13915,10 +13915,10 @@
         <v>7041</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="26" spans="1:3">
@@ -13926,10 +13926,10 @@
         <v>7042</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:3">
@@ -13937,7 +13937,7 @@
         <v>7050</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
@@ -13948,10 +13948,10 @@
         <v>7051</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" customFormat="1" ht="26" spans="1:3">
@@ -13959,10 +13959,10 @@
         <v>7052</v>
       </c>
       <c r="B189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
@@ -13970,7 +13970,7 @@
         <v>7060</v>
       </c>
       <c r="B190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -13981,10 +13981,10 @@
         <v>7061</v>
       </c>
       <c r="B191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" customFormat="1" ht="26" spans="1:3">
@@ -13992,10 +13992,10 @@
         <v>7062</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -14003,7 +14003,7 @@
         <v>8010</v>
       </c>
       <c r="B193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -14014,7 +14014,7 @@
         <v>8020</v>
       </c>
       <c r="B194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -14025,7 +14025,7 @@
         <v>8030</v>
       </c>
       <c r="B195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
@@ -14036,10 +14036,10 @@
         <v>8031</v>
       </c>
       <c r="B196" t="s">
-        <v>309</v>
-      </c>
-      <c r="C196" s="2" t="s">
         <v>310</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="197" ht="26" spans="1:3">
@@ -14047,10 +14047,10 @@
         <v>8032</v>
       </c>
       <c r="B197" t="s">
-        <v>311</v>
-      </c>
-      <c r="C197" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="198" ht="26" spans="1:3">
@@ -14058,10 +14058,10 @@
         <v>8033</v>
       </c>
       <c r="B198" t="s">
-        <v>313</v>
-      </c>
-      <c r="C198" s="2" t="s">
         <v>314</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="199" ht="26" spans="1:3">
@@ -14069,10 +14069,10 @@
         <v>8034</v>
       </c>
       <c r="B199" t="s">
-        <v>315</v>
-      </c>
-      <c r="C199" s="2" t="s">
         <v>316</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="200" ht="12" customHeight="1" spans="1:3">
@@ -14080,7 +14080,7 @@
         <v>8040</v>
       </c>
       <c r="B200" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -14091,10 +14091,10 @@
         <v>8041</v>
       </c>
       <c r="B201" t="s">
-        <v>318</v>
-      </c>
-      <c r="C201" s="2" t="s">
         <v>319</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="202" ht="26" spans="1:3">
@@ -14102,10 +14102,10 @@
         <v>8042</v>
       </c>
       <c r="B202" t="s">
-        <v>320</v>
-      </c>
-      <c r="C202" s="2" t="s">
         <v>321</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="203" ht="26" spans="1:3">
@@ -14113,10 +14113,10 @@
         <v>8043</v>
       </c>
       <c r="B203" t="s">
-        <v>322</v>
-      </c>
-      <c r="C203" s="2" t="s">
         <v>323</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="204" ht="26" spans="1:3">
@@ -14124,10 +14124,10 @@
         <v>8044</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
-      </c>
-      <c r="C204" s="2" t="s">
         <v>325</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -14135,7 +14135,7 @@
         <v>8050</v>
       </c>
       <c r="B205" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -14146,10 +14146,10 @@
         <v>8051</v>
       </c>
       <c r="B206" t="s">
-        <v>327</v>
-      </c>
-      <c r="C206" s="2" t="s">
         <v>328</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="207" ht="26" spans="1:3">
@@ -14157,10 +14157,10 @@
         <v>8052</v>
       </c>
       <c r="B207" t="s">
-        <v>329</v>
-      </c>
-      <c r="C207" s="2" t="s">
         <v>330</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="208" ht="26" spans="1:3">
@@ -14168,10 +14168,10 @@
         <v>8053</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
-      </c>
-      <c r="C208" s="2" t="s">
         <v>332</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="209" ht="26" spans="1:3">
@@ -14179,10 +14179,10 @@
         <v>8054</v>
       </c>
       <c r="B209" t="s">
-        <v>333</v>
-      </c>
-      <c r="C209" s="2" t="s">
         <v>334</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="210" ht="12" customHeight="1" spans="1:3">
@@ -14190,7 +14190,7 @@
         <v>8060</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -14201,10 +14201,10 @@
         <v>8061</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
-      </c>
-      <c r="C211" s="2" t="s">
         <v>337</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="212" ht="26" spans="1:3">
@@ -14212,10 +14212,10 @@
         <v>8062</v>
       </c>
       <c r="B212" t="s">
-        <v>338</v>
-      </c>
-      <c r="C212" s="2" t="s">
         <v>339</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
@@ -14223,10 +14223,10 @@
         <v>8063</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
-      </c>
-      <c r="C213" s="2" t="s">
         <v>341</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="214" ht="26" spans="1:3">
@@ -14234,10 +14234,10 @@
         <v>8064</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
-      </c>
-      <c r="C214" s="2" t="s">
         <v>343</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -14245,7 +14245,7 @@
         <v>9010</v>
       </c>
       <c r="B215" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -14256,7 +14256,7 @@
         <v>9020</v>
       </c>
       <c r="B216" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -14267,10 +14267,10 @@
         <v>9021</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
-      </c>
-      <c r="C217" s="2" t="s">
         <v>347</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="218" ht="26" spans="1:3">
@@ -14278,10 +14278,10 @@
         <v>9022</v>
       </c>
       <c r="B218" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" s="2" t="s">
         <v>349</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="219" ht="26" spans="1:3">
@@ -14289,10 +14289,10 @@
         <v>9023</v>
       </c>
       <c r="B219" t="s">
-        <v>350</v>
-      </c>
-      <c r="C219" s="2" t="s">
         <v>351</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="220" ht="26" spans="1:3">
@@ -14300,10 +14300,10 @@
         <v>9024</v>
       </c>
       <c r="B220" t="s">
-        <v>352</v>
-      </c>
-      <c r="C220" s="2" t="s">
         <v>353</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="221" ht="26" spans="1:3">
@@ -14311,10 +14311,10 @@
         <v>9025</v>
       </c>
       <c r="B221" t="s">
-        <v>354</v>
-      </c>
-      <c r="C221" s="2" t="s">
         <v>355</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -14322,7 +14322,7 @@
         <v>9030</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -14333,10 +14333,10 @@
         <v>9031</v>
       </c>
       <c r="B223" t="s">
-        <v>357</v>
-      </c>
-      <c r="C223" s="2" t="s">
         <v>358</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="224" ht="26" spans="1:3">
@@ -14344,10 +14344,10 @@
         <v>9032</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
-      </c>
-      <c r="C224" s="2" t="s">
         <v>360</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="225" ht="26" spans="1:3">
@@ -14355,10 +14355,10 @@
         <v>9033</v>
       </c>
       <c r="B225" t="s">
-        <v>361</v>
-      </c>
-      <c r="C225" s="2" t="s">
         <v>362</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="226" ht="26" spans="1:3">
@@ -14366,10 +14366,10 @@
         <v>9034</v>
       </c>
       <c r="B226" t="s">
-        <v>363</v>
-      </c>
-      <c r="C226" s="2" t="s">
         <v>364</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -14377,7 +14377,7 @@
         <v>9040</v>
       </c>
       <c r="B227" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
@@ -14388,10 +14388,10 @@
         <v>9110</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
-      </c>
-      <c r="C228" s="2" t="s">
         <v>367</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="229" ht="26" spans="1:3">
@@ -14399,10 +14399,10 @@
         <v>9120</v>
       </c>
       <c r="B229" t="s">
-        <v>368</v>
-      </c>
-      <c r="C229" s="2" t="s">
         <v>369</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -14410,7 +14410,7 @@
         <v>10010</v>
       </c>
       <c r="B230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -14421,7 +14421,7 @@
         <v>10020</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -14432,7 +14432,7 @@
         <v>11010</v>
       </c>
       <c r="B232" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -14443,7 +14443,7 @@
         <v>12020</v>
       </c>
       <c r="B233" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
@@ -14454,7 +14454,7 @@
         <v>12030</v>
       </c>
       <c r="B234" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -14465,7 +14465,7 @@
         <v>12040</v>
       </c>
       <c r="B235" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
@@ -14476,7 +14476,7 @@
         <v>12050</v>
       </c>
       <c r="B236" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C236" t="s">
         <v>12</v>
@@ -14487,7 +14487,7 @@
         <v>13010</v>
       </c>
       <c r="B237" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
@@ -14498,7 +14498,7 @@
         <v>13020</v>
       </c>
       <c r="B238" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
@@ -14509,10 +14509,10 @@
         <v>13021</v>
       </c>
       <c r="B239" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C239" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -14520,10 +14520,10 @@
         <v>13022</v>
       </c>
       <c r="B240" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -14531,10 +14531,10 @@
         <v>13023</v>
       </c>
       <c r="B241" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C241" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" ht="26" spans="1:3">
@@ -14542,10 +14542,10 @@
         <v>13026</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
-      </c>
-      <c r="C242" s="2" t="s">
         <v>386</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="243" ht="26" spans="1:3">
@@ -14553,10 +14553,10 @@
         <v>13027</v>
       </c>
       <c r="B243" t="s">
-        <v>387</v>
-      </c>
-      <c r="C243" s="2" t="s">
         <v>388</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="244" ht="26" spans="1:3">
@@ -14564,10 +14564,10 @@
         <v>13028</v>
       </c>
       <c r="B244" t="s">
-        <v>389</v>
-      </c>
-      <c r="C244" s="2" t="s">
         <v>390</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -14575,7 +14575,7 @@
         <v>14010</v>
       </c>
       <c r="B245" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C245" t="s">
         <v>12</v>
@@ -14586,10 +14586,10 @@
         <v>14011</v>
       </c>
       <c r="B246" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C246" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -14597,10 +14597,10 @@
         <v>14012</v>
       </c>
       <c r="B247" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C247" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -14608,10 +14608,10 @@
         <v>14013</v>
       </c>
       <c r="B248" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C248" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -14619,10 +14619,10 @@
         <v>14014</v>
       </c>
       <c r="B249" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C249" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -14630,10 +14630,10 @@
         <v>14015</v>
       </c>
       <c r="B250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C250" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -14641,7 +14641,7 @@
         <v>14110</v>
       </c>
       <c r="B251" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
@@ -14652,10 +14652,10 @@
         <v>14111</v>
       </c>
       <c r="B252" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C252" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -14663,10 +14663,10 @@
         <v>14112</v>
       </c>
       <c r="B253" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C253" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -14674,10 +14674,10 @@
         <v>14113</v>
       </c>
       <c r="B254" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C254" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -14685,10 +14685,10 @@
         <v>14114</v>
       </c>
       <c r="B255" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C255" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -14696,10 +14696,10 @@
         <v>14115</v>
       </c>
       <c r="B256" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C256" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -14707,7 +14707,7 @@
         <v>14210</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
@@ -14718,10 +14718,10 @@
         <v>14211</v>
       </c>
       <c r="B258" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C258" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -14729,10 +14729,10 @@
         <v>14212</v>
       </c>
       <c r="B259" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C259" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -14740,10 +14740,10 @@
         <v>14213</v>
       </c>
       <c r="B260" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C260" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -14751,10 +14751,10 @@
         <v>14214</v>
       </c>
       <c r="B261" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C261" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -14762,10 +14762,10 @@
         <v>14215</v>
       </c>
       <c r="B262" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C262" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -14773,7 +14773,7 @@
         <v>14310</v>
       </c>
       <c r="B263" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -14784,10 +14784,10 @@
         <v>14311</v>
       </c>
       <c r="B264" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C264" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -14795,10 +14795,10 @@
         <v>14312</v>
       </c>
       <c r="B265" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C265" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -14806,10 +14806,10 @@
         <v>14313</v>
       </c>
       <c r="B266" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C266" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -14817,10 +14817,10 @@
         <v>14314</v>
       </c>
       <c r="B267" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C267" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -14828,10 +14828,10 @@
         <v>14315</v>
       </c>
       <c r="B268" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C268" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -14839,7 +14839,7 @@
         <v>20010</v>
       </c>
       <c r="B269" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -14850,7 +14850,7 @@
         <v>20020</v>
       </c>
       <c r="B270" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -14861,7 +14861,7 @@
         <v>20030</v>
       </c>
       <c r="B271" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
@@ -14872,7 +14872,7 @@
         <v>20040</v>
       </c>
       <c r="B272" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -14883,7 +14883,7 @@
         <v>20050</v>
       </c>
       <c r="B273" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
@@ -14894,7 +14894,7 @@
         <v>20060</v>
       </c>
       <c r="B274" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -14905,7 +14905,7 @@
         <v>20070</v>
       </c>
       <c r="B275" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
@@ -14916,7 +14916,7 @@
         <v>20080</v>
       </c>
       <c r="B276" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
@@ -14927,7 +14927,7 @@
         <v>20090</v>
       </c>
       <c r="B277" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C277" t="s">
         <v>12</v>
@@ -14938,7 +14938,7 @@
         <v>20100</v>
       </c>
       <c r="B278" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C278" t="s">
         <v>12</v>
@@ -14949,7 +14949,7 @@
         <v>20110</v>
       </c>
       <c r="B279" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
@@ -14960,7 +14960,7 @@
         <v>20120</v>
       </c>
       <c r="B280" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -14971,7 +14971,7 @@
         <v>20130</v>
       </c>
       <c r="B281" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -14982,7 +14982,7 @@
         <v>20140</v>
       </c>
       <c r="B282" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -14993,7 +14993,7 @@
         <v>20150</v>
       </c>
       <c r="B283" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
@@ -15004,7 +15004,7 @@
         <v>20160</v>
       </c>
       <c r="B284" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -15015,7 +15015,7 @@
         <v>30010</v>
       </c>
       <c r="B285" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
@@ -15026,7 +15026,7 @@
         <v>30020</v>
       </c>
       <c r="B286" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -1473,10 +1473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1487,8 +1487,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,59 +1576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,9 +1592,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,40 +1625,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1640,7 +1640,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,49 +1724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,25 +1748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,13 +1778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,67 +1814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,16 +1834,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1854,6 +1854,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,6 +1878,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,44 +1923,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,13 +2409,13 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="54.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="76.1818181818182" customWidth="1"/>
     <col min="4" max="6" width="15.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="7.81818181818182" customWidth="1"/>
@@ -11875,7 +11875,7 @@
   <sheetPr/>
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1474,9 +1474,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1488,15 +1488,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,8 +1533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,43 +1543,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,25 +1564,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,24 +1587,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,7 +1646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,25 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,19 +1694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,7 +1724,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,91 +1808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,30 +1831,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1884,9 +1860,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,11 +1901,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1473,31 +1473,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1520,20 +1504,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1541,6 +1517,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1573,31 +1603,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1608,24 +1624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,19 +1646,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,42 +1712,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1724,7 +1724,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,31 +1808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,55 +1820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,15 +1831,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1860,50 +1851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,6 +1876,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1939,16 +1939,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,127 +1957,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3013,10 +3013,10 @@
         <v>100</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -3046,10 +3046,10 @@
         <v>75</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -3079,10 +3079,10 @@
         <v>50</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -3112,10 +3112,10 @@
         <v>25</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3310,10 +3310,10 @@
         <v>100</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
@@ -3343,10 +3343,10 @@
         <v>75</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
@@ -3376,10 +3376,10 @@
         <v>50</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
@@ -3409,10 +3409,10 @@
         <v>25</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
@@ -3607,10 +3607,10 @@
         <v>100</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
@@ -3640,10 +3640,10 @@
         <v>75</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
@@ -3673,10 +3673,10 @@
         <v>50</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:10">
@@ -3706,10 +3706,10 @@
         <v>25</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:10">
@@ -3904,10 +3904,10 @@
         <v>100</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
@@ -3937,10 +3937,10 @@
         <v>75</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
@@ -3970,10 +3970,10 @@
         <v>50</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
@@ -4003,10 +4003,10 @@
         <v>25</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1474,9 +1474,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1489,15 +1489,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,6 +1517,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1525,54 +1539,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,9 +1556,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,7 +1594,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1619,6 +1603,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,7 +1646,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,169 +1820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,11 +1849,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1873,11 +1879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,32 +1905,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,7 +1939,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1948,7 +1948,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,85 +1957,88 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2044,40 +2047,37 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1474,9 +1474,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1489,28 +1489,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,24 +1510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,19 +1525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1587,7 +1564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,17 +1585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,6 +1602,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,7 +1640,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,13 +1730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,13 +1748,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,55 +1784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,73 +1814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,31 +1835,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1880,36 +1865,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,6 +1896,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H153">
         <v>2010</v>
@@ -7495,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="G154">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H154">
         <v>2140</v>
@@ -7528,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="G155">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H155">
         <v>2150</v>
@@ -7561,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="G156">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H156">
         <v>2390</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H157">
         <v>2400</v>
@@ -7627,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="G158">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="H158">
         <v>2090</v>
@@ -8056,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H171">
         <v>2010</v>
@@ -8089,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H172">
         <v>2140</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H173">
         <v>2150</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H174">
         <v>2390</v>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="G175">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H175">
         <v>2400</v>
@@ -8221,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="G176">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="H176">
         <v>2090</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1473,15 +1473,135 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1498,126 +1618,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,25 +1640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,13 +1658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,31 +1670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,7 +1682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,31 +1724,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,49 +1790,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,31 +1834,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1897,26 +1882,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1473,9 +1473,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1484,20 +1484,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1516,61 +1502,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,8 +1531,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,22 +1630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1640,7 +1640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,7 +1664,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,31 +1802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,127 +1814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,17 +1834,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,6 +1878,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1911,26 +1931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -10303,7 +10303,7 @@
         <v>13020</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -10336,7 +10336,7 @@
         <v>13020</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -10402,7 +10402,7 @@
         <v>13020</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>13020</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I243">
         <v>0</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1473,10 +1473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1487,83 +1487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1586,7 +1519,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,6 +1592,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1623,9 +1615,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,13 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,31 +1652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,43 +1682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,30 +1712,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1784,25 +1724,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1772,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,37 +1834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,7 +1862,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,17 +1912,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,145 +1939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -10555,7 +10555,7 @@
         <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D247">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>70</v>
@@ -10753,7 +10753,7 @@
         <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D253">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>70</v>
@@ -10951,7 +10951,7 @@
         <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D259">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>20</v>
@@ -11149,7 +11149,7 @@
         <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D265">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>20</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="446">
   <si>
     <t>Id</t>
   </si>
@@ -581,6 +581,9 @@
     <t>前列の味方を優先します</t>
   </si>
   <si>
+    <t>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>前列の味方に限定します
 &lt;color="red"&gt;該当する味方がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
@@ -592,6 +595,9 @@
   </si>
   <si>
     <t>後列の味方を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;</t>
   </si>
   <si>
     <t>後列の味方に限定します
@@ -1473,9 +1479,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -1484,73 +1490,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1570,7 +1509,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,7 +1524,59 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,32 +1592,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1640,7 +1646,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,55 +1712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,19 +1742,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,19 +1778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,31 +1796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,19 +1814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,39 +1837,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1882,6 +1855,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1892,6 +1883,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1914,20 +1920,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,145 +1945,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,8 +2415,8 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="D265" sqref="D265"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -5569,7 +5575,7 @@
       </c>
       <c r="C96" t="str">
         <f>INDEX(TextData!B:B,MATCH(B96,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;前列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5602,7 +5608,7 @@
       </c>
       <c r="C97" t="str">
         <f>INDEX(TextData!B:B,MATCH(B97,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;後列&lt;/color&gt;の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -11875,7 +11881,7 @@
   <sheetPr/>
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -12914,10 +12920,10 @@
         <v>5032</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12925,7 +12931,7 @@
         <v>5040</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -12936,10 +12942,10 @@
         <v>5041</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" ht="26" spans="1:3">
@@ -12947,10 +12953,10 @@
         <v>5042</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -12958,7 +12964,7 @@
         <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -12969,10 +12975,10 @@
         <v>5051</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" ht="26" customHeight="1" spans="1:3">
@@ -12980,10 +12986,10 @@
         <v>5052</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -12991,7 +12997,7 @@
         <v>5060</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -13002,10 +13008,10 @@
         <v>5061</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" ht="26" spans="1:3">
@@ -13013,10 +13019,10 @@
         <v>5062</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:3">
@@ -13024,10 +13030,10 @@
         <v>5070</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:3">
@@ -13035,10 +13041,10 @@
         <v>5080</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:3">
@@ -13046,10 +13052,10 @@
         <v>5090</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:3">
@@ -13057,10 +13063,10 @@
         <v>5100</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:3">
@@ -13068,7 +13074,7 @@
         <v>5110</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -13079,10 +13085,10 @@
         <v>5111</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" ht="26" spans="1:3">
@@ -13090,10 +13096,10 @@
         <v>5112</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:3">
@@ -13101,7 +13107,7 @@
         <v>5120</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -13112,10 +13118,10 @@
         <v>5121</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" ht="26" spans="1:3">
@@ -13123,10 +13129,10 @@
         <v>5122</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -13134,7 +13140,7 @@
         <v>6010</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -13145,7 +13151,7 @@
         <v>6020</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -13156,7 +13162,7 @@
         <v>6030</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -13167,7 +13173,7 @@
         <v>6040</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -13178,7 +13184,7 @@
         <v>6050</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
@@ -13189,7 +13195,7 @@
         <v>6060</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
@@ -13200,7 +13206,7 @@
         <v>6110</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -13211,7 +13217,7 @@
         <v>6120</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -13222,10 +13228,10 @@
         <v>6121</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -13233,7 +13239,7 @@
         <v>6130</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -13244,10 +13250,10 @@
         <v>6131</v>
       </c>
       <c r="B124" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -13255,7 +13261,7 @@
         <v>6140</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -13266,10 +13272,10 @@
         <v>6141</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -13277,7 +13283,7 @@
         <v>6150</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
@@ -13288,10 +13294,10 @@
         <v>6151</v>
       </c>
       <c r="B128" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -13299,7 +13305,7 @@
         <v>6210</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -13310,10 +13316,10 @@
         <v>6211</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -13321,7 +13327,7 @@
         <v>6220</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -13332,10 +13338,10 @@
         <v>6221</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" ht="26" spans="1:3">
@@ -13343,10 +13349,10 @@
         <v>6222</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -13354,7 +13360,7 @@
         <v>6230</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -13365,10 +13371,10 @@
         <v>6231</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" ht="26" spans="1:3">
@@ -13376,10 +13382,10 @@
         <v>6232</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -13387,7 +13393,7 @@
         <v>6240</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -13398,10 +13404,10 @@
         <v>6241</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -13409,7 +13415,7 @@
         <v>6250</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -13420,10 +13426,10 @@
         <v>6251</v>
       </c>
       <c r="B140" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -13431,7 +13437,7 @@
         <v>6310</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -13442,10 +13448,10 @@
         <v>6311</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -13453,7 +13459,7 @@
         <v>6320</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -13464,10 +13470,10 @@
         <v>6321</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" ht="26" spans="1:3">
@@ -13475,10 +13481,10 @@
         <v>6322</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -13486,7 +13492,7 @@
         <v>6330</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -13497,10 +13503,10 @@
         <v>6331</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C147" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" ht="26" spans="1:3">
@@ -13508,10 +13514,10 @@
         <v>6332</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -13519,7 +13525,7 @@
         <v>6340</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -13530,10 +13536,10 @@
         <v>6341</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -13541,7 +13547,7 @@
         <v>6350</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -13552,10 +13558,10 @@
         <v>6351</v>
       </c>
       <c r="B152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="153" ht="26" spans="1:3">
@@ -13563,10 +13569,10 @@
         <v>6411</v>
       </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" ht="26" spans="1:3">
@@ -13574,10 +13580,10 @@
         <v>6412</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" ht="26" spans="1:3">
@@ -13585,10 +13591,10 @@
         <v>6413</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" ht="26" spans="1:3">
@@ -13596,10 +13602,10 @@
         <v>6414</v>
       </c>
       <c r="B156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="157" ht="26" spans="1:3">
@@ -13607,10 +13613,10 @@
         <v>6415</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" ht="26" spans="1:3">
@@ -13618,10 +13624,10 @@
         <v>6416</v>
       </c>
       <c r="B158" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" ht="26" spans="1:3">
@@ -13629,10 +13635,10 @@
         <v>6511</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" ht="26" spans="1:3">
@@ -13640,10 +13646,10 @@
         <v>6512</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" ht="26" spans="1:3">
@@ -13651,10 +13657,10 @@
         <v>6513</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" ht="26" spans="1:3">
@@ -13662,10 +13668,10 @@
         <v>6514</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" ht="26" spans="1:3">
@@ -13673,10 +13679,10 @@
         <v>6515</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" ht="26" spans="1:3">
@@ -13684,10 +13690,10 @@
         <v>6516</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" ht="26" spans="1:3">
@@ -13695,10 +13701,10 @@
         <v>6611</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" ht="26" spans="1:3">
@@ -13706,10 +13712,10 @@
         <v>6612</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" ht="26" spans="1:3">
@@ -13717,10 +13723,10 @@
         <v>6613</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" ht="26" spans="1:3">
@@ -13728,10 +13734,10 @@
         <v>6614</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" ht="26" spans="1:3">
@@ -13739,10 +13745,10 @@
         <v>6615</v>
       </c>
       <c r="B169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" ht="26" spans="1:3">
@@ -13750,10 +13756,10 @@
         <v>6616</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" ht="26" spans="1:3">
@@ -13761,10 +13767,10 @@
         <v>6711</v>
       </c>
       <c r="B171" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" ht="26" spans="1:3">
@@ -13772,10 +13778,10 @@
         <v>6712</v>
       </c>
       <c r="B172" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" ht="26" spans="1:3">
@@ -13783,10 +13789,10 @@
         <v>6713</v>
       </c>
       <c r="B173" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" ht="26" spans="1:3">
@@ -13794,10 +13800,10 @@
         <v>6714</v>
       </c>
       <c r="B174" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" ht="26" spans="1:3">
@@ -13805,10 +13811,10 @@
         <v>6715</v>
       </c>
       <c r="B175" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" ht="26" spans="1:3">
@@ -13816,10 +13822,10 @@
         <v>6716</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -13827,7 +13833,7 @@
         <v>7010</v>
       </c>
       <c r="B177" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
@@ -13838,10 +13844,10 @@
         <v>7011</v>
       </c>
       <c r="B178" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -13849,7 +13855,7 @@
         <v>7020</v>
       </c>
       <c r="B179" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
@@ -13860,10 +13866,10 @@
         <v>7021</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -13871,7 +13877,7 @@
         <v>7030</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
@@ -13882,10 +13888,10 @@
         <v>7031</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" customFormat="1" ht="26" spans="1:3">
@@ -13893,10 +13899,10 @@
         <v>7032</v>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" customFormat="1" spans="1:3">
@@ -13904,7 +13910,7 @@
         <v>7040</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -13915,10 +13921,10 @@
         <v>7041</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="26" spans="1:3">
@@ -13926,10 +13932,10 @@
         <v>7042</v>
       </c>
       <c r="B186" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:3">
@@ -13937,7 +13943,7 @@
         <v>7050</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
@@ -13948,10 +13954,10 @@
         <v>7051</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="189" customFormat="1" ht="26" spans="1:3">
@@ -13959,10 +13965,10 @@
         <v>7052</v>
       </c>
       <c r="B189" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
@@ -13970,7 +13976,7 @@
         <v>7060</v>
       </c>
       <c r="B190" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -13981,10 +13987,10 @@
         <v>7061</v>
       </c>
       <c r="B191" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" customFormat="1" ht="26" spans="1:3">
@@ -13992,10 +13998,10 @@
         <v>7062</v>
       </c>
       <c r="B192" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -14003,7 +14009,7 @@
         <v>8010</v>
       </c>
       <c r="B193" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -14014,7 +14020,7 @@
         <v>8020</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -14025,7 +14031,7 @@
         <v>8030</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
@@ -14036,10 +14042,10 @@
         <v>8031</v>
       </c>
       <c r="B196" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" ht="26" spans="1:3">
@@ -14047,10 +14053,10 @@
         <v>8032</v>
       </c>
       <c r="B197" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" ht="26" spans="1:3">
@@ -14058,10 +14064,10 @@
         <v>8033</v>
       </c>
       <c r="B198" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" ht="26" spans="1:3">
@@ -14069,10 +14075,10 @@
         <v>8034</v>
       </c>
       <c r="B199" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" ht="12" customHeight="1" spans="1:3">
@@ -14080,7 +14086,7 @@
         <v>8040</v>
       </c>
       <c r="B200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -14091,10 +14097,10 @@
         <v>8041</v>
       </c>
       <c r="B201" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" ht="26" spans="1:3">
@@ -14102,10 +14108,10 @@
         <v>8042</v>
       </c>
       <c r="B202" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" ht="26" spans="1:3">
@@ -14113,10 +14119,10 @@
         <v>8043</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" ht="26" spans="1:3">
@@ -14124,10 +14130,10 @@
         <v>8044</v>
       </c>
       <c r="B204" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -14135,7 +14141,7 @@
         <v>8050</v>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -14146,10 +14152,10 @@
         <v>8051</v>
       </c>
       <c r="B206" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" ht="26" spans="1:3">
@@ -14157,10 +14163,10 @@
         <v>8052</v>
       </c>
       <c r="B207" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" ht="26" spans="1:3">
@@ -14168,10 +14174,10 @@
         <v>8053</v>
       </c>
       <c r="B208" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="209" ht="26" spans="1:3">
@@ -14179,10 +14185,10 @@
         <v>8054</v>
       </c>
       <c r="B209" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="210" ht="12" customHeight="1" spans="1:3">
@@ -14190,7 +14196,7 @@
         <v>8060</v>
       </c>
       <c r="B210" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -14201,10 +14207,10 @@
         <v>8061</v>
       </c>
       <c r="B211" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212" ht="26" spans="1:3">
@@ -14212,10 +14218,10 @@
         <v>8062</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
@@ -14223,10 +14229,10 @@
         <v>8063</v>
       </c>
       <c r="B213" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" ht="26" spans="1:3">
@@ -14234,10 +14240,10 @@
         <v>8064</v>
       </c>
       <c r="B214" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -14245,7 +14251,7 @@
         <v>9010</v>
       </c>
       <c r="B215" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -14256,7 +14262,7 @@
         <v>9020</v>
       </c>
       <c r="B216" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -14267,10 +14273,10 @@
         <v>9021</v>
       </c>
       <c r="B217" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" ht="26" spans="1:3">
@@ -14278,10 +14284,10 @@
         <v>9022</v>
       </c>
       <c r="B218" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="219" ht="26" spans="1:3">
@@ -14289,10 +14295,10 @@
         <v>9023</v>
       </c>
       <c r="B219" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="220" ht="26" spans="1:3">
@@ -14300,10 +14306,10 @@
         <v>9024</v>
       </c>
       <c r="B220" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="221" ht="26" spans="1:3">
@@ -14311,10 +14317,10 @@
         <v>9025</v>
       </c>
       <c r="B221" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -14322,7 +14328,7 @@
         <v>9030</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -14333,10 +14339,10 @@
         <v>9031</v>
       </c>
       <c r="B223" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" ht="26" spans="1:3">
@@ -14344,10 +14350,10 @@
         <v>9032</v>
       </c>
       <c r="B224" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" ht="26" spans="1:3">
@@ -14355,10 +14361,10 @@
         <v>9033</v>
       </c>
       <c r="B225" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" ht="26" spans="1:3">
@@ -14366,10 +14372,10 @@
         <v>9034</v>
       </c>
       <c r="B226" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -14377,7 +14383,7 @@
         <v>9040</v>
       </c>
       <c r="B227" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
@@ -14388,10 +14394,10 @@
         <v>9110</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" ht="26" spans="1:3">
@@ -14399,10 +14405,10 @@
         <v>9120</v>
       </c>
       <c r="B229" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -14410,7 +14416,7 @@
         <v>10010</v>
       </c>
       <c r="B230" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -14421,7 +14427,7 @@
         <v>10020</v>
       </c>
       <c r="B231" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -14432,7 +14438,7 @@
         <v>11010</v>
       </c>
       <c r="B232" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -14443,7 +14449,7 @@
         <v>12020</v>
       </c>
       <c r="B233" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
@@ -14454,7 +14460,7 @@
         <v>12030</v>
       </c>
       <c r="B234" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -14465,7 +14471,7 @@
         <v>12040</v>
       </c>
       <c r="B235" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
@@ -14476,7 +14482,7 @@
         <v>12050</v>
       </c>
       <c r="B236" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C236" t="s">
         <v>12</v>
@@ -14487,7 +14493,7 @@
         <v>13010</v>
       </c>
       <c r="B237" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
@@ -14498,7 +14504,7 @@
         <v>13020</v>
       </c>
       <c r="B238" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
@@ -14509,10 +14515,10 @@
         <v>13021</v>
       </c>
       <c r="B239" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C239" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -14520,10 +14526,10 @@
         <v>13022</v>
       </c>
       <c r="B240" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C240" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -14531,10 +14537,10 @@
         <v>13023</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C241" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" ht="26" spans="1:3">
@@ -14542,10 +14548,10 @@
         <v>13026</v>
       </c>
       <c r="B242" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="243" ht="26" spans="1:3">
@@ -14553,10 +14559,10 @@
         <v>13027</v>
       </c>
       <c r="B243" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="244" ht="26" spans="1:3">
@@ -14564,10 +14570,10 @@
         <v>13028</v>
       </c>
       <c r="B244" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -14575,7 +14581,7 @@
         <v>14010</v>
       </c>
       <c r="B245" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C245" t="s">
         <v>12</v>
@@ -14586,10 +14592,10 @@
         <v>14011</v>
       </c>
       <c r="B246" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C246" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -14597,10 +14603,10 @@
         <v>14012</v>
       </c>
       <c r="B247" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -14608,10 +14614,10 @@
         <v>14013</v>
       </c>
       <c r="B248" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C248" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -14619,10 +14625,10 @@
         <v>14014</v>
       </c>
       <c r="B249" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C249" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -14630,10 +14636,10 @@
         <v>14015</v>
       </c>
       <c r="B250" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C250" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -14641,7 +14647,7 @@
         <v>14110</v>
       </c>
       <c r="B251" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
@@ -14652,10 +14658,10 @@
         <v>14111</v>
       </c>
       <c r="B252" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C252" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -14663,10 +14669,10 @@
         <v>14112</v>
       </c>
       <c r="B253" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C253" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -14674,10 +14680,10 @@
         <v>14113</v>
       </c>
       <c r="B254" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C254" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -14685,10 +14691,10 @@
         <v>14114</v>
       </c>
       <c r="B255" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -14696,10 +14702,10 @@
         <v>14115</v>
       </c>
       <c r="B256" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C256" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -14707,7 +14713,7 @@
         <v>14210</v>
       </c>
       <c r="B257" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
@@ -14718,10 +14724,10 @@
         <v>14211</v>
       </c>
       <c r="B258" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C258" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -14729,10 +14735,10 @@
         <v>14212</v>
       </c>
       <c r="B259" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C259" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -14740,10 +14746,10 @@
         <v>14213</v>
       </c>
       <c r="B260" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C260" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -14751,10 +14757,10 @@
         <v>14214</v>
       </c>
       <c r="B261" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C261" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -14762,10 +14768,10 @@
         <v>14215</v>
       </c>
       <c r="B262" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C262" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -14773,7 +14779,7 @@
         <v>14310</v>
       </c>
       <c r="B263" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -14784,10 +14790,10 @@
         <v>14311</v>
       </c>
       <c r="B264" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C264" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -14795,10 +14801,10 @@
         <v>14312</v>
       </c>
       <c r="B265" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C265" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -14806,10 +14812,10 @@
         <v>14313</v>
       </c>
       <c r="B266" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C266" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -14817,10 +14823,10 @@
         <v>14314</v>
       </c>
       <c r="B267" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C267" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -14828,10 +14834,10 @@
         <v>14315</v>
       </c>
       <c r="B268" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C268" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -14839,7 +14845,7 @@
         <v>20010</v>
       </c>
       <c r="B269" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -14850,7 +14856,7 @@
         <v>20020</v>
       </c>
       <c r="B270" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -14861,7 +14867,7 @@
         <v>20030</v>
       </c>
       <c r="B271" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
@@ -14872,7 +14878,7 @@
         <v>20040</v>
       </c>
       <c r="B272" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -14883,7 +14889,7 @@
         <v>20050</v>
       </c>
       <c r="B273" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
@@ -14894,7 +14900,7 @@
         <v>20060</v>
       </c>
       <c r="B274" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -14905,7 +14911,7 @@
         <v>20070</v>
       </c>
       <c r="B275" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
@@ -14916,7 +14922,7 @@
         <v>20080</v>
       </c>
       <c r="B276" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
@@ -14927,7 +14933,7 @@
         <v>20090</v>
       </c>
       <c r="B277" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C277" t="s">
         <v>12</v>
@@ -14938,7 +14944,7 @@
         <v>20100</v>
       </c>
       <c r="B278" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C278" t="s">
         <v>12</v>
@@ -14949,7 +14955,7 @@
         <v>20110</v>
       </c>
       <c r="B279" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
@@ -14960,7 +14966,7 @@
         <v>20120</v>
       </c>
       <c r="B280" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -14971,7 +14977,7 @@
         <v>20130</v>
       </c>
       <c r="B281" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -14982,7 +14988,7 @@
         <v>20140</v>
       </c>
       <c r="B282" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -14993,7 +14999,7 @@
         <v>20150</v>
       </c>
       <c r="B283" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
@@ -15004,7 +15010,7 @@
         <v>20160</v>
       </c>
       <c r="B284" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -15015,7 +15021,7 @@
         <v>30010</v>
       </c>
       <c r="B285" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
@@ -15026,7 +15032,7 @@
         <v>30020</v>
       </c>
       <c r="B286" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="448">
   <si>
     <t>Id</t>
   </si>
@@ -969,68 +969,75 @@
     <t>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
   </si>
   <si>
-    <t>神化発動前</t>
-  </si>
-  <si>
-    <t>自身が神化状態ではない</t>
-  </si>
-  <si>
-    <t>自身に神化が付与されていない場合にのみ、魔法を発動します
+    <t>覚醒前</t>
+  </si>
+  <si>
+    <t>自身が覚醒状態ではない</t>
+  </si>
+  <si>
+    <t>自身が覚醒状態ではない場合にのみ、魔法を発動します
 &lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
-    <t>神化発動後</t>
-  </si>
-  <si>
-    <t>自身が神化状態</t>
-  </si>
-  <si>
-    <t>自身に神化が付与されている場合にのみ、魔法を発動します
+    <t>覚醒後</t>
+  </si>
+  <si>
+    <t>自身が覚醒状態</t>
+  </si>
+  <si>
+    <t>自身に覚醒状態の場合にのみ、魔法を発動します
 &lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
-    <t>神化発動前の味方</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>神化が付与されていない相手を優先します</t>
-  </si>
-  <si>
-    <t>神化が付与されていない相手に限定します
+    <t>覚醒前の味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>覚醒状態ではない味方を優先します</t>
+  </si>
+  <si>
+    <t>覚醒状態ではない味方に限定します
 &lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
-    <t>神化発動後の味方</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
-  </si>
-  <si>
-    <t>神化が付与されている相手を優先します</t>
-  </si>
-  <si>
-    <t>神化が付与されている相手に限定します
+    <t>覚醒状態の味方</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>覚醒状態の相手を優先します</t>
+  </si>
+  <si>
+    <t>覚醒状態の相手に限定します
 &lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
-    <t>神化発動前の敵</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>神化発動後の敵</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
-  </si>
-  <si>
-    <t>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
+    <t>覚醒前の敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>覚醒状態ではない相手を優先します</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>覚醒状態ではない相手に限定します
+&lt;color="red"&gt;該当する相手がいない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>覚醒状態の敵</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</t>
+  </si>
+  <si>
+    <t>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</t>
   </si>
   <si>
     <t>味方より敵が多い</t>
@@ -1450,10 +1457,10 @@
     <t>回復効果魔法を〇回行う</t>
   </si>
   <si>
-    <t>味方に神化状態が〇以上</t>
-  </si>
-  <si>
-    <t>Demigod魔法の属性が〇の味方が神化する</t>
+    <t>味方に覚醒状態が〇以上</t>
+  </si>
+  <si>
+    <t>Demigod魔法の属性が〇の味方が覚醒する</t>
   </si>
   <si>
     <t>相手が状態異常を発動する</t>
@@ -1479,10 +1486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1494,29 +1501,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,51 +1532,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,23 +1546,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,11 +1575,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1634,6 +1594,53 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1646,7 +1653,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,43 +1767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1779,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,91 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,19 +1827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,6 +1844,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1866,9 +1897,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1888,52 +1936,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,16 +1952,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1966,124 +1973,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2415,7 +2422,7 @@
   <sheetPr/>
   <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
@@ -8248,7 +8255,7 @@
       </c>
       <c r="C177" t="str">
         <f>INDEX(TextData!B:B,MATCH(B177,TextData!A:A))</f>
-        <v>神化発動前</v>
+        <v>覚醒前</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -8281,7 +8288,7 @@
       </c>
       <c r="C178" t="str">
         <f>INDEX(TextData!B:B,MATCH(B178,TextData!A:A))</f>
-        <v>自身が神化状態ではない</v>
+        <v>自身が覚醒状態ではない</v>
       </c>
       <c r="D178">
         <v>9</v>
@@ -8314,7 +8321,7 @@
       </c>
       <c r="C179" t="str">
         <f>INDEX(TextData!B:B,MATCH(B179,TextData!A:A))</f>
-        <v>神化発動後</v>
+        <v>覚醒後</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -8347,7 +8354,7 @@
       </c>
       <c r="C180" t="str">
         <f>INDEX(TextData!B:B,MATCH(B180,TextData!A:A))</f>
-        <v>自身が神化状態</v>
+        <v>自身が覚醒状態</v>
       </c>
       <c r="D180">
         <v>9</v>
@@ -8380,7 +8387,7 @@
       </c>
       <c r="C181" t="str">
         <f>INDEX(TextData!B:B,MATCH(B181,TextData!A:A))</f>
-        <v>神化発動前の味方</v>
+        <v>覚醒前の味方</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -8413,7 +8420,7 @@
       </c>
       <c r="C182" t="str">
         <f>INDEX(TextData!B:B,MATCH(B182,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D182">
         <v>6</v>
@@ -8446,7 +8453,7 @@
       </c>
       <c r="C183" t="str">
         <f>INDEX(TextData!B:B,MATCH(B183,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D183">
         <v>6</v>
@@ -8479,7 +8486,7 @@
       </c>
       <c r="C184" t="str">
         <f>INDEX(TextData!B:B,MATCH(B184,TextData!A:A))</f>
-        <v>神化発動後の味方</v>
+        <v>覚醒状態の味方</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -8512,7 +8519,7 @@
       </c>
       <c r="C185" t="str">
         <f>INDEX(TextData!B:B,MATCH(B185,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D185">
         <v>6</v>
@@ -8545,7 +8552,7 @@
       </c>
       <c r="C186" t="str">
         <f>INDEX(TextData!B:B,MATCH(B186,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D186">
         <v>6</v>
@@ -8578,7 +8585,7 @@
       </c>
       <c r="C187" t="str">
         <f>INDEX(TextData!B:B,MATCH(B187,TextData!A:A))</f>
-        <v>神化発動前の敵</v>
+        <v>覚醒前の敵</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8611,7 +8618,7 @@
       </c>
       <c r="C188" t="str">
         <f>INDEX(TextData!B:B,MATCH(B188,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D188">
         <v>6</v>
@@ -8644,7 +8651,7 @@
       </c>
       <c r="C189" t="str">
         <f>INDEX(TextData!B:B,MATCH(B189,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D189">
         <v>6</v>
@@ -8677,7 +8684,7 @@
       </c>
       <c r="C190" t="str">
         <f>INDEX(TextData!B:B,MATCH(B190,TextData!A:A))</f>
-        <v>神化発動後の敵</v>
+        <v>覚醒状態の敵</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8710,7 +8717,7 @@
       </c>
       <c r="C191" t="str">
         <f>INDEX(TextData!B:B,MATCH(B191,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -8743,7 +8750,7 @@
       </c>
       <c r="C192" t="str">
         <f>INDEX(TextData!B:B,MATCH(B192,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;神化&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D192">
         <v>6</v>
@@ -11614,7 +11621,7 @@
       </c>
       <c r="C279" t="str">
         <f>INDEX(TextData!B:B,MATCH(B279,TextData!A:A))</f>
-        <v>味方に神化状態が〇以上</v>
+        <v>味方に覚醒状態が〇以上</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -11647,7 +11654,7 @@
       </c>
       <c r="C280" t="str">
         <f>INDEX(TextData!B:B,MATCH(B280,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が神化する</v>
+        <v>Demigod魔法の属性が〇の味方が覚醒する</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -11881,8 +11888,8 @@
   <sheetPr/>
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -13957,7 +13964,7 @@
         <v>304</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" customFormat="1" ht="26" spans="1:3">
@@ -13965,10 +13972,10 @@
         <v>7052</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
@@ -13976,7 +13983,7 @@
         <v>7060</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -13987,7 +13994,7 @@
         <v>7061</v>
       </c>
       <c r="B191" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>301</v>
@@ -13998,7 +14005,7 @@
         <v>7062</v>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>302</v>
@@ -14009,7 +14016,7 @@
         <v>8010</v>
       </c>
       <c r="B193" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -14020,7 +14027,7 @@
         <v>8020</v>
       </c>
       <c r="B194" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -14031,7 +14038,7 @@
         <v>8030</v>
       </c>
       <c r="B195" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
@@ -14042,10 +14049,10 @@
         <v>8031</v>
       </c>
       <c r="B196" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" ht="26" spans="1:3">
@@ -14053,10 +14060,10 @@
         <v>8032</v>
       </c>
       <c r="B197" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" ht="26" spans="1:3">
@@ -14064,10 +14071,10 @@
         <v>8033</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" ht="26" spans="1:3">
@@ -14075,10 +14082,10 @@
         <v>8034</v>
       </c>
       <c r="B199" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" ht="12" customHeight="1" spans="1:3">
@@ -14086,7 +14093,7 @@
         <v>8040</v>
       </c>
       <c r="B200" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -14097,10 +14104,10 @@
         <v>8041</v>
       </c>
       <c r="B201" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" ht="26" spans="1:3">
@@ -14108,10 +14115,10 @@
         <v>8042</v>
       </c>
       <c r="B202" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" ht="26" spans="1:3">
@@ -14119,10 +14126,10 @@
         <v>8043</v>
       </c>
       <c r="B203" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" ht="26" spans="1:3">
@@ -14130,10 +14137,10 @@
         <v>8044</v>
       </c>
       <c r="B204" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -14141,7 +14148,7 @@
         <v>8050</v>
       </c>
       <c r="B205" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -14152,10 +14159,10 @@
         <v>8051</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" ht="26" spans="1:3">
@@ -14163,10 +14170,10 @@
         <v>8052</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" ht="26" spans="1:3">
@@ -14174,10 +14181,10 @@
         <v>8053</v>
       </c>
       <c r="B208" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" ht="26" spans="1:3">
@@ -14185,10 +14192,10 @@
         <v>8054</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" ht="12" customHeight="1" spans="1:3">
@@ -14196,7 +14203,7 @@
         <v>8060</v>
       </c>
       <c r="B210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
@@ -14207,10 +14214,10 @@
         <v>8061</v>
       </c>
       <c r="B211" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" ht="26" spans="1:3">
@@ -14218,10 +14225,10 @@
         <v>8062</v>
       </c>
       <c r="B212" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
@@ -14229,10 +14236,10 @@
         <v>8063</v>
       </c>
       <c r="B213" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" ht="26" spans="1:3">
@@ -14240,10 +14247,10 @@
         <v>8064</v>
       </c>
       <c r="B214" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -14251,7 +14258,7 @@
         <v>9010</v>
       </c>
       <c r="B215" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -14262,7 +14269,7 @@
         <v>9020</v>
       </c>
       <c r="B216" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -14273,10 +14280,10 @@
         <v>9021</v>
       </c>
       <c r="B217" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="218" ht="26" spans="1:3">
@@ -14284,10 +14291,10 @@
         <v>9022</v>
       </c>
       <c r="B218" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="219" ht="26" spans="1:3">
@@ -14295,10 +14302,10 @@
         <v>9023</v>
       </c>
       <c r="B219" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="220" ht="26" spans="1:3">
@@ -14306,10 +14313,10 @@
         <v>9024</v>
       </c>
       <c r="B220" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" ht="26" spans="1:3">
@@ -14317,10 +14324,10 @@
         <v>9025</v>
       </c>
       <c r="B221" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -14328,7 +14335,7 @@
         <v>9030</v>
       </c>
       <c r="B222" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -14339,10 +14346,10 @@
         <v>9031</v>
       </c>
       <c r="B223" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224" ht="26" spans="1:3">
@@ -14350,10 +14357,10 @@
         <v>9032</v>
       </c>
       <c r="B224" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" ht="26" spans="1:3">
@@ -14361,10 +14368,10 @@
         <v>9033</v>
       </c>
       <c r="B225" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" ht="26" spans="1:3">
@@ -14372,10 +14379,10 @@
         <v>9034</v>
       </c>
       <c r="B226" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -14383,7 +14390,7 @@
         <v>9040</v>
       </c>
       <c r="B227" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
@@ -14394,10 +14401,10 @@
         <v>9110</v>
       </c>
       <c r="B228" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="229" ht="26" spans="1:3">
@@ -14405,10 +14412,10 @@
         <v>9120</v>
       </c>
       <c r="B229" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -14416,7 +14423,7 @@
         <v>10010</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -14427,7 +14434,7 @@
         <v>10020</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -14438,7 +14445,7 @@
         <v>11010</v>
       </c>
       <c r="B232" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -14449,7 +14456,7 @@
         <v>12020</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
@@ -14460,7 +14467,7 @@
         <v>12030</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
@@ -14471,7 +14478,7 @@
         <v>12040</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
@@ -14482,7 +14489,7 @@
         <v>12050</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C236" t="s">
         <v>12</v>
@@ -14493,7 +14500,7 @@
         <v>13010</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
@@ -14504,7 +14511,7 @@
         <v>13020</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
@@ -14515,10 +14522,10 @@
         <v>13021</v>
       </c>
       <c r="B239" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C239" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -14526,10 +14533,10 @@
         <v>13022</v>
       </c>
       <c r="B240" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C240" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -14537,10 +14544,10 @@
         <v>13023</v>
       </c>
       <c r="B241" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C241" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="242" ht="26" spans="1:3">
@@ -14548,10 +14555,10 @@
         <v>13026</v>
       </c>
       <c r="B242" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" ht="26" spans="1:3">
@@ -14559,10 +14566,10 @@
         <v>13027</v>
       </c>
       <c r="B243" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" ht="26" spans="1:3">
@@ -14570,10 +14577,10 @@
         <v>13028</v>
       </c>
       <c r="B244" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -14581,7 +14588,7 @@
         <v>14010</v>
       </c>
       <c r="B245" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C245" t="s">
         <v>12</v>
@@ -14592,10 +14599,10 @@
         <v>14011</v>
       </c>
       <c r="B246" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C246" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -14603,10 +14610,10 @@
         <v>14012</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C247" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -14614,10 +14621,10 @@
         <v>14013</v>
       </c>
       <c r="B248" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C248" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -14625,10 +14632,10 @@
         <v>14014</v>
       </c>
       <c r="B249" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C249" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -14636,10 +14643,10 @@
         <v>14015</v>
       </c>
       <c r="B250" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C250" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -14647,7 +14654,7 @@
         <v>14110</v>
       </c>
       <c r="B251" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
@@ -14658,10 +14665,10 @@
         <v>14111</v>
       </c>
       <c r="B252" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C252" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -14669,10 +14676,10 @@
         <v>14112</v>
       </c>
       <c r="B253" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C253" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -14680,10 +14687,10 @@
         <v>14113</v>
       </c>
       <c r="B254" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C254" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -14691,10 +14698,10 @@
         <v>14114</v>
       </c>
       <c r="B255" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C255" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -14702,10 +14709,10 @@
         <v>14115</v>
       </c>
       <c r="B256" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C256" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -14713,7 +14720,7 @@
         <v>14210</v>
       </c>
       <c r="B257" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
@@ -14724,10 +14731,10 @@
         <v>14211</v>
       </c>
       <c r="B258" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C258" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -14735,10 +14742,10 @@
         <v>14212</v>
       </c>
       <c r="B259" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C259" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -14746,10 +14753,10 @@
         <v>14213</v>
       </c>
       <c r="B260" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C260" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -14757,10 +14764,10 @@
         <v>14214</v>
       </c>
       <c r="B261" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C261" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -14768,10 +14775,10 @@
         <v>14215</v>
       </c>
       <c r="B262" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C262" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -14779,7 +14786,7 @@
         <v>14310</v>
       </c>
       <c r="B263" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -14790,10 +14797,10 @@
         <v>14311</v>
       </c>
       <c r="B264" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C264" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -14801,10 +14808,10 @@
         <v>14312</v>
       </c>
       <c r="B265" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C265" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -14812,10 +14819,10 @@
         <v>14313</v>
       </c>
       <c r="B266" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C266" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -14823,10 +14830,10 @@
         <v>14314</v>
       </c>
       <c r="B267" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C267" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -14834,10 +14841,10 @@
         <v>14315</v>
       </c>
       <c r="B268" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C268" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -14845,7 +14852,7 @@
         <v>20010</v>
       </c>
       <c r="B269" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -14856,7 +14863,7 @@
         <v>20020</v>
       </c>
       <c r="B270" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -14867,7 +14874,7 @@
         <v>20030</v>
       </c>
       <c r="B271" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
@@ -14878,7 +14885,7 @@
         <v>20040</v>
       </c>
       <c r="B272" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -14889,7 +14896,7 @@
         <v>20050</v>
       </c>
       <c r="B273" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
@@ -14900,7 +14907,7 @@
         <v>20060</v>
       </c>
       <c r="B274" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -14911,7 +14918,7 @@
         <v>20070</v>
       </c>
       <c r="B275" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
@@ -14922,7 +14929,7 @@
         <v>20080</v>
       </c>
       <c r="B276" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
@@ -14933,7 +14940,7 @@
         <v>20090</v>
       </c>
       <c r="B277" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C277" t="s">
         <v>12</v>
@@ -14944,7 +14951,7 @@
         <v>20100</v>
       </c>
       <c r="B278" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C278" t="s">
         <v>12</v>
@@ -14955,7 +14962,7 @@
         <v>20110</v>
       </c>
       <c r="B279" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
@@ -14966,7 +14973,7 @@
         <v>20120</v>
       </c>
       <c r="B280" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -14977,7 +14984,7 @@
         <v>20130</v>
       </c>
       <c r="B281" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -14988,7 +14995,7 @@
         <v>20140</v>
       </c>
       <c r="B282" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -14999,7 +15006,7 @@
         <v>20150</v>
       </c>
       <c r="B283" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
@@ -15010,7 +15017,7 @@
         <v>20160</v>
       </c>
       <c r="B284" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -15021,7 +15028,7 @@
         <v>30010</v>
       </c>
       <c r="B285" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
@@ -15032,7 +15039,7 @@
         <v>30020</v>
       </c>
       <c r="B286" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="468">
   <si>
     <t>Id</t>
   </si>
@@ -1286,16 +1286,16 @@
     <t>〇のKindを持っている敵</t>
   </si>
   <si>
-    <t>汎用敵(クリーチャー)を優先</t>
-  </si>
-  <si>
-    <t>汎用敵(クリーチャー)を優先します</t>
-  </si>
-  <si>
-    <t>ボス(悪魔)を優先</t>
-  </si>
-  <si>
-    <t>ボス(悪魔)を優先します</t>
+    <t>汎用敵を優先</t>
+  </si>
+  <si>
+    <t>汎用敵を優先します</t>
+  </si>
+  <si>
+    <t>ボスを優先</t>
+  </si>
+  <si>
+    <t>ボスを優先します</t>
   </si>
   <si>
     <t>アンデッドを優先</t>
@@ -1304,17 +1304,47 @@
     <t>アンデッドを優先します</t>
   </si>
   <si>
-    <t>汎用敵(クリーチャー)</t>
-  </si>
-  <si>
-    <t>汎用敵(クリーチャー)に限定します
+    <t>飛行を優先</t>
+  </si>
+  <si>
+    <t>飛行を優先します</t>
+  </si>
+  <si>
+    <t>悪魔を優先</t>
+  </si>
+  <si>
+    <t>悪魔を優先します</t>
+  </si>
+  <si>
+    <t>クリーチャーを優先</t>
+  </si>
+  <si>
+    <t>クリーチャーを優先します</t>
+  </si>
+  <si>
+    <t>野生を優先</t>
+  </si>
+  <si>
+    <t>野生を優先します</t>
+  </si>
+  <si>
+    <t>変異生物を優先</t>
+  </si>
+  <si>
+    <t>変異生物を優先します</t>
+  </si>
+  <si>
+    <t>汎用敵</t>
+  </si>
+  <si>
+    <t>汎用敵に限定します
 該当する相手がいない場合、魔法を発動しません</t>
   </si>
   <si>
-    <t>ボス(悪魔)</t>
-  </si>
-  <si>
-    <t>ボス(悪魔)に限定します
+    <t>ボス</t>
+  </si>
+  <si>
+    <t>ボスに限定します
 該当する相手がいない場合、魔法を発動しません</t>
   </si>
   <si>
@@ -1322,6 +1352,41 @@
   </si>
   <si>
     <t>アンデッドに限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>飛行</t>
+  </si>
+  <si>
+    <t>飛行に限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>悪魔に限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>クリーチャー</t>
+  </si>
+  <si>
+    <t>クリーチャーに限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>野生</t>
+  </si>
+  <si>
+    <t>野生に限定します
+該当する相手がいない場合、魔法を発動しません</t>
+  </si>
+  <si>
+    <t>変異生物</t>
+  </si>
+  <si>
+    <t>変異生物に限定します
 該当する相手がいない場合、魔法を発動しません</t>
   </si>
   <si>
@@ -1486,10 +1551,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1501,6 +1566,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1508,17 +1580,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1529,32 +1593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,7 +1608,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1582,24 +1622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,14 +1640,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1630,7 +1671,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,9 +1695,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1653,13 +1718,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,19 +1778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,31 +1814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,19 +1850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,31 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,37 +1892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,21 +1909,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1906,6 +1956,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1935,15 +2009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1952,151 +2017,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2420,10 +2488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J286"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A173" sqref="$A173:$XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -7621,29 +7689,29 @@
     </row>
     <row r="158" customFormat="1" spans="1:10">
       <c r="A158">
-        <v>6416</v>
+        <v>6511</v>
       </c>
       <c r="B158">
-        <v>6416</v>
+        <v>6511</v>
       </c>
       <c r="C158" t="str">
         <f>INDEX(TextData!B:B,MATCH(B158,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="E158">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F158">
         <v>2</v>
       </c>
       <c r="G158">
-        <v>6030</v>
+        <v>6050</v>
       </c>
       <c r="H158">
-        <v>2090</v>
+        <v>2010</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -7654,20 +7722,20 @@
     </row>
     <row r="159" customFormat="1" spans="1:10">
       <c r="A159">
-        <v>6511</v>
+        <v>6512</v>
       </c>
       <c r="B159">
-        <v>6511</v>
+        <v>6512</v>
       </c>
       <c r="C159" t="str">
         <f>INDEX(TextData!B:B,MATCH(B159,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D159">
         <v>5</v>
       </c>
       <c r="E159">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -7676,7 +7744,7 @@
         <v>6050</v>
       </c>
       <c r="H159">
-        <v>2010</v>
+        <v>2140</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -7687,20 +7755,20 @@
     </row>
     <row r="160" customFormat="1" spans="1:10">
       <c r="A160">
-        <v>6512</v>
+        <v>6513</v>
       </c>
       <c r="B160">
-        <v>6512</v>
+        <v>6513</v>
       </c>
       <c r="C160" t="str">
         <f>INDEX(TextData!B:B,MATCH(B160,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
       <c r="E160">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -7709,7 +7777,7 @@
         <v>6050</v>
       </c>
       <c r="H160">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -7720,20 +7788,20 @@
     </row>
     <row r="161" customFormat="1" spans="1:10">
       <c r="A161">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="B161">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="C161" t="str">
         <f>INDEX(TextData!B:B,MATCH(B161,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="E161">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -7742,7 +7810,7 @@
         <v>6050</v>
       </c>
       <c r="H161">
-        <v>2150</v>
+        <v>2390</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7753,20 +7821,20 @@
     </row>
     <row r="162" customFormat="1" spans="1:10">
       <c r="A162">
-        <v>6514</v>
+        <v>6515</v>
       </c>
       <c r="B162">
-        <v>6514</v>
+        <v>6515</v>
       </c>
       <c r="C162" t="str">
         <f>INDEX(TextData!B:B,MATCH(B162,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="E162">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -7775,7 +7843,7 @@
         <v>6050</v>
       </c>
       <c r="H162">
-        <v>2390</v>
+        <v>2400</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -7786,29 +7854,29 @@
     </row>
     <row r="163" customFormat="1" spans="1:10">
       <c r="A163">
-        <v>6515</v>
+        <v>6611</v>
       </c>
       <c r="B163">
-        <v>6515</v>
+        <v>6611</v>
       </c>
       <c r="C163" t="str">
         <f>INDEX(TextData!B:B,MATCH(B163,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D163">
         <v>5</v>
       </c>
       <c r="E163">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H163">
-        <v>2400</v>
+        <v>2010</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7819,29 +7887,29 @@
     </row>
     <row r="164" customFormat="1" spans="1:10">
       <c r="A164">
-        <v>6516</v>
+        <v>6612</v>
       </c>
       <c r="B164">
-        <v>6516</v>
+        <v>6612</v>
       </c>
       <c r="C164" t="str">
         <f>INDEX(TextData!B:B,MATCH(B164,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D164">
         <v>5</v>
       </c>
       <c r="E164">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="H164">
-        <v>2090</v>
+        <v>2140</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7852,20 +7920,20 @@
     </row>
     <row r="165" customFormat="1" spans="1:10">
       <c r="A165">
-        <v>6611</v>
+        <v>6613</v>
       </c>
       <c r="B165">
-        <v>6611</v>
+        <v>6613</v>
       </c>
       <c r="C165" t="str">
         <f>INDEX(TextData!B:B,MATCH(B165,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D165">
         <v>5</v>
       </c>
       <c r="E165">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -7874,7 +7942,7 @@
         <v>6040</v>
       </c>
       <c r="H165">
-        <v>2010</v>
+        <v>2150</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7885,20 +7953,20 @@
     </row>
     <row r="166" customFormat="1" spans="1:10">
       <c r="A166">
-        <v>6612</v>
+        <v>6614</v>
       </c>
       <c r="B166">
-        <v>6612</v>
+        <v>6614</v>
       </c>
       <c r="C166" t="str">
         <f>INDEX(TextData!B:B,MATCH(B166,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D166">
         <v>5</v>
       </c>
       <c r="E166">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -7907,7 +7975,7 @@
         <v>6040</v>
       </c>
       <c r="H166">
-        <v>2140</v>
+        <v>2390</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7918,20 +7986,20 @@
     </row>
     <row r="167" customFormat="1" spans="1:10">
       <c r="A167">
-        <v>6613</v>
+        <v>6615</v>
       </c>
       <c r="B167">
-        <v>6613</v>
+        <v>6615</v>
       </c>
       <c r="C167" t="str">
         <f>INDEX(TextData!B:B,MATCH(B167,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D167">
         <v>5</v>
       </c>
       <c r="E167">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -7940,7 +8008,7 @@
         <v>6040</v>
       </c>
       <c r="H167">
-        <v>2150</v>
+        <v>2400</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -7951,29 +8019,29 @@
     </row>
     <row r="168" customFormat="1" spans="1:10">
       <c r="A168">
-        <v>6614</v>
+        <v>6711</v>
       </c>
       <c r="B168">
-        <v>6614</v>
+        <v>6711</v>
       </c>
       <c r="C168" t="str">
         <f>INDEX(TextData!B:B,MATCH(B168,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D168">
         <v>5</v>
       </c>
       <c r="E168">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="F168">
         <v>1</v>
       </c>
       <c r="G168">
-        <v>6040</v>
+        <v>6060</v>
       </c>
       <c r="H168">
-        <v>2390</v>
+        <v>2010</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7984,29 +8052,29 @@
     </row>
     <row r="169" customFormat="1" spans="1:10">
       <c r="A169">
-        <v>6615</v>
+        <v>6712</v>
       </c>
       <c r="B169">
-        <v>6615</v>
+        <v>6712</v>
       </c>
       <c r="C169" t="str">
         <f>INDEX(TextData!B:B,MATCH(B169,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D169">
         <v>5</v>
       </c>
       <c r="E169">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169">
-        <v>6040</v>
+        <v>6060</v>
       </c>
       <c r="H169">
-        <v>2400</v>
+        <v>2140</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -8017,29 +8085,29 @@
     </row>
     <row r="170" customFormat="1" spans="1:10">
       <c r="A170">
-        <v>6616</v>
+        <v>6713</v>
       </c>
       <c r="B170">
-        <v>6616</v>
+        <v>6713</v>
       </c>
       <c r="C170" t="str">
         <f>INDEX(TextData!B:B,MATCH(B170,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="F170">
         <v>1</v>
       </c>
       <c r="G170">
-        <v>6040</v>
+        <v>6060</v>
       </c>
       <c r="H170">
-        <v>2090</v>
+        <v>2150</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -8050,20 +8118,20 @@
     </row>
     <row r="171" customFormat="1" spans="1:10">
       <c r="A171">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="B171">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="C171" t="str">
         <f>INDEX(TextData!B:B,MATCH(B171,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;毒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D171">
         <v>5</v>
       </c>
       <c r="E171">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -8072,7 +8140,7 @@
         <v>6060</v>
       </c>
       <c r="H171">
-        <v>2010</v>
+        <v>2390</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -8083,20 +8151,20 @@
     </row>
     <row r="172" customFormat="1" spans="1:10">
       <c r="A172">
-        <v>6712</v>
+        <v>6715</v>
       </c>
       <c r="B172">
-        <v>6712</v>
+        <v>6715</v>
       </c>
       <c r="C172" t="str">
         <f>INDEX(TextData!B:B,MATCH(B172,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;凍結&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D172">
         <v>5</v>
       </c>
       <c r="E172">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -8105,7 +8173,7 @@
         <v>6060</v>
       </c>
       <c r="H172">
-        <v>2140</v>
+        <v>2400</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -8114,31 +8182,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" customFormat="1" spans="1:10">
+    <row r="173" spans="1:10">
       <c r="A173">
-        <v>6713</v>
+        <v>7010</v>
       </c>
       <c r="B173">
-        <v>6713</v>
+        <v>7010</v>
       </c>
       <c r="C173" t="str">
         <f>INDEX(TextData!B:B,MATCH(B173,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;スタン&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>覚醒前</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>6060</v>
+        <v>7010</v>
       </c>
       <c r="H173">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -8149,29 +8217,29 @@
     </row>
     <row r="174" customFormat="1" spans="1:10">
       <c r="A174">
-        <v>6714</v>
+        <v>7011</v>
       </c>
       <c r="B174">
-        <v>6714</v>
+        <v>7011</v>
       </c>
       <c r="C174" t="str">
         <f>INDEX(TextData!B:B,MATCH(B174,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;沈黙&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身が覚醒状態ではない</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G174">
-        <v>6060</v>
+        <v>7010</v>
       </c>
       <c r="H174">
-        <v>2390</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -8180,31 +8248,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="1" spans="1:10">
+    <row r="175" spans="1:10">
       <c r="A175">
-        <v>6715</v>
+        <v>7020</v>
       </c>
       <c r="B175">
-        <v>6715</v>
+        <v>7020</v>
       </c>
       <c r="C175" t="str">
         <f>INDEX(TextData!B:B,MATCH(B175,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;不治&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>覚醒後</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>6060</v>
+        <v>7020</v>
       </c>
       <c r="H175">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -8215,29 +8283,29 @@
     </row>
     <row r="176" customFormat="1" spans="1:10">
       <c r="A176">
-        <v>6716</v>
+        <v>7021</v>
       </c>
       <c r="B176">
-        <v>6716</v>
+        <v>7021</v>
       </c>
       <c r="C176" t="str">
         <f>INDEX(TextData!B:B,MATCH(B176,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;パッシブ無効&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>自身が覚醒状態</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G176">
-        <v>6060</v>
+        <v>7020</v>
       </c>
       <c r="H176">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -8246,16 +8314,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" customFormat="1" spans="1:10">
       <c r="A177">
-        <v>7010</v>
+        <v>7030</v>
       </c>
       <c r="B177">
-        <v>7010</v>
+        <v>7030</v>
       </c>
       <c r="C177" t="str">
         <f>INDEX(TextData!B:B,MATCH(B177,TextData!A:A))</f>
-        <v>覚醒前</v>
+        <v>覚醒前の味方</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -8267,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>7010</v>
+        <v>7030</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8281,29 +8349,29 @@
     </row>
     <row r="178" customFormat="1" spans="1:10">
       <c r="A178">
-        <v>7011</v>
+        <v>7031</v>
       </c>
       <c r="B178">
-        <v>7011</v>
+        <v>7031</v>
       </c>
       <c r="C178" t="str">
         <f>INDEX(TextData!B:B,MATCH(B178,TextData!A:A))</f>
-        <v>自身が覚醒状態ではない</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F178">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G178">
-        <v>7010</v>
+        <v>7030</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -8312,28 +8380,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" customFormat="1" spans="1:10">
       <c r="A179">
-        <v>7020</v>
+        <v>7032</v>
       </c>
       <c r="B179">
-        <v>7020</v>
+        <v>7032</v>
       </c>
       <c r="C179" t="str">
         <f>INDEX(TextData!B:B,MATCH(B179,TextData!A:A))</f>
-        <v>覚醒後</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>7020</v>
+        <v>7030</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -8347,26 +8415,26 @@
     </row>
     <row r="180" customFormat="1" spans="1:10">
       <c r="A180">
-        <v>7021</v>
+        <v>7040</v>
       </c>
       <c r="B180">
-        <v>7021</v>
+        <v>7040</v>
       </c>
       <c r="C180" t="str">
         <f>INDEX(TextData!B:B,MATCH(B180,TextData!A:A))</f>
-        <v>自身が覚醒状態</v>
+        <v>覚醒状態の味方</v>
       </c>
       <c r="D180">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>7020</v>
+        <v>7040</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8380,29 +8448,29 @@
     </row>
     <row r="181" customFormat="1" spans="1:10">
       <c r="A181">
-        <v>7030</v>
+        <v>7041</v>
       </c>
       <c r="B181">
-        <v>7030</v>
+        <v>7041</v>
       </c>
       <c r="C181" t="str">
         <f>INDEX(TextData!B:B,MATCH(B181,TextData!A:A))</f>
-        <v>覚醒前の味方</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>7030</v>
+        <v>7040</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -8413,29 +8481,29 @@
     </row>
     <row r="182" customFormat="1" spans="1:10">
       <c r="A182">
-        <v>7031</v>
+        <v>7042</v>
       </c>
       <c r="B182">
-        <v>7031</v>
+        <v>7042</v>
       </c>
       <c r="C182" t="str">
         <f>INDEX(TextData!B:B,MATCH(B182,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
       </c>
       <c r="D182">
         <v>6</v>
       </c>
       <c r="E182">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F182">
         <v>2</v>
       </c>
       <c r="G182">
-        <v>7030</v>
+        <v>7040</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8446,26 +8514,26 @@
     </row>
     <row r="183" customFormat="1" spans="1:10">
       <c r="A183">
-        <v>7032</v>
+        <v>7050</v>
       </c>
       <c r="B183">
-        <v>7032</v>
+        <v>7050</v>
       </c>
       <c r="C183" t="str">
         <f>INDEX(TextData!B:B,MATCH(B183,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>覚醒前の敵</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>7030</v>
+        <v>7050</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -8479,29 +8547,29 @@
     </row>
     <row r="184" customFormat="1" spans="1:10">
       <c r="A184">
-        <v>7040</v>
+        <v>7051</v>
       </c>
       <c r="B184">
-        <v>7040</v>
+        <v>7051</v>
       </c>
       <c r="C184" t="str">
         <f>INDEX(TextData!B:B,MATCH(B184,TextData!A:A))</f>
-        <v>覚醒状態の味方</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>7040</v>
+        <v>7050</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -8512,29 +8580,29 @@
     </row>
     <row r="185" customFormat="1" spans="1:10">
       <c r="A185">
-        <v>7041</v>
+        <v>7052</v>
       </c>
       <c r="B185">
-        <v>7041</v>
+        <v>7052</v>
       </c>
       <c r="C185" t="str">
         <f>INDEX(TextData!B:B,MATCH(B185,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D185">
         <v>6</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>7040</v>
+        <v>7050</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -8545,26 +8613,26 @@
     </row>
     <row r="186" customFormat="1" spans="1:10">
       <c r="A186">
-        <v>7042</v>
+        <v>7060</v>
       </c>
       <c r="B186">
-        <v>7042</v>
+        <v>7060</v>
       </c>
       <c r="C186" t="str">
         <f>INDEX(TextData!B:B,MATCH(B186,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="blue"&gt;味方&lt;/color&gt;を優先</v>
+        <v>覚醒状態の敵</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>7040</v>
+        <v>7060</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -8578,29 +8646,29 @@
     </row>
     <row r="187" customFormat="1" spans="1:10">
       <c r="A187">
-        <v>7050</v>
+        <v>7061</v>
       </c>
       <c r="B187">
-        <v>7050</v>
+        <v>7061</v>
       </c>
       <c r="C187" t="str">
         <f>INDEX(TextData!B:B,MATCH(B187,TextData!A:A))</f>
-        <v>覚醒前の敵</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <v>7050</v>
+        <v>7060</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8611,29 +8679,29 @@
     </row>
     <row r="188" customFormat="1" spans="1:10">
       <c r="A188">
-        <v>7051</v>
+        <v>7062</v>
       </c>
       <c r="B188">
-        <v>7051</v>
+        <v>7062</v>
       </c>
       <c r="C188" t="str">
         <f>INDEX(TextData!B:B,MATCH(B188,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D188">
         <v>6</v>
       </c>
       <c r="E188">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188">
-        <v>7050</v>
+        <v>7060</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8642,28 +8710,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" customFormat="1" spans="1:10">
+    <row r="189" spans="1:10">
       <c r="A189">
-        <v>7052</v>
+        <v>8010</v>
       </c>
       <c r="B189">
-        <v>7052</v>
+        <v>8010</v>
       </c>
       <c r="C189" t="str">
         <f>INDEX(TextData!B:B,MATCH(B189,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態ではない&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>味方より敵が多い</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>7050</v>
+        <v>8010</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8675,16 +8743,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" customFormat="1" spans="1:10">
+    <row r="190" spans="1:10">
       <c r="A190">
-        <v>7060</v>
+        <v>8020</v>
       </c>
       <c r="B190">
-        <v>7060</v>
+        <v>8020</v>
       </c>
       <c r="C190" t="str">
         <f>INDEX(TextData!B:B,MATCH(B190,TextData!A:A))</f>
-        <v>覚醒状態の敵</v>
+        <v>味方より敵が少ない</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8696,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>7060</v>
+        <v>8020</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8710,29 +8778,29 @@
     </row>
     <row r="191" customFormat="1" spans="1:10">
       <c r="A191">
-        <v>7061</v>
+        <v>8030</v>
       </c>
       <c r="B191">
-        <v>7061</v>
+        <v>8030</v>
       </c>
       <c r="C191" t="str">
         <f>INDEX(TextData!B:B,MATCH(B191,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;を優先</v>
+        <v>味方の数が〇以上</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>7060</v>
+        <v>8030</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -8743,29 +8811,29 @@
     </row>
     <row r="192" customFormat="1" spans="1:10">
       <c r="A192">
-        <v>7062</v>
+        <v>8031</v>
       </c>
       <c r="B192">
-        <v>7062</v>
+        <v>8031</v>
       </c>
       <c r="C192" t="str">
         <f>INDEX(TextData!B:B,MATCH(B192,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;覚醒&lt;/color&gt;状態の&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G192">
-        <v>7060</v>
+        <v>8030</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8774,31 +8842,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" customFormat="1" spans="1:10">
       <c r="A193">
-        <v>8010</v>
+        <v>8032</v>
       </c>
       <c r="B193">
-        <v>8010</v>
+        <v>8032</v>
       </c>
       <c r="C193" t="str">
         <f>INDEX(TextData!B:B,MATCH(B193,TextData!A:A))</f>
-        <v>味方より敵が多い</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G193">
-        <v>8010</v>
+        <v>8030</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8807,31 +8875,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" customFormat="1" spans="1:10">
       <c r="A194">
-        <v>8020</v>
+        <v>8033</v>
       </c>
       <c r="B194">
-        <v>8020</v>
+        <v>8033</v>
       </c>
       <c r="C194" t="str">
         <f>INDEX(TextData!B:B,MATCH(B194,TextData!A:A))</f>
-        <v>味方より敵が少ない</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G194">
-        <v>8020</v>
+        <v>8030</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8842,29 +8910,29 @@
     </row>
     <row r="195" customFormat="1" spans="1:10">
       <c r="A195">
-        <v>8030</v>
+        <v>8034</v>
       </c>
       <c r="B195">
-        <v>8030</v>
+        <v>8034</v>
       </c>
       <c r="C195" t="str">
         <f>INDEX(TextData!B:B,MATCH(B195,TextData!A:A))</f>
-        <v>味方の数が〇以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G195">
         <v>8030</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8875,29 +8943,29 @@
     </row>
     <row r="196" customFormat="1" spans="1:10">
       <c r="A196">
-        <v>8031</v>
+        <v>8040</v>
       </c>
       <c r="B196">
-        <v>8031</v>
+        <v>8040</v>
       </c>
       <c r="C196" t="str">
         <f>INDEX(TextData!B:B,MATCH(B196,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
+        <v>味方の数が〇以下</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>8030</v>
+        <v>8040</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8906,31 +8974,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" customFormat="1" spans="1:10">
+    <row r="197" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A197">
-        <v>8032</v>
+        <v>8041</v>
       </c>
       <c r="B197">
-        <v>8032</v>
+        <v>8041</v>
       </c>
       <c r="C197" t="str">
         <f>INDEX(TextData!B:B,MATCH(B197,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D197">
         <v>8</v>
       </c>
       <c r="E197">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F197">
         <v>-1</v>
       </c>
       <c r="G197">
-        <v>8030</v>
+        <v>8040</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8939,31 +9007,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="1" spans="1:10">
+    <row r="198" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A198">
-        <v>8033</v>
+        <v>8042</v>
       </c>
       <c r="B198">
-        <v>8033</v>
+        <v>8042</v>
       </c>
       <c r="C198" t="str">
         <f>INDEX(TextData!B:B,MATCH(B198,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D198">
         <v>8</v>
       </c>
       <c r="E198">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F198">
         <v>-1</v>
       </c>
       <c r="G198">
-        <v>8030</v>
+        <v>8040</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -8972,31 +9040,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" customFormat="1" spans="1:10">
+    <row r="199" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A199">
-        <v>8034</v>
+        <v>8043</v>
       </c>
       <c r="B199">
-        <v>8034</v>
+        <v>8043</v>
       </c>
       <c r="C199" t="str">
         <f>INDEX(TextData!B:B,MATCH(B199,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D199">
         <v>8</v>
       </c>
       <c r="E199">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F199">
         <v>-1</v>
       </c>
       <c r="G199">
-        <v>8030</v>
+        <v>8040</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -9005,31 +9073,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" customFormat="1" spans="1:10">
+    <row r="200" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A200">
-        <v>8040</v>
+        <v>8044</v>
       </c>
       <c r="B200">
-        <v>8040</v>
+        <v>8044</v>
       </c>
       <c r="C200" t="str">
         <f>INDEX(TextData!B:B,MATCH(B200,TextData!A:A))</f>
-        <v>味方の数が〇以下</v>
+        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G200">
         <v>8040</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -9038,31 +9106,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="201" customFormat="1" spans="1:10">
       <c r="A201">
-        <v>8041</v>
+        <v>8050</v>
       </c>
       <c r="B201">
-        <v>8041</v>
+        <v>8050</v>
       </c>
       <c r="C201" t="str">
         <f>INDEX(TextData!B:B,MATCH(B201,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
+        <v>敵の数が〇以上</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>8040</v>
+        <v>8050</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -9071,28 +9139,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="202" customFormat="1" spans="1:10">
       <c r="A202">
-        <v>8042</v>
+        <v>8051</v>
       </c>
       <c r="B202">
-        <v>8042</v>
+        <v>8051</v>
       </c>
       <c r="C202" t="str">
         <f>INDEX(TextData!B:B,MATCH(B202,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
       </c>
       <c r="D202">
         <v>8</v>
       </c>
       <c r="E202">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F202">
         <v>-1</v>
       </c>
       <c r="G202">
-        <v>8040</v>
+        <v>8050</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -9104,28 +9172,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="203" customFormat="1" spans="1:10">
       <c r="A203">
-        <v>8043</v>
+        <v>8052</v>
       </c>
       <c r="B203">
-        <v>8043</v>
+        <v>8052</v>
       </c>
       <c r="C203" t="str">
         <f>INDEX(TextData!B:B,MATCH(B203,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
       </c>
       <c r="D203">
         <v>8</v>
       </c>
       <c r="E203">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F203">
         <v>-1</v>
       </c>
       <c r="G203">
-        <v>8040</v>
+        <v>8050</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -9137,28 +9205,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="204" customFormat="1" spans="1:10">
       <c r="A204">
-        <v>8044</v>
+        <v>8053</v>
       </c>
       <c r="B204">
-        <v>8044</v>
+        <v>8053</v>
       </c>
       <c r="C204" t="str">
         <f>INDEX(TextData!B:B,MATCH(B204,TextData!A:A))</f>
-        <v>&lt;color="blue"&gt;味方&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
       </c>
       <c r="D204">
         <v>8</v>
       </c>
       <c r="E204">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F204">
         <v>-1</v>
       </c>
       <c r="G204">
-        <v>8040</v>
+        <v>8050</v>
       </c>
       <c r="H204">
         <v>4</v>
@@ -9172,29 +9240,29 @@
     </row>
     <row r="205" customFormat="1" spans="1:10">
       <c r="A205">
-        <v>8050</v>
+        <v>8054</v>
       </c>
       <c r="B205">
-        <v>8050</v>
+        <v>8054</v>
       </c>
       <c r="C205" t="str">
         <f>INDEX(TextData!B:B,MATCH(B205,TextData!A:A))</f>
-        <v>敵の数が〇以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G205">
         <v>8050</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -9205,29 +9273,29 @@
     </row>
     <row r="206" customFormat="1" spans="1:10">
       <c r="A206">
-        <v>8051</v>
+        <v>8060</v>
       </c>
       <c r="B206">
-        <v>8051</v>
+        <v>8060</v>
       </c>
       <c r="C206" t="str">
         <f>INDEX(TextData!B:B,MATCH(B206,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以上</v>
+        <v>敵の数が〇以下</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>8050</v>
+        <v>8060</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -9236,31 +9304,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" customFormat="1" spans="1:10">
+    <row r="207" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A207">
-        <v>8052</v>
+        <v>8061</v>
       </c>
       <c r="B207">
-        <v>8052</v>
+        <v>8061</v>
       </c>
       <c r="C207" t="str">
         <f>INDEX(TextData!B:B,MATCH(B207,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
       </c>
       <c r="D207">
         <v>8</v>
       </c>
       <c r="E207">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F207">
         <v>-1</v>
       </c>
       <c r="G207">
-        <v>8050</v>
+        <v>8060</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -9269,31 +9337,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="1" spans="1:10">
+    <row r="208" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A208">
-        <v>8053</v>
+        <v>8062</v>
       </c>
       <c r="B208">
-        <v>8053</v>
+        <v>8062</v>
       </c>
       <c r="C208" t="str">
         <f>INDEX(TextData!B:B,MATCH(B208,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
       </c>
       <c r="D208">
         <v>8</v>
       </c>
       <c r="E208">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F208">
         <v>-1</v>
       </c>
       <c r="G208">
-        <v>8050</v>
+        <v>8060</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -9302,31 +9370,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" customFormat="1" spans="1:10">
+    <row r="209" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A209">
-        <v>8054</v>
+        <v>8063</v>
       </c>
       <c r="B209">
-        <v>8054</v>
+        <v>8063</v>
       </c>
       <c r="C209" t="str">
         <f>INDEX(TextData!B:B,MATCH(B209,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;5体&lt;/color&gt;以上</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
       </c>
       <c r="D209">
         <v>8</v>
       </c>
       <c r="E209">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F209">
         <v>-1</v>
       </c>
       <c r="G209">
-        <v>8050</v>
+        <v>8060</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -9335,31 +9403,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" customFormat="1" spans="1:10">
+    <row r="210" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A210">
-        <v>8060</v>
+        <v>8064</v>
       </c>
       <c r="B210">
-        <v>8060</v>
+        <v>8064</v>
       </c>
       <c r="C210" t="str">
         <f>INDEX(TextData!B:B,MATCH(B210,TextData!A:A))</f>
-        <v>敵の数が〇以下</v>
+        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G210">
         <v>8060</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9368,31 +9436,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="211" ht="12" customHeight="1" spans="1:10">
       <c r="A211">
-        <v>8061</v>
+        <v>9010</v>
       </c>
       <c r="B211">
-        <v>8061</v>
+        <v>9010</v>
       </c>
       <c r="C211" t="str">
         <f>INDEX(TextData!B:B,MATCH(B211,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;1体&lt;/color&gt;以下</v>
+        <v>ターン数が〇以内</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>8060</v>
+        <v>9010</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -9403,29 +9471,29 @@
     </row>
     <row r="212" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A212">
-        <v>8062</v>
+        <v>9020</v>
       </c>
       <c r="B212">
-        <v>8062</v>
+        <v>9020</v>
       </c>
       <c r="C212" t="str">
         <f>INDEX(TextData!B:B,MATCH(B212,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;2体&lt;/color&gt;以下</v>
+        <v>ターン数が〇</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>8060</v>
+        <v>9020</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9436,29 +9504,29 @@
     </row>
     <row r="213" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A213">
-        <v>8063</v>
+        <v>9021</v>
       </c>
       <c r="B213">
-        <v>8063</v>
+        <v>9021</v>
       </c>
       <c r="C213" t="str">
         <f>INDEX(TextData!B:B,MATCH(B213,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;3体&lt;/color&gt;以下</v>
+        <v>&lt;color="green"&gt;1行動&lt;/color&gt;目</v>
       </c>
       <c r="D213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F213">
         <v>-1</v>
       </c>
       <c r="G213">
-        <v>8060</v>
+        <v>9020</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9469,29 +9537,29 @@
     </row>
     <row r="214" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A214">
-        <v>8064</v>
+        <v>9022</v>
       </c>
       <c r="B214">
-        <v>8064</v>
+        <v>9022</v>
       </c>
       <c r="C214" t="str">
         <f>INDEX(TextData!B:B,MATCH(B214,TextData!A:A))</f>
-        <v>&lt;color="red"&gt;敵&lt;/color&gt;が&lt;color="green"&gt;4体&lt;/color&gt;以下</v>
+        <v>&lt;color="green"&gt;2行動&lt;/color&gt;目</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F214">
         <v>-1</v>
       </c>
       <c r="G214">
-        <v>8060</v>
+        <v>9020</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -9500,31 +9568,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" ht="12" customHeight="1" spans="1:10">
+    <row r="215" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A215">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="B215">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="C215" t="str">
         <f>INDEX(TextData!B:B,MATCH(B215,TextData!A:A))</f>
-        <v>ターン数が〇以内</v>
+        <v>&lt;color="green"&gt;3行動&lt;/color&gt;目</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G215">
-        <v>9010</v>
+        <v>9020</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -9535,29 +9603,29 @@
     </row>
     <row r="216" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A216">
-        <v>9020</v>
+        <v>9024</v>
       </c>
       <c r="B216">
-        <v>9020</v>
+        <v>9024</v>
       </c>
       <c r="C216" t="str">
         <f>INDEX(TextData!B:B,MATCH(B216,TextData!A:A))</f>
-        <v>ターン数が〇</v>
+        <v>&lt;color="green"&gt;4行動&lt;/color&gt;目</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G216">
         <v>9020</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -9568,20 +9636,20 @@
     </row>
     <row r="217" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A217">
-        <v>9021</v>
+        <v>9025</v>
       </c>
       <c r="B217">
-        <v>9021</v>
+        <v>9025</v>
       </c>
       <c r="C217" t="str">
         <f>INDEX(TextData!B:B,MATCH(B217,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;1行動&lt;/color&gt;目</v>
+        <v>&lt;color="green"&gt;5行動&lt;/color&gt;目</v>
       </c>
       <c r="D217">
         <v>9</v>
       </c>
       <c r="E217">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F217">
         <v>-1</v>
@@ -9590,7 +9658,7 @@
         <v>9020</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -9599,31 +9667,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="218" ht="12" customHeight="1" spans="1:10">
       <c r="A218">
-        <v>9022</v>
+        <v>9030</v>
       </c>
       <c r="B218">
-        <v>9022</v>
+        <v>9030</v>
       </c>
       <c r="C218" t="str">
         <f>INDEX(TextData!B:B,MATCH(B218,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;2行動&lt;/color&gt;目</v>
+        <v>ターン数がparam1 x ターン数 + param2</v>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>9020</v>
+        <v>9030</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -9634,29 +9702,29 @@
     </row>
     <row r="219" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A219">
-        <v>9023</v>
+        <v>9031</v>
       </c>
       <c r="B219">
-        <v>9023</v>
+        <v>9031</v>
       </c>
       <c r="C219" t="str">
         <f>INDEX(TextData!B:B,MATCH(B219,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;3行動&lt;/color&gt;目</v>
+        <v>&lt;color="green"&gt;2行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D219">
         <v>9</v>
       </c>
       <c r="E219">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F219">
         <v>-1</v>
       </c>
       <c r="G219">
-        <v>9020</v>
+        <v>9030</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -9667,29 +9735,29 @@
     </row>
     <row r="220" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A220">
-        <v>9024</v>
+        <v>9032</v>
       </c>
       <c r="B220">
-        <v>9024</v>
+        <v>9032</v>
       </c>
       <c r="C220" t="str">
         <f>INDEX(TextData!B:B,MATCH(B220,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;4行動&lt;/color&gt;目</v>
+        <v>&lt;color="green"&gt;3行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D220">
         <v>9</v>
       </c>
       <c r="E220">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F220">
         <v>-1</v>
       </c>
       <c r="G220">
-        <v>9020</v>
+        <v>9030</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -9700,29 +9768,29 @@
     </row>
     <row r="221" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A221">
-        <v>9025</v>
+        <v>9033</v>
       </c>
       <c r="B221">
-        <v>9025</v>
+        <v>9033</v>
       </c>
       <c r="C221" t="str">
         <f>INDEX(TextData!B:B,MATCH(B221,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;5行動&lt;/color&gt;目</v>
+        <v>&lt;color="green"&gt;4行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D221">
         <v>9</v>
       </c>
       <c r="E221">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F221">
         <v>-1</v>
       </c>
       <c r="G221">
-        <v>9020</v>
+        <v>9030</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -9731,31 +9799,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" ht="12" customHeight="1" spans="1:10">
+    <row r="222" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A222">
-        <v>9030</v>
+        <v>9034</v>
       </c>
       <c r="B222">
-        <v>9030</v>
+        <v>9034</v>
       </c>
       <c r="C222" t="str">
         <f>INDEX(TextData!B:B,MATCH(B222,TextData!A:A))</f>
-        <v>ターン数がparam1 x ターン数 + param2</v>
+        <v>&lt;color="green"&gt;5行動&lt;/color&gt;間隔</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G222">
         <v>9030</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -9764,31 +9832,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="223" spans="1:10">
       <c r="A223">
-        <v>9031</v>
+        <v>9040</v>
       </c>
       <c r="B223">
-        <v>9031</v>
+        <v>9040</v>
       </c>
       <c r="C223" t="str">
         <f>INDEX(TextData!B:B,MATCH(B223,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;2行動&lt;/color&gt;間隔</v>
+        <v>全体の行動数がparam1 x 行動数 + param2</v>
       </c>
       <c r="D223">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>9030</v>
+        <v>9040</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -9799,29 +9867,29 @@
     </row>
     <row r="224" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A224">
-        <v>9032</v>
+        <v>9110</v>
       </c>
       <c r="B224">
-        <v>9032</v>
+        <v>9110</v>
       </c>
       <c r="C224" t="str">
         <f>INDEX(TextData!B:B,MATCH(B224,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;3行動&lt;/color&gt;間隔</v>
+        <v>自身</v>
       </c>
       <c r="D224">
         <v>9</v>
       </c>
       <c r="E224">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F224">
         <v>-1</v>
       </c>
       <c r="G224">
-        <v>9030</v>
+        <v>9110</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -9832,29 +9900,29 @@
     </row>
     <row r="225" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A225">
-        <v>9033</v>
+        <v>9120</v>
       </c>
       <c r="B225">
-        <v>9033</v>
+        <v>9120</v>
       </c>
       <c r="C225" t="str">
         <f>INDEX(TextData!B:B,MATCH(B225,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;4行動&lt;/color&gt;間隔</v>
+        <v>自身以外</v>
       </c>
       <c r="D225">
         <v>9</v>
       </c>
       <c r="E225">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F225">
         <v>-1</v>
       </c>
       <c r="G225">
-        <v>9030</v>
+        <v>9120</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -9863,31 +9931,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="226" spans="1:10">
       <c r="A226">
-        <v>9034</v>
+        <v>10010</v>
       </c>
       <c r="B226">
-        <v>9034</v>
+        <v>10010</v>
       </c>
       <c r="C226" t="str">
         <f>INDEX(TextData!B:B,MATCH(B226,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;5行動&lt;/color&gt;間隔</v>
+        <v>攻撃成功時〇%で</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E226">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>9030</v>
+        <v>10010</v>
       </c>
       <c r="H226">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -9898,14 +9966,14 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>9040</v>
+        <v>10020</v>
       </c>
       <c r="B227">
-        <v>9040</v>
+        <v>10020</v>
       </c>
       <c r="C227" t="str">
         <f>INDEX(TextData!B:B,MATCH(B227,TextData!A:A))</f>
-        <v>全体の行動数がparam1 x 行動数 + param2</v>
+        <v>〇%で</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -9917,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="G227">
-        <v>9040</v>
+        <v>10020</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -9929,28 +9997,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="228" spans="1:10">
       <c r="A228">
-        <v>9110</v>
+        <v>11010</v>
       </c>
       <c r="B228">
-        <v>9110</v>
+        <v>11010</v>
       </c>
       <c r="C228" t="str">
         <f>INDEX(TextData!B:B,MATCH(B228,TextData!A:A))</f>
-        <v>自身</v>
+        <v>バトル中使用回数が〇以下</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>9110</v>
+        <v>11010</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -9962,28 +10030,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="229" spans="1:10">
       <c r="A229">
-        <v>9120</v>
+        <v>12020</v>
       </c>
       <c r="B229">
-        <v>9120</v>
+        <v>12020</v>
       </c>
       <c r="C229" t="str">
         <f>INDEX(TextData!B:B,MATCH(B229,TextData!A:A))</f>
-        <v>自身以外</v>
+        <v>Lvが〇以上</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>9120</v>
+        <v>12020</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -9997,14 +10065,14 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>10010</v>
+        <v>12030</v>
       </c>
       <c r="B230">
-        <v>10010</v>
+        <v>12030</v>
       </c>
       <c r="C230" t="str">
         <f>INDEX(TextData!B:B,MATCH(B230,TextData!A:A))</f>
-        <v>攻撃成功時〇%で</v>
+        <v>行動Magicの消費Mpが〇</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10016,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="G230">
-        <v>10010</v>
+        <v>12030</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -10030,14 +10098,14 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>10020</v>
+        <v>12040</v>
       </c>
       <c r="B231">
-        <v>10020</v>
+        <v>12040</v>
       </c>
       <c r="C231" t="str">
         <f>INDEX(TextData!B:B,MATCH(B231,TextData!A:A))</f>
-        <v>〇%で</v>
+        <v>攻撃を受けた対象のHpが〇%以下</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10049,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>10020</v>
+        <v>12040</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -10063,14 +10131,14 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>11010</v>
+        <v>12050</v>
       </c>
       <c r="B232">
-        <v>11010</v>
+        <v>12050</v>
       </c>
       <c r="C232" t="str">
         <f>INDEX(TextData!B:B,MATCH(B232,TextData!A:A))</f>
-        <v>バトル中使用回数が〇以下</v>
+        <v>1回の攻撃で〇ダメージ以上受ける</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10082,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="G232">
-        <v>11010</v>
+        <v>12050</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -10094,16 +10162,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" customFormat="1" spans="1:10">
       <c r="A233">
-        <v>12020</v>
+        <v>13010</v>
       </c>
       <c r="B233">
-        <v>12020</v>
+        <v>13010</v>
       </c>
       <c r="C233" t="str">
         <f>INDEX(TextData!B:B,MATCH(B233,TextData!A:A))</f>
-        <v>Lvが〇以上</v>
+        <v>〇のKindを持っている味方</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10115,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="G233">
-        <v>12020</v>
+        <v>13010</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -10127,16 +10195,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" customFormat="1" spans="1:10">
       <c r="A234">
-        <v>12030</v>
+        <v>13020</v>
       </c>
       <c r="B234">
-        <v>12030</v>
+        <v>13020</v>
       </c>
       <c r="C234" t="str">
         <f>INDEX(TextData!B:B,MATCH(B234,TextData!A:A))</f>
-        <v>行動Magicの消費Mpが〇</v>
+        <v>〇のKindを持っている敵</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10148,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G234">
-        <v>12030</v>
+        <v>13020</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -10160,67 +10228,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" customFormat="1" spans="1:10">
       <c r="A235">
-        <v>12040</v>
+        <v>13021</v>
       </c>
       <c r="B235">
-        <v>12040</v>
+        <v>13021</v>
       </c>
       <c r="C235" t="str">
         <f>INDEX(TextData!B:B,MATCH(B235,TextData!A:A))</f>
-        <v>攻撃を受けた対象のHpが〇%以下</v>
+        <v>汎用敵を優先</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>12040</v>
+        <v>13020</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" customFormat="1" spans="1:10">
       <c r="A236">
-        <v>12050</v>
+        <v>13022</v>
       </c>
       <c r="B236">
-        <v>12050</v>
+        <v>13022</v>
       </c>
       <c r="C236" t="str">
         <f>INDEX(TextData!B:B,MATCH(B236,TextData!A:A))</f>
-        <v>1回の攻撃で〇ダメージ以上受ける</v>
+        <v>ボスを優先</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>12050</v>
+        <v>13020</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -10228,32 +10296,32 @@
     </row>
     <row r="237" customFormat="1" spans="1:10">
       <c r="A237">
-        <v>13010</v>
+        <v>13023</v>
       </c>
       <c r="B237">
-        <v>13010</v>
+        <v>13023</v>
       </c>
       <c r="C237" t="str">
         <f>INDEX(TextData!B:B,MATCH(B237,TextData!A:A))</f>
-        <v>〇のKindを持っている味方</v>
+        <v>アンデッドを優先</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>13010</v>
+        <v>13020</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -10261,32 +10329,32 @@
     </row>
     <row r="238" customFormat="1" spans="1:10">
       <c r="A238">
-        <v>13020</v>
+        <v>13024</v>
       </c>
       <c r="B238">
-        <v>13020</v>
+        <v>13024</v>
       </c>
       <c r="C238" t="str">
         <f>INDEX(TextData!B:B,MATCH(B238,TextData!A:A))</f>
-        <v>〇のKindを持っている敵</v>
+        <v>飛行を優先</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <v>13020</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -10294,20 +10362,20 @@
     </row>
     <row r="239" customFormat="1" spans="1:10">
       <c r="A239">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="B239">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="C239" t="str">
         <f>INDEX(TextData!B:B,MATCH(B239,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)を優先</v>
+        <v>クリーチャーを優先</v>
       </c>
       <c r="D239">
         <v>2</v>
       </c>
       <c r="E239">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -10316,7 +10384,7 @@
         <v>13020</v>
       </c>
       <c r="H239">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -10327,20 +10395,20 @@
     </row>
     <row r="240" customFormat="1" spans="1:10">
       <c r="A240">
-        <v>13022</v>
+        <v>13026</v>
       </c>
       <c r="B240">
-        <v>13022</v>
+        <v>13026</v>
       </c>
       <c r="C240" t="str">
         <f>INDEX(TextData!B:B,MATCH(B240,TextData!A:A))</f>
-        <v>ボス(悪魔)を優先</v>
+        <v>野生を優先</v>
       </c>
       <c r="D240">
         <v>2</v>
       </c>
       <c r="E240">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -10349,7 +10417,7 @@
         <v>13020</v>
       </c>
       <c r="H240">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -10360,20 +10428,20 @@
     </row>
     <row r="241" customFormat="1" spans="1:10">
       <c r="A241">
-        <v>13023</v>
+        <v>13027</v>
       </c>
       <c r="B241">
-        <v>13023</v>
+        <v>13027</v>
       </c>
       <c r="C241" t="str">
         <f>INDEX(TextData!B:B,MATCH(B241,TextData!A:A))</f>
-        <v>アンデッドを優先</v>
+        <v>変異生物を優先</v>
       </c>
       <c r="D241">
         <v>2</v>
       </c>
       <c r="E241">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -10382,7 +10450,7 @@
         <v>13020</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -10393,20 +10461,20 @@
     </row>
     <row r="242" customFormat="1" spans="1:10">
       <c r="A242">
-        <v>13026</v>
+        <v>13031</v>
       </c>
       <c r="B242">
-        <v>13026</v>
+        <v>13031</v>
       </c>
       <c r="C242" t="str">
         <f>INDEX(TextData!B:B,MATCH(B242,TextData!A:A))</f>
-        <v>汎用敵(クリーチャー)</v>
+        <v>汎用敵</v>
       </c>
       <c r="D242">
         <v>2</v>
       </c>
       <c r="E242">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -10426,20 +10494,20 @@
     </row>
     <row r="243" customFormat="1" spans="1:10">
       <c r="A243">
-        <v>13027</v>
+        <v>13032</v>
       </c>
       <c r="B243">
-        <v>13027</v>
+        <v>13032</v>
       </c>
       <c r="C243" t="str">
         <f>INDEX(TextData!B:B,MATCH(B243,TextData!A:A))</f>
-        <v>ボス(悪魔)</v>
+        <v>ボス</v>
       </c>
       <c r="D243">
         <v>2</v>
       </c>
       <c r="E243">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -10459,10 +10527,10 @@
     </row>
     <row r="244" customFormat="1" spans="1:10">
       <c r="A244">
-        <v>13028</v>
+        <v>13033</v>
       </c>
       <c r="B244">
-        <v>13028</v>
+        <v>13033</v>
       </c>
       <c r="C244" t="str">
         <f>INDEX(TextData!B:B,MATCH(B244,TextData!A:A))</f>
@@ -10472,7 +10540,7 @@
         <v>2</v>
       </c>
       <c r="E244">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -10490,31 +10558,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" customFormat="1" spans="1:10">
+    <row r="245" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A245">
-        <v>14010</v>
+        <v>13034</v>
       </c>
       <c r="B245">
-        <v>14010</v>
+        <v>13034</v>
       </c>
       <c r="C245" t="str">
         <f>INDEX(TextData!B:B,MATCH(B245,TextData!A:A))</f>
-        <v>ステータスの高い味方</v>
+        <v>飛行</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -10523,100 +10591,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" customFormat="1" spans="1:10">
+    <row r="246" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A246">
-        <v>14011</v>
+        <v>13035</v>
       </c>
       <c r="B246">
-        <v>14011</v>
+        <v>13035</v>
       </c>
       <c r="C246" t="str">
         <f>INDEX(TextData!B:B,MATCH(B246,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>クリーチャー</v>
       </c>
       <c r="D246">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G246">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" customFormat="1" spans="1:10">
+    <row r="247" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A247">
-        <v>14012</v>
+        <v>13036</v>
       </c>
       <c r="B247">
-        <v>14012</v>
+        <v>13036</v>
       </c>
       <c r="C247" t="str">
         <f>INDEX(TextData!B:B,MATCH(B247,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>野生</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G247">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" customFormat="1" spans="1:10">
+    <row r="248" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A248">
-        <v>14013</v>
+        <v>13037</v>
       </c>
       <c r="B248">
-        <v>14013</v>
+        <v>13037</v>
       </c>
       <c r="C248" t="str">
         <f>INDEX(TextData!B:B,MATCH(B248,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>変異生物</v>
       </c>
       <c r="D248">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G248">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -10624,32 +10692,32 @@
     </row>
     <row r="249" customFormat="1" spans="1:10">
       <c r="A249">
-        <v>14014</v>
+        <v>14010</v>
       </c>
       <c r="B249">
-        <v>14014</v>
+        <v>14010</v>
       </c>
       <c r="C249" t="str">
         <f>INDEX(TextData!B:B,MATCH(B249,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>ステータスの高い味方</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G249">
         <v>14010</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -10657,20 +10725,20 @@
     </row>
     <row r="250" customFormat="1" spans="1:10">
       <c r="A250">
-        <v>14015</v>
+        <v>14011</v>
       </c>
       <c r="B250">
-        <v>14015</v>
+        <v>14011</v>
       </c>
       <c r="C250" t="str">
         <f>INDEX(TextData!B:B,MATCH(B250,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D250">
         <v>12</v>
       </c>
       <c r="E250">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -10679,7 +10747,7 @@
         <v>14010</v>
       </c>
       <c r="H250">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -10690,32 +10758,32 @@
     </row>
     <row r="251" customFormat="1" spans="1:10">
       <c r="A251">
-        <v>14110</v>
+        <v>14012</v>
       </c>
       <c r="B251">
-        <v>14110</v>
+        <v>14012</v>
       </c>
       <c r="C251" t="str">
         <f>INDEX(TextData!B:B,MATCH(B251,TextData!A:A))</f>
-        <v>ステータスの低い味方</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G251">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10723,29 +10791,29 @@
     </row>
     <row r="252" customFormat="1" spans="1:10">
       <c r="A252">
-        <v>14111</v>
+        <v>14013</v>
       </c>
       <c r="B252">
-        <v>14111</v>
+        <v>14013</v>
       </c>
       <c r="C252" t="str">
         <f>INDEX(TextData!B:B,MATCH(B252,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D252">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E252">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F252">
         <v>2</v>
       </c>
       <c r="G252">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -10756,29 +10824,29 @@
     </row>
     <row r="253" customFormat="1" spans="1:10">
       <c r="A253">
-        <v>14112</v>
+        <v>14014</v>
       </c>
       <c r="B253">
-        <v>14112</v>
+        <v>14014</v>
       </c>
       <c r="C253" t="str">
         <f>INDEX(TextData!B:B,MATCH(B253,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E253">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
       <c r="G253">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -10789,29 +10857,29 @@
     </row>
     <row r="254" customFormat="1" spans="1:10">
       <c r="A254">
-        <v>14113</v>
+        <v>14015</v>
       </c>
       <c r="B254">
-        <v>14113</v>
+        <v>14015</v>
       </c>
       <c r="C254" t="str">
         <f>INDEX(TextData!B:B,MATCH(B254,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D254">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F254">
         <v>2</v>
       </c>
       <c r="G254">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -10822,32 +10890,32 @@
     </row>
     <row r="255" customFormat="1" spans="1:10">
       <c r="A255">
-        <v>14114</v>
+        <v>14110</v>
       </c>
       <c r="B255">
-        <v>14114</v>
+        <v>14110</v>
       </c>
       <c r="C255" t="str">
         <f>INDEX(TextData!B:B,MATCH(B255,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>ステータスの低い味方</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>14110</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -10855,20 +10923,20 @@
     </row>
     <row r="256" customFormat="1" spans="1:10">
       <c r="A256">
-        <v>14115</v>
+        <v>14111</v>
       </c>
       <c r="B256">
-        <v>14115</v>
+        <v>14111</v>
       </c>
       <c r="C256" t="str">
         <f>INDEX(TextData!B:B,MATCH(B256,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D256">
         <v>13</v>
       </c>
       <c r="E256">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -10877,7 +10945,7 @@
         <v>14110</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -10888,32 +10956,32 @@
     </row>
     <row r="257" customFormat="1" spans="1:10">
       <c r="A257">
-        <v>14210</v>
+        <v>14112</v>
       </c>
       <c r="B257">
-        <v>14210</v>
+        <v>14112</v>
       </c>
       <c r="C257" t="str">
         <f>INDEX(TextData!B:B,MATCH(B257,TextData!A:A))</f>
-        <v>ステータスの高い敵</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G257">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -10921,29 +10989,29 @@
     </row>
     <row r="258" customFormat="1" spans="1:10">
       <c r="A258">
-        <v>14211</v>
+        <v>14113</v>
       </c>
       <c r="B258">
-        <v>14211</v>
+        <v>14113</v>
       </c>
       <c r="C258" t="str">
         <f>INDEX(TextData!B:B,MATCH(B258,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D258">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E258">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G258">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -10954,29 +11022,29 @@
     </row>
     <row r="259" customFormat="1" spans="1:10">
       <c r="A259">
-        <v>14212</v>
+        <v>14114</v>
       </c>
       <c r="B259">
-        <v>14212</v>
+        <v>14114</v>
       </c>
       <c r="C259" t="str">
         <f>INDEX(TextData!B:B,MATCH(B259,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G259">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -10987,29 +11055,29 @@
     </row>
     <row r="260" customFormat="1" spans="1:10">
       <c r="A260">
-        <v>14213</v>
+        <v>14115</v>
       </c>
       <c r="B260">
-        <v>14213</v>
+        <v>14115</v>
       </c>
       <c r="C260" t="str">
         <f>INDEX(TextData!B:B,MATCH(B260,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D260">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E260">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G260">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -11020,32 +11088,32 @@
     </row>
     <row r="261" customFormat="1" spans="1:10">
       <c r="A261">
-        <v>14214</v>
+        <v>14210</v>
       </c>
       <c r="B261">
-        <v>14214</v>
+        <v>14210</v>
       </c>
       <c r="C261" t="str">
         <f>INDEX(TextData!B:B,MATCH(B261,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>ステータスの高い敵</v>
       </c>
       <c r="D261">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261">
         <v>14210</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -11053,20 +11121,20 @@
     </row>
     <row r="262" customFormat="1" spans="1:10">
       <c r="A262">
-        <v>14215</v>
+        <v>14211</v>
       </c>
       <c r="B262">
-        <v>14215</v>
+        <v>14211</v>
       </c>
       <c r="C262" t="str">
         <f>INDEX(TextData!B:B,MATCH(B262,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D262">
         <v>12</v>
       </c>
       <c r="E262">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -11075,7 +11143,7 @@
         <v>14210</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -11086,32 +11154,32 @@
     </row>
     <row r="263" customFormat="1" spans="1:10">
       <c r="A263">
-        <v>14310</v>
+        <v>14212</v>
       </c>
       <c r="B263">
-        <v>14310</v>
+        <v>14212</v>
       </c>
       <c r="C263" t="str">
         <f>INDEX(TextData!B:B,MATCH(B263,TextData!A:A))</f>
-        <v>ステータスの低い敵</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -11119,29 +11187,29 @@
     </row>
     <row r="264" customFormat="1" spans="1:10">
       <c r="A264">
-        <v>14311</v>
+        <v>14213</v>
       </c>
       <c r="B264">
-        <v>14311</v>
+        <v>14213</v>
       </c>
       <c r="C264" t="str">
         <f>INDEX(TextData!B:B,MATCH(B264,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D264">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E264">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F264">
         <v>1</v>
       </c>
       <c r="G264">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -11152,29 +11220,29 @@
     </row>
     <row r="265" customFormat="1" spans="1:10">
       <c r="A265">
-        <v>14312</v>
+        <v>14214</v>
       </c>
       <c r="B265">
-        <v>14312</v>
+        <v>14214</v>
       </c>
       <c r="C265" t="str">
         <f>INDEX(TextData!B:B,MATCH(B265,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E265">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
       <c r="G265">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -11185,29 +11253,29 @@
     </row>
     <row r="266" customFormat="1" spans="1:10">
       <c r="A266">
-        <v>14313</v>
+        <v>14215</v>
       </c>
       <c r="B266">
-        <v>14313</v>
+        <v>14215</v>
       </c>
       <c r="C266" t="str">
         <f>INDEX(TextData!B:B,MATCH(B266,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D266">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E266">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
       <c r="G266">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -11218,32 +11286,32 @@
     </row>
     <row r="267" customFormat="1" spans="1:10">
       <c r="A267">
-        <v>14314</v>
+        <v>14310</v>
       </c>
       <c r="B267">
-        <v>14314</v>
+        <v>14310</v>
       </c>
       <c r="C267" t="str">
         <f>INDEX(TextData!B:B,MATCH(B267,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>ステータスの低い敵</v>
       </c>
       <c r="D267">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E267">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267">
         <v>14310</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11251,20 +11319,20 @@
     </row>
     <row r="268" customFormat="1" spans="1:10">
       <c r="A268">
-        <v>14315</v>
+        <v>14311</v>
       </c>
       <c r="B268">
-        <v>14315</v>
+        <v>14311</v>
       </c>
       <c r="C268" t="str">
         <f>INDEX(TextData!B:B,MATCH(B268,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D268">
         <v>13</v>
       </c>
       <c r="E268">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -11273,7 +11341,7 @@
         <v>14310</v>
       </c>
       <c r="H268">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -11282,133 +11350,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" customFormat="1" spans="1:10">
       <c r="A269">
-        <v>20010</v>
+        <v>14312</v>
       </c>
       <c r="B269">
-        <v>20010</v>
+        <v>14312</v>
       </c>
       <c r="C269" t="str">
         <f>INDEX(TextData!B:B,MATCH(B269,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
-        <v>20010</v>
+        <v>14310</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" customFormat="1" spans="1:10">
       <c r="A270">
-        <v>20020</v>
+        <v>14313</v>
       </c>
       <c r="B270">
-        <v>20020</v>
+        <v>14313</v>
       </c>
       <c r="C270" t="str">
         <f>INDEX(TextData!B:B,MATCH(B270,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270">
-        <v>20020</v>
+        <v>14310</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" customFormat="1" spans="1:10">
       <c r="A271">
-        <v>20030</v>
+        <v>14314</v>
       </c>
       <c r="B271">
-        <v>20030</v>
+        <v>14314</v>
       </c>
       <c r="C271" t="str">
         <f>INDEX(TextData!B:B,MATCH(B271,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
-        <v>20030</v>
+        <v>14310</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" customFormat="1" spans="1:10">
       <c r="A272">
-        <v>20040</v>
+        <v>14315</v>
       </c>
       <c r="B272">
-        <v>20040</v>
+        <v>14315</v>
       </c>
       <c r="C272" t="str">
         <f>INDEX(TextData!B:B,MATCH(B272,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
-        <v>20040</v>
+        <v>14310</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -11416,14 +11484,14 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>20050</v>
+        <v>20010</v>
       </c>
       <c r="B273">
-        <v>20050</v>
+        <v>20010</v>
       </c>
       <c r="C273" t="str">
         <f>INDEX(TextData!B:B,MATCH(B273,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>Mpを〇消費する</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11435,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="G273">
-        <v>20050</v>
+        <v>20010</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -11449,14 +11517,14 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>20060</v>
+        <v>20020</v>
       </c>
       <c r="B274">
-        <v>20060</v>
+        <v>20020</v>
       </c>
       <c r="C274" t="str">
         <f>INDEX(TextData!B:B,MATCH(B274,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>拘束3回成功</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -11468,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="G274">
-        <v>20060</v>
+        <v>20020</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -11482,14 +11550,14 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>20070</v>
+        <v>20030</v>
       </c>
       <c r="B275">
-        <v>20070</v>
+        <v>20030</v>
       </c>
       <c r="C275" t="str">
         <f>INDEX(TextData!B:B,MATCH(B275,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>攻撃で戦闘不能になる</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -11501,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <v>20070</v>
+        <v>20030</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -11515,14 +11583,14 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>20080</v>
+        <v>20040</v>
       </c>
       <c r="B276">
-        <v>20080</v>
+        <v>20040</v>
       </c>
       <c r="C276" t="str">
         <f>INDEX(TextData!B:B,MATCH(B276,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>自分以外が戦闘不能</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -11534,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="G276">
-        <v>20080</v>
+        <v>20040</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -11548,14 +11616,14 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>20090</v>
+        <v>20050</v>
       </c>
       <c r="B277">
-        <v>20090</v>
+        <v>20050</v>
       </c>
       <c r="C277" t="str">
         <f>INDEX(TextData!B:B,MATCH(B277,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>自身が戦闘不能になる</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -11567,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="G277">
-        <v>20090</v>
+        <v>20050</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -11581,14 +11649,14 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>20100</v>
+        <v>20060</v>
       </c>
       <c r="B278">
-        <v>20100</v>
+        <v>20060</v>
       </c>
       <c r="C278" t="str">
         <f>INDEX(TextData!B:B,MATCH(B278,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>攻撃を〇回受ける</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -11600,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="G278">
-        <v>20100</v>
+        <v>20060</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -11614,14 +11682,14 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>20110</v>
+        <v>20070</v>
       </c>
       <c r="B279">
-        <v>20110</v>
+        <v>20070</v>
       </c>
       <c r="C279" t="str">
         <f>INDEX(TextData!B:B,MATCH(B279,TextData!A:A))</f>
-        <v>味方に覚醒状態が〇以上</v>
+        <v>敵全員が呪い状態</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -11633,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="G279">
-        <v>20110</v>
+        <v>20070</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -11647,14 +11715,14 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>20120</v>
+        <v>20080</v>
       </c>
       <c r="B280">
-        <v>20120</v>
+        <v>20080</v>
       </c>
       <c r="C280" t="str">
         <f>INDEX(TextData!B:B,MATCH(B280,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が覚醒する</v>
+        <v>クリティカル攻撃を受ける</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -11666,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="G280">
-        <v>20120</v>
+        <v>20080</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -11680,14 +11748,14 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>20130</v>
+        <v>20090</v>
       </c>
       <c r="B281">
-        <v>20130</v>
+        <v>20090</v>
       </c>
       <c r="C281" t="str">
         <f>INDEX(TextData!B:B,MATCH(B281,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>回避を〇回行う</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -11699,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="G281">
-        <v>20130</v>
+        <v>20090</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -11713,14 +11781,14 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>20140</v>
+        <v>20100</v>
       </c>
       <c r="B282">
-        <v>20140</v>
+        <v>20100</v>
       </c>
       <c r="C282" t="str">
         <f>INDEX(TextData!B:B,MATCH(B282,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>回復効果魔法を〇回行う</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -11732,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="G282">
-        <v>20140</v>
+        <v>20100</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -11746,14 +11814,14 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>20150</v>
+        <v>20110</v>
       </c>
       <c r="B283">
-        <v>20150</v>
+        <v>20110</v>
       </c>
       <c r="C283" t="str">
         <f>INDEX(TextData!B:B,MATCH(B283,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>味方に覚醒状態が〇以上</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -11765,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="G283">
-        <v>20150</v>
+        <v>20110</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -11779,14 +11847,14 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>20160</v>
+        <v>20120</v>
       </c>
       <c r="B284">
-        <v>20160</v>
+        <v>20120</v>
       </c>
       <c r="C284" t="str">
         <f>INDEX(TextData!B:B,MATCH(B284,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>Demigod魔法の属性が〇の味方が覚醒する</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -11798,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="G284">
-        <v>20160</v>
+        <v>20120</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -11812,14 +11880,14 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>30010</v>
+        <v>20130</v>
       </c>
       <c r="B285">
-        <v>30010</v>
+        <v>20130</v>
       </c>
       <c r="C285" t="str">
         <f>INDEX(TextData!B:B,MATCH(B285,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>相手が状態異常を発動する</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -11831,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="G285">
-        <v>30010</v>
+        <v>20130</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -11845,34 +11913,166 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>30020</v>
+        <v>20140</v>
       </c>
       <c r="B286">
-        <v>30020</v>
+        <v>20140</v>
       </c>
       <c r="C286" t="str">
         <f>INDEX(TextData!B:B,MATCH(B286,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>20140</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="A287">
+        <v>20150</v>
+      </c>
+      <c r="B287">
+        <v>20150</v>
+      </c>
+      <c r="C287" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B287,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>20150</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288">
+        <v>20160</v>
+      </c>
+      <c r="B288">
+        <v>20160</v>
+      </c>
+      <c r="C288" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B288,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>20160</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289">
+        <v>30010</v>
+      </c>
+      <c r="B289">
+        <v>30010</v>
+      </c>
+      <c r="C289" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B289,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>30010</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290">
+        <v>30020</v>
+      </c>
+      <c r="B290">
+        <v>30020</v>
+      </c>
+      <c r="C290" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B290,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
         <v>30020</v>
       </c>
-      <c r="H286">
-        <v>0</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
-      <c r="J286">
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
         <v>0</v>
       </c>
     </row>
@@ -11886,10 +12086,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -14550,353 +14750,353 @@
         <v>389</v>
       </c>
     </row>
-    <row r="242" ht="26" spans="1:3">
+    <row r="242" spans="1:3">
       <c r="A242">
-        <v>13026</v>
+        <v>13024</v>
       </c>
       <c r="B242" t="s">
         <v>390</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="243" ht="26" spans="1:3">
+    <row r="243" spans="1:3">
       <c r="A243">
-        <v>13027</v>
+        <v>13025</v>
       </c>
       <c r="B243" t="s">
         <v>392</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="244" ht="26" spans="1:3">
+    <row r="244" spans="1:3">
       <c r="A244">
-        <v>13028</v>
+        <v>13025</v>
       </c>
       <c r="B244" t="s">
         <v>394</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>14010</v>
+        <v>13026</v>
       </c>
       <c r="B245" t="s">
         <v>396</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>14011</v>
+        <v>13027</v>
       </c>
       <c r="B246" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C246" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" ht="26" spans="1:3">
       <c r="A247">
-        <v>14012</v>
+        <v>13031</v>
       </c>
       <c r="B247" t="s">
-        <v>399</v>
-      </c>
-      <c r="C247" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="C247" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" ht="26" spans="1:3">
       <c r="A248">
-        <v>14013</v>
+        <v>13032</v>
       </c>
       <c r="B248" t="s">
-        <v>401</v>
-      </c>
-      <c r="C248" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="C248" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="249" ht="26" spans="1:3">
       <c r="A249">
-        <v>14014</v>
+        <v>13033</v>
       </c>
       <c r="B249" t="s">
-        <v>403</v>
-      </c>
-      <c r="C249" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="C249" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="250" ht="26" spans="1:3">
       <c r="A250">
-        <v>14015</v>
+        <v>13034</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
-      </c>
-      <c r="C250" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="C250" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="251" ht="26" spans="1:3">
       <c r="A251">
-        <v>14110</v>
+        <v>13035</v>
       </c>
       <c r="B251" t="s">
-        <v>407</v>
-      </c>
-      <c r="C251" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>408</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="252" ht="26" spans="1:3">
       <c r="A252">
-        <v>14111</v>
+        <v>13035</v>
       </c>
       <c r="B252" t="s">
-        <v>408</v>
-      </c>
-      <c r="C252" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>410</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="253" ht="26" spans="1:3">
       <c r="A253">
-        <v>14112</v>
+        <v>13036</v>
       </c>
       <c r="B253" t="s">
-        <v>410</v>
-      </c>
-      <c r="C253" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="254" ht="26" spans="1:3">
       <c r="A254">
-        <v>14113</v>
+        <v>13037</v>
       </c>
       <c r="B254" t="s">
-        <v>412</v>
-      </c>
-      <c r="C254" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>14114</v>
+        <v>14010</v>
       </c>
       <c r="B255" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C255" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>14115</v>
+        <v>14011</v>
       </c>
       <c r="B256" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C256" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>14210</v>
+        <v>14012</v>
       </c>
       <c r="B257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>14211</v>
+        <v>14013</v>
       </c>
       <c r="B258" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C258" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>14212</v>
+        <v>14014</v>
       </c>
       <c r="B259" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C259" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>14213</v>
+        <v>14015</v>
       </c>
       <c r="B260" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C260" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>14214</v>
+        <v>14110</v>
       </c>
       <c r="B261" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C261" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>14215</v>
+        <v>14111</v>
       </c>
       <c r="B262" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C262" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>14310</v>
+        <v>14112</v>
       </c>
       <c r="B263" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C263" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>14311</v>
+        <v>14113</v>
       </c>
       <c r="B264" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C264" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>14312</v>
+        <v>14114</v>
       </c>
       <c r="B265" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C265" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>14313</v>
+        <v>14115</v>
       </c>
       <c r="B266" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C266" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>14314</v>
+        <v>14210</v>
       </c>
       <c r="B267" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C267" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>14315</v>
+        <v>14211</v>
       </c>
       <c r="B268" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C268" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>20010</v>
+        <v>14212</v>
       </c>
       <c r="B269" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>20020</v>
+        <v>14213</v>
       </c>
       <c r="B270" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>20030</v>
+        <v>14214</v>
       </c>
       <c r="B271" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C271" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>20040</v>
+        <v>14215</v>
       </c>
       <c r="B272" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>20050</v>
+        <v>14310</v>
       </c>
       <c r="B273" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
@@ -14904,65 +15104,65 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>20060</v>
+        <v>14311</v>
       </c>
       <c r="B274" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>20070</v>
+        <v>14312</v>
       </c>
       <c r="B275" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>20080</v>
+        <v>14313</v>
       </c>
       <c r="B276" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C276" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>20090</v>
+        <v>14314</v>
       </c>
       <c r="B277" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C277" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>20100</v>
+        <v>14315</v>
       </c>
       <c r="B278" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>20110</v>
+        <v>20010</v>
       </c>
       <c r="B279" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C279" t="s">
         <v>12</v>
@@ -14970,10 +15170,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>20120</v>
+        <v>20020</v>
       </c>
       <c r="B280" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -14981,10 +15181,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>20130</v>
+        <v>20030</v>
       </c>
       <c r="B281" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -14992,10 +15192,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>20140</v>
+        <v>20040</v>
       </c>
       <c r="B282" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -15003,10 +15203,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>20150</v>
+        <v>20050</v>
       </c>
       <c r="B283" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
@@ -15014,10 +15214,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>20160</v>
+        <v>20060</v>
       </c>
       <c r="B284" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -15025,10 +15225,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>30010</v>
+        <v>20070</v>
       </c>
       <c r="B285" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
@@ -15036,12 +15236,122 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
+        <v>20080</v>
+      </c>
+      <c r="B286" t="s">
+        <v>457</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>20090</v>
+      </c>
+      <c r="B287" t="s">
+        <v>458</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>20100</v>
+      </c>
+      <c r="B288" t="s">
+        <v>459</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>20110</v>
+      </c>
+      <c r="B289" t="s">
+        <v>460</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>20120</v>
+      </c>
+      <c r="B290" t="s">
+        <v>461</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>20130</v>
+      </c>
+      <c r="B291" t="s">
+        <v>462</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>20140</v>
+      </c>
+      <c r="B292" t="s">
+        <v>463</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>20150</v>
+      </c>
+      <c r="B293" t="s">
+        <v>464</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>20160</v>
+      </c>
+      <c r="B294" t="s">
+        <v>465</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>30010</v>
+      </c>
+      <c r="B295" t="s">
+        <v>466</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
         <v>30020</v>
       </c>
-      <c r="B286" t="s">
-        <v>447</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="B296" t="s">
+        <v>467</v>
+      </c>
+      <c r="C296" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="490">
   <si>
     <t>Id</t>
   </si>
@@ -1322,7 +1322,7 @@
     <t>クリーチャーを優先します</t>
   </si>
   <si>
-    <t>野生を優先</t>
+    <t>野生動物を優先</t>
   </si>
   <si>
     <t>野生を優先します</t>
@@ -1376,7 +1376,7 @@
 該当する相手がいない場合、魔法を発動しません</t>
   </si>
   <si>
-    <t>野生</t>
+    <t>野生動物</t>
   </si>
   <si>
     <t>野生に限定します
@@ -1490,6 +1490,82 @@
   </si>
   <si>
     <t>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Sconeの攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>列攻撃されるとき</t>
+  </si>
+  <si>
+    <t>敵から列攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>全体攻撃されるとき</t>
+  </si>
+  <si>
+    <t>敵から全体攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Kindから攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>汎用敵から攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>汎用敵から攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ボスから攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>ボスから攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>アンデッドから攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>アンデッドから攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>飛行から攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>飛行から攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>悪魔から攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>悪魔から攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>クリーチャーから攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>クリーチャーから攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>野生動物から攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>野生動物から攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>変異生物から攻撃を受けるとき</t>
+  </si>
+  <si>
+    <t>変異生物から攻撃される場合にのみ、魔法を発動します
+&lt;color="red"&gt;条件を満たさない場合、魔法を発動しません&lt;/color&gt;</t>
   </si>
   <si>
     <t>Mpを〇消費する</t>
@@ -1551,9 +1627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -1566,13 +1642,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1580,16 +1649,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1600,18 +1678,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1622,9 +1709,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,41 +1740,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1687,14 +1757,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1703,7 +1765,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,6 +1791,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1730,7 +1866,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,31 +1926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +1938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,115 +1962,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,11 +1988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,11 +2018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1952,30 +2040,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1995,17 +2059,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2017,16 +2093,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2035,127 +2111,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2488,10 +2564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A173" sqref="$A173:$XFD173"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -10369,7 +10445,7 @@
       </c>
       <c r="C239" t="str">
         <f>INDEX(TextData!B:B,MATCH(B239,TextData!A:A))</f>
-        <v>クリーチャーを優先</v>
+        <v>悪魔を優先</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -10402,7 +10478,7 @@
       </c>
       <c r="C240" t="str">
         <f>INDEX(TextData!B:B,MATCH(B240,TextData!A:A))</f>
-        <v>野生を優先</v>
+        <v>クリーチャーを優先</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -10435,7 +10511,7 @@
       </c>
       <c r="C241" t="str">
         <f>INDEX(TextData!B:B,MATCH(B241,TextData!A:A))</f>
-        <v>変異生物を優先</v>
+        <v>野生動物を優先</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -10461,20 +10537,20 @@
     </row>
     <row r="242" customFormat="1" spans="1:10">
       <c r="A242">
-        <v>13031</v>
+        <v>13028</v>
       </c>
       <c r="B242">
-        <v>13031</v>
+        <v>13028</v>
       </c>
       <c r="C242" t="str">
         <f>INDEX(TextData!B:B,MATCH(B242,TextData!A:A))</f>
-        <v>汎用敵</v>
+        <v>変異生物を優先</v>
       </c>
       <c r="D242">
         <v>2</v>
       </c>
       <c r="E242">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -10483,10 +10559,10 @@
         <v>13020</v>
       </c>
       <c r="H242">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -10494,20 +10570,20 @@
     </row>
     <row r="243" customFormat="1" spans="1:10">
       <c r="A243">
-        <v>13032</v>
+        <v>13031</v>
       </c>
       <c r="B243">
-        <v>13032</v>
+        <v>13031</v>
       </c>
       <c r="C243" t="str">
         <f>INDEX(TextData!B:B,MATCH(B243,TextData!A:A))</f>
-        <v>ボス</v>
+        <v>汎用敵</v>
       </c>
       <c r="D243">
         <v>2</v>
       </c>
       <c r="E243">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -10516,7 +10592,7 @@
         <v>13020</v>
       </c>
       <c r="H243">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -10527,20 +10603,20 @@
     </row>
     <row r="244" customFormat="1" spans="1:10">
       <c r="A244">
-        <v>13033</v>
+        <v>13032</v>
       </c>
       <c r="B244">
-        <v>13033</v>
+        <v>13032</v>
       </c>
       <c r="C244" t="str">
         <f>INDEX(TextData!B:B,MATCH(B244,TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ボス</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -10549,7 +10625,7 @@
         <v>13020</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -10558,22 +10634,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" customFormat="1" ht="12" customHeight="1" spans="1:10">
+    <row r="245" customFormat="1" spans="1:10">
       <c r="A245">
-        <v>13034</v>
+        <v>13033</v>
       </c>
       <c r="B245">
-        <v>13034</v>
+        <v>13033</v>
       </c>
       <c r="C245" t="str">
         <f>INDEX(TextData!B:B,MATCH(B245,TextData!A:A))</f>
-        <v>飛行</v>
+        <v>アンデッド</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -10582,7 +10658,7 @@
         <v>13020</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -10593,20 +10669,20 @@
     </row>
     <row r="246" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A246">
-        <v>13035</v>
+        <v>13034</v>
       </c>
       <c r="B246">
-        <v>13035</v>
+        <v>13034</v>
       </c>
       <c r="C246" t="str">
         <f>INDEX(TextData!B:B,MATCH(B246,TextData!A:A))</f>
-        <v>クリーチャー</v>
+        <v>飛行</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -10615,7 +10691,7 @@
         <v>13020</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -10626,20 +10702,20 @@
     </row>
     <row r="247" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A247">
-        <v>13036</v>
+        <v>13035</v>
       </c>
       <c r="B247">
-        <v>13036</v>
+        <v>13035</v>
       </c>
       <c r="C247" t="str">
         <f>INDEX(TextData!B:B,MATCH(B247,TextData!A:A))</f>
-        <v>野生</v>
+        <v>悪魔</v>
       </c>
       <c r="D247">
         <v>2</v>
       </c>
       <c r="E247">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -10648,7 +10724,7 @@
         <v>13020</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -10659,20 +10735,20 @@
     </row>
     <row r="248" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A248">
-        <v>13037</v>
+        <v>13036</v>
       </c>
       <c r="B248">
-        <v>13037</v>
+        <v>13036</v>
       </c>
       <c r="C248" t="str">
         <f>INDEX(TextData!B:B,MATCH(B248,TextData!A:A))</f>
-        <v>変異生物</v>
+        <v>クリーチャー</v>
       </c>
       <c r="D248">
         <v>2</v>
       </c>
       <c r="E248">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -10681,7 +10757,7 @@
         <v>13020</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -10690,31 +10766,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" customFormat="1" spans="1:10">
+    <row r="249" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A249">
-        <v>14010</v>
+        <v>13037</v>
       </c>
       <c r="B249">
-        <v>14010</v>
+        <v>13037</v>
       </c>
       <c r="C249" t="str">
         <f>INDEX(TextData!B:B,MATCH(B249,TextData!A:A))</f>
-        <v>ステータスの高い味方</v>
+        <v>野生動物</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -10723,34 +10799,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" customFormat="1" spans="1:10">
+    <row r="250" customFormat="1" ht="12" customHeight="1" spans="1:10">
       <c r="A250">
-        <v>14011</v>
+        <v>13038</v>
       </c>
       <c r="B250">
-        <v>14011</v>
+        <v>13038</v>
       </c>
       <c r="C250" t="str">
         <f>INDEX(TextData!B:B,MATCH(B250,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>変異生物</v>
       </c>
       <c r="D250">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G250">
-        <v>14010</v>
+        <v>13020</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -10758,32 +10834,32 @@
     </row>
     <row r="251" customFormat="1" spans="1:10">
       <c r="A251">
-        <v>14012</v>
+        <v>14010</v>
       </c>
       <c r="B251">
-        <v>14012</v>
+        <v>14010</v>
       </c>
       <c r="C251" t="str">
         <f>INDEX(TextData!B:B,MATCH(B251,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>ステータスの高い味方</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>14010</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10791,20 +10867,20 @@
     </row>
     <row r="252" customFormat="1" spans="1:10">
       <c r="A252">
-        <v>14013</v>
+        <v>14011</v>
       </c>
       <c r="B252">
-        <v>14013</v>
+        <v>14011</v>
       </c>
       <c r="C252" t="str">
         <f>INDEX(TextData!B:B,MATCH(B252,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D252">
         <v>12</v>
       </c>
       <c r="E252">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -10813,7 +10889,7 @@
         <v>14010</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -10824,20 +10900,20 @@
     </row>
     <row r="253" customFormat="1" spans="1:10">
       <c r="A253">
-        <v>14014</v>
+        <v>14012</v>
       </c>
       <c r="B253">
-        <v>14014</v>
+        <v>14012</v>
       </c>
       <c r="C253" t="str">
         <f>INDEX(TextData!B:B,MATCH(B253,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D253">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E253">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -10846,7 +10922,7 @@
         <v>14010</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -10857,20 +10933,20 @@
     </row>
     <row r="254" customFormat="1" spans="1:10">
       <c r="A254">
-        <v>14015</v>
+        <v>14013</v>
       </c>
       <c r="B254">
-        <v>14015</v>
+        <v>14013</v>
       </c>
       <c r="C254" t="str">
         <f>INDEX(TextData!B:B,MATCH(B254,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D254">
         <v>12</v>
       </c>
       <c r="E254">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -10879,7 +10955,7 @@
         <v>14010</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -10890,32 +10966,32 @@
     </row>
     <row r="255" customFormat="1" spans="1:10">
       <c r="A255">
-        <v>14110</v>
+        <v>14014</v>
       </c>
       <c r="B255">
-        <v>14110</v>
+        <v>14014</v>
       </c>
       <c r="C255" t="str">
         <f>INDEX(TextData!B:B,MATCH(B255,TextData!A:A))</f>
-        <v>ステータスの低い味方</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G255">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -10923,29 +10999,29 @@
     </row>
     <row r="256" customFormat="1" spans="1:10">
       <c r="A256">
-        <v>14111</v>
+        <v>14015</v>
       </c>
       <c r="B256">
-        <v>14111</v>
+        <v>14015</v>
       </c>
       <c r="C256" t="str">
         <f>INDEX(TextData!B:B,MATCH(B256,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D256">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F256">
         <v>2</v>
       </c>
       <c r="G256">
-        <v>14110</v>
+        <v>14010</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -10956,32 +11032,32 @@
     </row>
     <row r="257" customFormat="1" spans="1:10">
       <c r="A257">
-        <v>14112</v>
+        <v>14110</v>
       </c>
       <c r="B257">
-        <v>14112</v>
+        <v>14110</v>
       </c>
       <c r="C257" t="str">
         <f>INDEX(TextData!B:B,MATCH(B257,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>ステータスの低い味方</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G257">
         <v>14110</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -10989,20 +11065,20 @@
     </row>
     <row r="258" customFormat="1" spans="1:10">
       <c r="A258">
-        <v>14113</v>
+        <v>14111</v>
       </c>
       <c r="B258">
-        <v>14113</v>
+        <v>14111</v>
       </c>
       <c r="C258" t="str">
         <f>INDEX(TextData!B:B,MATCH(B258,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D258">
         <v>13</v>
       </c>
       <c r="E258">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -11011,7 +11087,7 @@
         <v>14110</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -11022,20 +11098,20 @@
     </row>
     <row r="259" customFormat="1" spans="1:10">
       <c r="A259">
-        <v>14114</v>
+        <v>14112</v>
       </c>
       <c r="B259">
-        <v>14114</v>
+        <v>14112</v>
       </c>
       <c r="C259" t="str">
         <f>INDEX(TextData!B:B,MATCH(B259,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D259">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E259">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -11044,7 +11120,7 @@
         <v>14110</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -11055,20 +11131,20 @@
     </row>
     <row r="260" customFormat="1" spans="1:10">
       <c r="A260">
-        <v>14115</v>
+        <v>14113</v>
       </c>
       <c r="B260">
-        <v>14115</v>
+        <v>14113</v>
       </c>
       <c r="C260" t="str">
         <f>INDEX(TextData!B:B,MATCH(B260,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D260">
         <v>13</v>
       </c>
       <c r="E260">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -11077,7 +11153,7 @@
         <v>14110</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -11088,32 +11164,32 @@
     </row>
     <row r="261" customFormat="1" spans="1:10">
       <c r="A261">
-        <v>14210</v>
+        <v>14114</v>
       </c>
       <c r="B261">
-        <v>14210</v>
+        <v>14114</v>
       </c>
       <c r="C261" t="str">
         <f>INDEX(TextData!B:B,MATCH(B261,TextData!A:A))</f>
-        <v>ステータスの高い敵</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G261">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -11121,29 +11197,29 @@
     </row>
     <row r="262" customFormat="1" spans="1:10">
       <c r="A262">
-        <v>14211</v>
+        <v>14115</v>
       </c>
       <c r="B262">
-        <v>14211</v>
+        <v>14115</v>
       </c>
       <c r="C262" t="str">
         <f>INDEX(TextData!B:B,MATCH(B262,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="blue"&gt;味方&lt;/color&gt;</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G262">
-        <v>14210</v>
+        <v>14110</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -11154,32 +11230,32 @@
     </row>
     <row r="263" customFormat="1" spans="1:10">
       <c r="A263">
-        <v>14212</v>
+        <v>14210</v>
       </c>
       <c r="B263">
-        <v>14212</v>
+        <v>14210</v>
       </c>
       <c r="C263" t="str">
         <f>INDEX(TextData!B:B,MATCH(B263,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>ステータスの高い敵</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263">
         <v>14210</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -11187,20 +11263,20 @@
     </row>
     <row r="264" customFormat="1" spans="1:10">
       <c r="A264">
-        <v>14213</v>
+        <v>14211</v>
       </c>
       <c r="B264">
-        <v>14213</v>
+        <v>14211</v>
       </c>
       <c r="C264" t="str">
         <f>INDEX(TextData!B:B,MATCH(B264,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D264">
         <v>12</v>
       </c>
       <c r="E264">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -11209,7 +11285,7 @@
         <v>14210</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -11220,20 +11296,20 @@
     </row>
     <row r="265" customFormat="1" spans="1:10">
       <c r="A265">
-        <v>14214</v>
+        <v>14212</v>
       </c>
       <c r="B265">
-        <v>14214</v>
+        <v>14212</v>
       </c>
       <c r="C265" t="str">
         <f>INDEX(TextData!B:B,MATCH(B265,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D265">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E265">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -11242,7 +11318,7 @@
         <v>14210</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -11253,20 +11329,20 @@
     </row>
     <row r="266" customFormat="1" spans="1:10">
       <c r="A266">
-        <v>14215</v>
+        <v>14213</v>
       </c>
       <c r="B266">
-        <v>14215</v>
+        <v>14213</v>
       </c>
       <c r="C266" t="str">
         <f>INDEX(TextData!B:B,MATCH(B266,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D266">
         <v>12</v>
       </c>
       <c r="E266">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -11275,7 +11351,7 @@
         <v>14210</v>
       </c>
       <c r="H266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -11286,32 +11362,32 @@
     </row>
     <row r="267" customFormat="1" spans="1:10">
       <c r="A267">
-        <v>14310</v>
+        <v>14214</v>
       </c>
       <c r="B267">
-        <v>14310</v>
+        <v>14214</v>
       </c>
       <c r="C267" t="str">
         <f>INDEX(TextData!B:B,MATCH(B267,TextData!A:A))</f>
-        <v>ステータスの低い敵</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11319,29 +11395,29 @@
     </row>
     <row r="268" customFormat="1" spans="1:10">
       <c r="A268">
-        <v>14311</v>
+        <v>14215</v>
       </c>
       <c r="B268">
-        <v>14311</v>
+        <v>14215</v>
       </c>
       <c r="C268" t="str">
         <f>INDEX(TextData!B:B,MATCH(B268,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も高い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D268">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E268">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F268">
         <v>1</v>
       </c>
       <c r="G268">
-        <v>14310</v>
+        <v>14210</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -11352,32 +11428,32 @@
     </row>
     <row r="269" customFormat="1" spans="1:10">
       <c r="A269">
-        <v>14312</v>
+        <v>14310</v>
       </c>
       <c r="B269">
-        <v>14312</v>
+        <v>14310</v>
       </c>
       <c r="C269" t="str">
         <f>INDEX(TextData!B:B,MATCH(B269,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>ステータスの低い敵</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269">
         <v>14310</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11385,20 +11461,20 @@
     </row>
     <row r="270" customFormat="1" spans="1:10">
       <c r="A270">
-        <v>14313</v>
+        <v>14311</v>
       </c>
       <c r="B270">
-        <v>14313</v>
+        <v>14311</v>
       </c>
       <c r="C270" t="str">
         <f>INDEX(TextData!B:B,MATCH(B270,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Hp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D270">
         <v>13</v>
       </c>
       <c r="E270">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -11407,7 +11483,7 @@
         <v>14310</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -11418,20 +11494,20 @@
     </row>
     <row r="271" customFormat="1" spans="1:10">
       <c r="A271">
-        <v>14314</v>
+        <v>14312</v>
       </c>
       <c r="B271">
-        <v>14314</v>
+        <v>14312</v>
       </c>
       <c r="C271" t="str">
         <f>INDEX(TextData!B:B,MATCH(B271,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;最大Mp&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D271">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -11440,7 +11516,7 @@
         <v>14310</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -11451,20 +11527,20 @@
     </row>
     <row r="272" customFormat="1" spans="1:10">
       <c r="A272">
-        <v>14315</v>
+        <v>14313</v>
       </c>
       <c r="B272">
-        <v>14315</v>
+        <v>14313</v>
       </c>
       <c r="C272" t="str">
         <f>INDEX(TextData!B:B,MATCH(B272,TextData!A:A))</f>
-        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
+        <v>&lt;color="green"&gt;ATK&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D272">
         <v>13</v>
       </c>
       <c r="E272">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -11473,7 +11549,7 @@
         <v>14310</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -11482,82 +11558,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" customFormat="1" spans="1:10">
       <c r="A273">
-        <v>20010</v>
+        <v>14314</v>
       </c>
       <c r="B273">
-        <v>20010</v>
+        <v>14314</v>
       </c>
       <c r="C273" t="str">
         <f>INDEX(TextData!B:B,MATCH(B273,TextData!A:A))</f>
-        <v>Mpを〇消費する</v>
+        <v>&lt;color="green"&gt;DEF&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
-        <v>20010</v>
+        <v>14310</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" customFormat="1" spans="1:10">
       <c r="A274">
-        <v>20020</v>
+        <v>14315</v>
       </c>
       <c r="B274">
-        <v>20020</v>
+        <v>14315</v>
       </c>
       <c r="C274" t="str">
         <f>INDEX(TextData!B:B,MATCH(B274,TextData!A:A))</f>
-        <v>拘束3回成功</v>
+        <v>&lt;color="green"&gt;SPD&lt;/color&gt;が最も低い&lt;color="red"&gt;敵&lt;/color&gt;</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274">
-        <v>20020</v>
+        <v>14310</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" customFormat="1" spans="1:10">
       <c r="A275">
-        <v>20030</v>
+        <v>19010</v>
       </c>
       <c r="B275">
-        <v>20030</v>
+        <v>19010</v>
       </c>
       <c r="C275" t="str">
         <f>INDEX(TextData!B:B,MATCH(B275,TextData!A:A))</f>
-        <v>攻撃で戦闘不能になる</v>
+        <v>Sconeの攻撃を受けるとき</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -11569,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <v>20030</v>
+        <v>19010</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -11581,31 +11657,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" customFormat="1" spans="1:10">
       <c r="A276">
-        <v>20040</v>
+        <v>19011</v>
       </c>
       <c r="B276">
-        <v>20040</v>
+        <v>19011</v>
       </c>
       <c r="C276" t="str">
         <f>INDEX(TextData!B:B,MATCH(B276,TextData!A:A))</f>
-        <v>自分以外が戦闘不能</v>
+        <v>列攻撃されるとき</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G276">
-        <v>20040</v>
+        <v>19010</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -11614,31 +11690,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" customFormat="1" spans="1:10">
       <c r="A277">
-        <v>20050</v>
+        <v>19012</v>
       </c>
       <c r="B277">
-        <v>20050</v>
+        <v>19012</v>
       </c>
       <c r="C277" t="str">
         <f>INDEX(TextData!B:B,MATCH(B277,TextData!A:A))</f>
-        <v>自身が戦闘不能になる</v>
+        <v>全体攻撃されるとき</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G277">
-        <v>20050</v>
+        <v>19010</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -11647,16 +11723,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" customFormat="1" spans="1:10">
       <c r="A278">
-        <v>20060</v>
+        <v>19020</v>
       </c>
       <c r="B278">
-        <v>20060</v>
+        <v>19020</v>
       </c>
       <c r="C278" t="str">
         <f>INDEX(TextData!B:B,MATCH(B278,TextData!A:A))</f>
-        <v>攻撃を〇回受ける</v>
+        <v>Kindから攻撃を受けるとき</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -11668,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="G278">
-        <v>20060</v>
+        <v>19020</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -11680,31 +11756,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" customFormat="1" spans="1:10">
       <c r="A279">
-        <v>20070</v>
+        <v>19021</v>
       </c>
       <c r="B279">
-        <v>20070</v>
+        <v>19021</v>
       </c>
       <c r="C279" t="str">
         <f>INDEX(TextData!B:B,MATCH(B279,TextData!A:A))</f>
-        <v>敵全員が呪い状態</v>
+        <v>汎用敵から攻撃を受けるとき</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G279">
-        <v>20070</v>
+        <v>19020</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -11713,31 +11789,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" customFormat="1" spans="1:10">
       <c r="A280">
-        <v>20080</v>
+        <v>19022</v>
       </c>
       <c r="B280">
-        <v>20080</v>
+        <v>19022</v>
       </c>
       <c r="C280" t="str">
         <f>INDEX(TextData!B:B,MATCH(B280,TextData!A:A))</f>
-        <v>クリティカル攻撃を受ける</v>
+        <v>ボスから攻撃を受けるとき</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G280">
-        <v>20080</v>
+        <v>19020</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -11746,31 +11822,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" customFormat="1" spans="1:10">
       <c r="A281">
-        <v>20090</v>
+        <v>19023</v>
       </c>
       <c r="B281">
-        <v>20090</v>
+        <v>19023</v>
       </c>
       <c r="C281" t="str">
         <f>INDEX(TextData!B:B,MATCH(B281,TextData!A:A))</f>
-        <v>回避を〇回行う</v>
+        <v>アンデッドから攻撃を受けるとき</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G281">
-        <v>20090</v>
+        <v>19020</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -11779,31 +11855,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" customFormat="1" spans="1:10">
       <c r="A282">
-        <v>20100</v>
+        <v>19024</v>
       </c>
       <c r="B282">
-        <v>20100</v>
+        <v>19024</v>
       </c>
       <c r="C282" t="str">
         <f>INDEX(TextData!B:B,MATCH(B282,TextData!A:A))</f>
-        <v>回復効果魔法を〇回行う</v>
+        <v>飛行から攻撃を受けるとき</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G282">
-        <v>20100</v>
+        <v>19020</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -11812,31 +11888,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" customFormat="1" spans="1:10">
       <c r="A283">
-        <v>20110</v>
+        <v>19025</v>
       </c>
       <c r="B283">
-        <v>20110</v>
+        <v>19025</v>
       </c>
       <c r="C283" t="str">
         <f>INDEX(TextData!B:B,MATCH(B283,TextData!A:A))</f>
-        <v>味方に覚醒状態が〇以上</v>
+        <v>悪魔から攻撃を受けるとき</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G283">
-        <v>20110</v>
+        <v>19020</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -11845,31 +11921,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" customFormat="1" spans="1:10">
       <c r="A284">
-        <v>20120</v>
+        <v>19026</v>
       </c>
       <c r="B284">
-        <v>20120</v>
+        <v>19026</v>
       </c>
       <c r="C284" t="str">
         <f>INDEX(TextData!B:B,MATCH(B284,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇の味方が覚醒する</v>
+        <v>クリーチャーから攻撃を受けるとき</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G284">
-        <v>20120</v>
+        <v>19020</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -11878,31 +11954,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" customFormat="1" spans="1:10">
       <c r="A285">
-        <v>20130</v>
+        <v>19027</v>
       </c>
       <c r="B285">
-        <v>20130</v>
+        <v>19027</v>
       </c>
       <c r="C285" t="str">
         <f>INDEX(TextData!B:B,MATCH(B285,TextData!A:A))</f>
-        <v>相手が状態異常を発動する</v>
+        <v>野生動物から攻撃を受けるとき</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G285">
-        <v>20130</v>
+        <v>19020</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -11911,31 +11987,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" customFormat="1" spans="1:10">
       <c r="A286">
-        <v>20140</v>
+        <v>19028</v>
       </c>
       <c r="B286">
-        <v>20140</v>
+        <v>19028</v>
       </c>
       <c r="C286" t="str">
         <f>INDEX(TextData!B:B,MATCH(B286,TextData!A:A))</f>
-        <v>自身の攻撃で敵を倒す</v>
+        <v>変異生物から攻撃を受けるとき</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G286">
-        <v>20140</v>
+        <v>19020</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -11946,14 +12022,14 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="B287">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="C287" t="str">
         <f>INDEX(TextData!B:B,MATCH(B287,TextData!A:A))</f>
-        <v>Demigod魔法の属性が〇</v>
+        <v>Mpを〇消費する</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -11965,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="G287">
-        <v>20150</v>
+        <v>20010</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -11979,14 +12055,14 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="B288">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="C288" t="str">
         <f>INDEX(TextData!B:B,MATCH(B288,TextData!A:A))</f>
-        <v>自身が戦闘不能になる攻撃を受ける</v>
+        <v>拘束3回成功</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -11998,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="G288">
-        <v>20160</v>
+        <v>20020</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -12012,14 +12088,14 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="B289">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="C289" t="str">
         <f>INDEX(TextData!B:B,MATCH(B289,TextData!A:A))</f>
-        <v>終焉まで〇ターン</v>
+        <v>攻撃で戦闘不能になる</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -12031,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="G289">
-        <v>30010</v>
+        <v>20030</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -12045,34 +12121,496 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>30020</v>
+        <v>20040</v>
       </c>
       <c r="B290">
-        <v>30020</v>
+        <v>20040</v>
       </c>
       <c r="C290" t="str">
         <f>INDEX(TextData!B:B,MATCH(B290,TextData!A:A))</f>
+        <v>自分以外が戦闘不能</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>20040</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291">
+        <v>20050</v>
+      </c>
+      <c r="B291">
+        <v>20050</v>
+      </c>
+      <c r="C291" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B291,TextData!A:A))</f>
+        <v>自身が戦闘不能になる</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>20050</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292">
+        <v>20060</v>
+      </c>
+      <c r="B292">
+        <v>20060</v>
+      </c>
+      <c r="C292" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B292,TextData!A:A))</f>
+        <v>攻撃を〇回受ける</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>20060</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293">
+        <v>20070</v>
+      </c>
+      <c r="B293">
+        <v>20070</v>
+      </c>
+      <c r="C293" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B293,TextData!A:A))</f>
+        <v>敵全員が呪い状態</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>20070</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294">
+        <v>20080</v>
+      </c>
+      <c r="B294">
+        <v>20080</v>
+      </c>
+      <c r="C294" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B294,TextData!A:A))</f>
+        <v>クリティカル攻撃を受ける</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>20080</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295">
+        <v>20090</v>
+      </c>
+      <c r="B295">
+        <v>20090</v>
+      </c>
+      <c r="C295" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B295,TextData!A:A))</f>
+        <v>回避を〇回行う</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>20090</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296">
+        <v>20100</v>
+      </c>
+      <c r="B296">
+        <v>20100</v>
+      </c>
+      <c r="C296" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B296,TextData!A:A))</f>
+        <v>回復効果魔法を〇回行う</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>20100</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297">
+        <v>20110</v>
+      </c>
+      <c r="B297">
+        <v>20110</v>
+      </c>
+      <c r="C297" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B297,TextData!A:A))</f>
+        <v>味方に覚醒状態が〇以上</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>20110</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="A298">
+        <v>20120</v>
+      </c>
+      <c r="B298">
+        <v>20120</v>
+      </c>
+      <c r="C298" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B298,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇の味方が覚醒する</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>20120</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="A299">
+        <v>20130</v>
+      </c>
+      <c r="B299">
+        <v>20130</v>
+      </c>
+      <c r="C299" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B299,TextData!A:A))</f>
+        <v>相手が状態異常を発動する</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>20130</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="A300">
+        <v>20140</v>
+      </c>
+      <c r="B300">
+        <v>20140</v>
+      </c>
+      <c r="C300" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B300,TextData!A:A))</f>
+        <v>自身の攻撃で敵を倒す</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>20140</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="A301">
+        <v>20150</v>
+      </c>
+      <c r="B301">
+        <v>20150</v>
+      </c>
+      <c r="C301" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B301,TextData!A:A))</f>
+        <v>Demigod魔法の属性が〇</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>20150</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="A302">
+        <v>20160</v>
+      </c>
+      <c r="B302">
+        <v>20160</v>
+      </c>
+      <c r="C302" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B302,TextData!A:A))</f>
+        <v>自身が戦闘不能になる攻撃を受ける</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>20160</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="A303">
+        <v>30010</v>
+      </c>
+      <c r="B303">
+        <v>30010</v>
+      </c>
+      <c r="C303" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B303,TextData!A:A))</f>
+        <v>終焉まで〇ターン</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>30010</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304">
+        <v>30020</v>
+      </c>
+      <c r="B304">
+        <v>30020</v>
+      </c>
+      <c r="C304" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B304,TextData!A:A))</f>
         <v>存在猶予を延長している</v>
       </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
         <v>30020</v>
       </c>
-      <c r="H290">
-        <v>0</v>
-      </c>
-      <c r="I290">
-        <v>0</v>
-      </c>
-      <c r="J290">
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
         <v>0</v>
       </c>
     </row>
@@ -12086,10 +12624,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -14774,7 +15312,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>13025</v>
+        <v>13026</v>
       </c>
       <c r="B244" t="s">
         <v>394</v>
@@ -14785,7 +15323,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>13026</v>
+        <v>13027</v>
       </c>
       <c r="B245" t="s">
         <v>396</v>
@@ -14796,7 +15334,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>13027</v>
+        <v>13028</v>
       </c>
       <c r="B246" t="s">
         <v>398</v>
@@ -14845,7 +15383,7 @@
       <c r="B250" t="s">
         <v>406</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -14856,40 +15394,40 @@
       <c r="B251" t="s">
         <v>408</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="252" ht="26" spans="1:3">
       <c r="A252">
-        <v>13035</v>
+        <v>13036</v>
       </c>
       <c r="B252" t="s">
         <v>410</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="253" ht="26" spans="1:3">
       <c r="A253">
-        <v>13036</v>
+        <v>13037</v>
       </c>
       <c r="B253" t="s">
         <v>412</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="254" ht="26" spans="1:3">
       <c r="A254">
-        <v>13037</v>
+        <v>13038</v>
       </c>
       <c r="B254" t="s">
         <v>414</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -15159,7 +15697,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>20010</v>
+        <v>19010</v>
       </c>
       <c r="B279" t="s">
         <v>450</v>
@@ -15168,133 +15706,133 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" ht="26" spans="1:3">
       <c r="A280">
-        <v>20020</v>
+        <v>19011</v>
       </c>
       <c r="B280" t="s">
         <v>451</v>
       </c>
-      <c r="C280" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="C280" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="281" ht="26" spans="1:3">
       <c r="A281">
-        <v>20030</v>
+        <v>19012</v>
       </c>
       <c r="B281" t="s">
-        <v>452</v>
-      </c>
-      <c r="C281" t="s">
-        <v>12</v>
+        <v>453</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>20040</v>
+        <v>19020</v>
       </c>
       <c r="B282" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" ht="26" spans="1:3">
       <c r="A283">
-        <v>20050</v>
+        <v>19021</v>
       </c>
       <c r="B283" t="s">
-        <v>454</v>
-      </c>
-      <c r="C283" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>456</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="284" ht="26" spans="1:3">
       <c r="A284">
-        <v>20060</v>
+        <v>19022</v>
       </c>
       <c r="B284" t="s">
-        <v>455</v>
-      </c>
-      <c r="C284" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>458</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="285" ht="26" spans="1:3">
       <c r="A285">
-        <v>20070</v>
+        <v>19023</v>
       </c>
       <c r="B285" t="s">
-        <v>456</v>
-      </c>
-      <c r="C285" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>460</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="286" ht="26" spans="1:3">
       <c r="A286">
-        <v>20080</v>
+        <v>19024</v>
       </c>
       <c r="B286" t="s">
-        <v>457</v>
-      </c>
-      <c r="C286" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>462</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="287" ht="26" spans="1:3">
       <c r="A287">
-        <v>20090</v>
+        <v>19025</v>
       </c>
       <c r="B287" t="s">
-        <v>458</v>
-      </c>
-      <c r="C287" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>464</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="288" ht="26" spans="1:3">
       <c r="A288">
-        <v>20100</v>
+        <v>19026</v>
       </c>
       <c r="B288" t="s">
-        <v>459</v>
-      </c>
-      <c r="C288" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>466</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="289" ht="26" spans="1:3">
       <c r="A289">
-        <v>20110</v>
+        <v>19027</v>
       </c>
       <c r="B289" t="s">
-        <v>460</v>
-      </c>
-      <c r="C289" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>468</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="290" ht="26" spans="1:3">
       <c r="A290">
-        <v>20120</v>
+        <v>19028</v>
       </c>
       <c r="B290" t="s">
-        <v>461</v>
-      </c>
-      <c r="C290" t="s">
-        <v>12</v>
+        <v>470</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>20130</v>
+        <v>20010</v>
       </c>
       <c r="B291" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C291" t="s">
         <v>12</v>
@@ -15302,10 +15840,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>20140</v>
+        <v>20020</v>
       </c>
       <c r="B292" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C292" t="s">
         <v>12</v>
@@ -15313,10 +15851,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>20150</v>
+        <v>20030</v>
       </c>
       <c r="B293" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C293" t="s">
         <v>12</v>
@@ -15324,10 +15862,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>20160</v>
+        <v>20040</v>
       </c>
       <c r="B294" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C294" t="s">
         <v>12</v>
@@ -15335,10 +15873,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>30010</v>
+        <v>20050</v>
       </c>
       <c r="B295" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -15346,12 +15884,144 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
+        <v>20060</v>
+      </c>
+      <c r="B296" t="s">
+        <v>477</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>20070</v>
+      </c>
+      <c r="B297" t="s">
+        <v>478</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>20080</v>
+      </c>
+      <c r="B298" t="s">
+        <v>479</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>20090</v>
+      </c>
+      <c r="B299" t="s">
+        <v>480</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>20100</v>
+      </c>
+      <c r="B300" t="s">
+        <v>481</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>20110</v>
+      </c>
+      <c r="B301" t="s">
+        <v>482</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>20120</v>
+      </c>
+      <c r="B302" t="s">
+        <v>483</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>20130</v>
+      </c>
+      <c r="B303" t="s">
+        <v>484</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>20140</v>
+      </c>
+      <c r="B304" t="s">
+        <v>485</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>20150</v>
+      </c>
+      <c r="B305" t="s">
+        <v>486</v>
+      </c>
+      <c r="C305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>20160</v>
+      </c>
+      <c r="B306" t="s">
+        <v>487</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>30010</v>
+      </c>
+      <c r="B307" t="s">
+        <v>488</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
         <v>30020</v>
       </c>
-      <c r="B296" t="s">
-        <v>467</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="B308" t="s">
+        <v>489</v>
+      </c>
+      <c r="C308" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -1627,10 +1627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1655,26 +1655,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1696,7 +1688,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,18 +1708,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1740,10 +1732,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1757,22 +1757,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,6 +1773,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1794,7 +1794,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,169 +1968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,21 +1988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2018,6 +2003,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2029,6 +2023,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,26 +2065,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,154 +2093,151 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2566,8 +2563,8 @@
   <sheetPr/>
   <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="G250" sqref="G250"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -12626,7 +12623,7 @@
   <sheetPr/>
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
+    <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
@@ -15713,7 +15710,7 @@
       <c r="B280" t="s">
         <v>451</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -15724,7 +15721,7 @@
       <c r="B281" t="s">
         <v>453</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15746,7 +15743,7 @@
       <c r="B283" t="s">
         <v>456</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -15757,7 +15754,7 @@
       <c r="B284" t="s">
         <v>458</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>459</v>
       </c>
     </row>
@@ -15768,7 +15765,7 @@
       <c r="B285" t="s">
         <v>460</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -15779,7 +15776,7 @@
       <c r="B286" t="s">
         <v>462</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -15790,7 +15787,7 @@
       <c r="B287" t="s">
         <v>464</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -15801,7 +15798,7 @@
       <c r="B288" t="s">
         <v>466</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -15812,7 +15809,7 @@
       <c r="B289" t="s">
         <v>468</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -15823,7 +15820,7 @@
       <c r="B290" t="s">
         <v>470</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="1" t="s">
         <v>471</v>
       </c>
     </row>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="7690" windowHeight="4000"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -1714,23 +1714,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1751,32 +1751,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1790,6 +1775,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1797,7 +1804,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1821,17 +1828,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1843,16 +1843,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,31 +1867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,31 +1879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,31 +1897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,19 +1921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +1963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,7 +1999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2047,7 +2023,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,21 +2058,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2111,6 +2096,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2166,7 +2166,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2175,7 +2175,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2187,124 +2187,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2636,8 +2636,8 @@
   <sheetPr/>
   <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7690" windowHeight="4000"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="512">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>NameId</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>Category</t>
@@ -1700,8 +1703,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -1714,11 +1717,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1737,7 +1770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,32 +1785,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1796,24 +1815,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1828,33 +1854,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1867,7 +1870,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,115 +2038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,55 +2050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,78 +2061,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2158,6 +2089,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2166,7 +2169,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2175,7 +2178,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2184,127 +2187,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2636,8 +2639,8 @@
   <sheetPr/>
   <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2663,26 +2666,29 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13108,10 +13114,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13119,10 +13125,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13130,10 +13136,10 @@
         <v>1010</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:3">
@@ -13141,10 +13147,10 @@
         <v>1011</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="26" spans="1:3">
@@ -13152,10 +13158,10 @@
         <v>1012</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="26" spans="1:3">
@@ -13163,10 +13169,10 @@
         <v>1013</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:3">
@@ -13174,10 +13180,10 @@
         <v>1014</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13185,10 +13191,10 @@
         <v>1020</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="26" spans="1:3">
@@ -13196,10 +13202,10 @@
         <v>1021</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:3">
@@ -13207,10 +13213,10 @@
         <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="26" spans="1:3">
@@ -13218,10 +13224,10 @@
         <v>1023</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="26" spans="1:3">
@@ -13229,10 +13235,10 @@
         <v>1024</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13240,10 +13246,10 @@
         <v>1030</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:3">
@@ -13251,10 +13257,10 @@
         <v>1031</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:3">
@@ -13262,10 +13268,10 @@
         <v>1032</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:3">
@@ -13273,10 +13279,10 @@
         <v>1033</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:3">
@@ -13284,10 +13290,10 @@
         <v>1034</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:3">
@@ -13295,10 +13301,10 @@
         <v>1035</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:3">
@@ -13306,10 +13312,10 @@
         <v>1036</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:3">
@@ -13317,10 +13323,10 @@
         <v>1037</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="26" spans="1:3">
@@ -13328,10 +13334,10 @@
         <v>1038</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13339,10 +13345,10 @@
         <v>1040</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:3">
@@ -13350,10 +13356,10 @@
         <v>1041</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:3">
@@ -13361,10 +13367,10 @@
         <v>1042</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:3">
@@ -13372,10 +13378,10 @@
         <v>1043</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:3">
@@ -13383,10 +13389,10 @@
         <v>1044</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="26" spans="1:3">
@@ -13394,10 +13400,10 @@
         <v>1045</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="26" spans="1:3">
@@ -13405,10 +13411,10 @@
         <v>1046</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="26" spans="1:3">
@@ -13416,10 +13422,10 @@
         <v>1047</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="26" spans="1:3">
@@ -13427,10 +13433,10 @@
         <v>1048</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13438,10 +13444,10 @@
         <v>1050</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="26" spans="1:3">
@@ -13449,10 +13455,10 @@
         <v>1051</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="26" spans="1:3">
@@ -13460,10 +13466,10 @@
         <v>1052</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="26" spans="1:3">
@@ -13471,10 +13477,10 @@
         <v>1053</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="26" spans="1:3">
@@ -13482,10 +13488,10 @@
         <v>1054</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" ht="26" spans="1:3">
@@ -13493,10 +13499,10 @@
         <v>1055</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="26" spans="1:3">
@@ -13504,10 +13510,10 @@
         <v>1056</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="26" spans="1:3">
@@ -13515,10 +13521,10 @@
         <v>1057</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="26" spans="1:3">
@@ -13526,10 +13532,10 @@
         <v>1058</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13537,10 +13543,10 @@
         <v>1060</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="26" spans="1:3">
@@ -13548,10 +13554,10 @@
         <v>1061</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="26" spans="1:3">
@@ -13559,10 +13565,10 @@
         <v>1062</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" ht="26" spans="1:3">
@@ -13570,10 +13576,10 @@
         <v>1063</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="26" spans="1:3">
@@ -13581,10 +13587,10 @@
         <v>1064</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="26" spans="1:3">
@@ -13592,10 +13598,10 @@
         <v>1065</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="26" spans="1:3">
@@ -13603,10 +13609,10 @@
         <v>1066</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="26" spans="1:3">
@@ -13614,10 +13620,10 @@
         <v>1067</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="26" spans="1:3">
@@ -13625,10 +13631,10 @@
         <v>1068</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:3">
@@ -13636,10 +13642,10 @@
         <v>1130</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:3">
@@ -13647,10 +13653,10 @@
         <v>1131</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:3">
@@ -13658,10 +13664,10 @@
         <v>1140</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:3">
@@ -13669,10 +13675,10 @@
         <v>1141</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -13680,10 +13686,10 @@
         <v>1150</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:3">
@@ -13691,10 +13697,10 @@
         <v>1151</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:3">
@@ -13702,10 +13708,10 @@
         <v>1160</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:3">
@@ -13713,10 +13719,10 @@
         <v>1161</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -13724,10 +13730,10 @@
         <v>2010</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -13735,10 +13741,10 @@
         <v>3010</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" ht="26" spans="1:3">
@@ -13746,10 +13752,10 @@
         <v>3011</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="26" spans="1:3">
@@ -13757,10 +13763,10 @@
         <v>3012</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" ht="26" spans="1:3">
@@ -13768,10 +13774,10 @@
         <v>3013</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="26" spans="1:3">
@@ -13779,10 +13785,10 @@
         <v>3014</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -13790,10 +13796,10 @@
         <v>3020</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="26" spans="1:3">
@@ -13801,10 +13807,10 @@
         <v>3021</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" ht="26" spans="1:3">
@@ -13812,10 +13818,10 @@
         <v>3022</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" ht="26" spans="1:3">
@@ -13823,10 +13829,10 @@
         <v>3023</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" ht="26" spans="1:3">
@@ -13834,10 +13840,10 @@
         <v>3024</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -13845,10 +13851,10 @@
         <v>3030</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="26" spans="1:3">
@@ -13856,10 +13862,10 @@
         <v>3031</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" ht="26" spans="1:3">
@@ -13867,10 +13873,10 @@
         <v>3032</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" ht="26" spans="1:3">
@@ -13878,10 +13884,10 @@
         <v>3033</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" ht="26" spans="1:3">
@@ -13889,10 +13895,10 @@
         <v>3034</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -13900,10 +13906,10 @@
         <v>3040</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" ht="26" spans="1:3">
@@ -13911,10 +13917,10 @@
         <v>3041</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" ht="26" spans="1:3">
@@ -13922,10 +13928,10 @@
         <v>3042</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" ht="26" spans="1:3">
@@ -13933,10 +13939,10 @@
         <v>3043</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" ht="26" spans="1:3">
@@ -13944,10 +13950,10 @@
         <v>3044</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -13955,10 +13961,10 @@
         <v>3050</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" ht="26" spans="1:3">
@@ -13966,10 +13972,10 @@
         <v>3051</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" ht="26" spans="1:3">
@@ -13977,10 +13983,10 @@
         <v>3052</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" ht="26" spans="1:3">
@@ -13988,10 +13994,10 @@
         <v>3053</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" ht="26" spans="1:3">
@@ -13999,10 +14005,10 @@
         <v>3054</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -14010,10 +14016,10 @@
         <v>3060</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" ht="26" spans="1:3">
@@ -14021,10 +14027,10 @@
         <v>3061</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" ht="26" spans="1:3">
@@ -14032,10 +14038,10 @@
         <v>3062</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" ht="26" spans="1:3">
@@ -14043,10 +14049,10 @@
         <v>3063</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" ht="26" spans="1:3">
@@ -14054,10 +14060,10 @@
         <v>3064</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -14065,10 +14071,10 @@
         <v>4010</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -14076,10 +14082,10 @@
         <v>4020</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -14087,10 +14093,10 @@
         <v>5010</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -14098,10 +14104,10 @@
         <v>5020</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -14109,10 +14115,10 @@
         <v>5030</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -14120,10 +14126,10 @@
         <v>5031</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" ht="26" spans="1:3">
@@ -14131,10 +14137,10 @@
         <v>5032</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14142,10 +14148,10 @@
         <v>5040</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14153,10 +14159,10 @@
         <v>5041</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" ht="26" spans="1:3">
@@ -14164,10 +14170,10 @@
         <v>5042</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -14175,10 +14181,10 @@
         <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -14186,10 +14192,10 @@
         <v>5051</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" ht="26" customHeight="1" spans="1:3">
@@ -14197,10 +14203,10 @@
         <v>5052</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -14208,10 +14214,10 @@
         <v>5060</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -14219,10 +14225,10 @@
         <v>5061</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" ht="26" spans="1:3">
@@ -14230,10 +14236,10 @@
         <v>5062</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:3">
@@ -14241,10 +14247,10 @@
         <v>5070</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:3">
@@ -14252,10 +14258,10 @@
         <v>5080</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:3">
@@ -14263,10 +14269,10 @@
         <v>5090</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:3">
@@ -14274,10 +14280,10 @@
         <v>5100</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:3">
@@ -14285,10 +14291,10 @@
         <v>5110</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" ht="26" spans="1:3">
@@ -14296,10 +14302,10 @@
         <v>5111</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" ht="26" spans="1:3">
@@ -14307,10 +14313,10 @@
         <v>5112</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:3">
@@ -14318,10 +14324,10 @@
         <v>5120</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" ht="26" spans="1:3">
@@ -14329,10 +14335,10 @@
         <v>5121</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" ht="26" spans="1:3">
@@ -14340,10 +14346,10 @@
         <v>5122</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:3">
@@ -14351,10 +14357,10 @@
         <v>5130</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" ht="26" spans="1:3">
@@ -14362,10 +14368,10 @@
         <v>5131</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" ht="26" spans="1:3">
@@ -14373,10 +14379,10 @@
         <v>5132</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" ht="26" spans="1:3">
@@ -14384,10 +14390,10 @@
         <v>5133</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" ht="26" spans="1:3">
@@ -14395,10 +14401,10 @@
         <v>5134</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" ht="26" spans="1:3">
@@ -14406,10 +14412,10 @@
         <v>5135</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:3">
@@ -14417,10 +14423,10 @@
         <v>5140</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" ht="26" spans="1:3">
@@ -14428,10 +14434,10 @@
         <v>5141</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" ht="26" spans="1:3">
@@ -14439,10 +14445,10 @@
         <v>5142</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" ht="26" spans="1:3">
@@ -14450,10 +14456,10 @@
         <v>5143</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" ht="26" spans="1:3">
@@ -14461,10 +14467,10 @@
         <v>5144</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" ht="26" spans="1:3">
@@ -14472,10 +14478,10 @@
         <v>5145</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -14483,10 +14489,10 @@
         <v>6010</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -14494,10 +14500,10 @@
         <v>6020</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -14505,10 +14511,10 @@
         <v>6030</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -14516,10 +14522,10 @@
         <v>6040</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -14527,10 +14533,10 @@
         <v>6050</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -14538,10 +14544,10 @@
         <v>6060</v>
       </c>
       <c r="B131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -14549,10 +14555,10 @@
         <v>6110</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -14560,10 +14566,10 @@
         <v>6120</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" ht="26" spans="1:3">
@@ -14571,10 +14577,10 @@
         <v>6121</v>
       </c>
       <c r="B134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -14582,10 +14588,10 @@
         <v>6130</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" ht="26" spans="1:3">
@@ -14593,10 +14599,10 @@
         <v>6131</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -14604,10 +14610,10 @@
         <v>6140</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" ht="26" spans="1:3">
@@ -14615,10 +14621,10 @@
         <v>6141</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -14626,10 +14632,10 @@
         <v>6150</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" ht="26" spans="1:3">
@@ -14637,10 +14643,10 @@
         <v>6151</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -14648,10 +14654,10 @@
         <v>6210</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" ht="26" spans="1:3">
@@ -14659,10 +14665,10 @@
         <v>6211</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -14670,10 +14676,10 @@
         <v>6220</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -14681,10 +14687,10 @@
         <v>6221</v>
       </c>
       <c r="B144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" ht="26" spans="1:3">
@@ -14692,10 +14698,10 @@
         <v>6222</v>
       </c>
       <c r="B145" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -14703,10 +14709,10 @@
         <v>6230</v>
       </c>
       <c r="B146" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -14714,10 +14720,10 @@
         <v>6231</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C147" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" ht="26" spans="1:3">
@@ -14725,10 +14731,10 @@
         <v>6232</v>
       </c>
       <c r="B148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -14736,10 +14742,10 @@
         <v>6240</v>
       </c>
       <c r="B149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" ht="26" spans="1:3">
@@ -14747,10 +14753,10 @@
         <v>6241</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -14758,10 +14764,10 @@
         <v>6250</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" ht="26" spans="1:3">
@@ -14769,10 +14775,10 @@
         <v>6251</v>
       </c>
       <c r="B152" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -14780,10 +14786,10 @@
         <v>6310</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" ht="26" spans="1:3">
@@ -14791,10 +14797,10 @@
         <v>6311</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -14802,10 +14808,10 @@
         <v>6320</v>
       </c>
       <c r="B155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -14813,10 +14819,10 @@
         <v>6321</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" ht="26" spans="1:3">
@@ -14824,10 +14830,10 @@
         <v>6322</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -14835,10 +14841,10 @@
         <v>6330</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -14846,10 +14852,10 @@
         <v>6331</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" ht="26" spans="1:3">
@@ -14857,10 +14863,10 @@
         <v>6332</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -14868,10 +14874,10 @@
         <v>6340</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" ht="26" spans="1:3">
@@ -14879,10 +14885,10 @@
         <v>6341</v>
       </c>
       <c r="B162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -14890,10 +14896,10 @@
         <v>6350</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" ht="26" spans="1:3">
@@ -14901,10 +14907,10 @@
         <v>6351</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" ht="26" spans="1:3">
@@ -14912,10 +14918,10 @@
         <v>6411</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" ht="26" spans="1:3">
@@ -14923,10 +14929,10 @@
         <v>6412</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" ht="26" spans="1:3">
@@ -14934,10 +14940,10 @@
         <v>6413</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" ht="26" spans="1:3">
@@ -14945,10 +14951,10 @@
         <v>6414</v>
       </c>
       <c r="B168" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" ht="26" spans="1:3">
@@ -14956,10 +14962,10 @@
         <v>6415</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" ht="26" spans="1:3">
@@ -14967,10 +14973,10 @@
         <v>6416</v>
       </c>
       <c r="B170" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="171" ht="26" spans="1:3">
@@ -14978,10 +14984,10 @@
         <v>6511</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" ht="26" spans="1:3">
@@ -14989,10 +14995,10 @@
         <v>6512</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" ht="26" spans="1:3">
@@ -15000,10 +15006,10 @@
         <v>6513</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" ht="26" spans="1:3">
@@ -15011,10 +15017,10 @@
         <v>6514</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" ht="26" spans="1:3">
@@ -15022,10 +15028,10 @@
         <v>6515</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="176" ht="26" spans="1:3">
@@ -15033,10 +15039,10 @@
         <v>6516</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" ht="26" spans="1:3">
@@ -15044,10 +15050,10 @@
         <v>6611</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" ht="26" spans="1:3">
@@ -15055,10 +15061,10 @@
         <v>6612</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" ht="26" spans="1:3">
@@ -15066,10 +15072,10 @@
         <v>6613</v>
       </c>
       <c r="B179" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" ht="26" spans="1:3">
@@ -15077,10 +15083,10 @@
         <v>6614</v>
       </c>
       <c r="B180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" ht="26" spans="1:3">
@@ -15088,10 +15094,10 @@
         <v>6615</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" ht="26" spans="1:3">
@@ -15099,10 +15105,10 @@
         <v>6616</v>
       </c>
       <c r="B182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" ht="26" spans="1:3">
@@ -15110,10 +15116,10 @@
         <v>6711</v>
       </c>
       <c r="B183" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" ht="26" spans="1:3">
@@ -15121,10 +15127,10 @@
         <v>6712</v>
       </c>
       <c r="B184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" ht="26" spans="1:3">
@@ -15132,10 +15138,10 @@
         <v>6713</v>
       </c>
       <c r="B185" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="186" ht="26" spans="1:3">
@@ -15143,10 +15149,10 @@
         <v>6714</v>
       </c>
       <c r="B186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="187" ht="26" spans="1:3">
@@ -15154,10 +15160,10 @@
         <v>6715</v>
       </c>
       <c r="B187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188" ht="26" spans="1:3">
@@ -15165,10 +15171,10 @@
         <v>6716</v>
       </c>
       <c r="B188" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -15176,10 +15182,10 @@
         <v>7010</v>
       </c>
       <c r="B189" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" customFormat="1" ht="26" spans="1:3">
@@ -15187,10 +15193,10 @@
         <v>7011</v>
       </c>
       <c r="B190" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -15198,10 +15204,10 @@
         <v>7020</v>
       </c>
       <c r="B191" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" customFormat="1" ht="26" spans="1:3">
@@ -15209,10 +15215,10 @@
         <v>7021</v>
       </c>
       <c r="B192" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -15220,10 +15226,10 @@
         <v>7030</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:3">
@@ -15231,10 +15237,10 @@
         <v>7031</v>
       </c>
       <c r="B194" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" customFormat="1" ht="26" spans="1:3">
@@ -15242,10 +15248,10 @@
         <v>7032</v>
       </c>
       <c r="B195" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" customFormat="1" spans="1:3">
@@ -15253,10 +15259,10 @@
         <v>7040</v>
       </c>
       <c r="B196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" customFormat="1" spans="1:3">
@@ -15264,10 +15270,10 @@
         <v>7041</v>
       </c>
       <c r="B197" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" customFormat="1" ht="26" spans="1:3">
@@ -15275,10 +15281,10 @@
         <v>7042</v>
       </c>
       <c r="B198" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" customFormat="1" spans="1:3">
@@ -15286,10 +15292,10 @@
         <v>7050</v>
       </c>
       <c r="B199" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="1" spans="1:3">
@@ -15297,10 +15303,10 @@
         <v>7051</v>
       </c>
       <c r="B200" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" customFormat="1" ht="26" spans="1:3">
@@ -15308,10 +15314,10 @@
         <v>7052</v>
       </c>
       <c r="B201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:3">
@@ -15319,10 +15325,10 @@
         <v>7060</v>
       </c>
       <c r="B202" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" customFormat="1" spans="1:3">
@@ -15330,10 +15336,10 @@
         <v>7061</v>
       </c>
       <c r="B203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" customFormat="1" ht="26" spans="1:3">
@@ -15341,10 +15347,10 @@
         <v>7062</v>
       </c>
       <c r="B204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -15352,10 +15358,10 @@
         <v>8010</v>
       </c>
       <c r="B205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" ht="12" customHeight="1" spans="1:3">
@@ -15363,10 +15369,10 @@
         <v>8020</v>
       </c>
       <c r="B206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -15374,10 +15380,10 @@
         <v>8030</v>
       </c>
       <c r="B207" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" ht="26" spans="1:3">
@@ -15385,10 +15391,10 @@
         <v>8031</v>
       </c>
       <c r="B208" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" ht="26" spans="1:3">
@@ -15396,10 +15402,10 @@
         <v>8032</v>
       </c>
       <c r="B209" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" ht="26" spans="1:3">
@@ -15407,10 +15413,10 @@
         <v>8033</v>
       </c>
       <c r="B210" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" ht="26" spans="1:3">
@@ -15418,10 +15424,10 @@
         <v>8034</v>
       </c>
       <c r="B211" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" ht="12" customHeight="1" spans="1:3">
@@ -15429,10 +15435,10 @@
         <v>8040</v>
       </c>
       <c r="B212" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
@@ -15440,10 +15446,10 @@
         <v>8041</v>
       </c>
       <c r="B213" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" ht="26" spans="1:3">
@@ -15451,10 +15457,10 @@
         <v>8042</v>
       </c>
       <c r="B214" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" ht="26" spans="1:3">
@@ -15462,10 +15468,10 @@
         <v>8043</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="216" ht="26" spans="1:3">
@@ -15473,10 +15479,10 @@
         <v>8044</v>
       </c>
       <c r="B216" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -15484,10 +15490,10 @@
         <v>8050</v>
       </c>
       <c r="B217" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" ht="26" spans="1:3">
@@ -15495,10 +15501,10 @@
         <v>8051</v>
       </c>
       <c r="B218" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" ht="26" spans="1:3">
@@ -15506,10 +15512,10 @@
         <v>8052</v>
       </c>
       <c r="B219" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" ht="26" spans="1:3">
@@ -15517,10 +15523,10 @@
         <v>8053</v>
       </c>
       <c r="B220" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" ht="26" spans="1:3">
@@ -15528,10 +15534,10 @@
         <v>8054</v>
       </c>
       <c r="B221" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" ht="12" customHeight="1" spans="1:3">
@@ -15539,10 +15545,10 @@
         <v>8060</v>
       </c>
       <c r="B222" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" ht="26" spans="1:3">
@@ -15550,10 +15556,10 @@
         <v>8061</v>
       </c>
       <c r="B223" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" ht="26" spans="1:3">
@@ -15561,10 +15567,10 @@
         <v>8062</v>
       </c>
       <c r="B224" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225" ht="26" spans="1:3">
@@ -15572,10 +15578,10 @@
         <v>8063</v>
       </c>
       <c r="B225" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" ht="26" spans="1:3">
@@ -15583,10 +15589,10 @@
         <v>8064</v>
       </c>
       <c r="B226" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -15594,10 +15600,10 @@
         <v>9010</v>
       </c>
       <c r="B227" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -15605,10 +15611,10 @@
         <v>9020</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" ht="26" spans="1:3">
@@ -15616,10 +15622,10 @@
         <v>9021</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" ht="26" spans="1:3">
@@ -15627,10 +15633,10 @@
         <v>9022</v>
       </c>
       <c r="B230" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" ht="26" spans="1:3">
@@ -15638,10 +15644,10 @@
         <v>9023</v>
       </c>
       <c r="B231" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="232" ht="26" spans="1:3">
@@ -15649,10 +15655,10 @@
         <v>9024</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" ht="26" spans="1:3">
@@ -15660,10 +15666,10 @@
         <v>9025</v>
       </c>
       <c r="B233" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -15671,10 +15677,10 @@
         <v>9030</v>
       </c>
       <c r="B234" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" ht="26" spans="1:3">
@@ -15682,10 +15688,10 @@
         <v>9031</v>
       </c>
       <c r="B235" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" ht="26" spans="1:3">
@@ -15693,10 +15699,10 @@
         <v>9032</v>
       </c>
       <c r="B236" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="237" ht="26" spans="1:3">
@@ -15704,10 +15710,10 @@
         <v>9033</v>
       </c>
       <c r="B237" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" ht="26" spans="1:3">
@@ -15715,10 +15721,10 @@
         <v>9034</v>
       </c>
       <c r="B238" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -15726,10 +15732,10 @@
         <v>9040</v>
       </c>
       <c r="B239" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" ht="26" spans="1:3">
@@ -15737,10 +15743,10 @@
         <v>9110</v>
       </c>
       <c r="B240" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="241" ht="26" spans="1:3">
@@ -15748,10 +15754,10 @@
         <v>9120</v>
       </c>
       <c r="B241" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -15759,10 +15765,10 @@
         <v>10010</v>
       </c>
       <c r="B242" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -15770,10 +15776,10 @@
         <v>10020</v>
       </c>
       <c r="B243" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -15781,10 +15787,10 @@
         <v>11010</v>
       </c>
       <c r="B244" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -15792,10 +15798,10 @@
         <v>12020</v>
       </c>
       <c r="B245" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -15803,10 +15809,10 @@
         <v>12030</v>
       </c>
       <c r="B246" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -15814,10 +15820,10 @@
         <v>12040</v>
       </c>
       <c r="B247" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -15825,10 +15831,10 @@
         <v>12050</v>
       </c>
       <c r="B248" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -15836,10 +15842,10 @@
         <v>13010</v>
       </c>
       <c r="B249" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -15847,10 +15853,10 @@
         <v>13020</v>
       </c>
       <c r="B250" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -15858,10 +15864,10 @@
         <v>13021</v>
       </c>
       <c r="B251" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C251" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -15869,10 +15875,10 @@
         <v>13022</v>
       </c>
       <c r="B252" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C252" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -15880,10 +15886,10 @@
         <v>13023</v>
       </c>
       <c r="B253" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -15891,10 +15897,10 @@
         <v>13024</v>
       </c>
       <c r="B254" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C254" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -15902,10 +15908,10 @@
         <v>13025</v>
       </c>
       <c r="B255" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C255" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -15913,10 +15919,10 @@
         <v>13026</v>
       </c>
       <c r="B256" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C256" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -15924,10 +15930,10 @@
         <v>13027</v>
       </c>
       <c r="B257" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -15935,10 +15941,10 @@
         <v>13028</v>
       </c>
       <c r="B258" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C258" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="259" ht="26" spans="1:3">
@@ -15946,10 +15952,10 @@
         <v>13031</v>
       </c>
       <c r="B259" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="260" ht="26" spans="1:3">
@@ -15957,10 +15963,10 @@
         <v>13032</v>
       </c>
       <c r="B260" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="261" ht="26" spans="1:3">
@@ -15968,10 +15974,10 @@
         <v>13033</v>
       </c>
       <c r="B261" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="262" ht="26" spans="1:3">
@@ -15979,10 +15985,10 @@
         <v>13034</v>
       </c>
       <c r="B262" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="263" ht="26" spans="1:3">
@@ -15990,10 +15996,10 @@
         <v>13035</v>
       </c>
       <c r="B263" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="264" ht="26" spans="1:3">
@@ -16001,10 +16007,10 @@
         <v>13036</v>
       </c>
       <c r="B264" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="265" ht="26" spans="1:3">
@@ -16012,10 +16018,10 @@
         <v>13037</v>
       </c>
       <c r="B265" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" ht="26" spans="1:3">
@@ -16023,10 +16029,10 @@
         <v>13038</v>
       </c>
       <c r="B266" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -16034,10 +16040,10 @@
         <v>14010</v>
       </c>
       <c r="B267" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -16045,10 +16051,10 @@
         <v>14011</v>
       </c>
       <c r="B268" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C268" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -16056,10 +16062,10 @@
         <v>14012</v>
       </c>
       <c r="B269" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C269" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -16067,10 +16073,10 @@
         <v>14013</v>
       </c>
       <c r="B270" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C270" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -16078,10 +16084,10 @@
         <v>14014</v>
       </c>
       <c r="B271" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C271" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -16089,10 +16095,10 @@
         <v>14015</v>
       </c>
       <c r="B272" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C272" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -16100,10 +16106,10 @@
         <v>14110</v>
       </c>
       <c r="B273" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -16111,10 +16117,10 @@
         <v>14111</v>
       </c>
       <c r="B274" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C274" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -16122,10 +16128,10 @@
         <v>14112</v>
       </c>
       <c r="B275" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C275" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -16133,10 +16139,10 @@
         <v>14113</v>
       </c>
       <c r="B276" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C276" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -16144,10 +16150,10 @@
         <v>14114</v>
       </c>
       <c r="B277" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C277" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -16155,10 +16161,10 @@
         <v>14115</v>
       </c>
       <c r="B278" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C278" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -16166,10 +16172,10 @@
         <v>14210</v>
       </c>
       <c r="B279" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -16177,10 +16183,10 @@
         <v>14211</v>
       </c>
       <c r="B280" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C280" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -16188,10 +16194,10 @@
         <v>14212</v>
       </c>
       <c r="B281" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C281" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -16199,10 +16205,10 @@
         <v>14213</v>
       </c>
       <c r="B282" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C282" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -16210,10 +16216,10 @@
         <v>14214</v>
       </c>
       <c r="B283" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C283" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -16221,10 +16227,10 @@
         <v>14215</v>
       </c>
       <c r="B284" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C284" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -16232,10 +16238,10 @@
         <v>14310</v>
       </c>
       <c r="B285" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C285" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -16243,10 +16249,10 @@
         <v>14311</v>
       </c>
       <c r="B286" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C286" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -16254,10 +16260,10 @@
         <v>14312</v>
       </c>
       <c r="B287" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C287" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -16265,10 +16271,10 @@
         <v>14313</v>
       </c>
       <c r="B288" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C288" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -16276,10 +16282,10 @@
         <v>14314</v>
       </c>
       <c r="B289" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C289" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -16287,10 +16293,10 @@
         <v>14315</v>
       </c>
       <c r="B290" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C290" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -16298,10 +16304,10 @@
         <v>19010</v>
       </c>
       <c r="B291" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C291" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" ht="26" spans="1:3">
@@ -16309,10 +16315,10 @@
         <v>19011</v>
       </c>
       <c r="B292" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="293" ht="26" spans="1:3">
@@ -16320,10 +16326,10 @@
         <v>19012</v>
       </c>
       <c r="B293" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -16331,10 +16337,10 @@
         <v>19020</v>
       </c>
       <c r="B294" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C294" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" ht="26" spans="1:3">
@@ -16342,10 +16348,10 @@
         <v>19021</v>
       </c>
       <c r="B295" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="296" ht="26" spans="1:3">
@@ -16353,10 +16359,10 @@
         <v>19022</v>
       </c>
       <c r="B296" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297" ht="26" spans="1:3">
@@ -16364,10 +16370,10 @@
         <v>19023</v>
       </c>
       <c r="B297" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="298" ht="26" spans="1:3">
@@ -16375,10 +16381,10 @@
         <v>19024</v>
       </c>
       <c r="B298" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299" ht="26" spans="1:3">
@@ -16386,10 +16392,10 @@
         <v>19025</v>
       </c>
       <c r="B299" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="300" ht="26" spans="1:3">
@@ -16397,10 +16403,10 @@
         <v>19026</v>
       </c>
       <c r="B300" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="301" ht="26" spans="1:3">
@@ -16408,10 +16414,10 @@
         <v>19027</v>
       </c>
       <c r="B301" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" ht="26" spans="1:3">
@@ -16419,10 +16425,10 @@
         <v>19028</v>
       </c>
       <c r="B302" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -16430,10 +16436,10 @@
         <v>20010</v>
       </c>
       <c r="B303" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C303" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -16441,10 +16447,10 @@
         <v>20020</v>
       </c>
       <c r="B304" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C304" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -16452,10 +16458,10 @@
         <v>20030</v>
       </c>
       <c r="B305" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C305" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -16463,10 +16469,10 @@
         <v>20040</v>
       </c>
       <c r="B306" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -16474,10 +16480,10 @@
         <v>20050</v>
       </c>
       <c r="B307" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C307" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -16485,10 +16491,10 @@
         <v>20060</v>
       </c>
       <c r="B308" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C308" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -16496,10 +16502,10 @@
         <v>20070</v>
       </c>
       <c r="B309" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C309" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -16507,10 +16513,10 @@
         <v>20080</v>
       </c>
       <c r="B310" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C310" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -16518,10 +16524,10 @@
         <v>20090</v>
       </c>
       <c r="B311" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -16529,10 +16535,10 @@
         <v>20100</v>
       </c>
       <c r="B312" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C312" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -16540,10 +16546,10 @@
         <v>20110</v>
       </c>
       <c r="B313" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -16551,10 +16557,10 @@
         <v>20120</v>
       </c>
       <c r="B314" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -16562,10 +16568,10 @@
         <v>20130</v>
       </c>
       <c r="B315" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C315" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -16573,10 +16579,10 @@
         <v>20140</v>
       </c>
       <c r="B316" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C316" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -16584,10 +16590,10 @@
         <v>20150</v>
       </c>
       <c r="B317" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -16595,10 +16601,10 @@
         <v>20160</v>
       </c>
       <c r="B318" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C318" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -16606,10 +16612,10 @@
         <v>30010</v>
       </c>
       <c r="B319" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -16617,10 +16623,10 @@
         <v>30020</v>
       </c>
       <c r="B320" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C320" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="513">
   <si>
     <t>Id</t>
   </si>
@@ -57,10 +57,13 @@
     <t>-</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>自身のHpが〇%以下</t>
+  </si>
+  <si>
     <t>""</t>
-  </si>
-  <si>
-    <t>自身のHpが〇%以下</t>
   </si>
   <si>
     <t>自身のHpが&lt;color="green"&gt;100%&lt;/color&gt;未満</t>
@@ -1705,36 +1708,13 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1747,9 +1727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,6 +1741,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1769,34 +1756,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1807,9 +1771,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,6 +1794,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1838,10 +1817,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1854,10 +1842,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1870,13 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,13 +1891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,43 +1915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,13 +1939,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,61 +2053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,6 +2064,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2089,78 +2164,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2169,16 +2172,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2187,127 +2190,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2639,8 +2642,8 @@
   <sheetPr/>
   <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -5742,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5775,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -5808,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -5940,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -5973,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -6006,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -6039,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -6072,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -6105,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -6171,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6237,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -6270,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -6336,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -6369,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6435,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -6468,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -6501,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -6534,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -6567,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6633,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -6666,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -6699,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -6732,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -6765,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -13098,8 +13101,8 @@
   <sheetPr/>
   <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -13139,7 +13142,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:3">
@@ -13147,10 +13150,10 @@
         <v>1011</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="26" spans="1:3">
@@ -13158,10 +13161,10 @@
         <v>1012</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="26" spans="1:3">
@@ -13169,10 +13172,10 @@
         <v>1013</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:3">
@@ -13180,10 +13183,10 @@
         <v>1014</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13191,10 +13194,10 @@
         <v>1020</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="26" spans="1:3">
@@ -13202,10 +13205,10 @@
         <v>1021</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:3">
@@ -13213,10 +13216,10 @@
         <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="26" spans="1:3">
@@ -13224,10 +13227,10 @@
         <v>1023</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="26" spans="1:3">
@@ -13235,10 +13238,10 @@
         <v>1024</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13246,10 +13249,10 @@
         <v>1030</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:3">
@@ -13257,10 +13260,10 @@
         <v>1031</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:3">
@@ -13268,10 +13271,10 @@
         <v>1032</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:3">
@@ -13279,10 +13282,10 @@
         <v>1033</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:3">
@@ -13290,10 +13293,10 @@
         <v>1034</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:3">
@@ -13301,10 +13304,10 @@
         <v>1035</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:3">
@@ -13312,10 +13315,10 @@
         <v>1036</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:3">
@@ -13323,10 +13326,10 @@
         <v>1037</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="26" spans="1:3">
@@ -13334,10 +13337,10 @@
         <v>1038</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13345,10 +13348,10 @@
         <v>1040</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:3">
@@ -13356,10 +13359,10 @@
         <v>1041</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:3">
@@ -13367,10 +13370,10 @@
         <v>1042</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:3">
@@ -13378,10 +13381,10 @@
         <v>1043</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:3">
@@ -13389,10 +13392,10 @@
         <v>1044</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="26" spans="1:3">
@@ -13400,10 +13403,10 @@
         <v>1045</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="26" spans="1:3">
@@ -13411,10 +13414,10 @@
         <v>1046</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="26" spans="1:3">
@@ -13422,10 +13425,10 @@
         <v>1047</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="26" spans="1:3">
@@ -13433,10 +13436,10 @@
         <v>1048</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13444,10 +13447,10 @@
         <v>1050</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="26" spans="1:3">
@@ -13455,10 +13458,10 @@
         <v>1051</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="26" spans="1:3">
@@ -13466,10 +13469,10 @@
         <v>1052</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="26" spans="1:3">
@@ -13477,10 +13480,10 @@
         <v>1053</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" ht="26" spans="1:3">
@@ -13488,10 +13491,10 @@
         <v>1054</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="26" spans="1:3">
@@ -13499,10 +13502,10 @@
         <v>1055</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="26" spans="1:3">
@@ -13510,10 +13513,10 @@
         <v>1056</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="26" spans="1:3">
@@ -13521,10 +13524,10 @@
         <v>1057</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="26" spans="1:3">
@@ -13532,10 +13535,10 @@
         <v>1058</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -13543,10 +13546,10 @@
         <v>1060</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="26" spans="1:3">
@@ -13554,10 +13557,10 @@
         <v>1061</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" ht="26" spans="1:3">
@@ -13565,10 +13568,10 @@
         <v>1062</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" ht="26" spans="1:3">
@@ -13576,10 +13579,10 @@
         <v>1063</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="26" spans="1:3">
@@ -13587,10 +13590,10 @@
         <v>1064</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="26" spans="1:3">
@@ -13598,10 +13601,10 @@
         <v>1065</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="26" spans="1:3">
@@ -13609,10 +13612,10 @@
         <v>1066</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="26" spans="1:3">
@@ -13620,10 +13623,10 @@
         <v>1067</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="26" spans="1:3">
@@ -13631,10 +13634,10 @@
         <v>1068</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:3">
@@ -13642,10 +13645,10 @@
         <v>1130</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:3">
@@ -13653,10 +13656,10 @@
         <v>1131</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:3">
@@ -13664,10 +13667,10 @@
         <v>1140</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:3">
@@ -13675,10 +13678,10 @@
         <v>1141</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -13686,10 +13689,10 @@
         <v>1150</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:3">
@@ -13697,10 +13700,10 @@
         <v>1151</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:3">
@@ -13708,10 +13711,10 @@
         <v>1160</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:3">
@@ -13719,10 +13722,10 @@
         <v>1161</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -13730,10 +13733,10 @@
         <v>2010</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -13741,10 +13744,10 @@
         <v>3010</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="26" spans="1:3">
@@ -13752,10 +13755,10 @@
         <v>3011</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" ht="26" spans="1:3">
@@ -13763,10 +13766,10 @@
         <v>3012</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" ht="26" spans="1:3">
@@ -13774,10 +13777,10 @@
         <v>3013</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="26" spans="1:3">
@@ -13785,10 +13788,10 @@
         <v>3014</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -13796,10 +13799,10 @@
         <v>3020</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="26" spans="1:3">
@@ -13807,10 +13810,10 @@
         <v>3021</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="26" spans="1:3">
@@ -13818,10 +13821,10 @@
         <v>3022</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" ht="26" spans="1:3">
@@ -13829,10 +13832,10 @@
         <v>3023</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" ht="26" spans="1:3">
@@ -13840,10 +13843,10 @@
         <v>3024</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -13851,10 +13854,10 @@
         <v>3030</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="26" spans="1:3">
@@ -13862,10 +13865,10 @@
         <v>3031</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" ht="26" spans="1:3">
@@ -13873,10 +13876,10 @@
         <v>3032</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" ht="26" spans="1:3">
@@ -13884,10 +13887,10 @@
         <v>3033</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" ht="26" spans="1:3">
@@ -13895,10 +13898,10 @@
         <v>3034</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -13906,10 +13909,10 @@
         <v>3040</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="26" spans="1:3">
@@ -13917,10 +13920,10 @@
         <v>3041</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" ht="26" spans="1:3">
@@ -13928,10 +13931,10 @@
         <v>3042</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" ht="26" spans="1:3">
@@ -13939,10 +13942,10 @@
         <v>3043</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" ht="26" spans="1:3">
@@ -13950,10 +13953,10 @@
         <v>3044</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -13961,10 +13964,10 @@
         <v>3050</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="26" spans="1:3">
@@ -13972,10 +13975,10 @@
         <v>3051</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" ht="26" spans="1:3">
@@ -13983,10 +13986,10 @@
         <v>3052</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" ht="26" spans="1:3">
@@ -13994,10 +13997,10 @@
         <v>3053</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" ht="26" spans="1:3">
@@ -14005,10 +14008,10 @@
         <v>3054</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -14016,10 +14019,10 @@
         <v>3060</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" ht="26" spans="1:3">
@@ -14027,10 +14030,10 @@
         <v>3061</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" ht="26" spans="1:3">
@@ -14038,10 +14041,10 @@
         <v>3062</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" ht="26" spans="1:3">
@@ -14049,10 +14052,10 @@
         <v>3063</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" ht="26" spans="1:3">
@@ -14060,10 +14063,10 @@
         <v>3064</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -14071,10 +14074,10 @@
         <v>4010</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -14082,10 +14085,10 @@
         <v>4020</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -14093,10 +14096,10 @@
         <v>5010</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -14104,10 +14107,10 @@
         <v>5020</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -14115,10 +14118,10 @@
         <v>5030</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -14126,10 +14129,10 @@
         <v>5031</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" ht="26" spans="1:3">
@@ -14137,10 +14140,10 @@
         <v>5032</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -14148,10 +14151,10 @@
         <v>5040</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -14159,10 +14162,10 @@
         <v>5041</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" ht="26" spans="1:3">
@@ -14170,10 +14173,10 @@
         <v>5042</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -14181,10 +14184,10 @@
         <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -14192,10 +14195,10 @@
         <v>5051</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" ht="26" customHeight="1" spans="1:3">
@@ -14203,10 +14206,10 @@
         <v>5052</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -14214,10 +14217,10 @@
         <v>5060</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -14225,10 +14228,10 @@
         <v>5061</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" ht="26" spans="1:3">
@@ -14236,10 +14239,10 @@
         <v>5062</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:3">
@@ -14247,10 +14250,10 @@
         <v>5070</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:3">
@@ -14258,10 +14261,10 @@
         <v>5080</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:3">
@@ -14269,10 +14272,10 @@
         <v>5090</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:3">
@@ -14280,10 +14283,10 @@
         <v>5100</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:3">
@@ -14291,10 +14294,10 @@
         <v>5110</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" ht="26" spans="1:3">
@@ -14302,10 +14305,10 @@
         <v>5111</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" ht="26" spans="1:3">
@@ -14313,10 +14316,10 @@
         <v>5112</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:3">
@@ -14324,10 +14327,10 @@
         <v>5120</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" ht="26" spans="1:3">
@@ -14335,10 +14338,10 @@
         <v>5121</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" ht="26" spans="1:3">
@@ -14346,10 +14349,10 @@
         <v>5122</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:3">
@@ -14357,10 +14360,10 @@
         <v>5130</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" ht="26" spans="1:3">
@@ -14368,10 +14371,10 @@
         <v>5131</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" ht="26" spans="1:3">
@@ -14379,10 +14382,10 @@
         <v>5132</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" ht="26" spans="1:3">
@@ -14390,10 +14393,10 @@
         <v>5133</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" ht="26" spans="1:3">
@@ -14401,10 +14404,10 @@
         <v>5134</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" ht="26" spans="1:3">
@@ -14412,10 +14415,10 @@
         <v>5135</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:3">
@@ -14423,10 +14426,10 @@
         <v>5140</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" ht="26" spans="1:3">
@@ -14434,10 +14437,10 @@
         <v>5141</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" ht="26" spans="1:3">
@@ -14445,10 +14448,10 @@
         <v>5142</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" ht="26" spans="1:3">
@@ -14456,10 +14459,10 @@
         <v>5143</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" ht="26" spans="1:3">
@@ -14467,10 +14470,10 @@
         <v>5144</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" ht="26" spans="1:3">
@@ -14478,10 +14481,10 @@
         <v>5145</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -14489,10 +14492,10 @@
         <v>6010</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -14500,10 +14503,10 @@
         <v>6020</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -14511,10 +14514,10 @@
         <v>6030</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -14522,10 +14525,10 @@
         <v>6040</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -14533,10 +14536,10 @@
         <v>6050</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -14544,10 +14547,10 @@
         <v>6060</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -14555,10 +14558,10 @@
         <v>6110</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -14566,10 +14569,10 @@
         <v>6120</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" ht="26" spans="1:3">
@@ -14577,10 +14580,10 @@
         <v>6121</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -14588,10 +14591,10 @@
         <v>6130</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" ht="26" spans="1:3">
@@ -14599,10 +14602,10 @@
         <v>6131</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -14610,10 +14613,10 @@
         <v>6140</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" ht="26" spans="1:3">
@@ -14621,10 +14624,10 @@
         <v>6141</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -14632,10 +14635,10 @@
         <v>6150</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" ht="26" spans="1:3">
@@ -14643,10 +14646,10 @@
         <v>6151</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -14654,10 +14657,10 @@
         <v>6210</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" ht="26" spans="1:3">
@@ -14665,10 +14668,10 @@
         <v>6211</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -14676,10 +14679,10 @@
         <v>6220</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -14687,10 +14690,10 @@
         <v>6221</v>
       </c>
       <c r="B144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C144" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" ht="26" spans="1:3">
@@ -14698,10 +14701,10 @@
         <v>6222</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -14709,10 +14712,10 @@
         <v>6230</v>
       </c>
       <c r="B146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -14720,10 +14723,10 @@
         <v>6231</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" ht="26" spans="1:3">
@@ -14731,10 +14734,10 @@
         <v>6232</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -14742,10 +14745,10 @@
         <v>6240</v>
       </c>
       <c r="B149" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" ht="26" spans="1:3">
@@ -14753,10 +14756,10 @@
         <v>6241</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -14764,10 +14767,10 @@
         <v>6250</v>
       </c>
       <c r="B151" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" ht="26" spans="1:3">
@@ -14775,10 +14778,10 @@
         <v>6251</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -14786,10 +14789,10 @@
         <v>6310</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" ht="26" spans="1:3">
@@ -14797,10 +14800,10 @@
         <v>6311</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -14808,10 +14811,10 @@
         <v>6320</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -14819,10 +14822,10 @@
         <v>6321</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" ht="26" spans="1:3">
@@ -14830,10 +14833,10 @@
         <v>6322</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -14841,10 +14844,10 @@
         <v>6330</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -14852,10 +14855,10 @@
         <v>6331</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" ht="26" spans="1:3">
@@ -14863,10 +14866,10 @@
         <v>6332</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -14874,10 +14877,10 @@
         <v>6340</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" ht="26" spans="1:3">
@@ -14885,10 +14888,10 @@
         <v>6341</v>
       </c>
       <c r="B162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -14896,10 +14899,10 @@
         <v>6350</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" ht="26" spans="1:3">
@@ -14907,10 +14910,10 @@
         <v>6351</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" ht="26" spans="1:3">
@@ -14918,10 +14921,10 @@
         <v>6411</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" ht="26" spans="1:3">
@@ -14929,10 +14932,10 @@
         <v>6412</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" ht="26" spans="1:3">
@@ -14940,10 +14943,10 @@
         <v>6413</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" ht="26" spans="1:3">
@@ -14951,10 +14954,10 @@
         <v>6414</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" ht="26" spans="1:3">
@@ -14962,10 +14965,10 @@
         <v>6415</v>
       </c>
       <c r="B169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="170" ht="26" spans="1:3">
@@ -14973,10 +14976,10 @@
         <v>6416</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" ht="26" spans="1:3">
@@ -14984,10 +14987,10 @@
         <v>6511</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" ht="26" spans="1:3">
@@ -14995,10 +14998,10 @@
         <v>6512</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" ht="26" spans="1:3">
@@ -15006,10 +15009,10 @@
         <v>6513</v>
       </c>
       <c r="B173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" ht="26" spans="1:3">
@@ -15017,10 +15020,10 @@
         <v>6514</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" ht="26" spans="1:3">
@@ -15028,10 +15031,10 @@
         <v>6515</v>
       </c>
       <c r="B175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" ht="26" spans="1:3">
@@ -15039,10 +15042,10 @@
         <v>6516</v>
       </c>
       <c r="B176" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" ht="26" spans="1:3">
@@ -15050,10 +15053,10 @@
         <v>6611</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" ht="26" spans="1:3">
@@ -15061,10 +15064,10 @@
         <v>6612</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" ht="26" spans="1:3">
@@ -15072,10 +15075,10 @@
         <v>6613</v>
       </c>
       <c r="B179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" ht="26" spans="1:3">
@@ -15083,10 +15086,10 @@
         <v>6614</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" ht="26" spans="1:3">
@@ -15094,10 +15097,10 @@
         <v>6615</v>
       </c>
       <c r="B181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" ht="26" spans="1:3">
@@ -15105,10 +15108,10 @@
         <v>6616</v>
       </c>
       <c r="B182" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" ht="26" spans="1:3">
@@ -15116,10 +15119,10 @@
         <v>6711</v>
       </c>
       <c r="B183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" ht="26" spans="1:3">
@@ -15127,10 +15130,10 @@
         <v>6712</v>
       </c>
       <c r="B184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185" ht="26" spans="1:3">
@@ -15138,10 +15141,10 @@
         <v>6713</v>
       </c>
       <c r="B185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" ht="26" spans="1:3">
@@ -15149,10 +15152,10 @@
         <v>6714</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" ht="26" spans="1:3">
@@ -15160,10 +15163,10 @@
         <v>6715</v>
       </c>
       <c r="B187" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" ht="26" spans="1:3">
@@ -15171,10 +15174,10 @@
         <v>6716</v>
       </c>
       <c r="B188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -15182,10 +15185,10 @@
         <v>7010</v>
       </c>
       <c r="B189" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" customFormat="1" ht="26" spans="1:3">
@@ -15193,10 +15196,10 @@
         <v>7011</v>
       </c>
       <c r="B190" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -15204,10 +15207,10 @@
         <v>7020</v>
       </c>
       <c r="B191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" customFormat="1" ht="26" spans="1:3">
@@ -15215,10 +15218,10 @@
         <v>7021</v>
       </c>
       <c r="B192" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -15226,10 +15229,10 @@
         <v>7030</v>
       </c>
       <c r="B193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:3">
@@ -15237,10 +15240,10 @@
         <v>7031</v>
       </c>
       <c r="B194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" customFormat="1" ht="26" spans="1:3">
@@ -15248,10 +15251,10 @@
         <v>7032</v>
       </c>
       <c r="B195" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" customFormat="1" spans="1:3">
@@ -15259,10 +15262,10 @@
         <v>7040</v>
       </c>
       <c r="B196" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" customFormat="1" spans="1:3">
@@ -15270,10 +15273,10 @@
         <v>7041</v>
       </c>
       <c r="B197" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" customFormat="1" ht="26" spans="1:3">
@@ -15281,10 +15284,10 @@
         <v>7042</v>
       </c>
       <c r="B198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" customFormat="1" spans="1:3">
@@ -15292,10 +15295,10 @@
         <v>7050</v>
       </c>
       <c r="B199" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" customFormat="1" spans="1:3">
@@ -15303,10 +15306,10 @@
         <v>7051</v>
       </c>
       <c r="B200" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" customFormat="1" ht="26" spans="1:3">
@@ -15314,10 +15317,10 @@
         <v>7052</v>
       </c>
       <c r="B201" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:3">
@@ -15325,10 +15328,10 @@
         <v>7060</v>
       </c>
       <c r="B202" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" customFormat="1" spans="1:3">
@@ -15336,10 +15339,10 @@
         <v>7061</v>
       </c>
       <c r="B203" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" customFormat="1" ht="26" spans="1:3">
@@ -15347,10 +15350,10 @@
         <v>7062</v>
       </c>
       <c r="B204" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -15358,10 +15361,10 @@
         <v>8010</v>
       </c>
       <c r="B205" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" ht="12" customHeight="1" spans="1:3">
@@ -15369,10 +15372,10 @@
         <v>8020</v>
       </c>
       <c r="B206" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -15380,10 +15383,10 @@
         <v>8030</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" ht="26" spans="1:3">
@@ -15391,10 +15394,10 @@
         <v>8031</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" ht="26" spans="1:3">
@@ -15402,10 +15405,10 @@
         <v>8032</v>
       </c>
       <c r="B209" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="210" ht="26" spans="1:3">
@@ -15413,10 +15416,10 @@
         <v>8033</v>
       </c>
       <c r="B210" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211" ht="26" spans="1:3">
@@ -15424,10 +15427,10 @@
         <v>8034</v>
       </c>
       <c r="B211" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" ht="12" customHeight="1" spans="1:3">
@@ -15435,10 +15438,10 @@
         <v>8040</v>
       </c>
       <c r="B212" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" ht="26" spans="1:3">
@@ -15446,10 +15449,10 @@
         <v>8041</v>
       </c>
       <c r="B213" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="214" ht="26" spans="1:3">
@@ -15457,10 +15460,10 @@
         <v>8042</v>
       </c>
       <c r="B214" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="215" ht="26" spans="1:3">
@@ -15468,10 +15471,10 @@
         <v>8043</v>
       </c>
       <c r="B215" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" ht="26" spans="1:3">
@@ -15479,10 +15482,10 @@
         <v>8044</v>
       </c>
       <c r="B216" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -15490,10 +15493,10 @@
         <v>8050</v>
       </c>
       <c r="B217" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" ht="26" spans="1:3">
@@ -15501,10 +15504,10 @@
         <v>8051</v>
       </c>
       <c r="B218" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="219" ht="26" spans="1:3">
@@ -15512,10 +15515,10 @@
         <v>8052</v>
       </c>
       <c r="B219" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="220" ht="26" spans="1:3">
@@ -15523,10 +15526,10 @@
         <v>8053</v>
       </c>
       <c r="B220" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" ht="26" spans="1:3">
@@ -15534,10 +15537,10 @@
         <v>8054</v>
       </c>
       <c r="B221" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="222" ht="12" customHeight="1" spans="1:3">
@@ -15545,10 +15548,10 @@
         <v>8060</v>
       </c>
       <c r="B222" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" ht="26" spans="1:3">
@@ -15556,10 +15559,10 @@
         <v>8061</v>
       </c>
       <c r="B223" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" ht="26" spans="1:3">
@@ -15567,10 +15570,10 @@
         <v>8062</v>
       </c>
       <c r="B224" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" ht="26" spans="1:3">
@@ -15578,10 +15581,10 @@
         <v>8063</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="226" ht="26" spans="1:3">
@@ -15589,10 +15592,10 @@
         <v>8064</v>
       </c>
       <c r="B226" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -15600,10 +15603,10 @@
         <v>9010</v>
       </c>
       <c r="B227" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -15611,10 +15614,10 @@
         <v>9020</v>
       </c>
       <c r="B228" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" ht="26" spans="1:3">
@@ -15622,10 +15625,10 @@
         <v>9021</v>
       </c>
       <c r="B229" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" ht="26" spans="1:3">
@@ -15633,10 +15636,10 @@
         <v>9022</v>
       </c>
       <c r="B230" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="231" ht="26" spans="1:3">
@@ -15644,10 +15647,10 @@
         <v>9023</v>
       </c>
       <c r="B231" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" ht="26" spans="1:3">
@@ -15655,10 +15658,10 @@
         <v>9024</v>
       </c>
       <c r="B232" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" ht="26" spans="1:3">
@@ -15666,10 +15669,10 @@
         <v>9025</v>
       </c>
       <c r="B233" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -15677,10 +15680,10 @@
         <v>9030</v>
       </c>
       <c r="B234" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" ht="26" spans="1:3">
@@ -15688,10 +15691,10 @@
         <v>9031</v>
       </c>
       <c r="B235" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="236" ht="26" spans="1:3">
@@ -15699,10 +15702,10 @@
         <v>9032</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" ht="26" spans="1:3">
@@ -15710,10 +15713,10 @@
         <v>9033</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" ht="26" spans="1:3">
@@ -15721,10 +15724,10 @@
         <v>9034</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -15732,10 +15735,10 @@
         <v>9040</v>
       </c>
       <c r="B239" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" ht="26" spans="1:3">
@@ -15743,10 +15746,10 @@
         <v>9110</v>
       </c>
       <c r="B240" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="241" ht="26" spans="1:3">
@@ -15754,10 +15757,10 @@
         <v>9120</v>
       </c>
       <c r="B241" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -15765,10 +15768,10 @@
         <v>10010</v>
       </c>
       <c r="B242" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C242" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -15776,10 +15779,10 @@
         <v>10020</v>
       </c>
       <c r="B243" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -15787,10 +15790,10 @@
         <v>11010</v>
       </c>
       <c r="B244" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -15798,10 +15801,10 @@
         <v>12020</v>
       </c>
       <c r="B245" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -15809,10 +15812,10 @@
         <v>12030</v>
       </c>
       <c r="B246" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -15820,10 +15823,10 @@
         <v>12040</v>
       </c>
       <c r="B247" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -15831,10 +15834,10 @@
         <v>12050</v>
       </c>
       <c r="B248" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -15842,10 +15845,10 @@
         <v>13010</v>
       </c>
       <c r="B249" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -15853,10 +15856,10 @@
         <v>13020</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -15864,10 +15867,10 @@
         <v>13021</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -15875,10 +15878,10 @@
         <v>13022</v>
       </c>
       <c r="B252" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C252" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -15886,10 +15889,10 @@
         <v>13023</v>
       </c>
       <c r="B253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C253" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -15897,10 +15900,10 @@
         <v>13024</v>
       </c>
       <c r="B254" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -15908,10 +15911,10 @@
         <v>13025</v>
       </c>
       <c r="B255" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C255" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -15919,10 +15922,10 @@
         <v>13026</v>
       </c>
       <c r="B256" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C256" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -15930,10 +15933,10 @@
         <v>13027</v>
       </c>
       <c r="B257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C257" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -15941,10 +15944,10 @@
         <v>13028</v>
       </c>
       <c r="B258" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C258" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" ht="26" spans="1:3">
@@ -15952,10 +15955,10 @@
         <v>13031</v>
       </c>
       <c r="B259" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="260" ht="26" spans="1:3">
@@ -15963,10 +15966,10 @@
         <v>13032</v>
       </c>
       <c r="B260" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" ht="26" spans="1:3">
@@ -15974,10 +15977,10 @@
         <v>13033</v>
       </c>
       <c r="B261" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="262" ht="26" spans="1:3">
@@ -15985,10 +15988,10 @@
         <v>13034</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="263" ht="26" spans="1:3">
@@ -15996,10 +15999,10 @@
         <v>13035</v>
       </c>
       <c r="B263" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="264" ht="26" spans="1:3">
@@ -16007,10 +16010,10 @@
         <v>13036</v>
       </c>
       <c r="B264" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="265" ht="26" spans="1:3">
@@ -16018,10 +16021,10 @@
         <v>13037</v>
       </c>
       <c r="B265" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="266" ht="26" spans="1:3">
@@ -16029,10 +16032,10 @@
         <v>13038</v>
       </c>
       <c r="B266" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -16040,10 +16043,10 @@
         <v>14010</v>
       </c>
       <c r="B267" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C267" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -16051,10 +16054,10 @@
         <v>14011</v>
       </c>
       <c r="B268" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C268" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -16062,10 +16065,10 @@
         <v>14012</v>
       </c>
       <c r="B269" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C269" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -16073,10 +16076,10 @@
         <v>14013</v>
       </c>
       <c r="B270" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C270" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -16084,10 +16087,10 @@
         <v>14014</v>
       </c>
       <c r="B271" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C271" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -16095,10 +16098,10 @@
         <v>14015</v>
       </c>
       <c r="B272" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C272" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -16106,10 +16109,10 @@
         <v>14110</v>
       </c>
       <c r="B273" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -16117,10 +16120,10 @@
         <v>14111</v>
       </c>
       <c r="B274" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C274" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -16128,10 +16131,10 @@
         <v>14112</v>
       </c>
       <c r="B275" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C275" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -16139,10 +16142,10 @@
         <v>14113</v>
       </c>
       <c r="B276" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C276" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -16150,10 +16153,10 @@
         <v>14114</v>
       </c>
       <c r="B277" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C277" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -16161,10 +16164,10 @@
         <v>14115</v>
       </c>
       <c r="B278" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C278" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -16172,10 +16175,10 @@
         <v>14210</v>
       </c>
       <c r="B279" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C279" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -16183,10 +16186,10 @@
         <v>14211</v>
       </c>
       <c r="B280" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C280" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -16194,10 +16197,10 @@
         <v>14212</v>
       </c>
       <c r="B281" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C281" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -16205,10 +16208,10 @@
         <v>14213</v>
       </c>
       <c r="B282" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C282" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -16216,10 +16219,10 @@
         <v>14214</v>
       </c>
       <c r="B283" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C283" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -16227,10 +16230,10 @@
         <v>14215</v>
       </c>
       <c r="B284" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C284" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -16238,10 +16241,10 @@
         <v>14310</v>
       </c>
       <c r="B285" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C285" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -16249,10 +16252,10 @@
         <v>14311</v>
       </c>
       <c r="B286" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C286" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -16260,10 +16263,10 @@
         <v>14312</v>
       </c>
       <c r="B287" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C287" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -16271,10 +16274,10 @@
         <v>14313</v>
       </c>
       <c r="B288" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C288" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -16282,10 +16285,10 @@
         <v>14314</v>
       </c>
       <c r="B289" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C289" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -16293,10 +16296,10 @@
         <v>14315</v>
       </c>
       <c r="B290" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C290" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -16304,10 +16307,10 @@
         <v>19010</v>
       </c>
       <c r="B291" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C291" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" ht="26" spans="1:3">
@@ -16315,10 +16318,10 @@
         <v>19011</v>
       </c>
       <c r="B292" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" ht="26" spans="1:3">
@@ -16326,10 +16329,10 @@
         <v>19012</v>
       </c>
       <c r="B293" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -16337,10 +16340,10 @@
         <v>19020</v>
       </c>
       <c r="B294" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C294" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" ht="26" spans="1:3">
@@ -16348,10 +16351,10 @@
         <v>19021</v>
       </c>
       <c r="B295" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="296" ht="26" spans="1:3">
@@ -16359,10 +16362,10 @@
         <v>19022</v>
       </c>
       <c r="B296" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="297" ht="26" spans="1:3">
@@ -16370,10 +16373,10 @@
         <v>19023</v>
       </c>
       <c r="B297" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="298" ht="26" spans="1:3">
@@ -16381,10 +16384,10 @@
         <v>19024</v>
       </c>
       <c r="B298" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" ht="26" spans="1:3">
@@ -16392,10 +16395,10 @@
         <v>19025</v>
       </c>
       <c r="B299" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="300" ht="26" spans="1:3">
@@ -16403,10 +16406,10 @@
         <v>19026</v>
       </c>
       <c r="B300" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="301" ht="26" spans="1:3">
@@ -16414,10 +16417,10 @@
         <v>19027</v>
       </c>
       <c r="B301" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="302" ht="26" spans="1:3">
@@ -16425,10 +16428,10 @@
         <v>19028</v>
       </c>
       <c r="B302" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -16436,10 +16439,10 @@
         <v>20010</v>
       </c>
       <c r="B303" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C303" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -16447,10 +16450,10 @@
         <v>20020</v>
       </c>
       <c r="B304" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C304" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -16458,10 +16461,10 @@
         <v>20030</v>
       </c>
       <c r="B305" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C305" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -16469,10 +16472,10 @@
         <v>20040</v>
       </c>
       <c r="B306" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C306" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -16480,10 +16483,10 @@
         <v>20050</v>
       </c>
       <c r="B307" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C307" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -16491,10 +16494,10 @@
         <v>20060</v>
       </c>
       <c r="B308" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C308" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -16502,10 +16505,10 @@
         <v>20070</v>
       </c>
       <c r="B309" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C309" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -16513,10 +16516,10 @@
         <v>20080</v>
       </c>
       <c r="B310" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C310" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -16524,10 +16527,10 @@
         <v>20090</v>
       </c>
       <c r="B311" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C311" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -16535,10 +16538,10 @@
         <v>20100</v>
       </c>
       <c r="B312" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C312" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -16546,10 +16549,10 @@
         <v>20110</v>
       </c>
       <c r="B313" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C313" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -16557,10 +16560,10 @@
         <v>20120</v>
       </c>
       <c r="B314" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C314" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -16568,10 +16571,10 @@
         <v>20130</v>
       </c>
       <c r="B315" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C315" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -16579,10 +16582,10 @@
         <v>20140</v>
       </c>
       <c r="B316" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C316" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -16590,10 +16593,10 @@
         <v>20150</v>
       </c>
       <c r="B317" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C317" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -16601,10 +16604,10 @@
         <v>20160</v>
       </c>
       <c r="B318" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C318" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -16612,10 +16615,10 @@
         <v>30010</v>
       </c>
       <c r="B319" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C319" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -16623,10 +16626,10 @@
         <v>30020</v>
       </c>
       <c r="B320" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C320" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SkillTrigger.xlsx
+++ b/Assets/Data/SkillTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTrigger" sheetId="1" r:id="rId1"/>
@@ -1707,9 +1707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1728,24 +1728,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1756,72 +1741,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1842,8 +1766,76 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1853,6 +1845,14 @@
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1873,79 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,7 +1891,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,19 +1993,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,60 +2054,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,8 +2070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2130,15 +2130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2150,6 +2141,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,7 +2172,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2181,7 +2181,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2190,127 +2190,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
    